--- a/docs/TarockBlock_database.xlsx
+++ b/docs/TarockBlock_database.xlsx
@@ -1998,7 +1998,9 @@
   </sheetPr>
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/docs/TarockBlock_database.xlsx
+++ b/docs/TarockBlock_database.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="11" r:id="rId1"/>
     <sheet name="database 2.0" sheetId="12" r:id="rId2"/>
     <sheet name="dpi" sheetId="10" r:id="rId3"/>
+    <sheet name="Default_Tables" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="260">
   <si>
     <t>POINTS</t>
   </si>
@@ -700,6 +701,102 @@
   </si>
   <si>
     <t>GT_RESULT_NAME</t>
+  </si>
+  <si>
+    <t>TarockBlock</t>
+  </si>
+  <si>
+    <t>Solorufer</t>
+  </si>
+  <si>
+    <t>Besserrufer (+Vogel)</t>
+  </si>
+  <si>
+    <t>Farbendreier</t>
+  </si>
+  <si>
+    <t>Bettler ouvert</t>
+  </si>
+  <si>
+    <t>Farbensolo</t>
+  </si>
+  <si>
+    <t>Solodreier</t>
+  </si>
+  <si>
+    <t>Pagat</t>
+  </si>
+  <si>
+    <t>Uhu</t>
+  </si>
+  <si>
+    <t>Kakadu</t>
+  </si>
+  <si>
+    <t>König ultimo</t>
+  </si>
+  <si>
+    <t>Trull</t>
+  </si>
+  <si>
+    <t>4 Könige</t>
+  </si>
+  <si>
+    <t>Piccolo</t>
+  </si>
+  <si>
+    <t>Zwiccolo</t>
+  </si>
+  <si>
+    <t>Piccolo ouvert</t>
+  </si>
+  <si>
+    <t>Zwiccolo ouvert</t>
+  </si>
+  <si>
+    <t>Wiener Tarockcup</t>
+  </si>
+  <si>
+    <t>Raiffeisencup/Hausruckcup</t>
+  </si>
+  <si>
+    <t>Trischaken</t>
+  </si>
+  <si>
+    <t>Sechserdreier</t>
+  </si>
+  <si>
+    <t>Königrufer</t>
+  </si>
+  <si>
+    <t>Bettel</t>
+  </si>
+  <si>
+    <t>A-Rufer (+Vogel)</t>
+  </si>
+  <si>
+    <t>Bettel ouvert</t>
+  </si>
+  <si>
+    <t>Quapil</t>
+  </si>
+  <si>
+    <t>Mortkontra (16x)</t>
+  </si>
+  <si>
+    <t>1. Sack (≥45/2)</t>
+  </si>
+  <si>
+    <t>2. Sack (≥55/2)</t>
+  </si>
+  <si>
+    <t>Tiroler Tarockcup</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x8</t>
   </si>
 </sst>
 </file>
@@ -710,7 +807,7 @@
     <numFmt numFmtId="164" formatCode="General&quot;dpi&quot;"/>
     <numFmt numFmtId="165" formatCode="General&quot;dp&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,8 +880,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +928,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -999,6 +1115,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Header" xfId="1"/>
@@ -1308,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Tabelle1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I53"/>
@@ -1993,13 +2118,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2534,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="29" t="str">
@@ -2725,7 +2850,7 @@
         <v>16</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="AD15" s="2" t="str">
         <f>$O$30</f>
@@ -2870,7 +2995,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="32" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="29" t="str">
@@ -3013,7 +3138,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="32" t="s">
         <v>131</v>
       </c>
       <c r="C25" s="29" t="str">
@@ -3144,7 +3269,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="32" t="s">
         <v>176</v>
       </c>
       <c r="B30" s="16"/>
@@ -3483,6 +3608,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3803,4 +3929,2197 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1:AA60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="31"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" style="31" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="31">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31">
+        <v>8</v>
+      </c>
+      <c r="H2" s="31">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="31">
+        <v>4</v>
+      </c>
+      <c r="L2" s="31">
+        <v>1</v>
+      </c>
+      <c r="M2" s="31">
+        <v>10</v>
+      </c>
+      <c r="P2" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S2" s="31">
+        <v>1</v>
+      </c>
+      <c r="T2" s="31">
+        <v>0</v>
+      </c>
+      <c r="U2" s="31">
+        <v>10</v>
+      </c>
+      <c r="V2" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="31">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
+        <v>8</v>
+      </c>
+      <c r="H3" s="31">
+        <v>2</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="31">
+        <v>1</v>
+      </c>
+      <c r="L3" s="31">
+        <v>1</v>
+      </c>
+      <c r="M3" s="31">
+        <v>10</v>
+      </c>
+      <c r="P3" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>236</v>
+      </c>
+      <c r="S3" s="31">
+        <v>1</v>
+      </c>
+      <c r="T3" s="31">
+        <v>0</v>
+      </c>
+      <c r="U3" s="31">
+        <v>20</v>
+      </c>
+      <c r="V3" s="31">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="31">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>8</v>
+      </c>
+      <c r="H4" s="31">
+        <v>3</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="31">
+        <v>2</v>
+      </c>
+      <c r="L4" s="31">
+        <v>1</v>
+      </c>
+      <c r="M4" s="31">
+        <v>30</v>
+      </c>
+      <c r="P4" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S4" s="31">
+        <v>1</v>
+      </c>
+      <c r="T4" s="31">
+        <v>0</v>
+      </c>
+      <c r="U4" s="31">
+        <v>30</v>
+      </c>
+      <c r="V4" s="31">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="31">
+        <v>4</v>
+      </c>
+      <c r="E5" s="31">
+        <v>8</v>
+      </c>
+      <c r="H5" s="31">
+        <v>4</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="31">
+        <v>4</v>
+      </c>
+      <c r="L5" s="31">
+        <v>2</v>
+      </c>
+      <c r="M5" s="31">
+        <v>10</v>
+      </c>
+      <c r="P5" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
+      <c r="T5" s="31">
+        <v>0</v>
+      </c>
+      <c r="U5" s="31">
+        <v>10</v>
+      </c>
+      <c r="V5" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H6" s="31">
+        <v>5</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="31">
+        <v>4</v>
+      </c>
+      <c r="L6" s="31">
+        <v>2</v>
+      </c>
+      <c r="M6" s="31">
+        <v>10</v>
+      </c>
+      <c r="P6" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="31">
+        <v>1</v>
+      </c>
+      <c r="T6" s="31">
+        <v>1</v>
+      </c>
+      <c r="U6" s="31">
+        <v>10</v>
+      </c>
+      <c r="V6" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H7" s="31">
+        <v>6</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="31">
+        <v>1</v>
+      </c>
+      <c r="L7" s="31">
+        <v>4</v>
+      </c>
+      <c r="M7" s="31">
+        <v>20</v>
+      </c>
+      <c r="P7" s="31">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S7" s="31">
+        <v>1</v>
+      </c>
+      <c r="T7" s="31">
+        <v>0</v>
+      </c>
+      <c r="U7" s="31">
+        <v>10</v>
+      </c>
+      <c r="V7" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H8" s="31">
+        <v>7</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="31">
+        <v>1</v>
+      </c>
+      <c r="L8" s="31">
+        <v>5</v>
+      </c>
+      <c r="M8" s="31">
+        <v>10</v>
+      </c>
+      <c r="P8" s="31">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>240</v>
+      </c>
+      <c r="S8" s="31">
+        <v>2</v>
+      </c>
+      <c r="T8" s="31">
+        <v>0</v>
+      </c>
+      <c r="U8" s="31">
+        <v>10</v>
+      </c>
+      <c r="V8" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H9" s="31">
+        <v>8</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="31">
+        <v>4</v>
+      </c>
+      <c r="L9" s="31">
+        <v>3</v>
+      </c>
+      <c r="M9" s="31">
+        <v>30</v>
+      </c>
+      <c r="P9" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>255</v>
+      </c>
+      <c r="S9" s="31">
+        <v>3</v>
+      </c>
+      <c r="T9" s="31">
+        <v>0</v>
+      </c>
+      <c r="U9" s="31">
+        <v>10</v>
+      </c>
+      <c r="V9" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H10" s="31">
+        <v>9</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="31">
+        <v>3</v>
+      </c>
+      <c r="L10" s="31">
+        <v>0</v>
+      </c>
+      <c r="M10" s="31">
+        <v>40</v>
+      </c>
+      <c r="P10" s="31">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>256</v>
+      </c>
+      <c r="S10" s="31">
+        <v>3</v>
+      </c>
+      <c r="T10" s="31">
+        <v>0</v>
+      </c>
+      <c r="U10" s="31">
+        <v>20</v>
+      </c>
+      <c r="V10" s="31">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H11" s="31">
+        <v>10</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="31">
+        <v>2</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <v>40</v>
+      </c>
+      <c r="P11" s="31">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="31">
+        <v>3</v>
+      </c>
+      <c r="T11" s="31">
+        <v>0</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y11" s="31">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H12" s="31">
+        <v>11</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>243</v>
+      </c>
+      <c r="K12" s="31">
+        <v>4</v>
+      </c>
+      <c r="L12" s="31">
+        <v>2</v>
+      </c>
+      <c r="M12" s="31">
+        <v>50</v>
+      </c>
+      <c r="P12" s="31">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>235</v>
+      </c>
+      <c r="S12" s="31">
+        <v>1</v>
+      </c>
+      <c r="T12" s="31">
+        <v>0</v>
+      </c>
+      <c r="U12" s="31">
+        <v>10</v>
+      </c>
+      <c r="V12" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="31">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H13" s="31">
+        <v>12</v>
+      </c>
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="31">
+        <v>4</v>
+      </c>
+      <c r="L13" s="31">
+        <v>2</v>
+      </c>
+      <c r="M13" s="31">
+        <v>50</v>
+      </c>
+      <c r="P13" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>236</v>
+      </c>
+      <c r="S13" s="31">
+        <v>1</v>
+      </c>
+      <c r="T13" s="31">
+        <v>0</v>
+      </c>
+      <c r="U13" s="31">
+        <v>20</v>
+      </c>
+      <c r="V13" s="31">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H14" s="31">
+        <v>13</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="31">
+        <v>4</v>
+      </c>
+      <c r="L14" s="31">
+        <v>3</v>
+      </c>
+      <c r="M14" s="31">
+        <v>70</v>
+      </c>
+      <c r="P14" s="31">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>237</v>
+      </c>
+      <c r="S14" s="31">
+        <v>1</v>
+      </c>
+      <c r="T14" s="31">
+        <v>0</v>
+      </c>
+      <c r="U14" s="31">
+        <v>30</v>
+      </c>
+      <c r="V14" s="31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H15" s="31">
+        <v>14</v>
+      </c>
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="31">
+        <v>3</v>
+      </c>
+      <c r="L15" s="31">
+        <v>4</v>
+      </c>
+      <c r="M15" s="31">
+        <v>80</v>
+      </c>
+      <c r="P15" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>253</v>
+      </c>
+      <c r="S15" s="31">
+        <v>1</v>
+      </c>
+      <c r="T15" s="31">
+        <v>0</v>
+      </c>
+      <c r="U15" s="31">
+        <v>40</v>
+      </c>
+      <c r="V15" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H16" s="31">
+        <v>15</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="31">
+        <v>2</v>
+      </c>
+      <c r="L16" s="31">
+        <v>4</v>
+      </c>
+      <c r="M16" s="31">
+        <v>80</v>
+      </c>
+      <c r="P16" s="31">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>238</v>
+      </c>
+      <c r="S16" s="31">
+        <v>2</v>
+      </c>
+      <c r="T16" s="31">
+        <v>0</v>
+      </c>
+      <c r="U16" s="31">
+        <v>10</v>
+      </c>
+      <c r="V16" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H17" s="31">
+        <v>16</v>
+      </c>
+      <c r="I17" s="31">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="31">
+        <v>4</v>
+      </c>
+      <c r="L17" s="31">
+        <v>1</v>
+      </c>
+      <c r="M17" s="31">
+        <v>10</v>
+      </c>
+      <c r="P17" s="31">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>239</v>
+      </c>
+      <c r="S17" s="31">
+        <v>1</v>
+      </c>
+      <c r="T17" s="31">
+        <v>0</v>
+      </c>
+      <c r="U17" s="31">
+        <v>10</v>
+      </c>
+      <c r="V17" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H18" s="31">
+        <v>17</v>
+      </c>
+      <c r="I18" s="31">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="31">
+        <v>1</v>
+      </c>
+      <c r="L18" s="31">
+        <v>1</v>
+      </c>
+      <c r="M18" s="31">
+        <v>10</v>
+      </c>
+      <c r="P18" s="31">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>240</v>
+      </c>
+      <c r="S18" s="31">
+        <v>2</v>
+      </c>
+      <c r="T18" s="31">
+        <v>0</v>
+      </c>
+      <c r="U18" s="31">
+        <v>10</v>
+      </c>
+      <c r="V18" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H19" s="31">
+        <v>18</v>
+      </c>
+      <c r="I19" s="31">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="31">
+        <v>2</v>
+      </c>
+      <c r="L19" s="31">
+        <v>1</v>
+      </c>
+      <c r="M19" s="31">
+        <v>50</v>
+      </c>
+      <c r="P19" s="31">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="31">
+        <v>3</v>
+      </c>
+      <c r="T19" s="31">
+        <v>0</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="V19" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H20" s="31">
+        <v>19</v>
+      </c>
+      <c r="I20" s="31">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="31">
+        <v>4</v>
+      </c>
+      <c r="L20" s="31">
+        <v>2</v>
+      </c>
+      <c r="M20" s="31">
+        <v>20</v>
+      </c>
+      <c r="P20" s="31">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>235</v>
+      </c>
+      <c r="S20" s="31">
+        <v>1</v>
+      </c>
+      <c r="T20" s="31">
+        <v>0</v>
+      </c>
+      <c r="U20" s="31">
+        <v>10</v>
+      </c>
+      <c r="V20" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H21" s="31">
+        <v>20</v>
+      </c>
+      <c r="I21" s="31">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K21" s="31">
+        <v>4</v>
+      </c>
+      <c r="L21" s="31">
+        <v>2</v>
+      </c>
+      <c r="M21" s="31">
+        <v>20</v>
+      </c>
+      <c r="P21" s="31">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>236</v>
+      </c>
+      <c r="S21" s="31">
+        <v>1</v>
+      </c>
+      <c r="T21" s="31">
+        <v>0</v>
+      </c>
+      <c r="U21" s="31">
+        <v>20</v>
+      </c>
+      <c r="V21" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H22" s="31">
+        <v>21</v>
+      </c>
+      <c r="I22" s="31">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="31">
+        <v>1</v>
+      </c>
+      <c r="L22" s="31">
+        <v>4</v>
+      </c>
+      <c r="M22" s="31">
+        <v>20</v>
+      </c>
+      <c r="P22" s="31">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>237</v>
+      </c>
+      <c r="S22" s="31">
+        <v>1</v>
+      </c>
+      <c r="T22" s="31">
+        <v>0</v>
+      </c>
+      <c r="U22" s="31">
+        <v>30</v>
+      </c>
+      <c r="V22" s="31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H23" s="31">
+        <v>22</v>
+      </c>
+      <c r="I23" s="31">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="31">
+        <v>1</v>
+      </c>
+      <c r="L23" s="31">
+        <v>5</v>
+      </c>
+      <c r="M23" s="31">
+        <v>30</v>
+      </c>
+      <c r="P23" s="31">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="31">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>253</v>
+      </c>
+      <c r="S23" s="31">
+        <v>1</v>
+      </c>
+      <c r="T23" s="31">
+        <v>0</v>
+      </c>
+      <c r="U23" s="31">
+        <v>40</v>
+      </c>
+      <c r="V23" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H24" s="31">
+        <v>23</v>
+      </c>
+      <c r="I24" s="31">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="31">
+        <v>4</v>
+      </c>
+      <c r="L24" s="31">
+        <v>3</v>
+      </c>
+      <c r="M24" s="31">
+        <v>40</v>
+      </c>
+      <c r="P24" s="31">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>238</v>
+      </c>
+      <c r="S24" s="31">
+        <v>2</v>
+      </c>
+      <c r="T24" s="31">
+        <v>0</v>
+      </c>
+      <c r="U24" s="31">
+        <v>10</v>
+      </c>
+      <c r="V24" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H25" s="31">
+        <v>24</v>
+      </c>
+      <c r="I25" s="31">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="31">
+        <v>1</v>
+      </c>
+      <c r="L25" s="31">
+        <v>5</v>
+      </c>
+      <c r="M25" s="31">
+        <v>50</v>
+      </c>
+      <c r="P25" s="31">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="31">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>239</v>
+      </c>
+      <c r="S25" s="31">
+        <v>1</v>
+      </c>
+      <c r="T25" s="31">
+        <v>0</v>
+      </c>
+      <c r="U25" s="31">
+        <v>10</v>
+      </c>
+      <c r="V25" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H26" s="31">
+        <v>25</v>
+      </c>
+      <c r="I26" s="31">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="31">
+        <v>3</v>
+      </c>
+      <c r="L26" s="31">
+        <v>0</v>
+      </c>
+      <c r="M26" s="31">
+        <v>50</v>
+      </c>
+      <c r="P26" s="31">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>240</v>
+      </c>
+      <c r="S26" s="31">
+        <v>2</v>
+      </c>
+      <c r="T26" s="31">
+        <v>0</v>
+      </c>
+      <c r="U26" s="31">
+        <v>10</v>
+      </c>
+      <c r="V26" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H27" s="31">
+        <v>26</v>
+      </c>
+      <c r="I27" s="31">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="31">
+        <v>2</v>
+      </c>
+      <c r="L27" s="31">
+        <v>0</v>
+      </c>
+      <c r="M27" s="31">
+        <v>50</v>
+      </c>
+      <c r="P27" s="31">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="31">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="31">
+        <v>3</v>
+      </c>
+      <c r="T27" s="31">
+        <v>0</v>
+      </c>
+      <c r="U27" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="V27" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H28" s="31">
+        <v>27</v>
+      </c>
+      <c r="I28" s="31">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" s="31">
+        <v>4</v>
+      </c>
+      <c r="L28" s="31">
+        <v>2</v>
+      </c>
+      <c r="M28" s="31">
+        <v>60</v>
+      </c>
+      <c r="P28" s="31">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
+        <v>235</v>
+      </c>
+      <c r="S28" s="31">
+        <v>1</v>
+      </c>
+      <c r="T28" s="31">
+        <v>0</v>
+      </c>
+      <c r="U28" s="31">
+        <v>10</v>
+      </c>
+      <c r="V28" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H29" s="31">
+        <v>28</v>
+      </c>
+      <c r="I29" s="31">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" s="31">
+        <v>4</v>
+      </c>
+      <c r="L29" s="31">
+        <v>2</v>
+      </c>
+      <c r="M29" s="31">
+        <v>60</v>
+      </c>
+      <c r="P29" s="31">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>236</v>
+      </c>
+      <c r="S29" s="31">
+        <v>1</v>
+      </c>
+      <c r="T29" s="31">
+        <v>0</v>
+      </c>
+      <c r="U29" s="31">
+        <v>20</v>
+      </c>
+      <c r="V29" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H30" s="31">
+        <v>29</v>
+      </c>
+      <c r="I30" s="31">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="31">
+        <v>1</v>
+      </c>
+      <c r="L30" s="31">
+        <v>5</v>
+      </c>
+      <c r="M30" s="31">
+        <v>70</v>
+      </c>
+      <c r="P30" s="31">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>237</v>
+      </c>
+      <c r="S30" s="31">
+        <v>1</v>
+      </c>
+      <c r="T30" s="31">
+        <v>0</v>
+      </c>
+      <c r="U30" s="31">
+        <v>30</v>
+      </c>
+      <c r="V30" s="31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H31" s="31">
+        <v>30</v>
+      </c>
+      <c r="I31" s="31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" s="31">
+        <v>4</v>
+      </c>
+      <c r="L31" s="31">
+        <v>3</v>
+      </c>
+      <c r="M31" s="31">
+        <v>80</v>
+      </c>
+      <c r="P31" s="31">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s">
+        <v>253</v>
+      </c>
+      <c r="S31" s="31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="31">
+        <v>0</v>
+      </c>
+      <c r="U31" s="31">
+        <v>40</v>
+      </c>
+      <c r="V31" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H32" s="31">
+        <v>31</v>
+      </c>
+      <c r="I32" s="31">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="31">
+        <v>1</v>
+      </c>
+      <c r="L32" s="31">
+        <v>5</v>
+      </c>
+      <c r="M32" s="31">
+        <v>90</v>
+      </c>
+      <c r="P32" s="31">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s">
+        <v>238</v>
+      </c>
+      <c r="S32" s="31">
+        <v>2</v>
+      </c>
+      <c r="T32" s="31">
+        <v>0</v>
+      </c>
+      <c r="U32" s="31">
+        <v>10</v>
+      </c>
+      <c r="V32" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H33" s="31">
+        <v>32</v>
+      </c>
+      <c r="I33" s="31">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="31">
+        <v>3</v>
+      </c>
+      <c r="L33" s="31">
+        <v>4</v>
+      </c>
+      <c r="M33" s="31">
+        <v>100</v>
+      </c>
+      <c r="P33" s="31">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="31">
+        <v>1</v>
+      </c>
+      <c r="T33" s="31">
+        <v>1</v>
+      </c>
+      <c r="U33" s="31">
+        <v>10</v>
+      </c>
+      <c r="V33" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H34" s="31">
+        <v>33</v>
+      </c>
+      <c r="I34" s="31">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="31">
+        <v>2</v>
+      </c>
+      <c r="L34" s="31">
+        <v>4</v>
+      </c>
+      <c r="M34" s="31">
+        <v>100</v>
+      </c>
+      <c r="P34" s="31">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s">
+        <v>239</v>
+      </c>
+      <c r="S34" s="31">
+        <v>1</v>
+      </c>
+      <c r="T34" s="31">
+        <v>0</v>
+      </c>
+      <c r="U34" s="31">
+        <v>10</v>
+      </c>
+      <c r="V34" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H35" s="31">
+        <v>34</v>
+      </c>
+      <c r="I35" s="31">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="31">
+        <v>4</v>
+      </c>
+      <c r="L35" s="31">
+        <v>1</v>
+      </c>
+      <c r="M35" s="31">
+        <v>10</v>
+      </c>
+      <c r="P35" s="31">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="31">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S35" s="31">
+        <v>2</v>
+      </c>
+      <c r="T35" s="31">
+        <v>0</v>
+      </c>
+      <c r="U35" s="31">
+        <v>10</v>
+      </c>
+      <c r="V35" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H36" s="31">
+        <v>35</v>
+      </c>
+      <c r="I36" s="31">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="31">
+        <v>1</v>
+      </c>
+      <c r="L36" s="31">
+        <v>1</v>
+      </c>
+      <c r="M36" s="31">
+        <v>10</v>
+      </c>
+      <c r="P36" s="31">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s">
+        <v>255</v>
+      </c>
+      <c r="S36" s="31">
+        <v>3</v>
+      </c>
+      <c r="T36" s="31">
+        <v>0</v>
+      </c>
+      <c r="U36" s="31">
+        <v>0</v>
+      </c>
+      <c r="V36" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H37" s="31">
+        <v>36</v>
+      </c>
+      <c r="I37" s="31">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" s="31">
+        <v>2</v>
+      </c>
+      <c r="L37" s="31">
+        <v>1</v>
+      </c>
+      <c r="M37" s="31">
+        <v>40</v>
+      </c>
+      <c r="P37" s="31">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s">
+        <v>256</v>
+      </c>
+      <c r="S37" s="31">
+        <v>3</v>
+      </c>
+      <c r="T37" s="31">
+        <v>0</v>
+      </c>
+      <c r="U37" s="31">
+        <v>0</v>
+      </c>
+      <c r="V37" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H38" s="31">
+        <v>37</v>
+      </c>
+      <c r="I38" s="31">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" s="31">
+        <v>4</v>
+      </c>
+      <c r="L38" s="31">
+        <v>2</v>
+      </c>
+      <c r="M38" s="31">
+        <v>20</v>
+      </c>
+      <c r="P38" s="31">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="31">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="31">
+        <v>3</v>
+      </c>
+      <c r="T38" s="31">
+        <v>0</v>
+      </c>
+      <c r="U38" s="31">
+        <v>150</v>
+      </c>
+      <c r="V38" s="31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H39" s="31">
+        <v>38</v>
+      </c>
+      <c r="I39" s="31">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39" s="31">
+        <v>4</v>
+      </c>
+      <c r="L39" s="31">
+        <v>3</v>
+      </c>
+      <c r="M39" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H40" s="31">
+        <v>39</v>
+      </c>
+      <c r="I40" s="31">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>229</v>
+      </c>
+      <c r="K40" s="31">
+        <v>1</v>
+      </c>
+      <c r="L40" s="31">
+        <v>4</v>
+      </c>
+      <c r="M40" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H41" s="31">
+        <v>40</v>
+      </c>
+      <c r="I41" s="31">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" s="31">
+        <v>1</v>
+      </c>
+      <c r="L41" s="31">
+        <v>5</v>
+      </c>
+      <c r="M41" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H42" s="31">
+        <v>41</v>
+      </c>
+      <c r="I42" s="31">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="31">
+        <v>2</v>
+      </c>
+      <c r="L42" s="31">
+        <v>0</v>
+      </c>
+      <c r="M42" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H43" s="31">
+        <v>42</v>
+      </c>
+      <c r="I43" s="31">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K43" s="31">
+        <v>3</v>
+      </c>
+      <c r="L43" s="31">
+        <v>4</v>
+      </c>
+      <c r="M43" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H44" s="31">
+        <v>43</v>
+      </c>
+      <c r="I44" s="31">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" s="31">
+        <v>4</v>
+      </c>
+      <c r="L44" s="31">
+        <v>2</v>
+      </c>
+      <c r="M44" s="31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H45" s="31">
+        <v>44</v>
+      </c>
+      <c r="I45" s="31">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="31">
+        <v>4</v>
+      </c>
+      <c r="L45" s="31">
+        <v>3</v>
+      </c>
+      <c r="M45" s="31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H46" s="31">
+        <v>45</v>
+      </c>
+      <c r="I46" s="31">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="31">
+        <v>2</v>
+      </c>
+      <c r="L46" s="31">
+        <v>4</v>
+      </c>
+      <c r="M46" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H47" s="31">
+        <v>46</v>
+      </c>
+      <c r="I47" s="31">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="31">
+        <v>1</v>
+      </c>
+      <c r="L47" s="31">
+        <v>1</v>
+      </c>
+      <c r="M47" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H48" s="31">
+        <v>47</v>
+      </c>
+      <c r="I48" s="31">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>247</v>
+      </c>
+      <c r="K48" s="31">
+        <v>4</v>
+      </c>
+      <c r="L48" s="31">
+        <v>1</v>
+      </c>
+      <c r="M48" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H49" s="31">
+        <v>48</v>
+      </c>
+      <c r="I49" s="31">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>248</v>
+      </c>
+      <c r="K49" s="31">
+        <v>2</v>
+      </c>
+      <c r="L49" s="31">
+        <v>1</v>
+      </c>
+      <c r="M49" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H50" s="31">
+        <v>49</v>
+      </c>
+      <c r="I50" s="31">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>241</v>
+      </c>
+      <c r="K50" s="31">
+        <v>4</v>
+      </c>
+      <c r="L50" s="31">
+        <v>2</v>
+      </c>
+      <c r="M50" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H51" s="31">
+        <v>50</v>
+      </c>
+      <c r="I51" s="31">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>229</v>
+      </c>
+      <c r="K51" s="31">
+        <v>1</v>
+      </c>
+      <c r="L51" s="31">
+        <v>4</v>
+      </c>
+      <c r="M51" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H52" s="31">
+        <v>51</v>
+      </c>
+      <c r="I52" s="31">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>230</v>
+      </c>
+      <c r="K52" s="31">
+        <v>1</v>
+      </c>
+      <c r="L52" s="31">
+        <v>5</v>
+      </c>
+      <c r="M52" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H53" s="31">
+        <v>52</v>
+      </c>
+      <c r="I53" s="31">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>250</v>
+      </c>
+      <c r="K53" s="31">
+        <v>4</v>
+      </c>
+      <c r="L53" s="31">
+        <v>3</v>
+      </c>
+      <c r="M53" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="31">
+        <v>53</v>
+      </c>
+      <c r="I54" s="31">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>231</v>
+      </c>
+      <c r="K54" s="31">
+        <v>3</v>
+      </c>
+      <c r="L54" s="31">
+        <v>0</v>
+      </c>
+      <c r="M54" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="31">
+        <v>54</v>
+      </c>
+      <c r="I55" s="31">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="31">
+        <v>2</v>
+      </c>
+      <c r="L55" s="31">
+        <v>0</v>
+      </c>
+      <c r="M55" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="31">
+        <v>55</v>
+      </c>
+      <c r="I56" s="31">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K56" s="31">
+        <v>4</v>
+      </c>
+      <c r="L56" s="31">
+        <v>2</v>
+      </c>
+      <c r="M56" s="31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="31">
+        <v>56</v>
+      </c>
+      <c r="I57" s="31">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>244</v>
+      </c>
+      <c r="K57" s="31">
+        <v>4</v>
+      </c>
+      <c r="L57" s="31">
+        <v>2</v>
+      </c>
+      <c r="M57" s="31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H58" s="31">
+        <v>57</v>
+      </c>
+      <c r="I58" s="31">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>252</v>
+      </c>
+      <c r="K58" s="31">
+        <v>4</v>
+      </c>
+      <c r="L58" s="31">
+        <v>3</v>
+      </c>
+      <c r="M58" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H59" s="31">
+        <v>58</v>
+      </c>
+      <c r="I59" s="31">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>233</v>
+      </c>
+      <c r="K59" s="31">
+        <v>3</v>
+      </c>
+      <c r="L59" s="31">
+        <v>4</v>
+      </c>
+      <c r="M59" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H60" s="31">
+        <v>59</v>
+      </c>
+      <c r="I60" s="31">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>234</v>
+      </c>
+      <c r="K60" s="31">
+        <v>2</v>
+      </c>
+      <c r="L60" s="31">
+        <v>4</v>
+      </c>
+      <c r="M60" s="31">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/TarockBlock_database.xlsx
+++ b/docs/TarockBlock_database.xlsx
@@ -1003,7 +1003,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,12 +1043,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1275,9 +1269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1315,14 +1306,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2323,9 +2314,7 @@
   </sheetPr>
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2347,12 +2336,12 @@
     <col min="16" max="16" width="4.28515625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.28515625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="8.5703125" customWidth="1"/>
     <col min="26" max="26" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2514,7 +2503,7 @@
       <c r="AB2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="41" t="s">
         <v>238</v>
       </c>
       <c r="AE2" s="2" t="s">
@@ -2578,7 +2567,7 @@
       <c r="W3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X3" s="32" t="str">
+      <c r="X3" s="31" t="str">
         <f t="shared" ref="X3:X7" si="5">U3&amp;" "&amp;W3&amp;IF(U4="",");",", ")</f>
         <v xml:space="preserve">ta_ts_id NUMERIC, </v>
       </c>
@@ -2588,7 +2577,7 @@
       <c r="AB3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="40" t="s">
         <v>239</v>
       </c>
       <c r="AE3" s="2" t="str">
@@ -2644,7 +2633,7 @@
       <c r="W4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="X4" s="32" t="str">
+      <c r="X4" s="31" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">ta_name TEXT, </v>
       </c>
@@ -2654,7 +2643,7 @@
       <c r="AB4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AC4" s="41" t="s">
+      <c r="AC4" s="40" t="s">
         <v>239</v>
       </c>
       <c r="AE4" s="2" t="str">
@@ -2701,7 +2690,7 @@
       <c r="W5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X5" s="32" t="str">
+      <c r="X5" s="31" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">ta_type1 NUMERIC, </v>
       </c>
@@ -2729,7 +2718,7 @@
       <c r="W6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X6" s="32" t="str">
+      <c r="X6" s="31" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">ta_type2 NUMERIC, </v>
       </c>
@@ -2749,7 +2738,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="28" t="str">
@@ -2766,7 +2755,7 @@
       <c r="W7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X7" s="32" t="str">
+      <c r="X7" s="31" t="str">
         <f t="shared" si="5"/>
         <v>ta_value NUMERIC);</v>
       </c>
@@ -2934,7 +2923,7 @@
       <c r="W12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X12" s="32" t="str">
+      <c r="X12" s="31" t="str">
         <f t="shared" ref="X12:X17" si="8">U12&amp;" "&amp;W12&amp;IF(U13="",");",", ")</f>
         <v xml:space="preserve">pr_ts_id NUMERIC, </v>
       </c>
@@ -2972,7 +2961,7 @@
       <c r="W13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="X13" s="32" t="str">
+      <c r="X13" s="31" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">pr_name TEXT, </v>
       </c>
@@ -3018,7 +3007,7 @@
       <c r="W14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X14" s="32" t="str">
+      <c r="X14" s="31" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">pr_type1 NUMERIC, </v>
       </c>
@@ -3060,7 +3049,7 @@
       <c r="W15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X15" s="32" t="str">
+      <c r="X15" s="31" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">pr_type2 NUMERIC, </v>
       </c>
@@ -3094,7 +3083,7 @@
       <c r="W16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="X16" s="32" t="str">
+      <c r="X16" s="31" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">pr_value_silent TEXT, </v>
       </c>
@@ -3139,7 +3128,7 @@
       <c r="W17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="X17" s="32" t="str">
+      <c r="X17" s="31" t="str">
         <f t="shared" si="8"/>
         <v>pr_value_called TEXT);</v>
       </c>
@@ -3284,7 +3273,7 @@
       <c r="W22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="X22" s="32" t="str">
+      <c r="X22" s="31" t="str">
         <f t="shared" ref="X22:X24" si="11">U22&amp;" "&amp;W22&amp;IF(U23="",");",", ")</f>
         <v xml:space="preserve">tr_ts_id NUMERIC, </v>
       </c>
@@ -3303,11 +3292,11 @@
       <c r="U23" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="V23" s="32"/>
+      <c r="V23" s="31"/>
       <c r="W23" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="X23" s="32" t="str">
+      <c r="X23" s="31" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">tr qid NUMERIC, </v>
       </c>
@@ -3342,7 +3331,7 @@
       <c r="W24" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="32" t="str">
+      <c r="X24" s="31" t="str">
         <f t="shared" si="11"/>
         <v>tr_value NUMERIC);</v>
       </c>
@@ -4534,7 +4523,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4545,34 +4534,34 @@
     <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="30"/>
-    <col min="6" max="6" width="4.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" style="30" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" customWidth="1"/>
+    <col min="31" max="34" width="14.28515625" style="31" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="31"/>
+    <col min="36" max="39" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>125</v>
       </c>
@@ -4588,68 +4577,84 @@
       <c r="E1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>126</v>
       </c>
+      <c r="H1" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="I1" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="K1" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="L1" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>134</v>
       </c>
+      <c r="Q1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="S1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE1" s="31" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES"</f>
+        <v>INSERT INTO tariffset VALUES</v>
+      </c>
+      <c r="AF1" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES"</f>
+        <v>INSERT INTO tariff VALUES</v>
+      </c>
+      <c r="AG1" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES"</f>
+        <v>INSERT INTO premium VALUES</v>
+      </c>
+      <c r="AH1" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES"</f>
+        <v>INSERT INTO trischaken VALUES</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" s="30">
         <v>1</v>
       </c>
@@ -4662,75 +4667,91 @@
       <c r="E2" s="30">
         <v>8</v>
       </c>
-      <c r="F2" s="32" t="str">
+      <c r="H2" s="30">
+        <v>1</v>
+      </c>
+      <c r="I2" s="30">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="30">
+        <v>4</v>
+      </c>
+      <c r="L2" s="30">
+        <v>1</v>
+      </c>
+      <c r="M2" s="30">
+        <v>10</v>
+      </c>
+      <c r="P2" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="30">
+        <v>1</v>
+      </c>
+      <c r="T2" s="30">
+        <v>0</v>
+      </c>
+      <c r="U2" s="30">
+        <v>10</v>
+      </c>
+      <c r="V2" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="31" t="str">
+        <f>"("&amp;B2&amp;",'"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;")"&amp;IF(B3="",");",", ")</f>
+        <v xml:space="preserve">(1,'TarockBlock',2,8), </v>
+      </c>
+      <c r="AF2" s="31" t="str">
+        <f>"("&amp;H2&amp;","&amp;I2&amp;",'"&amp;J2&amp;"',"&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;")"&amp;IF(H3="",");",", ")</f>
+        <v xml:space="preserve">(1,1,'Trischaken',4,1,10), </v>
+      </c>
+      <c r="AG2" s="31" t="str">
+        <f>"("&amp;P2&amp;","&amp;Q2&amp;",'"&amp;R2&amp;"',"&amp;S2&amp;","&amp;T2&amp;",'"&amp;U2&amp;"','"&amp;V2&amp;"')"&amp;IF(P3="",");",", ")</f>
+        <v xml:space="preserve">(1,1,'Pagat',1,0,'10','20'), </v>
+      </c>
+      <c r="AH2" s="31" t="str">
+        <f>"("&amp;Y2&amp;","&amp;Z2&amp;","&amp;AA2&amp;","&amp;AB2&amp;")"&amp;IF(Y3="",");",", ")</f>
+        <v xml:space="preserve">(1,1,1,1), </v>
+      </c>
+      <c r="AJ2" s="31" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B2&amp;",'"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;");"</f>
         <v>INSERT INTO tariffset VALUES(1,'TarockBlock',2,8);</v>
       </c>
-      <c r="I2" s="30">
-        <v>1</v>
-      </c>
-      <c r="J2" s="30">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="30">
-        <v>4</v>
-      </c>
-      <c r="M2" s="30">
-        <v>1</v>
-      </c>
-      <c r="N2" s="30">
-        <v>10</v>
-      </c>
-      <c r="O2" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I2&amp;","&amp;J2&amp;",'"&amp;K2&amp;"',"&amp;L2&amp;","&amp;M2&amp;","&amp;N2&amp;");"</f>
+      <c r="AK2" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H2&amp;","&amp;I2&amp;",'"&amp;J2&amp;"',"&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;");"</f>
         <v>INSERT INTO tariff VALUES(1,1,'Trischaken',4,1,10);</v>
       </c>
-      <c r="R2" s="30">
-        <v>1</v>
-      </c>
-      <c r="S2" s="30">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>183</v>
-      </c>
-      <c r="U2" s="30">
-        <v>1</v>
-      </c>
-      <c r="V2" s="30">
-        <v>0</v>
-      </c>
-      <c r="W2" s="30">
-        <v>10</v>
-      </c>
-      <c r="X2" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R2&amp;","&amp;S2&amp;",'"&amp;T2&amp;"',"&amp;U2&amp;","&amp;V2&amp;",'"&amp;W2&amp;"','"&amp;X2&amp;"');"</f>
+      <c r="AL2" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P2&amp;","&amp;Q2&amp;",'"&amp;R2&amp;"',"&amp;S2&amp;","&amp;T2&amp;",'"&amp;U2&amp;"','"&amp;V2&amp;"');"</f>
         <v>INSERT INTO premium VALUES(1,1,'Pagat',1,0,'10','20');</v>
       </c>
-      <c r="AB2" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB2&amp;","&amp;AC2&amp;","&amp;AD2&amp;","&amp;AE2&amp;");"</f>
+      <c r="AM2" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y2&amp;","&amp;Z2&amp;","&amp;AA2&amp;","&amp;AB2&amp;");"</f>
         <v>INSERT INTO trischaken VALUES(1,1,1,1);</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B3" s="30">
         <v>2</v>
       </c>
@@ -4743,75 +4764,91 @@
       <c r="E3" s="30">
         <v>8</v>
       </c>
-      <c r="F3" s="32" t="str">
+      <c r="H3" s="30">
+        <v>2</v>
+      </c>
+      <c r="I3" s="30">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="30">
+        <v>1</v>
+      </c>
+      <c r="L3" s="30">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30">
+        <v>10</v>
+      </c>
+      <c r="P3" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="30">
+        <v>1</v>
+      </c>
+      <c r="T3" s="30">
+        <v>0</v>
+      </c>
+      <c r="U3" s="30">
+        <v>20</v>
+      </c>
+      <c r="V3" s="30">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="31" t="str">
+        <f t="shared" ref="AE3:AE8" si="0">"("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;")"&amp;IF(B4="",");",", ")</f>
+        <v xml:space="preserve">(2,'Wiener Zeitung Cup',1,8), </v>
+      </c>
+      <c r="AF3" s="31" t="str">
+        <f t="shared" ref="AF3:AF66" si="1">"("&amp;H3&amp;","&amp;I3&amp;",'"&amp;J3&amp;"',"&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;")"&amp;IF(H4="",");",", ")</f>
+        <v xml:space="preserve">(2,1,'Königrufer',1,1,10), </v>
+      </c>
+      <c r="AG3" s="31" t="str">
+        <f t="shared" ref="AG3:AG65" si="2">"("&amp;P3&amp;","&amp;Q3&amp;",'"&amp;R3&amp;"',"&amp;S3&amp;","&amp;T3&amp;",'"&amp;U3&amp;"','"&amp;V3&amp;"')"&amp;IF(P4="",");",", ")</f>
+        <v xml:space="preserve">(2,1,'Uhu',1,0,'20','40'), </v>
+      </c>
+      <c r="AH3" s="31" t="str">
+        <f t="shared" ref="AH3:AH17" si="3">"("&amp;Y3&amp;","&amp;Z3&amp;","&amp;AA3&amp;","&amp;AB3&amp;")"&amp;IF(Y4="",");",", ")</f>
+        <v xml:space="preserve">(2,1,2,2), </v>
+      </c>
+      <c r="AJ3" s="31" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;");"</f>
         <v>INSERT INTO tariffset VALUES(2,'Wiener Zeitung Cup',1,8);</v>
       </c>
-      <c r="I3" s="30">
-        <v>2</v>
-      </c>
-      <c r="J3" s="30">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L3" s="30">
-        <v>1</v>
-      </c>
-      <c r="M3" s="30">
-        <v>1</v>
-      </c>
-      <c r="N3" s="30">
-        <v>10</v>
-      </c>
-      <c r="O3" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I3&amp;","&amp;J3&amp;",'"&amp;K3&amp;"',"&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;");"</f>
+      <c r="AK3" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H3&amp;","&amp;I3&amp;",'"&amp;J3&amp;"',"&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;");"</f>
         <v>INSERT INTO tariff VALUES(2,1,'Königrufer',1,1,10);</v>
       </c>
-      <c r="R3" s="30">
-        <v>2</v>
-      </c>
-      <c r="S3" s="30">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>184</v>
-      </c>
-      <c r="U3" s="30">
-        <v>1</v>
-      </c>
-      <c r="V3" s="30">
-        <v>0</v>
-      </c>
-      <c r="W3" s="30">
-        <v>20</v>
-      </c>
-      <c r="X3" s="30">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"',"&amp;U3&amp;","&amp;V3&amp;",'"&amp;W3&amp;"','"&amp;X3&amp;"');"</f>
+      <c r="AL3" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P3&amp;","&amp;Q3&amp;",'"&amp;R3&amp;"',"&amp;S3&amp;","&amp;T3&amp;",'"&amp;U3&amp;"','"&amp;V3&amp;"');"</f>
         <v>INSERT INTO premium VALUES(2,1,'Uhu',1,0,'20','40');</v>
       </c>
-      <c r="AB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="34">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB3&amp;","&amp;AC3&amp;","&amp;AD3&amp;","&amp;AE3&amp;");"</f>
+      <c r="AM3" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y3&amp;","&amp;Z3&amp;","&amp;AA3&amp;","&amp;AB3&amp;");"</f>
         <v>INSERT INTO trischaken VALUES(2,1,2,2);</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -4824,75 +4861,91 @@
       <c r="E4" s="30">
         <v>8</v>
       </c>
-      <c r="F4" s="32" t="str">
+      <c r="H4" s="30">
+        <v>3</v>
+      </c>
+      <c r="I4" s="30">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="30">
+        <v>2</v>
+      </c>
+      <c r="L4" s="30">
+        <v>1</v>
+      </c>
+      <c r="M4" s="30">
+        <v>30</v>
+      </c>
+      <c r="P4" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S4" s="30">
+        <v>1</v>
+      </c>
+      <c r="T4" s="30">
+        <v>0</v>
+      </c>
+      <c r="U4" s="30">
+        <v>30</v>
+      </c>
+      <c r="V4" s="30">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(3,'Raiffeisencup/Hausruckcup',1,8), </v>
+      </c>
+      <c r="AF4" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(3,1,'Sechserdreier',2,1,30), </v>
+      </c>
+      <c r="AG4" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(3,1,'Kakadu',1,0,'30','60'), </v>
+      </c>
+      <c r="AH4" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(3,1,3,2), </v>
+      </c>
+      <c r="AJ4" s="31" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B4&amp;",'"&amp;C4&amp;"',"&amp;D4&amp;","&amp;E4&amp;");"</f>
         <v>INSERT INTO tariffset VALUES(3,'Raiffeisencup/Hausruckcup',1,8);</v>
       </c>
-      <c r="I4" s="30">
-        <v>3</v>
-      </c>
-      <c r="J4" s="30">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" s="30">
-        <v>2</v>
-      </c>
-      <c r="M4" s="30">
-        <v>1</v>
-      </c>
-      <c r="N4" s="30">
-        <v>30</v>
-      </c>
-      <c r="O4" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I4&amp;","&amp;J4&amp;",'"&amp;K4&amp;"',"&amp;L4&amp;","&amp;M4&amp;","&amp;N4&amp;");"</f>
+      <c r="AK4" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H4&amp;","&amp;I4&amp;",'"&amp;J4&amp;"',"&amp;K4&amp;","&amp;L4&amp;","&amp;M4&amp;");"</f>
         <v>INSERT INTO tariff VALUES(3,1,'Sechserdreier',2,1,30);</v>
       </c>
-      <c r="R4" s="30">
-        <v>3</v>
-      </c>
-      <c r="S4" s="30">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>185</v>
-      </c>
-      <c r="U4" s="30">
-        <v>1</v>
-      </c>
-      <c r="V4" s="30">
-        <v>0</v>
-      </c>
-      <c r="W4" s="30">
-        <v>30</v>
-      </c>
-      <c r="X4" s="30">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R4&amp;","&amp;S4&amp;",'"&amp;T4&amp;"',"&amp;U4&amp;","&amp;V4&amp;",'"&amp;W4&amp;"','"&amp;X4&amp;"');"</f>
+      <c r="AL4" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P4&amp;","&amp;Q4&amp;",'"&amp;R4&amp;"',"&amp;S4&amp;","&amp;T4&amp;",'"&amp;U4&amp;"','"&amp;V4&amp;"');"</f>
         <v>INSERT INTO premium VALUES(3,1,'Kakadu',1,0,'30','60');</v>
       </c>
-      <c r="AB4" s="30">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="34">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB4&amp;","&amp;AC4&amp;","&amp;AD4&amp;","&amp;AE4&amp;");"</f>
+      <c r="AM4" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y4&amp;","&amp;Z4&amp;","&amp;AA4&amp;","&amp;AB4&amp;");"</f>
         <v>INSERT INTO trischaken VALUES(3,1,3,2);</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
         <v>4</v>
       </c>
@@ -4905,75 +4958,91 @@
       <c r="E5" s="30">
         <v>8</v>
       </c>
-      <c r="F5" s="32" t="str">
+      <c r="H5" s="30">
+        <v>4</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="30">
+        <v>4</v>
+      </c>
+      <c r="L5" s="30">
+        <v>2</v>
+      </c>
+      <c r="M5" s="30">
+        <v>10</v>
+      </c>
+      <c r="P5" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="30">
+        <v>2</v>
+      </c>
+      <c r="T5" s="30">
+        <v>0</v>
+      </c>
+      <c r="U5" s="30">
+        <v>10</v>
+      </c>
+      <c r="V5" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(4,'Tiroler Tarockcup',4,8), </v>
+      </c>
+      <c r="AF5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(4,1,'Piccolo',4,2,10), </v>
+      </c>
+      <c r="AG5" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(4,1,'König ultimo',2,0,'10','20'), </v>
+      </c>
+      <c r="AH5" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(4,2,1,1), </v>
+      </c>
+      <c r="AJ5" s="31" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B5&amp;",'"&amp;C5&amp;"',"&amp;D5&amp;","&amp;E5&amp;");"</f>
         <v>INSERT INTO tariffset VALUES(4,'Tiroler Tarockcup',4,8);</v>
       </c>
-      <c r="I5" s="30">
-        <v>4</v>
-      </c>
-      <c r="J5" s="30">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="30">
-        <v>4</v>
-      </c>
-      <c r="M5" s="30">
-        <v>2</v>
-      </c>
-      <c r="N5" s="30">
-        <v>10</v>
-      </c>
-      <c r="O5" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I5&amp;","&amp;J5&amp;",'"&amp;K5&amp;"',"&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;");"</f>
+      <c r="AK5" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H5&amp;","&amp;I5&amp;",'"&amp;J5&amp;"',"&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;");"</f>
         <v>INSERT INTO tariff VALUES(4,1,'Piccolo',4,2,10);</v>
       </c>
-      <c r="R5" s="30">
-        <v>4</v>
-      </c>
-      <c r="S5" s="30">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>186</v>
-      </c>
-      <c r="U5" s="30">
-        <v>2</v>
-      </c>
-      <c r="V5" s="30">
-        <v>0</v>
-      </c>
-      <c r="W5" s="30">
-        <v>10</v>
-      </c>
-      <c r="X5" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R5&amp;","&amp;S5&amp;",'"&amp;T5&amp;"',"&amp;U5&amp;","&amp;V5&amp;",'"&amp;W5&amp;"','"&amp;X5&amp;"');"</f>
+      <c r="AL5" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P5&amp;","&amp;Q5&amp;",'"&amp;R5&amp;"',"&amp;S5&amp;","&amp;T5&amp;",'"&amp;U5&amp;"','"&amp;V5&amp;"');"</f>
         <v>INSERT INTO premium VALUES(4,1,'König ultimo',2,0,'10','20');</v>
       </c>
-      <c r="AB5" s="30">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="30">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB5&amp;","&amp;AC5&amp;","&amp;AD5&amp;","&amp;AE5&amp;");"</f>
+      <c r="AM5" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y5&amp;","&amp;Z5&amp;","&amp;AA5&amp;","&amp;AB5&amp;");"</f>
         <v>INSERT INTO trischaken VALUES(4,2,1,1);</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" s="30">
         <v>5</v>
       </c>
@@ -4986,3055 +5055,3559 @@
       <c r="E6" s="30">
         <v>4</v>
       </c>
-      <c r="F6" s="32" t="str">
+      <c r="H6" s="30">
+        <v>5</v>
+      </c>
+      <c r="I6" s="30">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="30">
+        <v>4</v>
+      </c>
+      <c r="L6" s="30">
+        <v>2</v>
+      </c>
+      <c r="M6" s="30">
+        <v>10</v>
+      </c>
+      <c r="P6" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="30">
+        <v>1</v>
+      </c>
+      <c r="T6" s="30">
+        <v>1</v>
+      </c>
+      <c r="U6" s="30">
+        <v>10</v>
+      </c>
+      <c r="V6" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'Steirischer Tarockcup',2,4));</v>
+      </c>
+      <c r="AF6" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(5,1,'Zwiccolo',4,2,10), </v>
+      </c>
+      <c r="AG6" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(5,1,'Mondfang',1,1,'10','20'), </v>
+      </c>
+      <c r="AH6" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(5,2,2,2), </v>
+      </c>
+      <c r="AJ6" s="31" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B6&amp;",'"&amp;C6&amp;"',"&amp;D6&amp;","&amp;E6&amp;");"</f>
         <v>INSERT INTO tariffset VALUES(5,'Steirischer Tarockcup',2,4);</v>
       </c>
-      <c r="I6" s="30">
+      <c r="AK6" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H6&amp;","&amp;I6&amp;",'"&amp;J6&amp;"',"&amp;K6&amp;","&amp;L6&amp;","&amp;M6&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(5,1,'Zwiccolo',4,2,10);</v>
+      </c>
+      <c r="AL6" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P6&amp;","&amp;Q6&amp;",'"&amp;R6&amp;"',"&amp;S6&amp;","&amp;T6&amp;",'"&amp;U6&amp;"','"&amp;V6&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(5,1,'Mondfang',1,1,'10','20');</v>
+      </c>
+      <c r="AM6" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y6&amp;","&amp;Z6&amp;","&amp;AA6&amp;","&amp;AB6&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(5,2,2,2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H7" s="30">
+        <v>6</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30">
+        <v>4</v>
+      </c>
+      <c r="M7" s="30">
+        <v>20</v>
+      </c>
+      <c r="P7" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="30">
+        <v>1</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
+        <v>10</v>
+      </c>
+      <c r="V7" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(6,1,'Solorufer',1,4,20), </v>
+      </c>
+      <c r="AG7" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(6,1,'Trull',1,0,'10','20'), </v>
+      </c>
+      <c r="AH7" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(6,2,3,2), </v>
+      </c>
+      <c r="AK7" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H7&amp;","&amp;I7&amp;",'"&amp;J7&amp;"',"&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(6,1,'Solorufer',1,4,20);</v>
+      </c>
+      <c r="AL7" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P7&amp;","&amp;Q7&amp;",'"&amp;R7&amp;"',"&amp;S7&amp;","&amp;T7&amp;",'"&amp;U7&amp;"','"&amp;V7&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(6,1,'Trull',1,0,'10','20');</v>
+      </c>
+      <c r="AM7" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y7&amp;","&amp;Z7&amp;","&amp;AA7&amp;","&amp;AB7&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(6,2,3,2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H8" s="30">
+        <v>7</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="30">
+        <v>1</v>
+      </c>
+      <c r="L8" s="30">
         <v>5</v>
       </c>
-      <c r="J6" s="30">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M8" s="30">
+        <v>10</v>
+      </c>
+      <c r="P8" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="30">
+        <v>2</v>
+      </c>
+      <c r="T8" s="30">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30">
+        <v>10</v>
+      </c>
+      <c r="V8" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(7,1,'Besserrufer (+Vogel)',1,5,10), </v>
+      </c>
+      <c r="AG8" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(7,1,'4 Könige',2,0,'10','20'), </v>
+      </c>
+      <c r="AH8" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(7,3,1,1), </v>
+      </c>
+      <c r="AK8" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H8&amp;","&amp;I8&amp;",'"&amp;J8&amp;"',"&amp;K8&amp;","&amp;L8&amp;","&amp;M8&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(7,1,'Besserrufer (+Vogel)',1,5,10);</v>
+      </c>
+      <c r="AL8" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P8&amp;","&amp;Q8&amp;",'"&amp;R8&amp;"',"&amp;S8&amp;","&amp;T8&amp;",'"&amp;U8&amp;"','"&amp;V8&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(7,1,'4 Könige',2,0,'10','20');</v>
+      </c>
+      <c r="AM8" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y8&amp;","&amp;Z8&amp;","&amp;AA8&amp;","&amp;AB8&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(7,3,1,1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H9" s="30">
+        <v>8</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="30">
+        <v>4</v>
+      </c>
+      <c r="L9" s="30">
+        <v>3</v>
+      </c>
+      <c r="M9" s="30">
+        <v>30</v>
+      </c>
+      <c r="P9" s="30">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>202</v>
+      </c>
+      <c r="S9" s="30">
+        <v>3</v>
+      </c>
+      <c r="T9" s="30">
+        <v>0</v>
+      </c>
+      <c r="U9" s="30">
+        <v>10</v>
+      </c>
+      <c r="V9" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(8,1,'Bettler',4,3,30), </v>
+      </c>
+      <c r="AG9" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(8,1,'1. Sack (≥45/2)',3,0,'10','20'), </v>
+      </c>
+      <c r="AH9" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(8,3,2,2), </v>
+      </c>
+      <c r="AK9" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H9&amp;","&amp;I9&amp;",'"&amp;J9&amp;"',"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(8,1,'Bettler',4,3,30);</v>
+      </c>
+      <c r="AL9" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P9&amp;","&amp;Q9&amp;",'"&amp;R9&amp;"',"&amp;S9&amp;","&amp;T9&amp;",'"&amp;U9&amp;"','"&amp;V9&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(8,1,'1. Sack (≥45/2)',3,0,'10','20');</v>
+      </c>
+      <c r="AM9" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y9&amp;","&amp;Z9&amp;","&amp;AA9&amp;","&amp;AB9&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(8,3,2,2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H10" s="30">
+        <v>9</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="30">
+        <v>3</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M10" s="30">
+        <v>40</v>
+      </c>
+      <c r="P10" s="30">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>203</v>
+      </c>
+      <c r="S10" s="30">
+        <v>3</v>
+      </c>
+      <c r="T10" s="30">
+        <v>0</v>
+      </c>
+      <c r="U10" s="30">
+        <v>20</v>
+      </c>
+      <c r="V10" s="30">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(9,1,'Farbendreier',3,0,40), </v>
+      </c>
+      <c r="AG10" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(9,1,'2. Sack (≥55/2)',3,0,'20','40'), </v>
+      </c>
+      <c r="AH10" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(9,3,3,2), </v>
+      </c>
+      <c r="AK10" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H10&amp;","&amp;I10&amp;",'"&amp;J10&amp;"',"&amp;K10&amp;","&amp;L10&amp;","&amp;M10&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(9,1,'Farbendreier',3,0,40);</v>
+      </c>
+      <c r="AL10" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P10&amp;","&amp;Q10&amp;",'"&amp;R10&amp;"',"&amp;S10&amp;","&amp;T10&amp;",'"&amp;U10&amp;"','"&amp;V10&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(9,1,'2. Sack (≥55/2)',3,0,'20','40');</v>
+      </c>
+      <c r="AM10" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y10&amp;","&amp;Z10&amp;","&amp;AA10&amp;","&amp;AB10&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(9,3,3,2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H11" s="30">
+        <v>10</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="30">
+        <v>2</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>40</v>
+      </c>
+      <c r="P11" s="30">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="30">
+        <v>3</v>
+      </c>
+      <c r="T11" s="30">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y11" s="30">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(10,1,'Dreier',2,0,40), </v>
+      </c>
+      <c r="AG11" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(10,1,'Valat',3,0,'x4','x8'), </v>
+      </c>
+      <c r="AH11" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(10,4,1,1), </v>
+      </c>
+      <c r="AK11" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H11&amp;","&amp;I11&amp;",'"&amp;J11&amp;"',"&amp;K11&amp;","&amp;L11&amp;","&amp;M11&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(10,1,'Dreier',2,0,40);</v>
+      </c>
+      <c r="AL11" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P11&amp;","&amp;Q11&amp;",'"&amp;R11&amp;"',"&amp;S11&amp;","&amp;T11&amp;",'"&amp;U11&amp;"','"&amp;V11&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(10,1,'Valat',3,0,'x4','x8');</v>
+      </c>
+      <c r="AM11" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y11&amp;","&amp;Z11&amp;","&amp;AA11&amp;","&amp;AB11&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(10,4,1,1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H12" s="30">
+        <v>11</v>
+      </c>
+      <c r="I12" s="30">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="30">
+        <v>4</v>
+      </c>
+      <c r="L12" s="30">
+        <v>2</v>
+      </c>
+      <c r="M12" s="30">
+        <v>50</v>
+      </c>
+      <c r="P12" s="30">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>183</v>
+      </c>
+      <c r="S12" s="30">
+        <v>1</v>
+      </c>
+      <c r="T12" s="30">
+        <v>0</v>
+      </c>
+      <c r="U12" s="30">
+        <v>10</v>
+      </c>
+      <c r="V12" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(11,1,'Piccolo ouvert',4,2,50), </v>
+      </c>
+      <c r="AG12" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(11,2,'Pagat',1,0,'10','20'), </v>
+      </c>
+      <c r="AH12" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(11,4,2,2), </v>
+      </c>
+      <c r="AK12" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H12&amp;","&amp;I12&amp;",'"&amp;J12&amp;"',"&amp;K12&amp;","&amp;L12&amp;","&amp;M12&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(11,1,'Piccolo ouvert',4,2,50);</v>
+      </c>
+      <c r="AL12" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P12&amp;","&amp;Q12&amp;",'"&amp;R12&amp;"',"&amp;S12&amp;","&amp;T12&amp;",'"&amp;U12&amp;"','"&amp;V12&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(11,2,'Pagat',1,0,'10','20');</v>
+      </c>
+      <c r="AM12" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y12&amp;","&amp;Z12&amp;","&amp;AA12&amp;","&amp;AB12&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(11,4,2,2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H13" s="30">
+        <v>12</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="30">
+        <v>4</v>
+      </c>
+      <c r="L13" s="30">
+        <v>2</v>
+      </c>
+      <c r="M13" s="30">
+        <v>50</v>
+      </c>
+      <c r="P13" s="30">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="30">
+        <v>1</v>
+      </c>
+      <c r="T13" s="30">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
+        <v>20</v>
+      </c>
+      <c r="V13" s="30">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="30">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="30">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(12,1,'Zwiccolo ouvert',4,2,50), </v>
+      </c>
+      <c r="AG13" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(12,2,'Uhu',1,0,'20','40'), </v>
+      </c>
+      <c r="AH13" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(12,4,3,2), </v>
+      </c>
+      <c r="AK13" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H13&amp;","&amp;I13&amp;",'"&amp;J13&amp;"',"&amp;K13&amp;","&amp;L13&amp;","&amp;M13&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(12,1,'Zwiccolo ouvert',4,2,50);</v>
+      </c>
+      <c r="AL13" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P13&amp;","&amp;Q13&amp;",'"&amp;R13&amp;"',"&amp;S13&amp;","&amp;T13&amp;",'"&amp;U13&amp;"','"&amp;V13&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(12,2,'Uhu',1,0,'20','40');</v>
+      </c>
+      <c r="AM13" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y13&amp;","&amp;Z13&amp;","&amp;AA13&amp;","&amp;AB13&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(12,4,3,2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H14" s="30">
+        <v>13</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="30">
+        <v>4</v>
+      </c>
+      <c r="L14" s="30">
+        <v>3</v>
+      </c>
+      <c r="M14" s="30">
+        <v>70</v>
+      </c>
+      <c r="P14" s="30">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" s="30">
+        <v>1</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
+        <v>30</v>
+      </c>
+      <c r="V14" s="30">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(13,1,'Bettler ouvert',4,3,70), </v>
+      </c>
+      <c r="AG14" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(13,2,'Kakadu',1,0,'30','60'), </v>
+      </c>
+      <c r="AH14" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(13,5,1,1), </v>
+      </c>
+      <c r="AK14" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H14&amp;","&amp;I14&amp;",'"&amp;J14&amp;"',"&amp;K14&amp;","&amp;L14&amp;","&amp;M14&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(13,1,'Bettler ouvert',4,3,70);</v>
+      </c>
+      <c r="AL14" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P14&amp;","&amp;Q14&amp;",'"&amp;R14&amp;"',"&amp;S14&amp;","&amp;T14&amp;",'"&amp;U14&amp;"','"&amp;V14&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(13,2,'Kakadu',1,0,'30','60');</v>
+      </c>
+      <c r="AM14" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y14&amp;","&amp;Z14&amp;","&amp;AA14&amp;","&amp;AB14&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(13,5,1,1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H15" s="30">
+        <v>14</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="30">
+        <v>3</v>
+      </c>
+      <c r="L15" s="30">
+        <v>4</v>
+      </c>
+      <c r="M15" s="30">
+        <v>80</v>
+      </c>
+      <c r="P15" s="30">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>200</v>
+      </c>
+      <c r="S15" s="30">
+        <v>1</v>
+      </c>
+      <c r="T15" s="30">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>40</v>
+      </c>
+      <c r="V15" s="30">
+        <v>80</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(14,1,'Farbensolo',3,4,80), </v>
+      </c>
+      <c r="AG15" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(14,2,'Quapil',1,0,'40','80'), </v>
+      </c>
+      <c r="AH15" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(14,5,2,2), </v>
+      </c>
+      <c r="AK15" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H15&amp;","&amp;I15&amp;",'"&amp;J15&amp;"',"&amp;K15&amp;","&amp;L15&amp;","&amp;M15&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(14,1,'Farbensolo',3,4,80);</v>
+      </c>
+      <c r="AL15" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P15&amp;","&amp;Q15&amp;",'"&amp;R15&amp;"',"&amp;S15&amp;","&amp;T15&amp;",'"&amp;U15&amp;"','"&amp;V15&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(14,2,'Quapil',1,0,'40','80');</v>
+      </c>
+      <c r="AM15" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y15&amp;","&amp;Z15&amp;","&amp;AA15&amp;","&amp;AB15&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(14,5,2,2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H16" s="30">
+        <v>15</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="30">
+        <v>2</v>
+      </c>
+      <c r="L16" s="30">
+        <v>4</v>
+      </c>
+      <c r="M16" s="30">
+        <v>80</v>
+      </c>
+      <c r="P16" s="30">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>186</v>
+      </c>
+      <c r="S16" s="30">
+        <v>2</v>
+      </c>
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
+        <v>10</v>
+      </c>
+      <c r="V16" s="30">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(15,1,'Solodreier',2,4,80), </v>
+      </c>
+      <c r="AG16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(15,2,'König ultimo',2,0,'10','20'), </v>
+      </c>
+      <c r="AH16" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>(15,5,3,2));</v>
+      </c>
+      <c r="AK16" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H16&amp;","&amp;I16&amp;",'"&amp;J16&amp;"',"&amp;K16&amp;","&amp;L16&amp;","&amp;M16&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(15,1,'Solodreier',2,4,80);</v>
+      </c>
+      <c r="AL16" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P16&amp;","&amp;Q16&amp;",'"&amp;R16&amp;"',"&amp;S16&amp;","&amp;T16&amp;",'"&amp;U16&amp;"','"&amp;V16&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(15,2,'König ultimo',2,0,'10','20');</v>
+      </c>
+      <c r="AM16" s="31" t="str">
+        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y16&amp;","&amp;Z16&amp;","&amp;AA16&amp;","&amp;AB16&amp;");"</f>
+        <v>INSERT INTO trischaken VALUES(15,5,3,2);</v>
+      </c>
+    </row>
+    <row r="17" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H17" s="30">
+        <v>16</v>
+      </c>
+      <c r="I17" s="30">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="30">
+        <v>4</v>
+      </c>
+      <c r="L17" s="30">
+        <v>1</v>
+      </c>
+      <c r="M17" s="30">
+        <v>10</v>
+      </c>
+      <c r="P17" s="30">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="30">
+        <v>1</v>
+      </c>
+      <c r="T17" s="30">
+        <v>0</v>
+      </c>
+      <c r="U17" s="30">
+        <v>10</v>
+      </c>
+      <c r="V17" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="31"/>
+      <c r="AF17" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(16,2,'Trischaken',4,1,10), </v>
+      </c>
+      <c r="AG17" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(16,2,'Trull',1,0,'10','20'), </v>
+      </c>
+      <c r="AK17" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H17&amp;","&amp;I17&amp;",'"&amp;J17&amp;"',"&amp;K17&amp;","&amp;L17&amp;","&amp;M17&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(16,2,'Trischaken',4,1,10);</v>
+      </c>
+      <c r="AL17" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P17&amp;","&amp;Q17&amp;",'"&amp;R17&amp;"',"&amp;S17&amp;","&amp;T17&amp;",'"&amp;U17&amp;"','"&amp;V17&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(16,2,'Trull',1,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="18" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H18" s="30">
+        <v>17</v>
+      </c>
+      <c r="I18" s="30">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1</v>
+      </c>
+      <c r="L18" s="30">
+        <v>1</v>
+      </c>
+      <c r="M18" s="30">
+        <v>10</v>
+      </c>
+      <c r="P18" s="30">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>188</v>
+      </c>
+      <c r="S18" s="30">
+        <v>2</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+      <c r="U18" s="30">
+        <v>10</v>
+      </c>
+      <c r="V18" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="31"/>
+      <c r="AF18" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(17,2,'Rufer',1,1,10), </v>
+      </c>
+      <c r="AG18" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(17,2,'4 Könige',2,0,'10','20'), </v>
+      </c>
+      <c r="AK18" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H18&amp;","&amp;I18&amp;",'"&amp;J18&amp;"',"&amp;K18&amp;","&amp;L18&amp;","&amp;M18&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(17,2,'Rufer',1,1,10);</v>
+      </c>
+      <c r="AL18" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P18&amp;","&amp;Q18&amp;",'"&amp;R18&amp;"',"&amp;S18&amp;","&amp;T18&amp;",'"&amp;U18&amp;"','"&amp;V18&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(17,2,'4 Könige',2,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="19" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H19" s="30">
+        <v>18</v>
+      </c>
+      <c r="I19" s="30">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="30">
+        <v>2</v>
+      </c>
+      <c r="L19" s="30">
+        <v>1</v>
+      </c>
+      <c r="M19" s="30">
+        <v>40</v>
+      </c>
+      <c r="P19" s="30">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="30">
+        <v>3</v>
+      </c>
+      <c r="T19" s="30">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="V19" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC19" s="31"/>
+      <c r="AF19" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(18,2,'Sechserdreier',2,1,40), </v>
+      </c>
+      <c r="AG19" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(18,2,'Valat',3,0,'x4','x8'), </v>
+      </c>
+      <c r="AK19" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H19&amp;","&amp;I19&amp;",'"&amp;J19&amp;"',"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(18,2,'Sechserdreier',2,1,40);</v>
+      </c>
+      <c r="AL19" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P19&amp;","&amp;Q19&amp;",'"&amp;R19&amp;"',"&amp;S19&amp;","&amp;T19&amp;",'"&amp;U19&amp;"','"&amp;V19&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(18,2,'Valat',3,0,'x4','x8');</v>
+      </c>
+    </row>
+    <row r="20" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H20" s="30">
+        <v>19</v>
+      </c>
+      <c r="I20" s="30">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="30">
+        <v>4</v>
+      </c>
+      <c r="L20" s="30">
+        <v>2</v>
+      </c>
+      <c r="M20" s="30">
+        <v>20</v>
+      </c>
+      <c r="P20" s="30">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>183</v>
+      </c>
+      <c r="S20" s="30">
+        <v>1</v>
+      </c>
+      <c r="T20" s="30">
+        <v>0</v>
+      </c>
+      <c r="U20" s="30">
+        <v>10</v>
+      </c>
+      <c r="V20" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="31"/>
+      <c r="AF20" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(19,2,'Piccolo',4,2,20), </v>
+      </c>
+      <c r="AG20" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(19,3,'Pagat',1,0,'10','20'), </v>
+      </c>
+      <c r="AK20" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H20&amp;","&amp;I20&amp;",'"&amp;J20&amp;"',"&amp;K20&amp;","&amp;L20&amp;","&amp;M20&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(19,2,'Piccolo',4,2,20);</v>
+      </c>
+      <c r="AL20" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P20&amp;","&amp;Q20&amp;",'"&amp;R20&amp;"',"&amp;S20&amp;","&amp;T20&amp;",'"&amp;U20&amp;"','"&amp;V20&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(19,3,'Pagat',1,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="21" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H21" s="30">
+        <v>20</v>
+      </c>
+      <c r="I21" s="30">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="30">
-        <v>4</v>
-      </c>
-      <c r="M6" s="30">
-        <v>2</v>
-      </c>
-      <c r="N6" s="30">
+      <c r="K21" s="30">
+        <v>4</v>
+      </c>
+      <c r="L21" s="30">
+        <v>2</v>
+      </c>
+      <c r="M21" s="30">
+        <v>20</v>
+      </c>
+      <c r="P21" s="30">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>184</v>
+      </c>
+      <c r="S21" s="30">
+        <v>1</v>
+      </c>
+      <c r="T21" s="30">
+        <v>0</v>
+      </c>
+      <c r="U21" s="30">
+        <v>20</v>
+      </c>
+      <c r="V21" s="30">
+        <v>40</v>
+      </c>
+      <c r="AC21" s="31"/>
+      <c r="AF21" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(20,2,'Zwiccolo',4,2,20), </v>
+      </c>
+      <c r="AG21" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(20,3,'Uhu',1,0,'20','40'), </v>
+      </c>
+      <c r="AK21" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H21&amp;","&amp;I21&amp;",'"&amp;J21&amp;"',"&amp;K21&amp;","&amp;L21&amp;","&amp;M21&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(20,2,'Zwiccolo',4,2,20);</v>
+      </c>
+      <c r="AL21" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P21&amp;","&amp;Q21&amp;",'"&amp;R21&amp;"',"&amp;S21&amp;","&amp;T21&amp;",'"&amp;U21&amp;"','"&amp;V21&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(20,3,'Uhu',1,0,'20','40');</v>
+      </c>
+    </row>
+    <row r="22" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H22" s="30">
+        <v>21</v>
+      </c>
+      <c r="I22" s="30">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="30">
+        <v>1</v>
+      </c>
+      <c r="L22" s="30">
+        <v>4</v>
+      </c>
+      <c r="M22" s="30">
+        <v>20</v>
+      </c>
+      <c r="P22" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>185</v>
+      </c>
+      <c r="S22" s="30">
+        <v>1</v>
+      </c>
+      <c r="T22" s="30">
+        <v>0</v>
+      </c>
+      <c r="U22" s="30">
+        <v>30</v>
+      </c>
+      <c r="V22" s="30">
+        <v>60</v>
+      </c>
+      <c r="AC22" s="31"/>
+      <c r="AF22" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(21,2,'Solorufer',1,4,20), </v>
+      </c>
+      <c r="AG22" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(21,3,'Kakadu',1,0,'30','60'), </v>
+      </c>
+      <c r="AK22" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H22&amp;","&amp;I22&amp;",'"&amp;J22&amp;"',"&amp;K22&amp;","&amp;L22&amp;","&amp;M22&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(21,2,'Solorufer',1,4,20);</v>
+      </c>
+      <c r="AL22" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P22&amp;","&amp;Q22&amp;",'"&amp;R22&amp;"',"&amp;S22&amp;","&amp;T22&amp;",'"&amp;U22&amp;"','"&amp;V22&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(21,3,'Kakadu',1,0,'30','60');</v>
+      </c>
+    </row>
+    <row r="23" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H23" s="30">
+        <v>22</v>
+      </c>
+      <c r="I23" s="30">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="30">
+        <v>1</v>
+      </c>
+      <c r="L23" s="30">
+        <v>5</v>
+      </c>
+      <c r="M23" s="30">
+        <v>30</v>
+      </c>
+      <c r="P23" s="30">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>200</v>
+      </c>
+      <c r="S23" s="30">
+        <v>1</v>
+      </c>
+      <c r="T23" s="30">
+        <v>0</v>
+      </c>
+      <c r="U23" s="30">
+        <v>40</v>
+      </c>
+      <c r="V23" s="30">
+        <v>80</v>
+      </c>
+      <c r="AC23" s="31"/>
+      <c r="AF23" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(22,2,'Pagatrufer',1,5,30), </v>
+      </c>
+      <c r="AG23" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(22,3,'Quapil',1,0,'40','80'), </v>
+      </c>
+      <c r="AK23" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H23&amp;","&amp;I23&amp;",'"&amp;J23&amp;"',"&amp;K23&amp;","&amp;L23&amp;","&amp;M23&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(22,2,'Pagatrufer',1,5,30);</v>
+      </c>
+      <c r="AL23" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P23&amp;","&amp;Q23&amp;",'"&amp;R23&amp;"',"&amp;S23&amp;","&amp;T23&amp;",'"&amp;U23&amp;"','"&amp;V23&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(22,3,'Quapil',1,0,'40','80');</v>
+      </c>
+    </row>
+    <row r="24" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H24" s="30">
+        <v>23</v>
+      </c>
+      <c r="I24" s="30">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="30">
+        <v>4</v>
+      </c>
+      <c r="L24" s="30">
+        <v>3</v>
+      </c>
+      <c r="M24" s="30">
+        <v>40</v>
+      </c>
+      <c r="P24" s="30">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>186</v>
+      </c>
+      <c r="S24" s="30">
+        <v>2</v>
+      </c>
+      <c r="T24" s="30">
+        <v>0</v>
+      </c>
+      <c r="U24" s="30">
         <v>10</v>
       </c>
-      <c r="O6" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I6&amp;","&amp;J6&amp;",'"&amp;K6&amp;"',"&amp;L6&amp;","&amp;M6&amp;","&amp;N6&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(5,1,'Zwiccolo',4,2,10);</v>
-      </c>
-      <c r="R6" s="30">
+      <c r="V24" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC24" s="31"/>
+      <c r="AF24" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(23,2,'Bettel',4,3,40), </v>
+      </c>
+      <c r="AG24" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(23,3,'König ultimo',2,0,'10','20'), </v>
+      </c>
+      <c r="AK24" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H24&amp;","&amp;I24&amp;",'"&amp;J24&amp;"',"&amp;K24&amp;","&amp;L24&amp;","&amp;M24&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(23,2,'Bettel',4,3,40);</v>
+      </c>
+      <c r="AL24" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P24&amp;","&amp;Q24&amp;",'"&amp;R24&amp;"',"&amp;S24&amp;","&amp;T24&amp;",'"&amp;U24&amp;"','"&amp;V24&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(23,3,'König ultimo',2,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="25" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H25" s="30">
+        <v>24</v>
+      </c>
+      <c r="I25" s="30">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="30">
+        <v>1</v>
+      </c>
+      <c r="L25" s="30">
         <v>5</v>
       </c>
-      <c r="S6" s="30">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="M25" s="30">
+        <v>50</v>
+      </c>
+      <c r="P25" s="30">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" s="30">
+        <v>1</v>
+      </c>
+      <c r="T25" s="30">
+        <v>0</v>
+      </c>
+      <c r="U25" s="30">
+        <v>10</v>
+      </c>
+      <c r="V25" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC25" s="31"/>
+      <c r="AF25" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(24,2,'Uhurufer',1,5,50), </v>
+      </c>
+      <c r="AG25" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(24,3,'Trull',1,0,'10','20'), </v>
+      </c>
+      <c r="AK25" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H25&amp;","&amp;I25&amp;",'"&amp;J25&amp;"',"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(24,2,'Uhurufer',1,5,50);</v>
+      </c>
+      <c r="AL25" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P25&amp;","&amp;Q25&amp;",'"&amp;R25&amp;"',"&amp;S25&amp;","&amp;T25&amp;",'"&amp;U25&amp;"','"&amp;V25&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(24,3,'Trull',1,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="26" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H26" s="30">
+        <v>25</v>
+      </c>
+      <c r="I26" s="30">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="30">
+        <v>3</v>
+      </c>
+      <c r="L26" s="30">
+        <v>0</v>
+      </c>
+      <c r="M26" s="30">
+        <v>50</v>
+      </c>
+      <c r="P26" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="30">
+        <v>2</v>
+      </c>
+      <c r="T26" s="30">
+        <v>0</v>
+      </c>
+      <c r="U26" s="30">
+        <v>10</v>
+      </c>
+      <c r="V26" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC26" s="31"/>
+      <c r="AF26" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(25,2,'Farbendreier',3,0,50), </v>
+      </c>
+      <c r="AG26" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(25,3,'4 Könige',2,0,'10','20'), </v>
+      </c>
+      <c r="AK26" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H26&amp;","&amp;I26&amp;",'"&amp;J26&amp;"',"&amp;K26&amp;","&amp;L26&amp;","&amp;M26&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(25,2,'Farbendreier',3,0,50);</v>
+      </c>
+      <c r="AL26" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P26&amp;","&amp;Q26&amp;",'"&amp;R26&amp;"',"&amp;S26&amp;","&amp;T26&amp;",'"&amp;U26&amp;"','"&amp;V26&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(25,3,'4 Könige',2,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="27" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H27" s="30">
+        <v>26</v>
+      </c>
+      <c r="I27" s="30">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="30">
+        <v>2</v>
+      </c>
+      <c r="L27" s="30">
+        <v>0</v>
+      </c>
+      <c r="M27" s="30">
+        <v>50</v>
+      </c>
+      <c r="P27" s="30">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="30">
+        <v>3</v>
+      </c>
+      <c r="T27" s="30">
+        <v>0</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="V27" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC27" s="31"/>
+      <c r="AF27" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(26,2,'Dreier',2,0,50), </v>
+      </c>
+      <c r="AG27" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(26,3,'Valat',3,0,'x4','x8'), </v>
+      </c>
+      <c r="AK27" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H27&amp;","&amp;I27&amp;",'"&amp;J27&amp;"',"&amp;K27&amp;","&amp;L27&amp;","&amp;M27&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(26,2,'Dreier',2,0,50);</v>
+      </c>
+      <c r="AL27" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P27&amp;","&amp;Q27&amp;",'"&amp;R27&amp;"',"&amp;S27&amp;","&amp;T27&amp;",'"&amp;U27&amp;"','"&amp;V27&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(26,3,'Valat',3,0,'x4','x8');</v>
+      </c>
+    </row>
+    <row r="28" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H28" s="30">
+        <v>27</v>
+      </c>
+      <c r="I28" s="30">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="30">
+        <v>4</v>
+      </c>
+      <c r="L28" s="30">
+        <v>2</v>
+      </c>
+      <c r="M28" s="30">
+        <v>60</v>
+      </c>
+      <c r="P28" s="30">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="30">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S28" s="30">
+        <v>1</v>
+      </c>
+      <c r="T28" s="30">
+        <v>0</v>
+      </c>
+      <c r="U28" s="30">
+        <v>10</v>
+      </c>
+      <c r="V28" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC28" s="31"/>
+      <c r="AF28" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(27,2,'Piccolo ouvert',4,2,60), </v>
+      </c>
+      <c r="AG28" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(27,4,'Pagat',1,0,'10','20'), </v>
+      </c>
+      <c r="AK28" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H28&amp;","&amp;I28&amp;",'"&amp;J28&amp;"',"&amp;K28&amp;","&amp;L28&amp;","&amp;M28&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(27,2,'Piccolo ouvert',4,2,60);</v>
+      </c>
+      <c r="AL28" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P28&amp;","&amp;Q28&amp;",'"&amp;R28&amp;"',"&amp;S28&amp;","&amp;T28&amp;",'"&amp;U28&amp;"','"&amp;V28&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(27,4,'Pagat',1,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="29" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H29" s="30">
+        <v>28</v>
+      </c>
+      <c r="I29" s="30">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="30">
+        <v>4</v>
+      </c>
+      <c r="L29" s="30">
+        <v>2</v>
+      </c>
+      <c r="M29" s="30">
+        <v>60</v>
+      </c>
+      <c r="P29" s="30">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="30">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>184</v>
+      </c>
+      <c r="S29" s="30">
+        <v>1</v>
+      </c>
+      <c r="T29" s="30">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30">
+        <v>20</v>
+      </c>
+      <c r="V29" s="30">
+        <v>40</v>
+      </c>
+      <c r="AC29" s="31"/>
+      <c r="AF29" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(28,2,'Zwiccolo ouvert',4,2,60), </v>
+      </c>
+      <c r="AG29" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(28,4,'Uhu',1,0,'20','40'), </v>
+      </c>
+      <c r="AK29" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H29&amp;","&amp;I29&amp;",'"&amp;J29&amp;"',"&amp;K29&amp;","&amp;L29&amp;","&amp;M29&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(28,2,'Zwiccolo ouvert',4,2,60);</v>
+      </c>
+      <c r="AL29" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P29&amp;","&amp;Q29&amp;",'"&amp;R29&amp;"',"&amp;S29&amp;","&amp;T29&amp;",'"&amp;U29&amp;"','"&amp;V29&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(28,4,'Uhu',1,0,'20','40');</v>
+      </c>
+    </row>
+    <row r="30" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H30" s="30">
+        <v>29</v>
+      </c>
+      <c r="I30" s="30">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="30">
+        <v>5</v>
+      </c>
+      <c r="M30" s="30">
+        <v>70</v>
+      </c>
+      <c r="P30" s="30">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="30">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>185</v>
+      </c>
+      <c r="S30" s="30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="30">
+        <v>0</v>
+      </c>
+      <c r="U30" s="30">
+        <v>30</v>
+      </c>
+      <c r="V30" s="30">
+        <v>60</v>
+      </c>
+      <c r="AC30" s="31"/>
+      <c r="AF30" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(29,2,'Kakadurufer',1,5,70), </v>
+      </c>
+      <c r="AG30" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(29,4,'Kakadu',1,0,'30','60'), </v>
+      </c>
+      <c r="AK30" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H30&amp;","&amp;I30&amp;",'"&amp;J30&amp;"',"&amp;K30&amp;","&amp;L30&amp;","&amp;M30&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(29,2,'Kakadurufer',1,5,70);</v>
+      </c>
+      <c r="AL30" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P30&amp;","&amp;Q30&amp;",'"&amp;R30&amp;"',"&amp;S30&amp;","&amp;T30&amp;",'"&amp;U30&amp;"','"&amp;V30&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(29,4,'Kakadu',1,0,'30','60');</v>
+      </c>
+    </row>
+    <row r="31" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H31" s="30">
+        <v>30</v>
+      </c>
+      <c r="I31" s="30">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="30">
+        <v>4</v>
+      </c>
+      <c r="L31" s="30">
+        <v>3</v>
+      </c>
+      <c r="M31" s="30">
+        <v>80</v>
+      </c>
+      <c r="P31" s="30">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="30">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s">
+        <v>200</v>
+      </c>
+      <c r="S31" s="30">
+        <v>1</v>
+      </c>
+      <c r="T31" s="30">
+        <v>0</v>
+      </c>
+      <c r="U31" s="30">
+        <v>40</v>
+      </c>
+      <c r="V31" s="30">
+        <v>80</v>
+      </c>
+      <c r="AC31" s="31"/>
+      <c r="AF31" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(30,2,'Bettel ouvert',4,3,80), </v>
+      </c>
+      <c r="AG31" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(30,4,'Quapil',1,0,'40','80'), </v>
+      </c>
+      <c r="AK31" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H31&amp;","&amp;I31&amp;",'"&amp;J31&amp;"',"&amp;K31&amp;","&amp;L31&amp;","&amp;M31&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(30,2,'Bettel ouvert',4,3,80);</v>
+      </c>
+      <c r="AL31" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P31&amp;","&amp;Q31&amp;",'"&amp;R31&amp;"',"&amp;S31&amp;","&amp;T31&amp;",'"&amp;U31&amp;"','"&amp;V31&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(30,4,'Quapil',1,0,'40','80');</v>
+      </c>
+    </row>
+    <row r="32" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H32" s="30">
+        <v>31</v>
+      </c>
+      <c r="I32" s="30">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="30">
+        <v>1</v>
+      </c>
+      <c r="L32" s="30">
+        <v>5</v>
+      </c>
+      <c r="M32" s="30">
+        <v>90</v>
+      </c>
+      <c r="P32" s="30">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="30">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s">
+        <v>186</v>
+      </c>
+      <c r="S32" s="30">
+        <v>2</v>
+      </c>
+      <c r="T32" s="30">
+        <v>0</v>
+      </c>
+      <c r="U32" s="30">
+        <v>10</v>
+      </c>
+      <c r="V32" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC32" s="31"/>
+      <c r="AF32" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(31,2,'Quapilrufer',1,5,90), </v>
+      </c>
+      <c r="AG32" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(31,4,'König ultimo',2,0,'10','20'), </v>
+      </c>
+      <c r="AK32" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H32&amp;","&amp;I32&amp;",'"&amp;J32&amp;"',"&amp;K32&amp;","&amp;L32&amp;","&amp;M32&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(31,2,'Quapilrufer',1,5,90);</v>
+      </c>
+      <c r="AL32" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P32&amp;","&amp;Q32&amp;",'"&amp;R32&amp;"',"&amp;S32&amp;","&amp;T32&amp;",'"&amp;U32&amp;"','"&amp;V32&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(31,4,'König ultimo',2,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="33" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H33" s="30">
+        <v>32</v>
+      </c>
+      <c r="I33" s="30">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>181</v>
+      </c>
+      <c r="K33" s="30">
+        <v>3</v>
+      </c>
+      <c r="L33" s="30">
+        <v>4</v>
+      </c>
+      <c r="M33" s="30">
+        <v>100</v>
+      </c>
+      <c r="P33" s="30">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="30">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="30">
-        <v>1</v>
-      </c>
-      <c r="V6" s="30">
-        <v>1</v>
-      </c>
-      <c r="W6" s="30">
+      <c r="S33" s="30">
+        <v>1</v>
+      </c>
+      <c r="T33" s="30">
+        <v>1</v>
+      </c>
+      <c r="U33" s="30">
         <v>10</v>
       </c>
-      <c r="X6" s="30">
+      <c r="V33" s="30">
         <v>20</v>
       </c>
-      <c r="Y6" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R6&amp;","&amp;S6&amp;",'"&amp;T6&amp;"',"&amp;U6&amp;","&amp;V6&amp;",'"&amp;W6&amp;"','"&amp;X6&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(5,1,'Mondfang',1,1,'10','20');</v>
-      </c>
-      <c r="AB6" s="30">
+      <c r="AC33" s="31"/>
+      <c r="AF33" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(32,2,'Farbensolo',3,4,100), </v>
+      </c>
+      <c r="AG33" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(32,4,'Mondfang',1,1,'10','20'), </v>
+      </c>
+      <c r="AK33" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H33&amp;","&amp;I33&amp;",'"&amp;J33&amp;"',"&amp;K33&amp;","&amp;L33&amp;","&amp;M33&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(32,2,'Farbensolo',3,4,100);</v>
+      </c>
+      <c r="AL33" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P33&amp;","&amp;Q33&amp;",'"&amp;R33&amp;"',"&amp;S33&amp;","&amp;T33&amp;",'"&amp;U33&amp;"','"&amp;V33&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(32,4,'Mondfang',1,1,'10','20');</v>
+      </c>
+    </row>
+    <row r="34" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H34" s="30">
+        <v>33</v>
+      </c>
+      <c r="I34" s="30">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="30">
+        <v>2</v>
+      </c>
+      <c r="L34" s="30">
+        <v>4</v>
+      </c>
+      <c r="M34" s="30">
+        <v>100</v>
+      </c>
+      <c r="P34" s="30">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="30">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s">
+        <v>187</v>
+      </c>
+      <c r="S34" s="30">
+        <v>1</v>
+      </c>
+      <c r="T34" s="30">
+        <v>0</v>
+      </c>
+      <c r="U34" s="30">
+        <v>10</v>
+      </c>
+      <c r="V34" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC34" s="31"/>
+      <c r="AF34" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(33,2,'Solodreier',2,4,100), </v>
+      </c>
+      <c r="AG34" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(33,4,'Trull',1,0,'10','20'), </v>
+      </c>
+      <c r="AK34" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H34&amp;","&amp;I34&amp;",'"&amp;J34&amp;"',"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(33,2,'Solodreier',2,4,100);</v>
+      </c>
+      <c r="AL34" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P34&amp;","&amp;Q34&amp;",'"&amp;R34&amp;"',"&amp;S34&amp;","&amp;T34&amp;",'"&amp;U34&amp;"','"&amp;V34&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(33,4,'Trull',1,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="35" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H35" s="30">
+        <v>34</v>
+      </c>
+      <c r="I35" s="30">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>194</v>
+      </c>
+      <c r="K35" s="30">
+        <v>4</v>
+      </c>
+      <c r="L35" s="30">
+        <v>1</v>
+      </c>
+      <c r="M35" s="30">
+        <v>10</v>
+      </c>
+      <c r="P35" s="30">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="30">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s">
+        <v>188</v>
+      </c>
+      <c r="S35" s="30">
+        <v>2</v>
+      </c>
+      <c r="T35" s="30">
+        <v>0</v>
+      </c>
+      <c r="U35" s="30">
+        <v>10</v>
+      </c>
+      <c r="V35" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC35" s="31"/>
+      <c r="AF35" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(34,3,'Trischaken',4,1,10), </v>
+      </c>
+      <c r="AG35" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(34,4,'4 Könige',2,0,'10','20'), </v>
+      </c>
+      <c r="AK35" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H35&amp;","&amp;I35&amp;",'"&amp;J35&amp;"',"&amp;K35&amp;","&amp;L35&amp;","&amp;M35&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(34,3,'Trischaken',4,1,10);</v>
+      </c>
+      <c r="AL35" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P35&amp;","&amp;Q35&amp;",'"&amp;R35&amp;"',"&amp;S35&amp;","&amp;T35&amp;",'"&amp;U35&amp;"','"&amp;V35&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(34,4,'4 Könige',2,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="36" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H36" s="30">
+        <v>35</v>
+      </c>
+      <c r="I36" s="30">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="30">
+        <v>1</v>
+      </c>
+      <c r="L36" s="30">
+        <v>1</v>
+      </c>
+      <c r="M36" s="30">
+        <v>10</v>
+      </c>
+      <c r="P36" s="30">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="30">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s">
+        <v>202</v>
+      </c>
+      <c r="S36" s="30">
+        <v>3</v>
+      </c>
+      <c r="T36" s="30">
+        <v>0</v>
+      </c>
+      <c r="U36" s="30">
+        <v>0</v>
+      </c>
+      <c r="V36" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC36" s="31"/>
+      <c r="AF36" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(35,3,'Rufer',1,1,10), </v>
+      </c>
+      <c r="AG36" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(35,4,'1. Sack (≥45/2)',3,0,'0','20'), </v>
+      </c>
+      <c r="AK36" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H36&amp;","&amp;I36&amp;",'"&amp;J36&amp;"',"&amp;K36&amp;","&amp;L36&amp;","&amp;M36&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(35,3,'Rufer',1,1,10);</v>
+      </c>
+      <c r="AL36" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P36&amp;","&amp;Q36&amp;",'"&amp;R36&amp;"',"&amp;S36&amp;","&amp;T36&amp;",'"&amp;U36&amp;"','"&amp;V36&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(35,4,'1. Sack (≥45/2)',3,0,'0','20');</v>
+      </c>
+    </row>
+    <row r="37" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H37" s="30">
+        <v>36</v>
+      </c>
+      <c r="I37" s="30">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" s="30">
+        <v>2</v>
+      </c>
+      <c r="L37" s="30">
+        <v>1</v>
+      </c>
+      <c r="M37" s="30">
+        <v>40</v>
+      </c>
+      <c r="P37" s="30">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="30">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" s="30">
+        <v>3</v>
+      </c>
+      <c r="T37" s="30">
+        <v>0</v>
+      </c>
+      <c r="U37" s="30">
+        <v>0</v>
+      </c>
+      <c r="V37" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC37" s="31"/>
+      <c r="AF37" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(36,3,'Sechserdreier',2,1,40), </v>
+      </c>
+      <c r="AG37" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(36,4,'2. Sack (≥55/2)',3,0,'0','20'), </v>
+      </c>
+      <c r="AK37" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H37&amp;","&amp;I37&amp;",'"&amp;J37&amp;"',"&amp;K37&amp;","&amp;L37&amp;","&amp;M37&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(36,3,'Sechserdreier',2,1,40);</v>
+      </c>
+      <c r="AL37" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P37&amp;","&amp;Q37&amp;",'"&amp;R37&amp;"',"&amp;S37&amp;","&amp;T37&amp;",'"&amp;U37&amp;"','"&amp;V37&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(36,4,'2. Sack (≥55/2)',3,0,'0','20');</v>
+      </c>
+    </row>
+    <row r="38" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H38" s="30">
+        <v>37</v>
+      </c>
+      <c r="I38" s="30">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="30">
+        <v>4</v>
+      </c>
+      <c r="L38" s="30">
+        <v>2</v>
+      </c>
+      <c r="M38" s="30">
+        <v>20</v>
+      </c>
+      <c r="P38" s="30">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="30">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="30">
+        <v>3</v>
+      </c>
+      <c r="T38" s="30">
+        <v>0</v>
+      </c>
+      <c r="U38" s="30">
+        <v>150</v>
+      </c>
+      <c r="V38" s="30">
+        <v>300</v>
+      </c>
+      <c r="AC38" s="31"/>
+      <c r="AF38" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(37,3,'Piccolo',4,2,20), </v>
+      </c>
+      <c r="AG38" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(37,4,'Valat',3,0,'150','300'), </v>
+      </c>
+      <c r="AK38" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H38&amp;","&amp;I38&amp;",'"&amp;J38&amp;"',"&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(37,3,'Piccolo',4,2,20);</v>
+      </c>
+      <c r="AL38" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P38&amp;","&amp;Q38&amp;",'"&amp;R38&amp;"',"&amp;S38&amp;","&amp;T38&amp;",'"&amp;U38&amp;"','"&amp;V38&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(37,4,'Valat',3,0,'150','300');</v>
+      </c>
+    </row>
+    <row r="39" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H39" s="30">
+        <v>38</v>
+      </c>
+      <c r="I39" s="30">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="30">
+        <v>4</v>
+      </c>
+      <c r="L39" s="30">
+        <v>3</v>
+      </c>
+      <c r="M39" s="30">
+        <v>20</v>
+      </c>
+      <c r="P39" s="30">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="30">
         <v>5</v>
       </c>
-      <c r="AC6" s="30">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="34">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB6&amp;","&amp;AC6&amp;","&amp;AD6&amp;","&amp;AE6&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(5,2,2,2);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I7" s="30">
-        <v>6</v>
-      </c>
-      <c r="J7" s="30">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="R39" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="S39" s="30">
+        <v>1</v>
+      </c>
+      <c r="T39" s="30">
+        <v>0</v>
+      </c>
+      <c r="U39" s="30">
+        <v>10</v>
+      </c>
+      <c r="V39" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC39" s="31"/>
+      <c r="AF39" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(38,3,'Bettel',4,3,20), </v>
+      </c>
+      <c r="AG39" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(38,5,'Pagat',1,0,'10','20'), </v>
+      </c>
+      <c r="AK39" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H39&amp;","&amp;I39&amp;",'"&amp;J39&amp;"',"&amp;K39&amp;","&amp;L39&amp;","&amp;M39&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(38,3,'Bettel',4,3,20);</v>
+      </c>
+      <c r="AL39" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P39&amp;","&amp;Q39&amp;",'"&amp;R39&amp;"',"&amp;S39&amp;","&amp;T39&amp;",'"&amp;U39&amp;"','"&amp;V39&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(38,5,'Pagat',1,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="40" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H40" s="30">
+        <v>39</v>
+      </c>
+      <c r="I40" s="30">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="30">
-        <v>1</v>
-      </c>
-      <c r="M7" s="30">
-        <v>4</v>
-      </c>
-      <c r="N7" s="30">
+      <c r="K40" s="30">
+        <v>1</v>
+      </c>
+      <c r="L40" s="30">
+        <v>4</v>
+      </c>
+      <c r="M40" s="30">
         <v>20</v>
       </c>
-      <c r="O7" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I7&amp;","&amp;J7&amp;",'"&amp;K7&amp;"',"&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(6,1,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="R7" s="30">
-        <v>6</v>
-      </c>
-      <c r="S7" s="30">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="P40" s="30">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="30">
+        <v>5</v>
+      </c>
+      <c r="R40" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="S40" s="30">
+        <v>1</v>
+      </c>
+      <c r="T40" s="30">
+        <v>0</v>
+      </c>
+      <c r="U40" s="30">
+        <v>20</v>
+      </c>
+      <c r="V40" s="30">
+        <v>40</v>
+      </c>
+      <c r="AC40" s="31"/>
+      <c r="AF40" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(39,3,'Solorufer',1,4,20), </v>
+      </c>
+      <c r="AG40" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(39,5,'Uhu',1,0,'20','40'), </v>
+      </c>
+      <c r="AK40" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H40&amp;","&amp;I40&amp;",'"&amp;J40&amp;"',"&amp;K40&amp;","&amp;L40&amp;","&amp;M40&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(39,3,'Solorufer',1,4,20);</v>
+      </c>
+      <c r="AL40" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P40&amp;","&amp;Q40&amp;",'"&amp;R40&amp;"',"&amp;S40&amp;","&amp;T40&amp;",'"&amp;U40&amp;"','"&amp;V40&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(39,5,'Uhu',1,0,'20','40');</v>
+      </c>
+    </row>
+    <row r="41" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H41" s="30">
+        <v>40</v>
+      </c>
+      <c r="I41" s="30">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>198</v>
+      </c>
+      <c r="K41" s="30">
+        <v>1</v>
+      </c>
+      <c r="L41" s="30">
+        <v>5</v>
+      </c>
+      <c r="M41" s="30">
+        <v>10</v>
+      </c>
+      <c r="P41" s="30">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="30">
+        <v>5</v>
+      </c>
+      <c r="R41" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="S41" s="30">
+        <v>1</v>
+      </c>
+      <c r="T41" s="30">
+        <v>0</v>
+      </c>
+      <c r="U41" s="30">
+        <v>30</v>
+      </c>
+      <c r="V41" s="30">
+        <v>60</v>
+      </c>
+      <c r="AC41" s="31"/>
+      <c r="AF41" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(40,3,'A-Rufer (+Vogel)',1,5,10), </v>
+      </c>
+      <c r="AG41" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(40,5,'Kakadu',1,0,'30','60'), </v>
+      </c>
+      <c r="AK41" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H41&amp;","&amp;I41&amp;",'"&amp;J41&amp;"',"&amp;K41&amp;","&amp;L41&amp;","&amp;M41&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(40,3,'A-Rufer (+Vogel)',1,5,10);</v>
+      </c>
+      <c r="AL41" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P41&amp;","&amp;Q41&amp;",'"&amp;R41&amp;"',"&amp;S41&amp;","&amp;T41&amp;",'"&amp;U41&amp;"','"&amp;V41&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(40,5,'Kakadu',1,0,'30','60');</v>
+      </c>
+    </row>
+    <row r="42" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H42" s="30">
+        <v>41</v>
+      </c>
+      <c r="I42" s="30">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="30">
+        <v>2</v>
+      </c>
+      <c r="L42" s="30">
+        <v>0</v>
+      </c>
+      <c r="M42" s="30">
+        <v>40</v>
+      </c>
+      <c r="P42" s="30">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="30">
+        <v>5</v>
+      </c>
+      <c r="R42" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="S42" s="30">
+        <v>1</v>
+      </c>
+      <c r="T42" s="30">
+        <v>0</v>
+      </c>
+      <c r="U42" s="30">
+        <v>40</v>
+      </c>
+      <c r="V42" s="30">
+        <v>80</v>
+      </c>
+      <c r="AC42" s="31"/>
+      <c r="AF42" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(41,3,'Dreier',2,0,40), </v>
+      </c>
+      <c r="AG42" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(41,5,'Quapil',1,0,'40','80'), </v>
+      </c>
+      <c r="AK42" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H42&amp;","&amp;I42&amp;",'"&amp;J42&amp;"',"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(41,3,'Dreier',2,0,40);</v>
+      </c>
+      <c r="AL42" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P42&amp;","&amp;Q42&amp;",'"&amp;R42&amp;"',"&amp;S42&amp;","&amp;T42&amp;",'"&amp;U42&amp;"','"&amp;V42&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(41,5,'Quapil',1,0,'40','80');</v>
+      </c>
+    </row>
+    <row r="43" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H43" s="30">
+        <v>42</v>
+      </c>
+      <c r="I43" s="30">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" s="30">
+        <v>3</v>
+      </c>
+      <c r="L43" s="30">
+        <v>4</v>
+      </c>
+      <c r="M43" s="30">
+        <v>50</v>
+      </c>
+      <c r="P43" s="30">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="30">
+        <v>5</v>
+      </c>
+      <c r="R43" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="S43" s="30">
+        <v>2</v>
+      </c>
+      <c r="T43" s="30">
+        <v>0</v>
+      </c>
+      <c r="U43" s="30">
+        <v>10</v>
+      </c>
+      <c r="V43" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC43" s="31"/>
+      <c r="AF43" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(42,3,'Farbensolo',3,4,50), </v>
+      </c>
+      <c r="AG43" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(42,5,'König ultimo',2,0,'10','20'), </v>
+      </c>
+      <c r="AK43" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H43&amp;","&amp;I43&amp;",'"&amp;J43&amp;"',"&amp;K43&amp;","&amp;L43&amp;","&amp;M43&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(42,3,'Farbensolo',3,4,50);</v>
+      </c>
+      <c r="AL43" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P43&amp;","&amp;Q43&amp;",'"&amp;R43&amp;"',"&amp;S43&amp;","&amp;T43&amp;",'"&amp;U43&amp;"','"&amp;V43&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(42,5,'König ultimo',2,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="44" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H44" s="30">
+        <v>43</v>
+      </c>
+      <c r="I44" s="30">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" s="30">
+        <v>4</v>
+      </c>
+      <c r="L44" s="30">
+        <v>2</v>
+      </c>
+      <c r="M44" s="30">
+        <v>60</v>
+      </c>
+      <c r="P44" s="30">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="30">
+        <v>5</v>
+      </c>
+      <c r="R44" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="U7" s="30">
-        <v>1</v>
-      </c>
-      <c r="V7" s="30">
+      <c r="S44" s="30">
+        <v>1</v>
+      </c>
+      <c r="T44" s="30">
         <v>0</v>
       </c>
-      <c r="W7" s="30">
+      <c r="U44" s="30">
         <v>10</v>
       </c>
-      <c r="X7" s="30">
+      <c r="V44" s="30">
         <v>20</v>
       </c>
-      <c r="Y7" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R7&amp;","&amp;S7&amp;",'"&amp;T7&amp;"',"&amp;U7&amp;","&amp;V7&amp;",'"&amp;W7&amp;"','"&amp;X7&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(6,1,'Trull',1,0,'10','20');</v>
-      </c>
-      <c r="AB7" s="30">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="30">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="34">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB7&amp;","&amp;AC7&amp;","&amp;AD7&amp;","&amp;AE7&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(6,2,3,2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I8" s="30">
+      <c r="AC44" s="31"/>
+      <c r="AF44" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(43,3,'Piccolo ouvert',4,2,60), </v>
+      </c>
+      <c r="AG44" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(43,5,'Trull',1,0,'10','20'), </v>
+      </c>
+      <c r="AK44" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H44&amp;","&amp;I44&amp;",'"&amp;J44&amp;"',"&amp;K44&amp;","&amp;L44&amp;","&amp;M44&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(43,3,'Piccolo ouvert',4,2,60);</v>
+      </c>
+      <c r="AL44" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P44&amp;","&amp;Q44&amp;",'"&amp;R44&amp;"',"&amp;S44&amp;","&amp;T44&amp;",'"&amp;U44&amp;"','"&amp;V44&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(43,5,'Trull',1,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="45" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H45" s="30">
+        <v>44</v>
+      </c>
+      <c r="I45" s="30">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>199</v>
+      </c>
+      <c r="K45" s="30">
+        <v>4</v>
+      </c>
+      <c r="L45" s="30">
+        <v>3</v>
+      </c>
+      <c r="M45" s="30">
+        <v>70</v>
+      </c>
+      <c r="P45" s="30">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="30">
+        <v>5</v>
+      </c>
+      <c r="R45" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="S45" s="30">
+        <v>2</v>
+      </c>
+      <c r="T45" s="30">
+        <v>0</v>
+      </c>
+      <c r="U45" s="30">
+        <v>10</v>
+      </c>
+      <c r="V45" s="30">
+        <v>20</v>
+      </c>
+      <c r="AC45" s="31"/>
+      <c r="AF45" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(44,3,'Bettel ouvert',4,3,70), </v>
+      </c>
+      <c r="AG45" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(44,5,'4 Könige',2,0,'10','20'), </v>
+      </c>
+      <c r="AK45" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H45&amp;","&amp;I45&amp;",'"&amp;J45&amp;"',"&amp;K45&amp;","&amp;L45&amp;","&amp;M45&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(44,3,'Bettel ouvert',4,3,70);</v>
+      </c>
+      <c r="AL45" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P45&amp;","&amp;Q45&amp;",'"&amp;R45&amp;"',"&amp;S45&amp;","&amp;T45&amp;",'"&amp;U45&amp;"','"&amp;V45&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(44,5,'4 Könige',2,0,'10','20');</v>
+      </c>
+    </row>
+    <row r="46" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H46" s="30">
+        <v>45</v>
+      </c>
+      <c r="I46" s="30">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>182</v>
+      </c>
+      <c r="K46" s="30">
+        <v>2</v>
+      </c>
+      <c r="L46" s="30">
+        <v>4</v>
+      </c>
+      <c r="M46" s="30">
+        <v>80</v>
+      </c>
+      <c r="P46" s="30">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="30">
+        <v>5</v>
+      </c>
+      <c r="R46" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" s="30">
+        <v>3</v>
+      </c>
+      <c r="T46" s="30">
+        <v>0</v>
+      </c>
+      <c r="U46" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="V46" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC46" s="31"/>
+      <c r="AF46" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(45,3,'Solodreier',2,4,80), </v>
+      </c>
+      <c r="AG46" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(45,5,'Valat',3,0,'x4','x8'));</v>
+      </c>
+      <c r="AK46" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H46&amp;","&amp;I46&amp;",'"&amp;J46&amp;"',"&amp;K46&amp;","&amp;L46&amp;","&amp;M46&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(45,3,'Solodreier',2,4,80);</v>
+      </c>
+      <c r="AL46" s="31" t="str">
+        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P46&amp;","&amp;Q46&amp;",'"&amp;R46&amp;"',"&amp;S46&amp;","&amp;T46&amp;",'"&amp;U46&amp;"','"&amp;V46&amp;"');"</f>
+        <v>INSERT INTO premium VALUES(45,5,'Valat',3,0,'x4','x8');</v>
+      </c>
+    </row>
+    <row r="47" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H47" s="30">
+        <v>46</v>
+      </c>
+      <c r="I47" s="30">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="30">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K47" s="30">
+        <v>1</v>
+      </c>
+      <c r="L47" s="30">
+        <v>1</v>
+      </c>
+      <c r="M47" s="30">
+        <v>10</v>
+      </c>
+      <c r="W47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AF47" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(46,4,'Rufer',1,1,10), </v>
+      </c>
+      <c r="AK47" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H47&amp;","&amp;I47&amp;",'"&amp;J47&amp;"',"&amp;K47&amp;","&amp;L47&amp;","&amp;M47&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(46,4,'Rufer',1,1,10);</v>
+      </c>
+    </row>
+    <row r="48" spans="8:38" x14ac:dyDescent="0.25">
+      <c r="H48" s="30">
+        <v>47</v>
+      </c>
+      <c r="I48" s="30">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>194</v>
+      </c>
+      <c r="K48" s="30">
+        <v>4</v>
+      </c>
+      <c r="L48" s="30">
+        <v>1</v>
+      </c>
+      <c r="M48" s="30">
+        <v>20</v>
+      </c>
+      <c r="W48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AF48" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(47,4,'Trischaken',4,1,20), </v>
+      </c>
+      <c r="AK48" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H48&amp;","&amp;I48&amp;",'"&amp;J48&amp;"',"&amp;K48&amp;","&amp;L48&amp;","&amp;M48&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(47,4,'Trischaken',4,1,20);</v>
+      </c>
+    </row>
+    <row r="49" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H49" s="30">
+        <v>48</v>
+      </c>
+      <c r="I49" s="30">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>195</v>
+      </c>
+      <c r="K49" s="30">
+        <v>2</v>
+      </c>
+      <c r="L49" s="30">
+        <v>1</v>
+      </c>
+      <c r="M49" s="30">
+        <v>40</v>
+      </c>
+      <c r="W49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AF49" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(48,4,'Sechserdreier',2,1,40), </v>
+      </c>
+      <c r="AK49" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H49&amp;","&amp;I49&amp;",'"&amp;J49&amp;"',"&amp;K49&amp;","&amp;L49&amp;","&amp;M49&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(48,4,'Sechserdreier',2,1,40);</v>
+      </c>
+    </row>
+    <row r="50" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H50" s="30">
+        <v>49</v>
+      </c>
+      <c r="I50" s="30">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>189</v>
+      </c>
+      <c r="K50" s="30">
+        <v>4</v>
+      </c>
+      <c r="L50" s="30">
+        <v>2</v>
+      </c>
+      <c r="M50" s="30">
+        <v>20</v>
+      </c>
+      <c r="W50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AF50" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(49,4,'Piccolo',4,2,20), </v>
+      </c>
+      <c r="AK50" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H50&amp;","&amp;I50&amp;",'"&amp;J50&amp;"',"&amp;K50&amp;","&amp;L50&amp;","&amp;M50&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(49,4,'Piccolo',4,2,20);</v>
+      </c>
+    </row>
+    <row r="51" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H51" s="30">
+        <v>50</v>
+      </c>
+      <c r="I51" s="30">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>177</v>
+      </c>
+      <c r="K51" s="30">
+        <v>1</v>
+      </c>
+      <c r="L51" s="30">
+        <v>4</v>
+      </c>
+      <c r="M51" s="30">
+        <v>20</v>
+      </c>
+      <c r="W51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AF51" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(50,4,'Solorufer',1,4,20), </v>
+      </c>
+      <c r="AK51" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H51&amp;","&amp;I51&amp;",'"&amp;J51&amp;"',"&amp;K51&amp;","&amp;L51&amp;","&amp;M51&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(50,4,'Solorufer',1,4,20);</v>
+      </c>
+    </row>
+    <row r="52" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H52" s="30">
+        <v>51</v>
+      </c>
+      <c r="I52" s="30">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="30">
-        <v>1</v>
-      </c>
-      <c r="M8" s="30">
+      <c r="K52" s="30">
+        <v>1</v>
+      </c>
+      <c r="L52" s="30">
         <v>5</v>
       </c>
-      <c r="N8" s="30">
+      <c r="M52" s="30">
+        <v>20</v>
+      </c>
+      <c r="W52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AF52" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(51,4,'Besserrufer (+Vogel)',1,5,20), </v>
+      </c>
+      <c r="AK52" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H52&amp;","&amp;I52&amp;",'"&amp;J52&amp;"',"&amp;K52&amp;","&amp;L52&amp;","&amp;M52&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(51,4,'Besserrufer (+Vogel)',1,5,20);</v>
+      </c>
+    </row>
+    <row r="53" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H53" s="30">
+        <v>52</v>
+      </c>
+      <c r="I53" s="30">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>197</v>
+      </c>
+      <c r="K53" s="30">
+        <v>4</v>
+      </c>
+      <c r="L53" s="30">
+        <v>3</v>
+      </c>
+      <c r="M53" s="30">
+        <v>40</v>
+      </c>
+      <c r="W53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AF53" s="31" t="str">
+        <f>"("&amp;H53&amp;","&amp;I53&amp;",'"&amp;J53&amp;"',"&amp;K53&amp;","&amp;L53&amp;","&amp;M53&amp;")"&amp;IF(H54="",");",", ")</f>
+        <v xml:space="preserve">(52,4,'Bettel',4,3,40), </v>
+      </c>
+      <c r="AK53" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H53&amp;","&amp;I53&amp;",'"&amp;J53&amp;"',"&amp;K53&amp;","&amp;L53&amp;","&amp;M53&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(52,4,'Bettel',4,3,40);</v>
+      </c>
+    </row>
+    <row r="54" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H54" s="30">
+        <v>53</v>
+      </c>
+      <c r="I54" s="30">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>179</v>
+      </c>
+      <c r="K54" s="30">
+        <v>3</v>
+      </c>
+      <c r="L54" s="30">
+        <v>0</v>
+      </c>
+      <c r="M54" s="30">
+        <v>50</v>
+      </c>
+      <c r="W54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AF54" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(53,4,'Farbendreier',3,0,50), </v>
+      </c>
+      <c r="AK54" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H54&amp;","&amp;I54&amp;",'"&amp;J54&amp;"',"&amp;K54&amp;","&amp;L54&amp;","&amp;M54&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(53,4,'Farbendreier',3,0,50);</v>
+      </c>
+    </row>
+    <row r="55" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H55" s="30">
+        <v>54</v>
+      </c>
+      <c r="I55" s="30">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="30">
+        <v>2</v>
+      </c>
+      <c r="L55" s="30">
+        <v>0</v>
+      </c>
+      <c r="M55" s="30">
+        <v>50</v>
+      </c>
+      <c r="W55" s="31"/>
+      <c r="AC55" s="31"/>
+      <c r="AF55" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(54,4,'Dreier',2,0,50), </v>
+      </c>
+      <c r="AK55" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H55&amp;","&amp;I55&amp;",'"&amp;J55&amp;"',"&amp;K55&amp;","&amp;L55&amp;","&amp;M55&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(54,4,'Dreier',2,0,50);</v>
+      </c>
+    </row>
+    <row r="56" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H56" s="30">
+        <v>55</v>
+      </c>
+      <c r="I56" s="30">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>191</v>
+      </c>
+      <c r="K56" s="30">
+        <v>4</v>
+      </c>
+      <c r="L56" s="30">
+        <v>2</v>
+      </c>
+      <c r="M56" s="30">
+        <v>70</v>
+      </c>
+      <c r="W56" s="31"/>
+      <c r="AC56" s="31"/>
+      <c r="AF56" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(55,4,'Piccolo ouvert',4,2,70), </v>
+      </c>
+      <c r="AK56" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H56&amp;","&amp;I56&amp;",'"&amp;J56&amp;"',"&amp;K56&amp;","&amp;L56&amp;","&amp;M56&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(55,4,'Piccolo ouvert',4,2,70);</v>
+      </c>
+    </row>
+    <row r="57" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H57" s="30">
+        <v>56</v>
+      </c>
+      <c r="I57" s="30">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" s="30">
+        <v>4</v>
+      </c>
+      <c r="L57" s="30">
+        <v>2</v>
+      </c>
+      <c r="M57" s="30">
+        <v>70</v>
+      </c>
+      <c r="W57" s="31"/>
+      <c r="AC57" s="31"/>
+      <c r="AF57" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(56,4,'Zwiccolo ouvert',4,2,70), </v>
+      </c>
+      <c r="AK57" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H57&amp;","&amp;I57&amp;",'"&amp;J57&amp;"',"&amp;K57&amp;","&amp;L57&amp;","&amp;M57&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(56,4,'Zwiccolo ouvert',4,2,70);</v>
+      </c>
+    </row>
+    <row r="58" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H58" s="30">
+        <v>57</v>
+      </c>
+      <c r="I58" s="30">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>199</v>
+      </c>
+      <c r="K58" s="30">
+        <v>4</v>
+      </c>
+      <c r="L58" s="30">
+        <v>3</v>
+      </c>
+      <c r="M58" s="30">
+        <v>80</v>
+      </c>
+      <c r="W58" s="31"/>
+      <c r="AC58" s="31"/>
+      <c r="AF58" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(57,4,'Bettel ouvert',4,3,80), </v>
+      </c>
+      <c r="AK58" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H58&amp;","&amp;I58&amp;",'"&amp;J58&amp;"',"&amp;K58&amp;","&amp;L58&amp;","&amp;M58&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(57,4,'Bettel ouvert',4,3,80);</v>
+      </c>
+    </row>
+    <row r="59" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H59" s="30">
+        <v>58</v>
+      </c>
+      <c r="I59" s="30">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>181</v>
+      </c>
+      <c r="K59" s="30">
+        <v>3</v>
+      </c>
+      <c r="L59" s="30">
+        <v>4</v>
+      </c>
+      <c r="M59" s="30">
+        <v>100</v>
+      </c>
+      <c r="W59" s="31"/>
+      <c r="AC59" s="31"/>
+      <c r="AF59" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(58,4,'Farbensolo',3,4,100), </v>
+      </c>
+      <c r="AK59" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H59&amp;","&amp;I59&amp;",'"&amp;J59&amp;"',"&amp;K59&amp;","&amp;L59&amp;","&amp;M59&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(58,4,'Farbensolo',3,4,100);</v>
+      </c>
+    </row>
+    <row r="60" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H60" s="30">
+        <v>59</v>
+      </c>
+      <c r="I60" s="30">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60" s="30">
+        <v>2</v>
+      </c>
+      <c r="L60" s="30">
+        <v>4</v>
+      </c>
+      <c r="M60" s="30">
+        <v>100</v>
+      </c>
+      <c r="W60" s="31"/>
+      <c r="AC60" s="31"/>
+      <c r="AF60" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(59,4,'Solodreier',2,4,100), </v>
+      </c>
+      <c r="AK60" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H60&amp;","&amp;I60&amp;",'"&amp;J60&amp;"',"&amp;K60&amp;","&amp;L60&amp;","&amp;M60&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(59,4,'Solodreier',2,4,100);</v>
+      </c>
+    </row>
+    <row r="61" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H61" s="30">
+        <v>60</v>
+      </c>
+      <c r="I61" s="30">
+        <v>5</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K61" s="30">
+        <v>4</v>
+      </c>
+      <c r="L61" s="30">
+        <v>1</v>
+      </c>
+      <c r="M61" s="30">
+        <v>50</v>
+      </c>
+      <c r="W61" s="31"/>
+      <c r="AC61" s="31"/>
+      <c r="AF61" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(60,5,'Trischaken',4,1,50), </v>
+      </c>
+      <c r="AK61" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H61&amp;","&amp;I61&amp;",'"&amp;J61&amp;"',"&amp;K61&amp;","&amp;L61&amp;","&amp;M61&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(60,5,'Trischaken',4,1,50);</v>
+      </c>
+    </row>
+    <row r="62" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H62" s="30">
+        <v>61</v>
+      </c>
+      <c r="I62" s="30">
+        <v>5</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="30">
+        <v>1</v>
+      </c>
+      <c r="L62" s="30">
+        <v>1</v>
+      </c>
+      <c r="M62" s="30">
         <v>10</v>
       </c>
-      <c r="O8" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I8&amp;","&amp;J8&amp;",'"&amp;K8&amp;"',"&amp;L8&amp;","&amp;M8&amp;","&amp;N8&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(7,1,'Besserrufer (+Vogel)',1,5,10);</v>
-      </c>
-      <c r="R8" s="30">
-        <v>7</v>
-      </c>
-      <c r="S8" s="30">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>188</v>
-      </c>
-      <c r="U8" s="30">
-        <v>2</v>
-      </c>
-      <c r="V8" s="30">
+      <c r="W62" s="31"/>
+      <c r="AC62" s="31"/>
+      <c r="AF62" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(61,5,'Rufer',1,1,10), </v>
+      </c>
+      <c r="AK62" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H62&amp;","&amp;I62&amp;",'"&amp;J62&amp;"',"&amp;K62&amp;","&amp;L62&amp;","&amp;M62&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(61,5,'Rufer',1,1,10);</v>
+      </c>
+    </row>
+    <row r="63" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H63" s="30">
+        <v>62</v>
+      </c>
+      <c r="I63" s="30">
+        <v>5</v>
+      </c>
+      <c r="J63" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="K63" s="30">
+        <v>2</v>
+      </c>
+      <c r="L63" s="30">
+        <v>1</v>
+      </c>
+      <c r="M63" s="30">
+        <v>50</v>
+      </c>
+      <c r="W63" s="31"/>
+      <c r="AC63" s="31"/>
+      <c r="AF63" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(62,5,'Sechserdreier',2,1,50), </v>
+      </c>
+      <c r="AK63" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H63&amp;","&amp;I63&amp;",'"&amp;J63&amp;"',"&amp;K63&amp;","&amp;L63&amp;","&amp;M63&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(62,5,'Sechserdreier',2,1,50);</v>
+      </c>
+    </row>
+    <row r="64" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H64" s="30">
+        <v>63</v>
+      </c>
+      <c r="I64" s="30">
+        <v>5</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K64" s="30">
+        <v>4</v>
+      </c>
+      <c r="L64" s="30">
+        <v>2</v>
+      </c>
+      <c r="M64" s="30">
+        <v>20</v>
+      </c>
+      <c r="W64" s="31"/>
+      <c r="AC64" s="31"/>
+      <c r="AF64" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(63,5,'Piccolo',4,2,20), </v>
+      </c>
+      <c r="AK64" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H64&amp;","&amp;I64&amp;",'"&amp;J64&amp;"',"&amp;K64&amp;","&amp;L64&amp;","&amp;M64&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(63,5,'Piccolo',4,2,20);</v>
+      </c>
+    </row>
+    <row r="65" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H65" s="30">
+        <v>64</v>
+      </c>
+      <c r="I65" s="30">
+        <v>5</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="K65" s="30">
+        <v>4</v>
+      </c>
+      <c r="L65" s="30">
+        <v>2</v>
+      </c>
+      <c r="M65" s="30">
+        <v>20</v>
+      </c>
+      <c r="W65" s="31"/>
+      <c r="AC65" s="31"/>
+      <c r="AF65" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(64,5,'Zwiccolo',4,2,20), </v>
+      </c>
+      <c r="AK65" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H65&amp;","&amp;I65&amp;",'"&amp;J65&amp;"',"&amp;K65&amp;","&amp;L65&amp;","&amp;M65&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(64,5,'Zwiccolo',4,2,20);</v>
+      </c>
+    </row>
+    <row r="66" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H66" s="30">
+        <v>65</v>
+      </c>
+      <c r="I66" s="30">
+        <v>5</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K66" s="30">
+        <v>4</v>
+      </c>
+      <c r="L66" s="30">
+        <v>2</v>
+      </c>
+      <c r="M66" s="30">
+        <v>20</v>
+      </c>
+      <c r="W66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AF66" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">(65,5,'Triccolo',4,2,20), </v>
+      </c>
+      <c r="AK66" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H66&amp;","&amp;I66&amp;",'"&amp;J66&amp;"',"&amp;K66&amp;","&amp;L66&amp;","&amp;M66&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(65,5,'Triccolo',4,2,20);</v>
+      </c>
+    </row>
+    <row r="67" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H67" s="30">
+        <v>66</v>
+      </c>
+      <c r="I67" s="30">
+        <v>5</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K67" s="30">
+        <v>1</v>
+      </c>
+      <c r="L67" s="30">
+        <v>4</v>
+      </c>
+      <c r="M67" s="30">
+        <v>20</v>
+      </c>
+      <c r="W67" s="31"/>
+      <c r="AC67" s="31"/>
+      <c r="AF67" s="31" t="str">
+        <f t="shared" ref="AF67:AF70" si="4">"("&amp;H67&amp;","&amp;I67&amp;",'"&amp;J67&amp;"',"&amp;K67&amp;","&amp;L67&amp;","&amp;M67&amp;")"&amp;IF(H68="",");",", ")</f>
+        <v xml:space="preserve">(66,5,'Solorufer',1,4,20), </v>
+      </c>
+      <c r="AK67" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H67&amp;","&amp;I67&amp;",'"&amp;J67&amp;"',"&amp;K67&amp;","&amp;L67&amp;","&amp;M67&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(66,5,'Solorufer',1,4,20);</v>
+      </c>
+    </row>
+    <row r="68" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H68" s="30">
+        <v>67</v>
+      </c>
+      <c r="I68" s="30">
+        <v>5</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K68" s="30">
+        <v>1</v>
+      </c>
+      <c r="L68" s="30">
+        <v>5</v>
+      </c>
+      <c r="M68" s="30">
+        <v>30</v>
+      </c>
+      <c r="W68" s="31"/>
+      <c r="AC68" s="31"/>
+      <c r="AF68" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">(67,5,'Pagatrufer',1,5,30), </v>
+      </c>
+      <c r="AK68" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H68&amp;","&amp;I68&amp;",'"&amp;J68&amp;"',"&amp;K68&amp;","&amp;L68&amp;","&amp;M68&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(67,5,'Pagatrufer',1,5,30);</v>
+      </c>
+    </row>
+    <row r="69" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H69" s="30">
+        <v>68</v>
+      </c>
+      <c r="I69" s="30">
+        <v>5</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="K69" s="30">
+        <v>4</v>
+      </c>
+      <c r="L69" s="30">
+        <v>3</v>
+      </c>
+      <c r="M69" s="30">
+        <v>40</v>
+      </c>
+      <c r="W69" s="31"/>
+      <c r="AC69" s="31"/>
+      <c r="AF69" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">(68,5,'Bettel',4,3,40), </v>
+      </c>
+      <c r="AK69" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H69&amp;","&amp;I69&amp;",'"&amp;J69&amp;"',"&amp;K69&amp;","&amp;L69&amp;","&amp;M69&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(68,5,'Bettel',4,3,40);</v>
+      </c>
+    </row>
+    <row r="70" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H70" s="30">
+        <v>69</v>
+      </c>
+      <c r="I70" s="30">
+        <v>5</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K70" s="30">
+        <v>1</v>
+      </c>
+      <c r="L70" s="30">
+        <v>5</v>
+      </c>
+      <c r="M70" s="30">
+        <v>50</v>
+      </c>
+      <c r="W70" s="31"/>
+      <c r="AC70" s="31"/>
+      <c r="AF70" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">(69,5,'Uhurufer',1,5,50), </v>
+      </c>
+      <c r="AK70" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H70&amp;","&amp;I70&amp;",'"&amp;J70&amp;"',"&amp;K70&amp;","&amp;L70&amp;","&amp;M70&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(69,5,'Uhurufer',1,5,50);</v>
+      </c>
+    </row>
+    <row r="71" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H71" s="30">
+        <v>70</v>
+      </c>
+      <c r="I71" s="30">
+        <v>5</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K71" s="30">
+        <v>3</v>
+      </c>
+      <c r="L71" s="30">
         <v>0</v>
       </c>
-      <c r="W8" s="30">
-        <v>10</v>
-      </c>
-      <c r="X8" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R8&amp;","&amp;S8&amp;",'"&amp;T8&amp;"',"&amp;U8&amp;","&amp;V8&amp;",'"&amp;W8&amp;"','"&amp;X8&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(7,1,'4 Könige',2,0,'10','20');</v>
-      </c>
-      <c r="AB8" s="30">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="30">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB8&amp;","&amp;AC8&amp;","&amp;AD8&amp;","&amp;AE8&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(7,3,1,1);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I9" s="30">
-        <v>8</v>
-      </c>
-      <c r="J9" s="30">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="30">
-        <v>4</v>
-      </c>
-      <c r="M9" s="30">
-        <v>3</v>
-      </c>
-      <c r="N9" s="30">
-        <v>30</v>
-      </c>
-      <c r="O9" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I9&amp;","&amp;J9&amp;",'"&amp;K9&amp;"',"&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(8,1,'Bettler',4,3,30);</v>
-      </c>
-      <c r="R9" s="30">
-        <v>8</v>
-      </c>
-      <c r="S9" s="30">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>202</v>
-      </c>
-      <c r="U9" s="30">
-        <v>3</v>
-      </c>
-      <c r="V9" s="30">
+      <c r="M71" s="30">
+        <v>40</v>
+      </c>
+      <c r="W71" s="31"/>
+      <c r="AC71" s="31"/>
+      <c r="AF71" s="31" t="str">
+        <f>"("&amp;H71&amp;","&amp;I71&amp;",'"&amp;J71&amp;"',"&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;")"&amp;IF(H72="",");",", ")</f>
+        <v xml:space="preserve">(70,5,'Farbendreier',3,0,40), </v>
+      </c>
+      <c r="AK71" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H71&amp;","&amp;I71&amp;",'"&amp;J71&amp;"',"&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(70,5,'Farbendreier',3,0,40);</v>
+      </c>
+    </row>
+    <row r="72" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H72" s="30">
+        <v>71</v>
+      </c>
+      <c r="I72" s="30">
+        <v>5</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="30">
+        <v>2</v>
+      </c>
+      <c r="L72" s="30">
         <v>0</v>
       </c>
-      <c r="W9" s="30">
-        <v>10</v>
-      </c>
-      <c r="X9" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R9&amp;","&amp;S9&amp;",'"&amp;T9&amp;"',"&amp;U9&amp;","&amp;V9&amp;",'"&amp;W9&amp;"','"&amp;X9&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(8,1,'1. Sack (≥45/2)',3,0,'10','20');</v>
-      </c>
-      <c r="AB9" s="30">
-        <v>8</v>
-      </c>
-      <c r="AC9" s="30">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="34">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB9&amp;","&amp;AC9&amp;","&amp;AD9&amp;","&amp;AE9&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(8,3,2,2);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I10" s="30">
-        <v>9</v>
-      </c>
-      <c r="J10" s="30">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="30">
-        <v>3</v>
-      </c>
-      <c r="M10" s="30">
-        <v>0</v>
-      </c>
-      <c r="N10" s="30">
+      <c r="M72" s="30">
+        <v>50</v>
+      </c>
+      <c r="W72" s="31"/>
+      <c r="AC72" s="31"/>
+      <c r="AF72" s="31" t="str">
+        <f t="shared" ref="AF72:AF109" si="5">"("&amp;H72&amp;","&amp;I72&amp;",'"&amp;J72&amp;"',"&amp;K72&amp;","&amp;L72&amp;","&amp;M72&amp;")"&amp;IF(H73="",");",", ")</f>
+        <v xml:space="preserve">(71,5,'Dreier',2,0,50), </v>
+      </c>
+      <c r="AK72" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H72&amp;","&amp;I72&amp;",'"&amp;J72&amp;"',"&amp;K72&amp;","&amp;L72&amp;","&amp;M72&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(71,5,'Dreier',2,0,50);</v>
+      </c>
+    </row>
+    <row r="73" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H73" s="30">
+        <v>72</v>
+      </c>
+      <c r="I73" s="30">
+        <v>5</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="K73" s="30">
+        <v>4</v>
+      </c>
+      <c r="L73" s="30">
+        <v>2</v>
+      </c>
+      <c r="M73" s="30">
         <v>40</v>
       </c>
-      <c r="O10" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I10&amp;","&amp;J10&amp;",'"&amp;K10&amp;"',"&amp;L10&amp;","&amp;M10&amp;","&amp;N10&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(9,1,'Farbendreier',3,0,40);</v>
-      </c>
-      <c r="R10" s="30">
-        <v>9</v>
-      </c>
-      <c r="S10" s="30">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>203</v>
-      </c>
-      <c r="U10" s="30">
-        <v>3</v>
-      </c>
-      <c r="V10" s="30">
-        <v>0</v>
-      </c>
-      <c r="W10" s="30">
-        <v>20</v>
-      </c>
-      <c r="X10" s="30">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R10&amp;","&amp;S10&amp;",'"&amp;T10&amp;"',"&amp;U10&amp;","&amp;V10&amp;",'"&amp;W10&amp;"','"&amp;X10&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(9,1,'2. Sack (≥55/2)',3,0,'20','40');</v>
-      </c>
-      <c r="AB10" s="30">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="30">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="34">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB10&amp;","&amp;AC10&amp;","&amp;AD10&amp;","&amp;AE10&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(9,3,3,2);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I11" s="30">
-        <v>10</v>
-      </c>
-      <c r="J11" s="30">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="30">
-        <v>2</v>
-      </c>
-      <c r="M11" s="30">
-        <v>0</v>
-      </c>
-      <c r="N11" s="30">
-        <v>40</v>
-      </c>
-      <c r="O11" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I11&amp;","&amp;J11&amp;",'"&amp;K11&amp;"',"&amp;L11&amp;","&amp;M11&amp;","&amp;N11&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(10,1,'Dreier',2,0,40);</v>
-      </c>
-      <c r="R11" s="30">
-        <v>10</v>
-      </c>
-      <c r="S11" s="30">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U11" s="30">
-        <v>3</v>
-      </c>
-      <c r="V11" s="30">
-        <v>0</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="X11" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y11" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R11&amp;","&amp;S11&amp;",'"&amp;T11&amp;"',"&amp;U11&amp;","&amp;V11&amp;",'"&amp;W11&amp;"','"&amp;X11&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(10,1,'Valat',3,0,'x4','x8');</v>
-      </c>
-      <c r="AB11" s="30">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="30">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB11&amp;","&amp;AC11&amp;","&amp;AD11&amp;","&amp;AE11&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(10,4,1,1);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I12" s="30">
-        <v>11</v>
-      </c>
-      <c r="J12" s="30">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12" s="30">
-        <v>4</v>
-      </c>
-      <c r="M12" s="30">
-        <v>2</v>
-      </c>
-      <c r="N12" s="30">
-        <v>50</v>
-      </c>
-      <c r="O12" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I12&amp;","&amp;J12&amp;",'"&amp;K12&amp;"',"&amp;L12&amp;","&amp;M12&amp;","&amp;N12&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(11,1,'Piccolo ouvert',4,2,50);</v>
-      </c>
-      <c r="R12" s="30">
-        <v>11</v>
-      </c>
-      <c r="S12" s="30">
-        <v>2</v>
-      </c>
-      <c r="T12" t="s">
-        <v>183</v>
-      </c>
-      <c r="U12" s="30">
-        <v>1</v>
-      </c>
-      <c r="V12" s="30">
-        <v>0</v>
-      </c>
-      <c r="W12" s="30">
-        <v>10</v>
-      </c>
-      <c r="X12" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R12&amp;","&amp;S12&amp;",'"&amp;T12&amp;"',"&amp;U12&amp;","&amp;V12&amp;",'"&amp;W12&amp;"','"&amp;X12&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(11,2,'Pagat',1,0,'10','20');</v>
-      </c>
-      <c r="AB12" s="30">
-        <v>11</v>
-      </c>
-      <c r="AC12" s="30">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="34">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB12&amp;","&amp;AC12&amp;","&amp;AD12&amp;","&amp;AE12&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(11,4,2,2);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I13" s="30">
-        <v>12</v>
-      </c>
-      <c r="J13" s="30">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="30">
-        <v>4</v>
-      </c>
-      <c r="M13" s="30">
-        <v>2</v>
-      </c>
-      <c r="N13" s="30">
-        <v>50</v>
-      </c>
-      <c r="O13" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I13&amp;","&amp;J13&amp;",'"&amp;K13&amp;"',"&amp;L13&amp;","&amp;M13&amp;","&amp;N13&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(12,1,'Zwiccolo ouvert',4,2,50);</v>
-      </c>
-      <c r="R13" s="30">
-        <v>12</v>
-      </c>
-      <c r="S13" s="30">
-        <v>2</v>
-      </c>
-      <c r="T13" t="s">
-        <v>184</v>
-      </c>
-      <c r="U13" s="30">
-        <v>1</v>
-      </c>
-      <c r="V13" s="30">
-        <v>0</v>
-      </c>
-      <c r="W13" s="30">
-        <v>20</v>
-      </c>
-      <c r="X13" s="30">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R13&amp;","&amp;S13&amp;",'"&amp;T13&amp;"',"&amp;U13&amp;","&amp;V13&amp;",'"&amp;W13&amp;"','"&amp;X13&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(12,2,'Uhu',1,0,'20','40');</v>
-      </c>
-      <c r="AB13" s="30">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="30">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="34">
-        <v>3</v>
-      </c>
-      <c r="AE13" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB13&amp;","&amp;AC13&amp;","&amp;AD13&amp;","&amp;AE13&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(12,4,3,2);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I14" s="30">
-        <v>13</v>
-      </c>
-      <c r="J14" s="30">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>180</v>
-      </c>
-      <c r="L14" s="30">
-        <v>4</v>
-      </c>
-      <c r="M14" s="30">
-        <v>3</v>
-      </c>
-      <c r="N14" s="30">
+      <c r="W73" s="31"/>
+      <c r="AC73" s="31"/>
+      <c r="AF73" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">(72,5,'Piccolo ouvert',4,2,40), </v>
+      </c>
+      <c r="AK73" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H73&amp;","&amp;I73&amp;",'"&amp;J73&amp;"',"&amp;K73&amp;","&amp;L73&amp;","&amp;M73&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(72,5,'Piccolo ouvert',4,2,40);</v>
+      </c>
+    </row>
+    <row r="74" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H74" s="30">
+        <v>73</v>
+      </c>
+      <c r="I74" s="30">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K74" s="30">
+        <v>1</v>
+      </c>
+      <c r="L74" s="30">
+        <v>5</v>
+      </c>
+      <c r="M74" s="30">
         <v>70</v>
       </c>
-      <c r="O14" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I14&amp;","&amp;J14&amp;",'"&amp;K14&amp;"',"&amp;L14&amp;","&amp;M14&amp;","&amp;N14&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(13,1,'Bettler ouvert',4,3,70);</v>
-      </c>
-      <c r="R14" s="30">
-        <v>13</v>
-      </c>
-      <c r="S14" s="30">
-        <v>2</v>
-      </c>
-      <c r="T14" t="s">
-        <v>185</v>
-      </c>
-      <c r="U14" s="30">
-        <v>1</v>
-      </c>
-      <c r="V14" s="30">
-        <v>0</v>
-      </c>
-      <c r="W14" s="30">
-        <v>30</v>
-      </c>
-      <c r="X14" s="30">
-        <v>60</v>
-      </c>
-      <c r="Y14" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R14&amp;","&amp;S14&amp;",'"&amp;T14&amp;"',"&amp;U14&amp;","&amp;V14&amp;",'"&amp;W14&amp;"','"&amp;X14&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(13,2,'Kakadu',1,0,'30','60');</v>
-      </c>
-      <c r="AB14" s="30">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="30">
+      <c r="W74" s="31"/>
+      <c r="AC74" s="31"/>
+      <c r="AF74" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">(73,5,'Kakadurufer',1,5,70), </v>
+      </c>
+      <c r="AK74" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H74&amp;","&amp;I74&amp;",'"&amp;J74&amp;"',"&amp;K74&amp;","&amp;L74&amp;","&amp;M74&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(73,5,'Kakadurufer',1,5,70);</v>
+      </c>
+    </row>
+    <row r="75" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H75" s="30">
+        <v>74</v>
+      </c>
+      <c r="I75" s="30">
         <v>5</v>
       </c>
-      <c r="AD14" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB14&amp;","&amp;AC14&amp;","&amp;AD14&amp;","&amp;AE14&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(13,5,1,1);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I15" s="30">
-        <v>14</v>
-      </c>
-      <c r="J15" s="30">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J75" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="K75" s="30">
+        <v>4</v>
+      </c>
+      <c r="L75" s="30">
+        <v>3</v>
+      </c>
+      <c r="M75" s="30">
+        <v>80</v>
+      </c>
+      <c r="W75" s="31"/>
+      <c r="AC75" s="31"/>
+      <c r="AF75" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">(74,5,'Bettel ouvert',4,3,80), </v>
+      </c>
+      <c r="AK75" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H75&amp;","&amp;I75&amp;",'"&amp;J75&amp;"',"&amp;K75&amp;","&amp;L75&amp;","&amp;M75&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(74,5,'Bettel ouvert',4,3,80);</v>
+      </c>
+    </row>
+    <row r="76" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H76" s="30">
+        <v>75</v>
+      </c>
+      <c r="I76" s="30">
+        <v>5</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" s="30">
+        <v>1</v>
+      </c>
+      <c r="L76" s="30">
+        <v>5</v>
+      </c>
+      <c r="M76" s="30">
+        <v>90</v>
+      </c>
+      <c r="W76" s="31"/>
+      <c r="AC76" s="31"/>
+      <c r="AF76" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">(75,5,'Quapilrufer',1,5,90), </v>
+      </c>
+      <c r="AK76" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H76&amp;","&amp;I76&amp;",'"&amp;J76&amp;"',"&amp;K76&amp;","&amp;L76&amp;","&amp;M76&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(75,5,'Quapilrufer',1,5,90);</v>
+      </c>
+    </row>
+    <row r="77" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H77" s="30">
+        <v>76</v>
+      </c>
+      <c r="I77" s="30">
+        <v>5</v>
+      </c>
+      <c r="J77" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="30">
-        <v>3</v>
-      </c>
-      <c r="M15" s="30">
-        <v>4</v>
-      </c>
-      <c r="N15" s="30">
+      <c r="K77" s="30">
+        <v>3</v>
+      </c>
+      <c r="L77" s="30">
+        <v>4</v>
+      </c>
+      <c r="M77" s="30">
         <v>80</v>
       </c>
-      <c r="O15" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I15&amp;","&amp;J15&amp;",'"&amp;K15&amp;"',"&amp;L15&amp;","&amp;M15&amp;","&amp;N15&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(14,1,'Farbensolo',3,4,80);</v>
-      </c>
-      <c r="R15" s="30">
-        <v>14</v>
-      </c>
-      <c r="S15" s="30">
-        <v>2</v>
-      </c>
-      <c r="T15" t="s">
-        <v>200</v>
-      </c>
-      <c r="U15" s="30">
-        <v>1</v>
-      </c>
-      <c r="V15" s="30">
-        <v>0</v>
-      </c>
-      <c r="W15" s="30">
-        <v>40</v>
-      </c>
-      <c r="X15" s="30">
-        <v>80</v>
-      </c>
-      <c r="Y15" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R15&amp;","&amp;S15&amp;",'"&amp;T15&amp;"',"&amp;U15&amp;","&amp;V15&amp;",'"&amp;W15&amp;"','"&amp;X15&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(14,2,'Quapil',1,0,'40','80');</v>
-      </c>
-      <c r="AB15" s="30">
-        <v>14</v>
-      </c>
-      <c r="AC15" s="30">
+      <c r="W77" s="31"/>
+      <c r="AC77" s="31"/>
+      <c r="AF77" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">(76,5,'Farbensolo',3,4,80), </v>
+      </c>
+      <c r="AK77" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H77&amp;","&amp;I77&amp;",'"&amp;J77&amp;"',"&amp;K77&amp;","&amp;L77&amp;","&amp;M77&amp;");"</f>
+        <v>INSERT INTO tariff VALUES(76,5,'Farbensolo',3,4,80);</v>
+      </c>
+    </row>
+    <row r="78" spans="8:37" x14ac:dyDescent="0.25">
+      <c r="H78" s="30">
+        <v>77</v>
+      </c>
+      <c r="I78" s="30">
         <v>5</v>
       </c>
-      <c r="AD15" s="34">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB15&amp;","&amp;AC15&amp;","&amp;AD15&amp;","&amp;AE15&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(14,5,2,2);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I16" s="30">
-        <v>15</v>
-      </c>
-      <c r="J16" s="30">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J78" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="30">
-        <v>2</v>
-      </c>
-      <c r="M16" s="30">
-        <v>4</v>
-      </c>
-      <c r="N16" s="30">
-        <v>80</v>
-      </c>
-      <c r="O16" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I16&amp;","&amp;J16&amp;",'"&amp;K16&amp;"',"&amp;L16&amp;","&amp;M16&amp;","&amp;N16&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(15,1,'Solodreier',2,4,80);</v>
-      </c>
-      <c r="R16" s="30">
-        <v>15</v>
-      </c>
-      <c r="S16" s="30">
-        <v>2</v>
-      </c>
-      <c r="T16" t="s">
-        <v>186</v>
-      </c>
-      <c r="U16" s="30">
-        <v>2</v>
-      </c>
-      <c r="V16" s="30">
-        <v>0</v>
-      </c>
-      <c r="W16" s="30">
-        <v>10</v>
-      </c>
-      <c r="X16" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R16&amp;","&amp;S16&amp;",'"&amp;T16&amp;"',"&amp;U16&amp;","&amp;V16&amp;",'"&amp;W16&amp;"','"&amp;X16&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(15,2,'König ultimo',2,0,'10','20');</v>
-      </c>
-      <c r="AB16" s="30">
-        <v>15</v>
-      </c>
-      <c r="AC16" s="30">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="34">
-        <v>3</v>
-      </c>
-      <c r="AE16" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="32" t="str">
-        <f>"INSERT INTO "&amp;$AA$1&amp;" VALUES("&amp;AB16&amp;","&amp;AC16&amp;","&amp;AD16&amp;","&amp;AE16&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(15,5,3,2);</v>
-      </c>
-    </row>
-    <row r="17" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I17" s="30">
-        <v>16</v>
-      </c>
-      <c r="J17" s="30">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>194</v>
-      </c>
-      <c r="L17" s="30">
-        <v>4</v>
-      </c>
-      <c r="M17" s="30">
-        <v>1</v>
-      </c>
-      <c r="N17" s="30">
-        <v>10</v>
-      </c>
-      <c r="O17" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I17&amp;","&amp;J17&amp;",'"&amp;K17&amp;"',"&amp;L17&amp;","&amp;M17&amp;","&amp;N17&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(16,2,'Trischaken',4,1,10);</v>
-      </c>
-      <c r="R17" s="30">
-        <v>16</v>
-      </c>
-      <c r="S17" s="30">
-        <v>2</v>
-      </c>
-      <c r="T17" t="s">
-        <v>187</v>
-      </c>
-      <c r="U17" s="30">
-        <v>1</v>
-      </c>
-      <c r="V17" s="30">
-        <v>0</v>
-      </c>
-      <c r="W17" s="30">
-        <v>10</v>
-      </c>
-      <c r="X17" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y17" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R17&amp;","&amp;S17&amp;",'"&amp;T17&amp;"',"&amp;U17&amp;","&amp;V17&amp;",'"&amp;W17&amp;"','"&amp;X17&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(16,2,'Trull',1,0,'10','20');</v>
-      </c>
-      <c r="AF17" s="32"/>
-    </row>
-    <row r="18" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I18" s="30">
-        <v>17</v>
-      </c>
-      <c r="J18" s="30">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="30">
-        <v>1</v>
-      </c>
-      <c r="M18" s="30">
-        <v>1</v>
-      </c>
-      <c r="N18" s="30">
-        <v>10</v>
-      </c>
-      <c r="O18" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I18&amp;","&amp;J18&amp;",'"&amp;K18&amp;"',"&amp;L18&amp;","&amp;M18&amp;","&amp;N18&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(17,2,'Rufer',1,1,10);</v>
-      </c>
-      <c r="R18" s="30">
-        <v>17</v>
-      </c>
-      <c r="S18" s="30">
-        <v>2</v>
-      </c>
-      <c r="T18" t="s">
-        <v>188</v>
-      </c>
-      <c r="U18" s="30">
-        <v>2</v>
-      </c>
-      <c r="V18" s="30">
-        <v>0</v>
-      </c>
-      <c r="W18" s="30">
-        <v>10</v>
-      </c>
-      <c r="X18" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R18&amp;","&amp;S18&amp;",'"&amp;T18&amp;"',"&amp;U18&amp;","&amp;V18&amp;",'"&amp;W18&amp;"','"&amp;X18&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(17,2,'4 Könige',2,0,'10','20');</v>
-      </c>
-      <c r="AF18" s="32"/>
-    </row>
-    <row r="19" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I19" s="30">
-        <v>18</v>
-      </c>
-      <c r="J19" s="30">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
-        <v>195</v>
-      </c>
-      <c r="L19" s="30">
-        <v>2</v>
-      </c>
-      <c r="M19" s="30">
-        <v>1</v>
-      </c>
-      <c r="N19" s="30">
-        <v>40</v>
-      </c>
-      <c r="O19" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I19&amp;","&amp;J19&amp;",'"&amp;K19&amp;"',"&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(18,2,'Sechserdreier',2,1,40);</v>
-      </c>
-      <c r="R19" s="30">
-        <v>18</v>
-      </c>
-      <c r="S19" s="30">
-        <v>2</v>
-      </c>
-      <c r="T19" t="s">
-        <v>17</v>
-      </c>
-      <c r="U19" s="30">
-        <v>3</v>
-      </c>
-      <c r="V19" s="30">
-        <v>0</v>
-      </c>
-      <c r="W19" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="X19" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y19" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R19&amp;","&amp;S19&amp;",'"&amp;T19&amp;"',"&amp;U19&amp;","&amp;V19&amp;",'"&amp;W19&amp;"','"&amp;X19&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(18,2,'Valat',3,0,'x4','x8');</v>
-      </c>
-      <c r="AF19" s="32"/>
-    </row>
-    <row r="20" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I20" s="30">
-        <v>19</v>
-      </c>
-      <c r="J20" s="30">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" s="30">
-        <v>4</v>
-      </c>
-      <c r="M20" s="30">
-        <v>2</v>
-      </c>
-      <c r="N20" s="30">
-        <v>20</v>
-      </c>
-      <c r="O20" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I20&amp;","&amp;J20&amp;",'"&amp;K20&amp;"',"&amp;L20&amp;","&amp;M20&amp;","&amp;N20&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(19,2,'Piccolo',4,2,20);</v>
-      </c>
-      <c r="R20" s="30">
-        <v>19</v>
-      </c>
-      <c r="S20" s="30">
-        <v>3</v>
-      </c>
-      <c r="T20" t="s">
-        <v>183</v>
-      </c>
-      <c r="U20" s="30">
-        <v>1</v>
-      </c>
-      <c r="V20" s="30">
-        <v>0</v>
-      </c>
-      <c r="W20" s="30">
-        <v>10</v>
-      </c>
-      <c r="X20" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y20" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R20&amp;","&amp;S20&amp;",'"&amp;T20&amp;"',"&amp;U20&amp;","&amp;V20&amp;",'"&amp;W20&amp;"','"&amp;X20&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(19,3,'Pagat',1,0,'10','20');</v>
-      </c>
-      <c r="AF20" s="32"/>
-    </row>
-    <row r="21" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I21" s="30">
-        <v>20</v>
-      </c>
-      <c r="J21" s="30">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L21" s="30">
-        <v>4</v>
-      </c>
-      <c r="M21" s="30">
-        <v>2</v>
-      </c>
-      <c r="N21" s="30">
-        <v>20</v>
-      </c>
-      <c r="O21" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I21&amp;","&amp;J21&amp;",'"&amp;K21&amp;"',"&amp;L21&amp;","&amp;M21&amp;","&amp;N21&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(20,2,'Zwiccolo',4,2,20);</v>
-      </c>
-      <c r="R21" s="30">
-        <v>20</v>
-      </c>
-      <c r="S21" s="30">
-        <v>3</v>
-      </c>
-      <c r="T21" t="s">
-        <v>184</v>
-      </c>
-      <c r="U21" s="30">
-        <v>1</v>
-      </c>
-      <c r="V21" s="30">
-        <v>0</v>
-      </c>
-      <c r="W21" s="30">
-        <v>20</v>
-      </c>
-      <c r="X21" s="30">
-        <v>40</v>
-      </c>
-      <c r="Y21" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R21&amp;","&amp;S21&amp;",'"&amp;T21&amp;"',"&amp;U21&amp;","&amp;V21&amp;",'"&amp;W21&amp;"','"&amp;X21&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(20,3,'Uhu',1,0,'20','40');</v>
-      </c>
-      <c r="AF21" s="32"/>
-    </row>
-    <row r="22" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I22" s="30">
-        <v>21</v>
-      </c>
-      <c r="J22" s="30">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>177</v>
-      </c>
-      <c r="L22" s="30">
-        <v>1</v>
-      </c>
-      <c r="M22" s="30">
-        <v>4</v>
-      </c>
-      <c r="N22" s="30">
-        <v>20</v>
-      </c>
-      <c r="O22" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I22&amp;","&amp;J22&amp;",'"&amp;K22&amp;"',"&amp;L22&amp;","&amp;M22&amp;","&amp;N22&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(21,2,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="R22" s="30">
-        <v>21</v>
-      </c>
-      <c r="S22" s="30">
-        <v>3</v>
-      </c>
-      <c r="T22" t="s">
-        <v>185</v>
-      </c>
-      <c r="U22" s="30">
-        <v>1</v>
-      </c>
-      <c r="V22" s="30">
-        <v>0</v>
-      </c>
-      <c r="W22" s="30">
-        <v>30</v>
-      </c>
-      <c r="X22" s="30">
-        <v>60</v>
-      </c>
-      <c r="Y22" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R22&amp;","&amp;S22&amp;",'"&amp;T22&amp;"',"&amp;U22&amp;","&amp;V22&amp;",'"&amp;W22&amp;"','"&amp;X22&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(21,3,'Kakadu',1,0,'30','60');</v>
-      </c>
-      <c r="AF22" s="32"/>
-    </row>
-    <row r="23" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I23" s="30">
-        <v>22</v>
-      </c>
-      <c r="J23" s="30">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="30">
-        <v>1</v>
-      </c>
-      <c r="M23" s="30">
-        <v>5</v>
-      </c>
-      <c r="N23" s="30">
-        <v>30</v>
-      </c>
-      <c r="O23" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I23&amp;","&amp;J23&amp;",'"&amp;K23&amp;"',"&amp;L23&amp;","&amp;M23&amp;","&amp;N23&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(22,2,'Pagatrufer',1,5,30);</v>
-      </c>
-      <c r="R23" s="30">
-        <v>22</v>
-      </c>
-      <c r="S23" s="30">
-        <v>3</v>
-      </c>
-      <c r="T23" t="s">
-        <v>200</v>
-      </c>
-      <c r="U23" s="30">
-        <v>1</v>
-      </c>
-      <c r="V23" s="30">
-        <v>0</v>
-      </c>
-      <c r="W23" s="30">
-        <v>40</v>
-      </c>
-      <c r="X23" s="30">
-        <v>80</v>
-      </c>
-      <c r="Y23" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R23&amp;","&amp;S23&amp;",'"&amp;T23&amp;"',"&amp;U23&amp;","&amp;V23&amp;",'"&amp;W23&amp;"','"&amp;X23&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(22,3,'Quapil',1,0,'40','80');</v>
-      </c>
-      <c r="AF23" s="32"/>
-    </row>
-    <row r="24" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I24" s="30">
-        <v>23</v>
-      </c>
-      <c r="J24" s="30">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>197</v>
-      </c>
-      <c r="L24" s="30">
-        <v>4</v>
-      </c>
-      <c r="M24" s="30">
-        <v>3</v>
-      </c>
-      <c r="N24" s="30">
-        <v>40</v>
-      </c>
-      <c r="O24" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I24&amp;","&amp;J24&amp;",'"&amp;K24&amp;"',"&amp;L24&amp;","&amp;M24&amp;","&amp;N24&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(23,2,'Bettel',4,3,40);</v>
-      </c>
-      <c r="R24" s="30">
-        <v>23</v>
-      </c>
-      <c r="S24" s="30">
-        <v>3</v>
-      </c>
-      <c r="T24" t="s">
-        <v>186</v>
-      </c>
-      <c r="U24" s="30">
-        <v>2</v>
-      </c>
-      <c r="V24" s="30">
-        <v>0</v>
-      </c>
-      <c r="W24" s="30">
-        <v>10</v>
-      </c>
-      <c r="X24" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y24" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R24&amp;","&amp;S24&amp;",'"&amp;T24&amp;"',"&amp;U24&amp;","&amp;V24&amp;",'"&amp;W24&amp;"','"&amp;X24&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(23,3,'König ultimo',2,0,'10','20');</v>
-      </c>
-      <c r="AF24" s="32"/>
-    </row>
-    <row r="25" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I25" s="30">
-        <v>24</v>
-      </c>
-      <c r="J25" s="30">
-        <v>2</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="30">
-        <v>1</v>
-      </c>
-      <c r="M25" s="30">
-        <v>5</v>
-      </c>
-      <c r="N25" s="30">
-        <v>50</v>
-      </c>
-      <c r="O25" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I25&amp;","&amp;J25&amp;",'"&amp;K25&amp;"',"&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(24,2,'Uhurufer',1,5,50);</v>
-      </c>
-      <c r="R25" s="30">
-        <v>24</v>
-      </c>
-      <c r="S25" s="30">
-        <v>3</v>
-      </c>
-      <c r="T25" t="s">
-        <v>187</v>
-      </c>
-      <c r="U25" s="30">
-        <v>1</v>
-      </c>
-      <c r="V25" s="30">
-        <v>0</v>
-      </c>
-      <c r="W25" s="30">
-        <v>10</v>
-      </c>
-      <c r="X25" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y25" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R25&amp;","&amp;S25&amp;",'"&amp;T25&amp;"',"&amp;U25&amp;","&amp;V25&amp;",'"&amp;W25&amp;"','"&amp;X25&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(24,3,'Trull',1,0,'10','20');</v>
-      </c>
-      <c r="AF25" s="32"/>
-    </row>
-    <row r="26" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I26" s="30">
-        <v>25</v>
-      </c>
-      <c r="J26" s="30">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="30">
-        <v>3</v>
-      </c>
-      <c r="M26" s="30">
-        <v>0</v>
-      </c>
-      <c r="N26" s="30">
-        <v>50</v>
-      </c>
-      <c r="O26" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I26&amp;","&amp;J26&amp;",'"&amp;K26&amp;"',"&amp;L26&amp;","&amp;M26&amp;","&amp;N26&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(25,2,'Farbendreier',3,0,50);</v>
-      </c>
-      <c r="R26" s="30">
-        <v>25</v>
-      </c>
-      <c r="S26" s="30">
-        <v>3</v>
-      </c>
-      <c r="T26" t="s">
-        <v>188</v>
-      </c>
-      <c r="U26" s="30">
-        <v>2</v>
-      </c>
-      <c r="V26" s="30">
-        <v>0</v>
-      </c>
-      <c r="W26" s="30">
-        <v>10</v>
-      </c>
-      <c r="X26" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y26" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R26&amp;","&amp;S26&amp;",'"&amp;T26&amp;"',"&amp;U26&amp;","&amp;V26&amp;",'"&amp;W26&amp;"','"&amp;X26&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(25,3,'4 Könige',2,0,'10','20');</v>
-      </c>
-      <c r="AF26" s="32"/>
-    </row>
-    <row r="27" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I27" s="30">
-        <v>26</v>
-      </c>
-      <c r="J27" s="30">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="30">
-        <v>2</v>
-      </c>
-      <c r="M27" s="30">
-        <v>0</v>
-      </c>
-      <c r="N27" s="30">
-        <v>50</v>
-      </c>
-      <c r="O27" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I27&amp;","&amp;J27&amp;",'"&amp;K27&amp;"',"&amp;L27&amp;","&amp;M27&amp;","&amp;N27&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(26,2,'Dreier',2,0,50);</v>
-      </c>
-      <c r="R27" s="30">
-        <v>26</v>
-      </c>
-      <c r="S27" s="30">
-        <v>3</v>
-      </c>
-      <c r="T27" t="s">
-        <v>17</v>
-      </c>
-      <c r="U27" s="30">
-        <v>3</v>
-      </c>
-      <c r="V27" s="30">
-        <v>0</v>
-      </c>
-      <c r="W27" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="X27" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y27" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R27&amp;","&amp;S27&amp;",'"&amp;T27&amp;"',"&amp;U27&amp;","&amp;V27&amp;",'"&amp;W27&amp;"','"&amp;X27&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(26,3,'Valat',3,0,'x4','x8');</v>
-      </c>
-      <c r="AF27" s="32"/>
-    </row>
-    <row r="28" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I28" s="30">
-        <v>27</v>
-      </c>
-      <c r="J28" s="30">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" s="30">
-        <v>4</v>
-      </c>
-      <c r="M28" s="30">
-        <v>2</v>
-      </c>
-      <c r="N28" s="30">
-        <v>60</v>
-      </c>
-      <c r="O28" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I28&amp;","&amp;J28&amp;",'"&amp;K28&amp;"',"&amp;L28&amp;","&amp;M28&amp;","&amp;N28&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(27,2,'Piccolo ouvert',4,2,60);</v>
-      </c>
-      <c r="R28" s="30">
-        <v>27</v>
-      </c>
-      <c r="S28" s="30">
-        <v>4</v>
-      </c>
-      <c r="T28" t="s">
-        <v>183</v>
-      </c>
-      <c r="U28" s="30">
-        <v>1</v>
-      </c>
-      <c r="V28" s="30">
-        <v>0</v>
-      </c>
-      <c r="W28" s="30">
-        <v>10</v>
-      </c>
-      <c r="X28" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y28" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R28&amp;","&amp;S28&amp;",'"&amp;T28&amp;"',"&amp;U28&amp;","&amp;V28&amp;",'"&amp;W28&amp;"','"&amp;X28&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(27,4,'Pagat',1,0,'10','20');</v>
-      </c>
-      <c r="AF28" s="32"/>
-    </row>
-    <row r="29" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I29" s="30">
-        <v>28</v>
-      </c>
-      <c r="J29" s="30">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="30">
-        <v>4</v>
-      </c>
-      <c r="M29" s="30">
-        <v>2</v>
-      </c>
-      <c r="N29" s="30">
-        <v>60</v>
-      </c>
-      <c r="O29" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I29&amp;","&amp;J29&amp;",'"&amp;K29&amp;"',"&amp;L29&amp;","&amp;M29&amp;","&amp;N29&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(28,2,'Zwiccolo ouvert',4,2,60);</v>
-      </c>
-      <c r="R29" s="30">
-        <v>28</v>
-      </c>
-      <c r="S29" s="30">
-        <v>4</v>
-      </c>
-      <c r="T29" t="s">
-        <v>184</v>
-      </c>
-      <c r="U29" s="30">
-        <v>1</v>
-      </c>
-      <c r="V29" s="30">
-        <v>0</v>
-      </c>
-      <c r="W29" s="30">
-        <v>20</v>
-      </c>
-      <c r="X29" s="30">
-        <v>40</v>
-      </c>
-      <c r="Y29" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R29&amp;","&amp;S29&amp;",'"&amp;T29&amp;"',"&amp;U29&amp;","&amp;V29&amp;",'"&amp;W29&amp;"','"&amp;X29&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(28,4,'Uhu',1,0,'20','40');</v>
-      </c>
-      <c r="AF29" s="32"/>
-    </row>
-    <row r="30" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I30" s="30">
-        <v>29</v>
-      </c>
-      <c r="J30" s="30">
-        <v>2</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="30">
-        <v>1</v>
-      </c>
-      <c r="M30" s="30">
-        <v>5</v>
-      </c>
-      <c r="N30" s="30">
-        <v>70</v>
-      </c>
-      <c r="O30" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I30&amp;","&amp;J30&amp;",'"&amp;K30&amp;"',"&amp;L30&amp;","&amp;M30&amp;","&amp;N30&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(29,2,'Kakadurufer',1,5,70);</v>
-      </c>
-      <c r="R30" s="30">
-        <v>29</v>
-      </c>
-      <c r="S30" s="30">
-        <v>4</v>
-      </c>
-      <c r="T30" t="s">
-        <v>185</v>
-      </c>
-      <c r="U30" s="30">
-        <v>1</v>
-      </c>
-      <c r="V30" s="30">
-        <v>0</v>
-      </c>
-      <c r="W30" s="30">
-        <v>30</v>
-      </c>
-      <c r="X30" s="30">
-        <v>60</v>
-      </c>
-      <c r="Y30" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R30&amp;","&amp;S30&amp;",'"&amp;T30&amp;"',"&amp;U30&amp;","&amp;V30&amp;",'"&amp;W30&amp;"','"&amp;X30&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(29,4,'Kakadu',1,0,'30','60');</v>
-      </c>
-      <c r="AF30" s="32"/>
-    </row>
-    <row r="31" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I31" s="30">
-        <v>30</v>
-      </c>
-      <c r="J31" s="30">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>199</v>
-      </c>
-      <c r="L31" s="30">
-        <v>4</v>
-      </c>
-      <c r="M31" s="30">
-        <v>3</v>
-      </c>
-      <c r="N31" s="30">
-        <v>80</v>
-      </c>
-      <c r="O31" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I31&amp;","&amp;J31&amp;",'"&amp;K31&amp;"',"&amp;L31&amp;","&amp;M31&amp;","&amp;N31&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(30,2,'Bettel ouvert',4,3,80);</v>
-      </c>
-      <c r="R31" s="30">
-        <v>30</v>
-      </c>
-      <c r="S31" s="30">
-        <v>4</v>
-      </c>
-      <c r="T31" t="s">
-        <v>200</v>
-      </c>
-      <c r="U31" s="30">
-        <v>1</v>
-      </c>
-      <c r="V31" s="30">
-        <v>0</v>
-      </c>
-      <c r="W31" s="30">
-        <v>40</v>
-      </c>
-      <c r="X31" s="30">
-        <v>80</v>
-      </c>
-      <c r="Y31" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R31&amp;","&amp;S31&amp;",'"&amp;T31&amp;"',"&amp;U31&amp;","&amp;V31&amp;",'"&amp;W31&amp;"','"&amp;X31&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(30,4,'Quapil',1,0,'40','80');</v>
-      </c>
-      <c r="AF31" s="32"/>
-    </row>
-    <row r="32" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I32" s="30">
-        <v>31</v>
-      </c>
-      <c r="J32" s="30">
-        <v>2</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L32" s="30">
-        <v>1</v>
-      </c>
-      <c r="M32" s="30">
-        <v>5</v>
-      </c>
-      <c r="N32" s="30">
-        <v>90</v>
-      </c>
-      <c r="O32" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I32&amp;","&amp;J32&amp;",'"&amp;K32&amp;"',"&amp;L32&amp;","&amp;M32&amp;","&amp;N32&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(31,2,'Quapilrufer',1,5,90);</v>
-      </c>
-      <c r="R32" s="30">
-        <v>31</v>
-      </c>
-      <c r="S32" s="30">
-        <v>4</v>
-      </c>
-      <c r="T32" t="s">
-        <v>186</v>
-      </c>
-      <c r="U32" s="30">
-        <v>2</v>
-      </c>
-      <c r="V32" s="30">
-        <v>0</v>
-      </c>
-      <c r="W32" s="30">
-        <v>10</v>
-      </c>
-      <c r="X32" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y32" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R32&amp;","&amp;S32&amp;",'"&amp;T32&amp;"',"&amp;U32&amp;","&amp;V32&amp;",'"&amp;W32&amp;"','"&amp;X32&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(31,4,'König ultimo',2,0,'10','20');</v>
-      </c>
-      <c r="AF32" s="32"/>
-    </row>
-    <row r="33" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I33" s="30">
-        <v>32</v>
-      </c>
-      <c r="J33" s="30">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33" s="30">
-        <v>3</v>
-      </c>
-      <c r="M33" s="30">
-        <v>4</v>
-      </c>
-      <c r="N33" s="30">
+      <c r="K78" s="30">
+        <v>2</v>
+      </c>
+      <c r="L78" s="30">
+        <v>4</v>
+      </c>
+      <c r="M78" s="30">
         <v>100</v>
       </c>
-      <c r="O33" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I33&amp;","&amp;J33&amp;",'"&amp;K33&amp;"',"&amp;L33&amp;","&amp;M33&amp;","&amp;N33&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(32,2,'Farbensolo',3,4,100);</v>
-      </c>
-      <c r="R33" s="30">
-        <v>32</v>
-      </c>
-      <c r="S33" s="30">
-        <v>4</v>
-      </c>
-      <c r="T33" t="s">
-        <v>14</v>
-      </c>
-      <c r="U33" s="30">
-        <v>1</v>
-      </c>
-      <c r="V33" s="30">
-        <v>1</v>
-      </c>
-      <c r="W33" s="30">
-        <v>10</v>
-      </c>
-      <c r="X33" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y33" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R33&amp;","&amp;S33&amp;",'"&amp;T33&amp;"',"&amp;U33&amp;","&amp;V33&amp;",'"&amp;W33&amp;"','"&amp;X33&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(32,4,'Mondfang',1,1,'10','20');</v>
-      </c>
-      <c r="AF33" s="32"/>
-    </row>
-    <row r="34" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I34" s="30">
-        <v>33</v>
-      </c>
-      <c r="J34" s="30">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s">
-        <v>182</v>
-      </c>
-      <c r="L34" s="30">
-        <v>2</v>
-      </c>
-      <c r="M34" s="30">
-        <v>4</v>
-      </c>
-      <c r="N34" s="30">
-        <v>100</v>
-      </c>
-      <c r="O34" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I34&amp;","&amp;J34&amp;",'"&amp;K34&amp;"',"&amp;L34&amp;","&amp;M34&amp;","&amp;N34&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(33,2,'Solodreier',2,4,100);</v>
-      </c>
-      <c r="R34" s="30">
-        <v>33</v>
-      </c>
-      <c r="S34" s="30">
-        <v>4</v>
-      </c>
-      <c r="T34" t="s">
-        <v>187</v>
-      </c>
-      <c r="U34" s="30">
-        <v>1</v>
-      </c>
-      <c r="V34" s="30">
-        <v>0</v>
-      </c>
-      <c r="W34" s="30">
-        <v>10</v>
-      </c>
-      <c r="X34" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y34" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R34&amp;","&amp;S34&amp;",'"&amp;T34&amp;"',"&amp;U34&amp;","&amp;V34&amp;",'"&amp;W34&amp;"','"&amp;X34&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(33,4,'Trull',1,0,'10','20');</v>
-      </c>
-      <c r="AF34" s="32"/>
-    </row>
-    <row r="35" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I35" s="30">
-        <v>34</v>
-      </c>
-      <c r="J35" s="30">
-        <v>3</v>
-      </c>
-      <c r="K35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L35" s="30">
-        <v>4</v>
-      </c>
-      <c r="M35" s="30">
-        <v>1</v>
-      </c>
-      <c r="N35" s="30">
-        <v>10</v>
-      </c>
-      <c r="O35" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I35&amp;","&amp;J35&amp;",'"&amp;K35&amp;"',"&amp;L35&amp;","&amp;M35&amp;","&amp;N35&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(34,3,'Trischaken',4,1,10);</v>
-      </c>
-      <c r="R35" s="30">
-        <v>34</v>
-      </c>
-      <c r="S35" s="30">
-        <v>4</v>
-      </c>
-      <c r="T35" t="s">
-        <v>188</v>
-      </c>
-      <c r="U35" s="30">
-        <v>2</v>
-      </c>
-      <c r="V35" s="30">
-        <v>0</v>
-      </c>
-      <c r="W35" s="30">
-        <v>10</v>
-      </c>
-      <c r="X35" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y35" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R35&amp;","&amp;S35&amp;",'"&amp;T35&amp;"',"&amp;U35&amp;","&amp;V35&amp;",'"&amp;W35&amp;"','"&amp;X35&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(34,4,'4 Könige',2,0,'10','20');</v>
-      </c>
-      <c r="AF35" s="32"/>
-    </row>
-    <row r="36" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I36" s="30">
-        <v>35</v>
-      </c>
-      <c r="J36" s="30">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="30">
-        <v>1</v>
-      </c>
-      <c r="M36" s="30">
-        <v>1</v>
-      </c>
-      <c r="N36" s="30">
-        <v>10</v>
-      </c>
-      <c r="O36" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I36&amp;","&amp;J36&amp;",'"&amp;K36&amp;"',"&amp;L36&amp;","&amp;M36&amp;","&amp;N36&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(35,3,'Rufer',1,1,10);</v>
-      </c>
-      <c r="R36" s="30">
-        <v>35</v>
-      </c>
-      <c r="S36" s="30">
-        <v>4</v>
-      </c>
-      <c r="T36" t="s">
-        <v>202</v>
-      </c>
-      <c r="U36" s="30">
-        <v>3</v>
-      </c>
-      <c r="V36" s="30">
-        <v>0</v>
-      </c>
-      <c r="W36" s="30">
-        <v>0</v>
-      </c>
-      <c r="X36" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y36" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R36&amp;","&amp;S36&amp;",'"&amp;T36&amp;"',"&amp;U36&amp;","&amp;V36&amp;",'"&amp;W36&amp;"','"&amp;X36&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(35,4,'1. Sack (≥45/2)',3,0,'0','20');</v>
-      </c>
-      <c r="AF36" s="32"/>
-    </row>
-    <row r="37" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I37" s="30">
-        <v>36</v>
-      </c>
-      <c r="J37" s="30">
-        <v>3</v>
-      </c>
-      <c r="K37" t="s">
-        <v>195</v>
-      </c>
-      <c r="L37" s="30">
-        <v>2</v>
-      </c>
-      <c r="M37" s="30">
-        <v>1</v>
-      </c>
-      <c r="N37" s="30">
-        <v>40</v>
-      </c>
-      <c r="O37" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I37&amp;","&amp;J37&amp;",'"&amp;K37&amp;"',"&amp;L37&amp;","&amp;M37&amp;","&amp;N37&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(36,3,'Sechserdreier',2,1,40);</v>
-      </c>
-      <c r="R37" s="30">
-        <v>36</v>
-      </c>
-      <c r="S37" s="30">
-        <v>4</v>
-      </c>
-      <c r="T37" t="s">
-        <v>203</v>
-      </c>
-      <c r="U37" s="30">
-        <v>3</v>
-      </c>
-      <c r="V37" s="30">
-        <v>0</v>
-      </c>
-      <c r="W37" s="30">
-        <v>0</v>
-      </c>
-      <c r="X37" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y37" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R37&amp;","&amp;S37&amp;",'"&amp;T37&amp;"',"&amp;U37&amp;","&amp;V37&amp;",'"&amp;W37&amp;"','"&amp;X37&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(36,4,'2. Sack (≥55/2)',3,0,'0','20');</v>
-      </c>
-      <c r="AF37" s="32"/>
-    </row>
-    <row r="38" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I38" s="30">
-        <v>37</v>
-      </c>
-      <c r="J38" s="30">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>189</v>
-      </c>
-      <c r="L38" s="30">
-        <v>4</v>
-      </c>
-      <c r="M38" s="30">
-        <v>2</v>
-      </c>
-      <c r="N38" s="30">
-        <v>20</v>
-      </c>
-      <c r="O38" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I38&amp;","&amp;J38&amp;",'"&amp;K38&amp;"',"&amp;L38&amp;","&amp;M38&amp;","&amp;N38&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(37,3,'Piccolo',4,2,20);</v>
-      </c>
-      <c r="R38" s="30">
-        <v>37</v>
-      </c>
-      <c r="S38" s="30">
-        <v>4</v>
-      </c>
-      <c r="T38" t="s">
-        <v>17</v>
-      </c>
-      <c r="U38" s="30">
-        <v>3</v>
-      </c>
-      <c r="V38" s="30">
-        <v>0</v>
-      </c>
-      <c r="W38" s="30">
-        <v>150</v>
-      </c>
-      <c r="X38" s="30">
-        <v>300</v>
-      </c>
-      <c r="Y38" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R38&amp;","&amp;S38&amp;",'"&amp;T38&amp;"',"&amp;U38&amp;","&amp;V38&amp;",'"&amp;W38&amp;"','"&amp;X38&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(37,4,'Valat',3,0,'150','300');</v>
-      </c>
-      <c r="AF38" s="32"/>
-    </row>
-    <row r="39" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I39" s="30">
-        <v>38</v>
-      </c>
-      <c r="J39" s="30">
-        <v>3</v>
-      </c>
-      <c r="K39" t="s">
-        <v>197</v>
-      </c>
-      <c r="L39" s="30">
-        <v>4</v>
-      </c>
-      <c r="M39" s="30">
-        <v>3</v>
-      </c>
-      <c r="N39" s="30">
-        <v>20</v>
-      </c>
-      <c r="O39" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I39&amp;","&amp;J39&amp;",'"&amp;K39&amp;"',"&amp;L39&amp;","&amp;M39&amp;","&amp;N39&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(38,3,'Bettel',4,3,20);</v>
-      </c>
-      <c r="R39" s="30">
-        <v>38</v>
-      </c>
-      <c r="S39" s="30">
-        <v>5</v>
-      </c>
-      <c r="T39" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="U39" s="30">
-        <v>1</v>
-      </c>
-      <c r="V39" s="30">
-        <v>0</v>
-      </c>
-      <c r="W39" s="30">
-        <v>10</v>
-      </c>
-      <c r="X39" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y39" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R39&amp;","&amp;S39&amp;",'"&amp;T39&amp;"',"&amp;U39&amp;","&amp;V39&amp;",'"&amp;W39&amp;"','"&amp;X39&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(38,5,'Pagat',1,0,'10','20');</v>
-      </c>
-      <c r="AF39" s="32"/>
-    </row>
-    <row r="40" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I40" s="30">
-        <v>39</v>
-      </c>
-      <c r="J40" s="30">
-        <v>3</v>
-      </c>
-      <c r="K40" t="s">
-        <v>177</v>
-      </c>
-      <c r="L40" s="30">
-        <v>1</v>
-      </c>
-      <c r="M40" s="30">
-        <v>4</v>
-      </c>
-      <c r="N40" s="30">
-        <v>20</v>
-      </c>
-      <c r="O40" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I40&amp;","&amp;J40&amp;",'"&amp;K40&amp;"',"&amp;L40&amp;","&amp;M40&amp;","&amp;N40&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(39,3,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="R40" s="30">
-        <v>39</v>
-      </c>
-      <c r="S40" s="30">
-        <v>5</v>
-      </c>
-      <c r="T40" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="U40" s="30">
-        <v>1</v>
-      </c>
-      <c r="V40" s="30">
-        <v>0</v>
-      </c>
-      <c r="W40" s="30">
-        <v>20</v>
-      </c>
-      <c r="X40" s="30">
-        <v>40</v>
-      </c>
-      <c r="Y40" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R40&amp;","&amp;S40&amp;",'"&amp;T40&amp;"',"&amp;U40&amp;","&amp;V40&amp;",'"&amp;W40&amp;"','"&amp;X40&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(39,5,'Uhu',1,0,'20','40');</v>
-      </c>
-      <c r="AF40" s="32"/>
-    </row>
-    <row r="41" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I41" s="30">
-        <v>40</v>
-      </c>
-      <c r="J41" s="30">
-        <v>3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>198</v>
-      </c>
-      <c r="L41" s="30">
-        <v>1</v>
-      </c>
-      <c r="M41" s="30">
-        <v>5</v>
-      </c>
-      <c r="N41" s="30">
-        <v>10</v>
-      </c>
-      <c r="O41" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I41&amp;","&amp;J41&amp;",'"&amp;K41&amp;"',"&amp;L41&amp;","&amp;M41&amp;","&amp;N41&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(40,3,'A-Rufer (+Vogel)',1,5,10);</v>
-      </c>
-      <c r="R41" s="30">
-        <v>40</v>
-      </c>
-      <c r="S41" s="30">
-        <v>5</v>
-      </c>
-      <c r="T41" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="U41" s="30">
-        <v>1</v>
-      </c>
-      <c r="V41" s="30">
-        <v>0</v>
-      </c>
-      <c r="W41" s="30">
-        <v>30</v>
-      </c>
-      <c r="X41" s="30">
-        <v>60</v>
-      </c>
-      <c r="Y41" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R41&amp;","&amp;S41&amp;",'"&amp;T41&amp;"',"&amp;U41&amp;","&amp;V41&amp;",'"&amp;W41&amp;"','"&amp;X41&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(40,5,'Kakadu',1,0,'30','60');</v>
-      </c>
-      <c r="AF41" s="32"/>
-    </row>
-    <row r="42" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I42" s="30">
-        <v>41</v>
-      </c>
-      <c r="J42" s="30">
-        <v>3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="30">
-        <v>2</v>
-      </c>
-      <c r="M42" s="30">
-        <v>0</v>
-      </c>
-      <c r="N42" s="30">
-        <v>40</v>
-      </c>
-      <c r="O42" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I42&amp;","&amp;J42&amp;",'"&amp;K42&amp;"',"&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(41,3,'Dreier',2,0,40);</v>
-      </c>
-      <c r="R42" s="30">
-        <v>41</v>
-      </c>
-      <c r="S42" s="30">
-        <v>5</v>
-      </c>
-      <c r="T42" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="U42" s="30">
-        <v>1</v>
-      </c>
-      <c r="V42" s="30">
-        <v>0</v>
-      </c>
-      <c r="W42" s="30">
-        <v>40</v>
-      </c>
-      <c r="X42" s="30">
-        <v>80</v>
-      </c>
-      <c r="Y42" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R42&amp;","&amp;S42&amp;",'"&amp;T42&amp;"',"&amp;U42&amp;","&amp;V42&amp;",'"&amp;W42&amp;"','"&amp;X42&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(41,5,'Quapil',1,0,'40','80');</v>
-      </c>
-      <c r="AF42" s="32"/>
-    </row>
-    <row r="43" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I43" s="30">
-        <v>42</v>
-      </c>
-      <c r="J43" s="30">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>181</v>
-      </c>
-      <c r="L43" s="30">
-        <v>3</v>
-      </c>
-      <c r="M43" s="30">
-        <v>4</v>
-      </c>
-      <c r="N43" s="30">
-        <v>50</v>
-      </c>
-      <c r="O43" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I43&amp;","&amp;J43&amp;",'"&amp;K43&amp;"',"&amp;L43&amp;","&amp;M43&amp;","&amp;N43&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(42,3,'Farbensolo',3,4,50);</v>
-      </c>
-      <c r="R43" s="30">
-        <v>42</v>
-      </c>
-      <c r="S43" s="30">
-        <v>5</v>
-      </c>
-      <c r="T43" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="U43" s="30">
-        <v>2</v>
-      </c>
-      <c r="V43" s="30">
-        <v>0</v>
-      </c>
-      <c r="W43" s="30">
-        <v>10</v>
-      </c>
-      <c r="X43" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y43" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R43&amp;","&amp;S43&amp;",'"&amp;T43&amp;"',"&amp;U43&amp;","&amp;V43&amp;",'"&amp;W43&amp;"','"&amp;X43&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(42,5,'König ultimo',2,0,'10','20');</v>
-      </c>
-      <c r="AF43" s="32"/>
-    </row>
-    <row r="44" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I44" s="30">
-        <v>43</v>
-      </c>
-      <c r="J44" s="30">
-        <v>3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>191</v>
-      </c>
-      <c r="L44" s="30">
-        <v>4</v>
-      </c>
-      <c r="M44" s="30">
-        <v>2</v>
-      </c>
-      <c r="N44" s="30">
-        <v>60</v>
-      </c>
-      <c r="O44" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I44&amp;","&amp;J44&amp;",'"&amp;K44&amp;"',"&amp;L44&amp;","&amp;M44&amp;","&amp;N44&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(43,3,'Piccolo ouvert',4,2,60);</v>
-      </c>
-      <c r="R44" s="30">
-        <v>43</v>
-      </c>
-      <c r="S44" s="30">
-        <v>5</v>
-      </c>
-      <c r="T44" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="U44" s="30">
-        <v>1</v>
-      </c>
-      <c r="V44" s="30">
-        <v>0</v>
-      </c>
-      <c r="W44" s="30">
-        <v>10</v>
-      </c>
-      <c r="X44" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y44" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R44&amp;","&amp;S44&amp;",'"&amp;T44&amp;"',"&amp;U44&amp;","&amp;V44&amp;",'"&amp;W44&amp;"','"&amp;X44&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(43,5,'Trull',1,0,'10','20');</v>
-      </c>
-      <c r="AF44" s="32"/>
-    </row>
-    <row r="45" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I45" s="30">
-        <v>44</v>
-      </c>
-      <c r="J45" s="30">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>199</v>
-      </c>
-      <c r="L45" s="30">
-        <v>4</v>
-      </c>
-      <c r="M45" s="30">
-        <v>3</v>
-      </c>
-      <c r="N45" s="30">
-        <v>70</v>
-      </c>
-      <c r="O45" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I45&amp;","&amp;J45&amp;",'"&amp;K45&amp;"',"&amp;L45&amp;","&amp;M45&amp;","&amp;N45&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(44,3,'Bettel ouvert',4,3,70);</v>
-      </c>
-      <c r="R45" s="30">
-        <v>44</v>
-      </c>
-      <c r="S45" s="30">
-        <v>5</v>
-      </c>
-      <c r="T45" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="U45" s="30">
-        <v>2</v>
-      </c>
-      <c r="V45" s="30">
-        <v>0</v>
-      </c>
-      <c r="W45" s="30">
-        <v>10</v>
-      </c>
-      <c r="X45" s="30">
-        <v>20</v>
-      </c>
-      <c r="Y45" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R45&amp;","&amp;S45&amp;",'"&amp;T45&amp;"',"&amp;U45&amp;","&amp;V45&amp;",'"&amp;W45&amp;"','"&amp;X45&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(44,5,'4 Könige',2,0,'10','20');</v>
-      </c>
-      <c r="AF45" s="32"/>
-    </row>
-    <row r="46" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I46" s="30">
-        <v>45</v>
-      </c>
-      <c r="J46" s="30">
-        <v>3</v>
-      </c>
-      <c r="K46" t="s">
-        <v>182</v>
-      </c>
-      <c r="L46" s="30">
-        <v>2</v>
-      </c>
-      <c r="M46" s="30">
-        <v>4</v>
-      </c>
-      <c r="N46" s="30">
-        <v>80</v>
-      </c>
-      <c r="O46" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I46&amp;","&amp;J46&amp;",'"&amp;K46&amp;"',"&amp;L46&amp;","&amp;M46&amp;","&amp;N46&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(45,3,'Solodreier',2,4,80);</v>
-      </c>
-      <c r="R46" s="30">
-        <v>45</v>
-      </c>
-      <c r="S46" s="30">
-        <v>5</v>
-      </c>
-      <c r="T46" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U46" s="30">
-        <v>3</v>
-      </c>
-      <c r="V46" s="30">
-        <v>0</v>
-      </c>
-      <c r="W46" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="X46" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y46" s="32" t="str">
-        <f>"INSERT INTO "&amp;$Q$1&amp;" VALUES("&amp;R46&amp;","&amp;S46&amp;",'"&amp;T46&amp;"',"&amp;U46&amp;","&amp;V46&amp;",'"&amp;W46&amp;"','"&amp;X46&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(45,5,'Valat',3,0,'x4','x8');</v>
-      </c>
-      <c r="AF46" s="32"/>
-    </row>
-    <row r="47" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I47" s="30">
-        <v>46</v>
-      </c>
-      <c r="J47" s="30">
-        <v>4</v>
-      </c>
-      <c r="K47" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" s="30">
-        <v>1</v>
-      </c>
-      <c r="M47" s="30">
-        <v>1</v>
-      </c>
-      <c r="N47" s="30">
-        <v>10</v>
-      </c>
-      <c r="O47" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I47&amp;","&amp;J47&amp;",'"&amp;K47&amp;"',"&amp;L47&amp;","&amp;M47&amp;","&amp;N47&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(46,4,'Rufer',1,1,10);</v>
-      </c>
-      <c r="Y47" s="32"/>
-      <c r="AF47" s="32"/>
-    </row>
-    <row r="48" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I48" s="30">
-        <v>47</v>
-      </c>
-      <c r="J48" s="30">
-        <v>4</v>
-      </c>
-      <c r="K48" t="s">
-        <v>194</v>
-      </c>
-      <c r="L48" s="30">
-        <v>4</v>
-      </c>
-      <c r="M48" s="30">
-        <v>1</v>
-      </c>
-      <c r="N48" s="30">
-        <v>20</v>
-      </c>
-      <c r="O48" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I48&amp;","&amp;J48&amp;",'"&amp;K48&amp;"',"&amp;L48&amp;","&amp;M48&amp;","&amp;N48&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(47,4,'Trischaken',4,1,20);</v>
-      </c>
-      <c r="Y48" s="32"/>
-      <c r="AF48" s="32"/>
-    </row>
-    <row r="49" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I49" s="30">
-        <v>48</v>
-      </c>
-      <c r="J49" s="30">
-        <v>4</v>
-      </c>
-      <c r="K49" t="s">
-        <v>195</v>
-      </c>
-      <c r="L49" s="30">
-        <v>2</v>
-      </c>
-      <c r="M49" s="30">
-        <v>1</v>
-      </c>
-      <c r="N49" s="30">
-        <v>40</v>
-      </c>
-      <c r="O49" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I49&amp;","&amp;J49&amp;",'"&amp;K49&amp;"',"&amp;L49&amp;","&amp;M49&amp;","&amp;N49&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(48,4,'Sechserdreier',2,1,40);</v>
-      </c>
-      <c r="Y49" s="32"/>
-      <c r="AF49" s="32"/>
-    </row>
-    <row r="50" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I50" s="30">
-        <v>49</v>
-      </c>
-      <c r="J50" s="30">
-        <v>4</v>
-      </c>
-      <c r="K50" t="s">
-        <v>189</v>
-      </c>
-      <c r="L50" s="30">
-        <v>4</v>
-      </c>
-      <c r="M50" s="30">
-        <v>2</v>
-      </c>
-      <c r="N50" s="30">
-        <v>20</v>
-      </c>
-      <c r="O50" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I50&amp;","&amp;J50&amp;",'"&amp;K50&amp;"',"&amp;L50&amp;","&amp;M50&amp;","&amp;N50&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(49,4,'Piccolo',4,2,20);</v>
-      </c>
-      <c r="Y50" s="32"/>
-      <c r="AF50" s="32"/>
-    </row>
-    <row r="51" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I51" s="30">
-        <v>50</v>
-      </c>
-      <c r="J51" s="30">
-        <v>4</v>
-      </c>
-      <c r="K51" t="s">
-        <v>177</v>
-      </c>
-      <c r="L51" s="30">
-        <v>1</v>
-      </c>
-      <c r="M51" s="30">
-        <v>4</v>
-      </c>
-      <c r="N51" s="30">
-        <v>20</v>
-      </c>
-      <c r="O51" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I51&amp;","&amp;J51&amp;",'"&amp;K51&amp;"',"&amp;L51&amp;","&amp;M51&amp;","&amp;N51&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(50,4,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="Y51" s="32"/>
-      <c r="AF51" s="32"/>
-    </row>
-    <row r="52" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I52" s="30">
-        <v>51</v>
-      </c>
-      <c r="J52" s="30">
-        <v>4</v>
-      </c>
-      <c r="K52" t="s">
-        <v>178</v>
-      </c>
-      <c r="L52" s="30">
-        <v>1</v>
-      </c>
-      <c r="M52" s="30">
-        <v>5</v>
-      </c>
-      <c r="N52" s="30">
-        <v>20</v>
-      </c>
-      <c r="O52" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I52&amp;","&amp;J52&amp;",'"&amp;K52&amp;"',"&amp;L52&amp;","&amp;M52&amp;","&amp;N52&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(51,4,'Besserrufer (+Vogel)',1,5,20);</v>
-      </c>
-      <c r="Y52" s="32"/>
-      <c r="AF52" s="32"/>
-    </row>
-    <row r="53" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I53" s="30">
-        <v>52</v>
-      </c>
-      <c r="J53" s="30">
-        <v>4</v>
-      </c>
-      <c r="K53" t="s">
-        <v>197</v>
-      </c>
-      <c r="L53" s="30">
-        <v>4</v>
-      </c>
-      <c r="M53" s="30">
-        <v>3</v>
-      </c>
-      <c r="N53" s="30">
-        <v>40</v>
-      </c>
-      <c r="O53" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I53&amp;","&amp;J53&amp;",'"&amp;K53&amp;"',"&amp;L53&amp;","&amp;M53&amp;","&amp;N53&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(52,4,'Bettel',4,3,40);</v>
-      </c>
-      <c r="Y53" s="32"/>
-      <c r="AF53" s="32"/>
-    </row>
-    <row r="54" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I54" s="30">
-        <v>53</v>
-      </c>
-      <c r="J54" s="30">
-        <v>4</v>
-      </c>
-      <c r="K54" t="s">
-        <v>179</v>
-      </c>
-      <c r="L54" s="30">
-        <v>3</v>
-      </c>
-      <c r="M54" s="30">
-        <v>0</v>
-      </c>
-      <c r="N54" s="30">
-        <v>50</v>
-      </c>
-      <c r="O54" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I54&amp;","&amp;J54&amp;",'"&amp;K54&amp;"',"&amp;L54&amp;","&amp;M54&amp;","&amp;N54&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(53,4,'Farbendreier',3,0,50);</v>
-      </c>
-      <c r="Y54" s="32"/>
-      <c r="AF54" s="32"/>
-    </row>
-    <row r="55" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I55" s="30">
-        <v>54</v>
-      </c>
-      <c r="J55" s="30">
-        <v>4</v>
-      </c>
-      <c r="K55" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="30">
-        <v>2</v>
-      </c>
-      <c r="M55" s="30">
-        <v>0</v>
-      </c>
-      <c r="N55" s="30">
-        <v>50</v>
-      </c>
-      <c r="O55" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I55&amp;","&amp;J55&amp;",'"&amp;K55&amp;"',"&amp;L55&amp;","&amp;M55&amp;","&amp;N55&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(54,4,'Dreier',2,0,50);</v>
-      </c>
-      <c r="Y55" s="32"/>
-      <c r="AF55" s="32"/>
-    </row>
-    <row r="56" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I56" s="30">
-        <v>55</v>
-      </c>
-      <c r="J56" s="30">
-        <v>4</v>
-      </c>
-      <c r="K56" t="s">
-        <v>191</v>
-      </c>
-      <c r="L56" s="30">
-        <v>4</v>
-      </c>
-      <c r="M56" s="30">
-        <v>2</v>
-      </c>
-      <c r="N56" s="30">
-        <v>70</v>
-      </c>
-      <c r="O56" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I56&amp;","&amp;J56&amp;",'"&amp;K56&amp;"',"&amp;L56&amp;","&amp;M56&amp;","&amp;N56&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(55,4,'Piccolo ouvert',4,2,70);</v>
-      </c>
-      <c r="Y56" s="32"/>
-      <c r="AF56" s="32"/>
-    </row>
-    <row r="57" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I57" s="30">
-        <v>56</v>
-      </c>
-      <c r="J57" s="30">
-        <v>4</v>
-      </c>
-      <c r="K57" t="s">
-        <v>192</v>
-      </c>
-      <c r="L57" s="30">
-        <v>4</v>
-      </c>
-      <c r="M57" s="30">
-        <v>2</v>
-      </c>
-      <c r="N57" s="30">
-        <v>70</v>
-      </c>
-      <c r="O57" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I57&amp;","&amp;J57&amp;",'"&amp;K57&amp;"',"&amp;L57&amp;","&amp;M57&amp;","&amp;N57&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(56,4,'Zwiccolo ouvert',4,2,70);</v>
-      </c>
-      <c r="Y57" s="32"/>
-      <c r="AF57" s="32"/>
-    </row>
-    <row r="58" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I58" s="30">
-        <v>57</v>
-      </c>
-      <c r="J58" s="30">
-        <v>4</v>
-      </c>
-      <c r="K58" t="s">
-        <v>199</v>
-      </c>
-      <c r="L58" s="30">
-        <v>4</v>
-      </c>
-      <c r="M58" s="30">
-        <v>3</v>
-      </c>
-      <c r="N58" s="30">
-        <v>80</v>
-      </c>
-      <c r="O58" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I58&amp;","&amp;J58&amp;",'"&amp;K58&amp;"',"&amp;L58&amp;","&amp;M58&amp;","&amp;N58&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(57,4,'Bettel ouvert',4,3,80);</v>
-      </c>
-      <c r="Y58" s="32"/>
-      <c r="AF58" s="32"/>
-    </row>
-    <row r="59" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I59" s="30">
-        <v>58</v>
-      </c>
-      <c r="J59" s="30">
-        <v>4</v>
-      </c>
-      <c r="K59" t="s">
-        <v>181</v>
-      </c>
-      <c r="L59" s="30">
-        <v>3</v>
-      </c>
-      <c r="M59" s="30">
-        <v>4</v>
-      </c>
-      <c r="N59" s="30">
-        <v>100</v>
-      </c>
-      <c r="O59" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I59&amp;","&amp;J59&amp;",'"&amp;K59&amp;"',"&amp;L59&amp;","&amp;M59&amp;","&amp;N59&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(58,4,'Farbensolo',3,4,100);</v>
-      </c>
-      <c r="Y59" s="32"/>
-      <c r="AF59" s="32"/>
-    </row>
-    <row r="60" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I60" s="30">
-        <v>59</v>
-      </c>
-      <c r="J60" s="30">
-        <v>4</v>
-      </c>
-      <c r="K60" t="s">
-        <v>182</v>
-      </c>
-      <c r="L60" s="30">
-        <v>2</v>
-      </c>
-      <c r="M60" s="30">
-        <v>4</v>
-      </c>
-      <c r="N60" s="30">
-        <v>100</v>
-      </c>
-      <c r="O60" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I60&amp;","&amp;J60&amp;",'"&amp;K60&amp;"',"&amp;L60&amp;","&amp;M60&amp;","&amp;N60&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(59,4,'Solodreier',2,4,100);</v>
-      </c>
-      <c r="Y60" s="32"/>
-      <c r="AF60" s="32"/>
-    </row>
-    <row r="61" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I61" s="30">
-        <v>60</v>
-      </c>
-      <c r="J61" s="30">
-        <v>5</v>
-      </c>
-      <c r="K61" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="L61" s="30">
-        <v>4</v>
-      </c>
-      <c r="M61" s="30">
-        <v>1</v>
-      </c>
-      <c r="N61" s="30">
-        <v>50</v>
-      </c>
-      <c r="O61" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I61&amp;","&amp;J61&amp;",'"&amp;K61&amp;"',"&amp;L61&amp;","&amp;M61&amp;","&amp;N61&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(60,5,'Trischaken',4,1,50);</v>
-      </c>
-      <c r="Y61" s="32"/>
-      <c r="AF61" s="32"/>
-    </row>
-    <row r="62" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I62" s="30">
-        <v>61</v>
-      </c>
-      <c r="J62" s="30">
-        <v>5</v>
-      </c>
-      <c r="K62" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="L62" s="30">
-        <v>1</v>
-      </c>
-      <c r="M62" s="30">
-        <v>1</v>
-      </c>
-      <c r="N62" s="30">
-        <v>10</v>
-      </c>
-      <c r="O62" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I62&amp;","&amp;J62&amp;",'"&amp;K62&amp;"',"&amp;L62&amp;","&amp;M62&amp;","&amp;N62&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(61,5,'Rufer',1,1,10);</v>
-      </c>
-      <c r="Y62" s="32"/>
-      <c r="AF62" s="32"/>
-    </row>
-    <row r="63" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I63" s="30">
-        <v>62</v>
-      </c>
-      <c r="J63" s="30">
-        <v>5</v>
-      </c>
-      <c r="K63" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="L63" s="30">
-        <v>2</v>
-      </c>
-      <c r="M63" s="30">
-        <v>1</v>
-      </c>
-      <c r="N63" s="30">
-        <v>50</v>
-      </c>
-      <c r="O63" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I63&amp;","&amp;J63&amp;",'"&amp;K63&amp;"',"&amp;L63&amp;","&amp;M63&amp;","&amp;N63&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(62,5,'Sechserdreier',2,1,50);</v>
-      </c>
-      <c r="Y63" s="32"/>
-      <c r="AF63" s="32"/>
-    </row>
-    <row r="64" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I64" s="30">
-        <v>63</v>
-      </c>
-      <c r="J64" s="30">
-        <v>5</v>
-      </c>
-      <c r="K64" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="L64" s="30">
-        <v>4</v>
-      </c>
-      <c r="M64" s="30">
-        <v>2</v>
-      </c>
-      <c r="N64" s="30">
-        <v>20</v>
-      </c>
-      <c r="O64" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I64&amp;","&amp;J64&amp;",'"&amp;K64&amp;"',"&amp;L64&amp;","&amp;M64&amp;","&amp;N64&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(63,5,'Piccolo',4,2,20);</v>
-      </c>
-      <c r="Y64" s="32"/>
-      <c r="AF64" s="32"/>
-    </row>
-    <row r="65" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I65" s="30">
-        <v>64</v>
-      </c>
-      <c r="J65" s="30">
-        <v>5</v>
-      </c>
-      <c r="K65" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="L65" s="30">
-        <v>4</v>
-      </c>
-      <c r="M65" s="30">
-        <v>2</v>
-      </c>
-      <c r="N65" s="30">
-        <v>20</v>
-      </c>
-      <c r="O65" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I65&amp;","&amp;J65&amp;",'"&amp;K65&amp;"',"&amp;L65&amp;","&amp;M65&amp;","&amp;N65&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(64,5,'Zwiccolo',4,2,20);</v>
-      </c>
-      <c r="Y65" s="32"/>
-      <c r="AF65" s="32"/>
-    </row>
-    <row r="66" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I66" s="30">
-        <v>65</v>
-      </c>
-      <c r="J66" s="30">
-        <v>5</v>
-      </c>
-      <c r="K66" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="L66" s="30">
-        <v>4</v>
-      </c>
-      <c r="M66" s="30">
-        <v>2</v>
-      </c>
-      <c r="N66" s="30">
-        <v>20</v>
-      </c>
-      <c r="O66" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I66&amp;","&amp;J66&amp;",'"&amp;K66&amp;"',"&amp;L66&amp;","&amp;M66&amp;","&amp;N66&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(65,5,'Triccolo',4,2,20);</v>
-      </c>
-      <c r="Y66" s="32"/>
-      <c r="AF66" s="32"/>
-    </row>
-    <row r="67" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I67" s="30">
-        <v>66</v>
-      </c>
-      <c r="J67" s="30">
-        <v>5</v>
-      </c>
-      <c r="K67" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="L67" s="30">
-        <v>1</v>
-      </c>
-      <c r="M67" s="30">
-        <v>4</v>
-      </c>
-      <c r="N67" s="30">
-        <v>20</v>
-      </c>
-      <c r="O67" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I67&amp;","&amp;J67&amp;",'"&amp;K67&amp;"',"&amp;L67&amp;","&amp;M67&amp;","&amp;N67&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(66,5,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="Y67" s="32"/>
-      <c r="AF67" s="32"/>
-    </row>
-    <row r="68" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I68" s="30">
-        <v>67</v>
-      </c>
-      <c r="J68" s="30">
-        <v>5</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L68" s="30">
-        <v>1</v>
-      </c>
-      <c r="M68" s="30">
-        <v>5</v>
-      </c>
-      <c r="N68" s="30">
-        <v>30</v>
-      </c>
-      <c r="O68" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I68&amp;","&amp;J68&amp;",'"&amp;K68&amp;"',"&amp;L68&amp;","&amp;M68&amp;","&amp;N68&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(67,5,'Pagatrufer',1,5,30);</v>
-      </c>
-      <c r="Y68" s="32"/>
-      <c r="AF68" s="32"/>
-    </row>
-    <row r="69" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I69" s="30">
-        <v>68</v>
-      </c>
-      <c r="J69" s="30">
-        <v>5</v>
-      </c>
-      <c r="K69" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="L69" s="30">
-        <v>4</v>
-      </c>
-      <c r="M69" s="30">
-        <v>3</v>
-      </c>
-      <c r="N69" s="30">
-        <v>40</v>
-      </c>
-      <c r="O69" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I69&amp;","&amp;J69&amp;",'"&amp;K69&amp;"',"&amp;L69&amp;","&amp;M69&amp;","&amp;N69&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(68,5,'Bettel',4,3,40);</v>
-      </c>
-      <c r="Y69" s="32"/>
-      <c r="AF69" s="32"/>
-    </row>
-    <row r="70" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I70" s="30">
-        <v>69</v>
-      </c>
-      <c r="J70" s="30">
-        <v>5</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L70" s="30">
-        <v>1</v>
-      </c>
-      <c r="M70" s="30">
-        <v>5</v>
-      </c>
-      <c r="N70" s="30">
-        <v>50</v>
-      </c>
-      <c r="O70" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I70&amp;","&amp;J70&amp;",'"&amp;K70&amp;"',"&amp;L70&amp;","&amp;M70&amp;","&amp;N70&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(69,5,'Uhurufer',1,5,50);</v>
-      </c>
-      <c r="Y70" s="32"/>
-      <c r="AF70" s="32"/>
-    </row>
-    <row r="71" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I71" s="30">
-        <v>70</v>
-      </c>
-      <c r="J71" s="30">
-        <v>5</v>
-      </c>
-      <c r="K71" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="L71" s="30">
-        <v>3</v>
-      </c>
-      <c r="M71" s="30">
-        <v>0</v>
-      </c>
-      <c r="N71" s="30">
-        <v>40</v>
-      </c>
-      <c r="O71" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I71&amp;","&amp;J71&amp;",'"&amp;K71&amp;"',"&amp;L71&amp;","&amp;M71&amp;","&amp;N71&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(70,5,'Farbendreier',3,0,40);</v>
-      </c>
-      <c r="Y71" s="32"/>
-      <c r="AF71" s="32"/>
-    </row>
-    <row r="72" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I72" s="30">
-        <v>71</v>
-      </c>
-      <c r="J72" s="30">
-        <v>5</v>
-      </c>
-      <c r="K72" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L72" s="30">
-        <v>2</v>
-      </c>
-      <c r="M72" s="30">
-        <v>0</v>
-      </c>
-      <c r="N72" s="30">
-        <v>50</v>
-      </c>
-      <c r="O72" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I72&amp;","&amp;J72&amp;",'"&amp;K72&amp;"',"&amp;L72&amp;","&amp;M72&amp;","&amp;N72&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(71,5,'Dreier',2,0,50);</v>
-      </c>
-      <c r="Y72" s="32"/>
-      <c r="AF72" s="32"/>
-    </row>
-    <row r="73" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I73" s="30">
-        <v>72</v>
-      </c>
-      <c r="J73" s="30">
-        <v>5</v>
-      </c>
-      <c r="K73" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="L73" s="30">
-        <v>4</v>
-      </c>
-      <c r="M73" s="30">
-        <v>2</v>
-      </c>
-      <c r="N73" s="30">
-        <v>40</v>
-      </c>
-      <c r="O73" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I73&amp;","&amp;J73&amp;",'"&amp;K73&amp;"',"&amp;L73&amp;","&amp;M73&amp;","&amp;N73&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(72,5,'Piccolo ouvert',4,2,40);</v>
-      </c>
-      <c r="Y73" s="32"/>
-      <c r="AF73" s="32"/>
-    </row>
-    <row r="74" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I74" s="30">
-        <v>73</v>
-      </c>
-      <c r="J74" s="30">
-        <v>5</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L74" s="30">
-        <v>1</v>
-      </c>
-      <c r="M74" s="30">
-        <v>5</v>
-      </c>
-      <c r="N74" s="30">
-        <v>70</v>
-      </c>
-      <c r="O74" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I74&amp;","&amp;J74&amp;",'"&amp;K74&amp;"',"&amp;L74&amp;","&amp;M74&amp;","&amp;N74&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(73,5,'Kakadurufer',1,5,70);</v>
-      </c>
-      <c r="Y74" s="32"/>
-      <c r="AF74" s="32"/>
-    </row>
-    <row r="75" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I75" s="30">
-        <v>74</v>
-      </c>
-      <c r="J75" s="30">
-        <v>5</v>
-      </c>
-      <c r="K75" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="L75" s="30">
-        <v>4</v>
-      </c>
-      <c r="M75" s="30">
-        <v>3</v>
-      </c>
-      <c r="N75" s="30">
-        <v>80</v>
-      </c>
-      <c r="O75" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I75&amp;","&amp;J75&amp;",'"&amp;K75&amp;"',"&amp;L75&amp;","&amp;M75&amp;","&amp;N75&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(74,5,'Bettel ouvert',4,3,80);</v>
-      </c>
-      <c r="Y75" s="32"/>
-      <c r="AF75" s="32"/>
-    </row>
-    <row r="76" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I76" s="30">
-        <v>75</v>
-      </c>
-      <c r="J76" s="30">
-        <v>5</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L76" s="30">
-        <v>1</v>
-      </c>
-      <c r="M76" s="30">
-        <v>5</v>
-      </c>
-      <c r="N76" s="30">
-        <v>90</v>
-      </c>
-      <c r="O76" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I76&amp;","&amp;J76&amp;",'"&amp;K76&amp;"',"&amp;L76&amp;","&amp;M76&amp;","&amp;N76&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(75,5,'Quapilrufer',1,5,90);</v>
-      </c>
-      <c r="Y76" s="32"/>
-      <c r="AF76" s="32"/>
-    </row>
-    <row r="77" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I77" s="30">
-        <v>76</v>
-      </c>
-      <c r="J77" s="30">
-        <v>5</v>
-      </c>
-      <c r="K77" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L77" s="30">
-        <v>3</v>
-      </c>
-      <c r="M77" s="30">
-        <v>4</v>
-      </c>
-      <c r="N77" s="30">
-        <v>80</v>
-      </c>
-      <c r="O77" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I77&amp;","&amp;J77&amp;",'"&amp;K77&amp;"',"&amp;L77&amp;","&amp;M77&amp;","&amp;N77&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(76,5,'Farbensolo',3,4,80);</v>
-      </c>
-      <c r="Y77" s="32"/>
-      <c r="AF77" s="32"/>
-    </row>
-    <row r="78" spans="9:32" x14ac:dyDescent="0.25">
-      <c r="I78" s="30">
-        <v>77</v>
-      </c>
-      <c r="J78" s="30">
-        <v>5</v>
-      </c>
-      <c r="K78" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="L78" s="30">
-        <v>2</v>
-      </c>
-      <c r="M78" s="30">
-        <v>4</v>
-      </c>
-      <c r="N78" s="30">
-        <v>100</v>
-      </c>
-      <c r="O78" s="32" t="str">
-        <f>"INSERT INTO "&amp;$H$1&amp;" VALUES("&amp;I78&amp;","&amp;J78&amp;",'"&amp;K78&amp;"',"&amp;L78&amp;","&amp;M78&amp;","&amp;N78&amp;");"</f>
+      <c r="W78" s="31"/>
+      <c r="AC78" s="31"/>
+      <c r="AF78" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>(77,5,'Solodreier',2,4,100));</v>
+      </c>
+      <c r="AK78" s="31" t="str">
+        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H78&amp;","&amp;I78&amp;",'"&amp;J78&amp;"',"&amp;K78&amp;","&amp;L78&amp;","&amp;M78&amp;");"</f>
         <v>INSERT INTO tariff VALUES(77,5,'Solodreier',2,4,100);</v>
       </c>
-      <c r="Y78" s="32"/>
-      <c r="AF78" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8053,8 +8626,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7.140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.140625" style="32" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="2"/>
     <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="4.28515625" style="2" customWidth="1"/>
@@ -8066,54 +8639,54 @@
         <v>79</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="37">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37">
-        <v>1</v>
-      </c>
-      <c r="E2" s="37">
-        <v>1</v>
-      </c>
-      <c r="F2" s="37">
-        <v>2</v>
-      </c>
-      <c r="K2" s="34">
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36">
+        <v>1</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36">
+        <v>2</v>
+      </c>
+      <c r="K2" s="33">
         <v>0</v>
       </c>
-      <c r="L2" s="34">
-        <v>1</v>
-      </c>
-      <c r="M2" s="34">
-        <v>2</v>
-      </c>
-      <c r="N2" s="34">
+      <c r="L2" s="33">
+        <v>1</v>
+      </c>
+      <c r="M2" s="33">
+        <v>2</v>
+      </c>
+      <c r="N2" s="33">
         <v>3</v>
       </c>
     </row>
@@ -8121,37 +8694,37 @@
       <c r="A3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37">
-        <v>1</v>
-      </c>
-      <c r="E3" s="37">
-        <v>1</v>
-      </c>
-      <c r="F3" s="37">
-        <v>2</v>
-      </c>
-      <c r="I3" s="45" t="s">
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+      <c r="F3" s="36">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>0</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="46" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8159,51 +8732,51 @@
       <c r="A4" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="37">
-        <v>1</v>
-      </c>
-      <c r="D4" s="37">
-        <v>1</v>
-      </c>
-      <c r="E4" s="37">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>2</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="43">
-        <v>1</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="36">
+        <v>2</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="42">
+        <v>1</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="45"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>-3</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>-3</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>-3</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>-6</v>
       </c>
     </row>
@@ -8211,71 +8784,71 @@
       <c r="A6" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="37">
-        <v>3</v>
-      </c>
-      <c r="D6" s="37">
-        <v>3</v>
-      </c>
-      <c r="E6" s="37">
-        <v>3</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="C6" s="36">
+        <v>3</v>
+      </c>
+      <c r="D6" s="36">
+        <v>3</v>
+      </c>
+      <c r="E6" s="36">
+        <v>3</v>
+      </c>
+      <c r="F6" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>0</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>0</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>0</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>0</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>-3</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>-3</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>-3</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>-6</v>
       </c>
     </row>
@@ -8283,71 +8856,71 @@
       <c r="A10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="37">
-        <v>2</v>
-      </c>
-      <c r="D10" s="37">
-        <v>2</v>
-      </c>
-      <c r="E10" s="37">
-        <v>2</v>
-      </c>
-      <c r="F10" s="37">
+      <c r="C10" s="36">
+        <v>2</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="37">
-        <v>2</v>
-      </c>
-      <c r="D11" s="37">
-        <v>2</v>
-      </c>
-      <c r="E11" s="37">
-        <v>2</v>
-      </c>
-      <c r="F11" s="37">
+      <c r="C11" s="36">
+        <v>2</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2</v>
+      </c>
+      <c r="E11" s="36">
+        <v>2</v>
+      </c>
+      <c r="F11" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="37">
-        <v>2</v>
-      </c>
-      <c r="D12" s="37">
-        <v>2</v>
-      </c>
-      <c r="E12" s="37">
-        <v>2</v>
-      </c>
-      <c r="F12" s="37">
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+      <c r="D12" s="36">
+        <v>2</v>
+      </c>
+      <c r="E12" s="36">
+        <v>2</v>
+      </c>
+      <c r="F12" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>-6</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>-6</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>-6</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>-12</v>
       </c>
     </row>
@@ -8355,19 +8928,19 @@
       <c r="A14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>6</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>6</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>6</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>12</v>
       </c>
     </row>
@@ -8375,54 +8948,54 @@
       <c r="A15" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>0</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>0</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>-6</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>-6</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>-6</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>-12</v>
       </c>
     </row>
@@ -8430,19 +9003,19 @@
       <c r="A18" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="37">
-        <v>3</v>
-      </c>
-      <c r="D18" s="37">
-        <v>3</v>
-      </c>
-      <c r="E18" s="37">
-        <v>3</v>
-      </c>
-      <c r="F18" s="37">
+      <c r="C18" s="36">
+        <v>3</v>
+      </c>
+      <c r="D18" s="36">
+        <v>3</v>
+      </c>
+      <c r="E18" s="36">
+        <v>3</v>
+      </c>
+      <c r="F18" s="36">
         <v>3</v>
       </c>
     </row>
@@ -8450,54 +9023,54 @@
       <c r="A19" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="37">
-        <v>3</v>
-      </c>
-      <c r="D19" s="37">
-        <v>3</v>
-      </c>
-      <c r="E19" s="37">
-        <v>3</v>
-      </c>
-      <c r="F19" s="37">
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+      <c r="D19" s="36">
+        <v>3</v>
+      </c>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
+      <c r="F19" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>-3</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>-3</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>-3</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>-3</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>-3</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>-3</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>-3</v>
       </c>
     </row>
@@ -8505,19 +9078,19 @@
       <c r="A22" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="37">
-        <v>3</v>
-      </c>
-      <c r="D22" s="37">
-        <v>3</v>
-      </c>
-      <c r="E22" s="37">
-        <v>3</v>
-      </c>
-      <c r="F22" s="37">
+      <c r="C22" s="36">
+        <v>3</v>
+      </c>
+      <c r="D22" s="36">
+        <v>3</v>
+      </c>
+      <c r="E22" s="36">
+        <v>3</v>
+      </c>
+      <c r="F22" s="36">
         <v>3</v>
       </c>
     </row>
@@ -8525,54 +9098,54 @@
       <c r="A23" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="37">
-        <v>3</v>
-      </c>
-      <c r="D23" s="37">
-        <v>3</v>
-      </c>
-      <c r="E23" s="37">
-        <v>3</v>
-      </c>
-      <c r="F23" s="37">
+      <c r="C23" s="36">
+        <v>3</v>
+      </c>
+      <c r="D23" s="36">
+        <v>3</v>
+      </c>
+      <c r="E23" s="36">
+        <v>3</v>
+      </c>
+      <c r="F23" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>-3</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>-3</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>-3</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>-3</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>-3</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <v>-3</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>-6</v>
       </c>
     </row>
@@ -8580,19 +9153,19 @@
       <c r="A26" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="37">
-        <v>3</v>
-      </c>
-      <c r="D26" s="37">
-        <v>3</v>
-      </c>
-      <c r="E26" s="37">
-        <v>3</v>
-      </c>
-      <c r="F26" s="37">
+      <c r="C26" s="36">
+        <v>3</v>
+      </c>
+      <c r="D26" s="36">
+        <v>3</v>
+      </c>
+      <c r="E26" s="36">
+        <v>3</v>
+      </c>
+      <c r="F26" s="36">
         <v>6</v>
       </c>
     </row>
@@ -8600,54 +9173,54 @@
       <c r="A27" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="37">
-        <v>3</v>
-      </c>
-      <c r="D27" s="37">
-        <v>3</v>
-      </c>
-      <c r="E27" s="37">
-        <v>3</v>
-      </c>
-      <c r="F27" s="37">
+      <c r="C27" s="36">
+        <v>3</v>
+      </c>
+      <c r="D27" s="36">
+        <v>3</v>
+      </c>
+      <c r="E27" s="36">
+        <v>3</v>
+      </c>
+      <c r="F27" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="36">
         <v>0</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>-6</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>-6</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="37">
         <v>-6</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="37">
         <v>-12</v>
       </c>
     </row>
@@ -8655,63 +9228,63 @@
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37">
-        <v>4</v>
-      </c>
-      <c r="E30" s="37">
-        <v>4</v>
-      </c>
-      <c r="F30" s="37">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36">
+        <v>4</v>
+      </c>
+      <c r="E30" s="36">
+        <v>4</v>
+      </c>
+      <c r="F30" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37">
-        <v>4</v>
-      </c>
-      <c r="E31" s="37">
-        <v>4</v>
-      </c>
-      <c r="F31" s="37">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36">
+        <v>4</v>
+      </c>
+      <c r="E31" s="36">
+        <v>4</v>
+      </c>
+      <c r="F31" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37">
-        <v>4</v>
-      </c>
-      <c r="E32" s="37">
-        <v>4</v>
-      </c>
-      <c r="F32" s="37">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36">
+        <v>4</v>
+      </c>
+      <c r="E32" s="36">
+        <v>4</v>
+      </c>
+      <c r="F32" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38">
+      <c r="C33" s="37"/>
+      <c r="D33" s="37">
         <v>-12</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <v>-12</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>-24</v>
       </c>
     </row>
@@ -8719,109 +9292,109 @@
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="37">
-        <v>2</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37">
-        <v>3</v>
-      </c>
-      <c r="F34" s="37"/>
+      <c r="C34" s="36">
+        <v>2</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36">
+        <v>3</v>
+      </c>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="37">
-        <v>2</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37">
-        <v>3</v>
-      </c>
-      <c r="F35" s="37"/>
+      <c r="C35" s="36">
+        <v>2</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36">
+        <v>3</v>
+      </c>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="37">
-        <v>2</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37">
-        <v>3</v>
-      </c>
-      <c r="F36" s="37"/>
+      <c r="C36" s="36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="37">
         <v>-6</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38">
+      <c r="D37" s="37"/>
+      <c r="E37" s="37">
         <v>-9</v>
       </c>
-      <c r="F37" s="38"/>
+      <c r="F37" s="37"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="38" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="38" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="40" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="39" t="s">
         <v>210</v>
       </c>
     </row>

--- a/docs/TarockBlock_database.xlsx
+++ b/docs/TarockBlock_database.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="312">
   <si>
     <t>POINTS</t>
   </si>
@@ -912,6 +912,48 @@
   </si>
   <si>
     <t>ts_name</t>
+  </si>
+  <si>
+    <t>Subkontra</t>
+  </si>
+  <si>
+    <t>Rekontra</t>
+  </si>
+  <si>
+    <t>NurPiccolo</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t>NurGleichwertige</t>
+  </si>
+  <si>
+    <t>NurBettler</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Mortkontra</t>
+  </si>
+  <si>
+    <t>PunkteStiche</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>PiccoloZwiccolo</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>Kontra</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1312,6 +1354,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2312,9 +2362,11 @@
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE110"/>
+  <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2345,14 +2397,15 @@
     <col min="25" max="25" width="8.5703125" customWidth="1"/>
     <col min="26" max="26" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="33.5703125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="4.28515625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="175.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" style="2"/>
+    <col min="28" max="28" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="175.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>128</v>
       </c>
@@ -2426,16 +2479,19 @@
         <v>240</v>
       </c>
       <c r="AB1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>242</v>
       </c>
@@ -2501,16 +2557,19 @@
         <v>1</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AD2" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>243</v>
       </c>
@@ -2575,17 +2634,20 @@
         <v>2</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AD3" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AE3" s="2" t="str">
+      <c r="AF3" s="2" t="str">
         <f>$C$1</f>
         <v>CREATE TABLE assoc_player_session (plse_id INTEGER PRIMARY KEY, plse_pl_id NUMERIC, plse_se_id NUMERIC, plse_points NUMERIC);</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>244</v>
       </c>
@@ -2641,17 +2703,20 @@
         <v>3</v>
       </c>
       <c r="AB4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AC4" s="40" t="s">
+      <c r="AD4" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AE4" s="2" t="str">
+      <c r="AF4" s="2" t="str">
         <f>$C$7</f>
         <v>CREATE TABLE assoc_game_session (gase_id INTEGER PRIMARY KEY, gase_ga_id NUMERIC, gase_se_id NUMERIC);</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>245</v>
       </c>
@@ -2695,12 +2760,12 @@
         <v xml:space="preserve">ta_type1 NUMERIC, </v>
       </c>
       <c r="AA5" s="4"/>
-      <c r="AE5" s="2" t="str">
+      <c r="AF5" s="2" t="str">
         <f>$C$12</f>
         <v>CREATE TABLE assoc_game_regular_premium (grpr_id INTEGER PRIMARY KEY, grpr_gr_id NUMERIC, grpr_pr_id NUMERIC, grpr_pl_id NUMERIC, grpr_called NUMERIC, grpr_won NUMERIC);</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="27" t="s">
         <v>264</v>
       </c>
@@ -2729,15 +2794,18 @@
         <v>148</v>
       </c>
       <c r="AB6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="AC6" s="9"/>
-      <c r="AE6" s="2" t="str">
+      <c r="AD6" s="9"/>
+      <c r="AF6" s="2" t="str">
         <f>$G$1</f>
         <v>CREATE TABLE player (pl_id INTEGER PRIMARY KEY, pl_name TEXT);</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>129</v>
       </c>
@@ -2764,14 +2832,17 @@
         <v>1</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AF7" s="2" t="str">
         <f>$K$1</f>
         <v>CREATE TABLE session (se_id INTEGER PRIMARY KEY, se_name TEXT, se_ts_id NUMERIC);</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>246</v>
       </c>
@@ -2787,14 +2858,17 @@
         <v>2</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="2" t="str">
+      <c r="AF8" s="2" t="str">
         <f>$O$1</f>
         <v>CREATE TABLE game (ga_id INTEGER PRIMARY KEY, ga_pl_id_player NUMERIC, ga_ta_id NUMERIC, ga_doublegames NUMERIC, ga_creation TEXT);</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>247</v>
       </c>
@@ -2810,14 +2884,17 @@
         <v>3</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AE9" s="2" t="str">
+      <c r="AF9" s="2" t="str">
         <f>$O$10</f>
         <v>CREATE TABLE game_regular (gr_id INTEGER PRIMARY KEY, gr_ga_id NUMERIC, gr_partner_pl_id NUMERIC, gr_kontra NUMERIC, gr_won NUMERIC);</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>248</v>
       </c>
@@ -2855,14 +2932,17 @@
         <v>4</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AE10" s="2" t="str">
+      <c r="AF10" s="2" t="str">
         <f>$O$17</f>
         <v>CREATE TABLE game_negative (gn_id INTEGER PRIMARY KEY, gn_ga_id NUMERIC, gn_player_pl_id NUMERIC, gn_ta_id NUMERIC, gn_won NUMERIC);</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M11" s="22" t="s">
         <v>265</v>
       </c>
@@ -2888,14 +2968,17 @@
         <v>5</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AE11" s="2" t="str">
+      <c r="AF11" s="2" t="str">
         <f>$O$24</f>
         <v>CREATE TABLE game_negative_kontra (gnk_id INTEGER PRIMARY KEY, gnk_gane_id NUMERIC, gnk_player_pl_id NUMERIC, gnk_kontra NUMERIC);</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>168</v>
       </c>
@@ -2929,12 +3012,12 @@
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AE12" s="2" t="str">
+      <c r="AF12" s="2" t="str">
         <f>$O$30</f>
         <v>CREATE TABLE game_trischaken (gt_id INTEGER PRIMARY KEY, gt_ga_id TEXT, gt_player_pl_id TEXT, gt_result TEXT);</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>249</v>
       </c>
@@ -2972,15 +3055,18 @@
         <v>157</v>
       </c>
       <c r="AB13" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC13" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AC13" s="9"/>
-      <c r="AE13" s="2" t="str">
+      <c r="AD13" s="9"/>
+      <c r="AF13" s="2" t="str">
         <f>$S$1</f>
         <v>CREATE TABLE tariffset (ts_id INTEGER PRIMARY KEY, ts_name TEXT, ts_bei NUMERIC, ts_kontra NUMERIC);</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>250</v>
       </c>
@@ -3015,14 +3101,17 @@
         <v>2</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AE14" s="2" t="str">
+      <c r="AF14" s="2" t="str">
         <f>$W$1</f>
         <v>CREATE TABLE tariff (ta_id INTEGER PRIMARY KEY, ta_ts_id NUMERIC, ta_name TEXT, ta_type1 NUMERIC, ta_type2 NUMERIC, ta_value NUMERIC);</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>251</v>
       </c>
@@ -3057,14 +3146,17 @@
         <v>4</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AE15" s="2" t="str">
+      <c r="AF15" s="2" t="str">
         <f>$W$10</f>
         <v>CREATE TABLE premium (pr_id INTEGER PRIMARY KEY, pr_ts_id NUMERIC, pr_name TEXT, pr_type1 NUMERIC, pr_type2 NUMERIC, pr_value_silent TEXT, pr_value_called TEXT);</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>252</v>
       </c>
@@ -3091,14 +3183,17 @@
         <v>8</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AE16" s="2" t="str">
+      <c r="AF16" s="2" t="str">
         <f>$W$20</f>
         <v>CREATE TABLE trischaken (tr_id INTEGER PRIMARY KEY, tr_ts_id NUMERIC, tr qid NUMERIC, tr_value NUMERIC);</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>253</v>
       </c>
@@ -3136,13 +3231,16 @@
         <v>16</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>254</v>
       </c>
@@ -3166,7 +3264,7 @@
         <v xml:space="preserve">gn_id INTEGER PRIMARY KEY, </v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19"/>
       <c r="F19"/>
       <c r="M19" s="22" t="s">
@@ -3186,11 +3284,14 @@
         <v>136</v>
       </c>
       <c r="AB19" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC19" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="AC19" s="9"/>
-    </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD19" s="9"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20"/>
       <c r="F20"/>
       <c r="M20" s="22" t="s">
@@ -3221,8 +3322,11 @@
       <c r="AB20" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E21"/>
       <c r="F21"/>
       <c r="M21" s="22" t="s">
@@ -3252,8 +3356,11 @@
       <c r="AB21" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E22"/>
       <c r="F22"/>
       <c r="M22" s="16" t="s">
@@ -3283,8 +3390,11 @@
       <c r="AB22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -3306,9 +3416,12 @@
       <c r="AB23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AC23" s="14"/>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="14"/>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -3336,7 +3449,7 @@
         <v>tr_value NUMERIC);</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -3358,11 +3471,14 @@
         <v>137</v>
       </c>
       <c r="AB25" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC25" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AC25" s="9"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD25" s="9"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -3380,10 +3496,13 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC26" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -3403,9 +3522,12 @@
       <c r="AB27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AC27" s="14"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="14"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -3423,11 +3545,14 @@
         <v>2</v>
       </c>
       <c r="AB28" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC28" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AC28" s="14"/>
-    </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD28" s="14"/>
+    </row>
+    <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -3437,9 +3562,12 @@
       <c r="AB29" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AC29" s="14"/>
-    </row>
-    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC29" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD29" s="14"/>
+    </row>
+    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -3461,8 +3589,11 @@
       <c r="AB30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -3483,8 +3614,11 @@
       <c r="AB31" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC31" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -3505,8 +3639,11 @@
       <c r="AB32" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC32" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -3528,8 +3665,11 @@
       <c r="AB33" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC33" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -3551,8 +3691,11 @@
       <c r="AB34" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC34" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -3563,14 +3706,17 @@
       <c r="AB35" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC35" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -3585,11 +3731,14 @@
         <v>142</v>
       </c>
       <c r="AB37" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC37" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="AC37" s="9"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="9"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -3603,8 +3752,11 @@
       <c r="AB38" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC38" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="E39"/>
       <c r="F39"/>
@@ -3618,8 +3770,11 @@
       <c r="AB39" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -3628,16 +3783,19 @@
         <v>3</v>
       </c>
       <c r="AB40" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC40" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="E42"/>
       <c r="F42"/>
@@ -3649,11 +3807,14 @@
         <v>143</v>
       </c>
       <c r="AB42" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AC42" s="9"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="9"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="E43"/>
       <c r="F43"/>
@@ -3662,10 +3823,13 @@
         <v>0</v>
       </c>
       <c r="AB43" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="E44"/>
       <c r="F44"/>
@@ -3676,8 +3840,11 @@
       <c r="AB44" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="E45"/>
       <c r="F45"/>
@@ -3687,7 +3854,7 @@
       <c r="U45"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -3702,11 +3869,14 @@
         <v>169</v>
       </c>
       <c r="AB46" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC46" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC46" s="9"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="9"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -3720,8 +3890,11 @@
       <c r="AB47" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -3735,8 +3908,11 @@
       <c r="AB48" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -3750,8 +3926,11 @@
       <c r="AB49" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="E50"/>
       <c r="F50"/>
@@ -3765,8 +3944,11 @@
       <c r="AB50" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -3775,7 +3957,7 @@
       <c r="R51"/>
       <c r="U51"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="M52"/>
       <c r="Q52"/>
@@ -3788,11 +3970,14 @@
         <v>77</v>
       </c>
       <c r="AB52" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC52" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AC52" s="9"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="9"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="M53"/>
       <c r="Q53"/>
@@ -3804,8 +3989,11 @@
       <c r="AB53" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC53" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="M54"/>
       <c r="Q54"/>
@@ -3817,71 +4005,74 @@
       <c r="AB54" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC54" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="M55"/>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="U55"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="M56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="U56"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="M57"/>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="U57"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="M58"/>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="U58"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="M59"/>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="M60"/>
       <c r="Q60"/>
       <c r="R60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="M61"/>
       <c r="Q61"/>
       <c r="R61"/>
       <c r="U61"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="M62"/>
       <c r="Q62"/>
       <c r="R62"/>
       <c r="U62"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="M63"/>
       <c r="Q63"/>
       <c r="R63"/>
       <c r="U63"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="M64"/>
       <c r="Q64"/>
@@ -4523,45 +4714,82 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:BS78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BK9" sqref="BK9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="30"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6" style="30" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.28515625" customWidth="1"/>
-    <col min="31" max="34" width="14.28515625" style="31" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="31"/>
-    <col min="36" max="39" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="30" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" style="30" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="30" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="9.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="30" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="6" style="30" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="8.140625" style="31" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="30" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" style="31" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" style="30" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="30" customWidth="1"/>
+    <col min="36" max="36" width="4.28515625" style="31" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" style="31" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" style="30" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" style="30" customWidth="1"/>
+    <col min="40" max="40" width="7" style="30" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.42578125" style="31" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" style="30" customWidth="1"/>
+    <col min="43" max="43" width="15" style="30" customWidth="1"/>
+    <col min="44" max="44" width="10" style="30" customWidth="1"/>
+    <col min="45" max="45" width="4.28515625" style="31" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="31" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" style="30" customWidth="1"/>
+    <col min="48" max="48" width="5.85546875" style="30" customWidth="1"/>
+    <col min="49" max="49" width="7" style="30" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18" style="31" customWidth="1"/>
+    <col min="51" max="51" width="12.7109375" style="30" customWidth="1"/>
+    <col min="52" max="52" width="10" style="30" customWidth="1"/>
+    <col min="53" max="53" width="17" style="30" customWidth="1"/>
+    <col min="54" max="54" width="17.5703125" style="30" customWidth="1"/>
+    <col min="55" max="55" width="4.28515625" style="31" customWidth="1"/>
+    <col min="56" max="56" width="10.140625" style="31" customWidth="1"/>
+    <col min="57" max="57" width="6" style="30" customWidth="1"/>
+    <col min="58" max="58" width="5.85546875" style="30" customWidth="1"/>
+    <col min="59" max="59" width="13.7109375" style="30" customWidth="1"/>
+    <col min="60" max="60" width="9.85546875" style="31" customWidth="1"/>
+    <col min="61" max="61" width="4.28515625" style="31" customWidth="1"/>
+    <col min="63" max="63" width="22.85546875" customWidth="1"/>
+    <col min="64" max="64" width="13" customWidth="1"/>
+    <col min="65" max="65" width="15.5703125" style="31" customWidth="1"/>
+    <col min="66" max="66" width="18.28515625" customWidth="1"/>
+    <col min="67" max="67" width="11.42578125" style="31"/>
+    <col min="68" max="71" width="14.28515625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>125</v>
       </c>
@@ -4637,24 +4865,105 @@
       <c r="AB1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AE1" s="31" t="str">
+      <c r="AE1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG1" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP1" s="31" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES"</f>
         <v>INSERT INTO tariffset VALUES</v>
       </c>
-      <c r="AF1" s="31" t="str">
+      <c r="BQ1" s="31" t="str">
         <f>"INSERT INTO "&amp;$G$1&amp;" VALUES"</f>
         <v>INSERT INTO tariff VALUES</v>
       </c>
-      <c r="AG1" s="31" t="str">
+      <c r="BR1" s="31" t="str">
         <f>"INSERT INTO "&amp;$O$1&amp;" VALUES"</f>
         <v>INSERT INTO premium VALUES</v>
       </c>
-      <c r="AH1" s="31" t="str">
+      <c r="BS1" s="31" t="str">
         <f>"INSERT INTO "&amp;$X$1&amp;" VALUES"</f>
         <v>INSERT INTO trischaken VALUES</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B2" s="30">
         <v>1</v>
       </c>
@@ -4718,40 +5027,116 @@
       <c r="AB2">
         <v>1</v>
       </c>
-      <c r="AE2" s="31" t="str">
+      <c r="AF2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH2" s="30" t="str">
+        <f>VLOOKUP(D2,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
+        <v>NurPiccolo</v>
+      </c>
+      <c r="AI2" s="30" t="str">
+        <f>VLOOKUP(E2,'database 2.0'!$AA$14:$AB$17,2,FALSE)</f>
+        <v>Subkontra</v>
+      </c>
+      <c r="AL2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP2" s="30" t="str">
+        <f>VLOOKUP(K2,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ2" s="30" t="str">
+        <f>VLOOKUP(L2,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR2" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY2" s="30" t="str">
+        <f>VLOOKUP(S2,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ2" s="30" t="str">
+        <f>VLOOKUP(T2,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA2" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB2" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE2" s="30">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="30">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="46" t="str">
+        <f>VLOOKUP(AA2,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Punktesieger</v>
+      </c>
+      <c r="BH2" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="str">
+        <f>"int tariffsetTarockBlockId = getTariffsetDao().create(new Tariffset("""&amp;C2&amp;""", Bei."&amp;D2&amp;", KontraMax."&amp;E2&amp;"));"</f>
+        <v>int tariffsetTarockBlockId = getTariffsetDao().create(new Tariffset("TarockBlock", Bei.2, KontraMax.8));</v>
+      </c>
+      <c r="BL2" t="str">
+        <f>"getTariffDao().create(new Tariff(tariffsetTarockBlockId, "&amp;AN2&amp;", """&amp;AO2&amp;""", TariffType1."&amp;AP2&amp;", TariffType2."&amp;AQ2&amp;", "&amp;AR2&amp;"));"</f>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 1, "Trischaken", TariffType1.Negativ, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BM2" s="31" t="str">
+        <f>"getPremiumDao().create(new Premium(tariffsetTarockBlockId, "&amp;AW2&amp;", """&amp;AX2&amp;""", PremiumType1."&amp;AY2&amp;", PremiumType2."&amp;AZ2&amp;", """&amp;BA2&amp;""", """&amp;BB2&amp;"""));"</f>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 1, "Pagat", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BN2" s="49" t="str">
+        <f t="shared" ref="BN2:BN9" si="0">"getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid."&amp;BG2&amp;", "&amp;BH2&amp;"));"</f>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
+      </c>
+      <c r="BP2" s="31" t="str">
         <f>"("&amp;B2&amp;",'"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;")"&amp;IF(B3="",");",", ")</f>
         <v xml:space="preserve">(1,'TarockBlock',2,8), </v>
       </c>
-      <c r="AF2" s="31" t="str">
-        <f>"("&amp;H2&amp;","&amp;I2&amp;",'"&amp;J2&amp;"',"&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;")"&amp;IF(H3="",");",", ")</f>
+      <c r="BQ2" s="31" t="str">
+        <f t="shared" ref="BQ2:BQ33" si="1">"("&amp;H2&amp;","&amp;I2&amp;",'"&amp;J2&amp;"',"&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;")"&amp;IF(H3="",");",", ")</f>
         <v xml:space="preserve">(1,1,'Trischaken',4,1,10), </v>
       </c>
-      <c r="AG2" s="31" t="str">
-        <f>"("&amp;P2&amp;","&amp;Q2&amp;",'"&amp;R2&amp;"',"&amp;S2&amp;","&amp;T2&amp;",'"&amp;U2&amp;"','"&amp;V2&amp;"')"&amp;IF(P3="",");",", ")</f>
+      <c r="BR2" s="31" t="str">
+        <f t="shared" ref="BR2:BR46" si="2">"("&amp;P2&amp;","&amp;Q2&amp;",'"&amp;R2&amp;"',"&amp;S2&amp;","&amp;T2&amp;",'"&amp;U2&amp;"','"&amp;V2&amp;"')"&amp;IF(P3="",");",", ")</f>
         <v xml:space="preserve">(1,1,'Pagat',1,0,'10','20'), </v>
       </c>
-      <c r="AH2" s="31" t="str">
-        <f>"("&amp;Y2&amp;","&amp;Z2&amp;","&amp;AA2&amp;","&amp;AB2&amp;")"&amp;IF(Y3="",");",", ")</f>
+      <c r="BS2" s="31" t="str">
+        <f t="shared" ref="BS2:BS16" si="3">"("&amp;Y2&amp;","&amp;Z2&amp;","&amp;AA2&amp;","&amp;AB2&amp;")"&amp;IF(Y3="",");",", ")</f>
         <v xml:space="preserve">(1,1,1,1), </v>
       </c>
-      <c r="AJ2" s="31" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B2&amp;",'"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;");"</f>
-        <v>INSERT INTO tariffset VALUES(1,'TarockBlock',2,8);</v>
-      </c>
-      <c r="AK2" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H2&amp;","&amp;I2&amp;",'"&amp;J2&amp;"',"&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(1,1,'Trischaken',4,1,10);</v>
-      </c>
-      <c r="AL2" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P2&amp;","&amp;Q2&amp;",'"&amp;R2&amp;"',"&amp;S2&amp;","&amp;T2&amp;",'"&amp;U2&amp;"','"&amp;V2&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(1,1,'Pagat',1,0,'10','20');</v>
-      </c>
-      <c r="AM2" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y2&amp;","&amp;Z2&amp;","&amp;AA2&amp;","&amp;AB2&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(1,1,1,1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B3" s="30">
         <v>2</v>
       </c>
@@ -4815,40 +5200,116 @@
       <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AE3" s="31" t="str">
-        <f t="shared" ref="AE3:AE8" si="0">"("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;")"&amp;IF(B4="",");",", ")</f>
+      <c r="AF3" s="30">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH3" s="30" t="str">
+        <f>VLOOKUP(D3,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
+        <v>Keine</v>
+      </c>
+      <c r="AI3" s="30" t="str">
+        <f>VLOOKUP(E3,'database 2.0'!$AA$14:$AB$17,2,FALSE)</f>
+        <v>Subkontra</v>
+      </c>
+      <c r="AL3" s="30">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP3" s="30" t="str">
+        <f>VLOOKUP(K3,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ3" s="30" t="str">
+        <f>VLOOKUP(L3,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR3" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU3" s="30">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="30">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY3" s="30" t="str">
+        <f>VLOOKUP(S3,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ3" s="30" t="str">
+        <f>VLOOKUP(T3,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA3" s="30">
+        <v>20</v>
+      </c>
+      <c r="BB3" s="30">
+        <v>40</v>
+      </c>
+      <c r="BE3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="30">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="46" t="str">
+        <f>VLOOKUP(AA3,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Bürgermeister</v>
+      </c>
+      <c r="BH3" s="31">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="31" t="str">
+        <f t="shared" ref="BK3:BK6" si="4">"int tariffsetTarockBlockId = getTariffsetDao().create(new Tariffset("""&amp;C3&amp;""", Bei."&amp;D3&amp;", KontraMax."&amp;E3&amp;"));"</f>
+        <v>int tariffsetTarockBlockId = getTariffsetDao().create(new Tariffset("Wiener Zeitung Cup", Bei.1, KontraMax.8));</v>
+      </c>
+      <c r="BL3" s="31" t="str">
+        <f t="shared" ref="BL3:BL66" si="5">"getTariffDao().create(new Tariff(tariffsetTarockBlockId, "&amp;AN3&amp;", """&amp;AO3&amp;""", TariffType1."&amp;AP3&amp;", TariffType2."&amp;AQ3&amp;", "&amp;AR3&amp;"));"</f>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 2, "Königrufer", TariffType1.Rufer, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BM3" s="31" t="str">
+        <f t="shared" ref="BM3:BM46" si="6">"getPremiumDao().create(new Premium(tariffsetTarockBlockId, "&amp;AW3&amp;", """&amp;AX3&amp;""", PremiumType1."&amp;AY3&amp;", PremiumType2."&amp;AZ3&amp;", """&amp;BA3&amp;""", """&amp;BB3&amp;"""));"</f>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 2, "Uhu", PremiumType1.Tarock, PremiumType2.Nothing, "20", "40"));</v>
+      </c>
+      <c r="BN3" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
+      </c>
+      <c r="BP3" s="31" t="str">
+        <f>"("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;")"&amp;IF(B4="",");",", ")</f>
         <v xml:space="preserve">(2,'Wiener Zeitung Cup',1,8), </v>
       </c>
-      <c r="AF3" s="31" t="str">
-        <f t="shared" ref="AF3:AF66" si="1">"("&amp;H3&amp;","&amp;I3&amp;",'"&amp;J3&amp;"',"&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;")"&amp;IF(H4="",");",", ")</f>
+      <c r="BQ3" s="31" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(2,1,'Königrufer',1,1,10), </v>
       </c>
-      <c r="AG3" s="31" t="str">
-        <f t="shared" ref="AG3:AG65" si="2">"("&amp;P3&amp;","&amp;Q3&amp;",'"&amp;R3&amp;"',"&amp;S3&amp;","&amp;T3&amp;",'"&amp;U3&amp;"','"&amp;V3&amp;"')"&amp;IF(P4="",");",", ")</f>
+      <c r="BR3" s="31" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2,1,'Uhu',1,0,'20','40'), </v>
       </c>
-      <c r="AH3" s="31" t="str">
-        <f t="shared" ref="AH3:AH17" si="3">"("&amp;Y3&amp;","&amp;Z3&amp;","&amp;AA3&amp;","&amp;AB3&amp;")"&amp;IF(Y4="",");",", ")</f>
+      <c r="BS3" s="31" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">(2,1,2,2), </v>
       </c>
-      <c r="AJ3" s="31" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;");"</f>
-        <v>INSERT INTO tariffset VALUES(2,'Wiener Zeitung Cup',1,8);</v>
-      </c>
-      <c r="AK3" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H3&amp;","&amp;I3&amp;",'"&amp;J3&amp;"',"&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(2,1,'Königrufer',1,1,10);</v>
-      </c>
-      <c r="AL3" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P3&amp;","&amp;Q3&amp;",'"&amp;R3&amp;"',"&amp;S3&amp;","&amp;T3&amp;",'"&amp;U3&amp;"','"&amp;V3&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(2,1,'Uhu',1,0,'20','40');</v>
-      </c>
-      <c r="AM3" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y3&amp;","&amp;Z3&amp;","&amp;AA3&amp;","&amp;AB3&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(2,1,2,2);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -4912,40 +5373,116 @@
       <c r="AB4">
         <v>2</v>
       </c>
-      <c r="AE4" s="31" t="str">
+      <c r="AF4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH4" s="30" t="str">
+        <f>VLOOKUP(D4,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
+        <v>Keine</v>
+      </c>
+      <c r="AI4" s="30" t="str">
+        <f>VLOOKUP(E4,'database 2.0'!$AA$14:$AB$17,2,FALSE)</f>
+        <v>Subkontra</v>
+      </c>
+      <c r="AL4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP4" s="30" t="str">
+        <f>VLOOKUP(K4,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ4" s="30" t="str">
+        <f>VLOOKUP(L4,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR4" s="30">
+        <v>30</v>
+      </c>
+      <c r="AU4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY4" s="30" t="str">
+        <f>VLOOKUP(S4,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ4" s="30" t="str">
+        <f>VLOOKUP(T4,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA4" s="30">
+        <v>30</v>
+      </c>
+      <c r="BB4" s="30">
+        <v>60</v>
+      </c>
+      <c r="BE4" s="47">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="47">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="34" t="str">
+        <f>VLOOKUP(AA4,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="BH4" s="48">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>int tariffsetTarockBlockId = getTariffsetDao().create(new Tariffset("Raiffeisencup/Hausruckcup", Bei.1, KontraMax.8));</v>
+      </c>
+      <c r="BL4" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 3, "Sechserdreier", TariffType1.Dreier, TariffType2.Vorhand, 30));</v>
+      </c>
+      <c r="BM4" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 3, "Kakadu", PremiumType1.Tarock, PremiumType2.Nothing, "30", "60"));</v>
+      </c>
+      <c r="BN4" s="48" t="str">
         <f t="shared" si="0"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
+      </c>
+      <c r="BP4" s="31" t="str">
+        <f>"("&amp;B4&amp;",'"&amp;C4&amp;"',"&amp;D4&amp;","&amp;E4&amp;")"&amp;IF(B5="",");",", ")</f>
         <v xml:space="preserve">(3,'Raiffeisencup/Hausruckcup',1,8), </v>
       </c>
-      <c r="AF4" s="31" t="str">
+      <c r="BQ4" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(3,1,'Sechserdreier',2,1,30), </v>
       </c>
-      <c r="AG4" s="31" t="str">
+      <c r="BR4" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(3,1,'Kakadu',1,0,'30','60'), </v>
       </c>
-      <c r="AH4" s="31" t="str">
+      <c r="BS4" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(3,1,3,2), </v>
       </c>
-      <c r="AJ4" s="31" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B4&amp;",'"&amp;C4&amp;"',"&amp;D4&amp;","&amp;E4&amp;");"</f>
-        <v>INSERT INTO tariffset VALUES(3,'Raiffeisencup/Hausruckcup',1,8);</v>
-      </c>
-      <c r="AK4" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H4&amp;","&amp;I4&amp;",'"&amp;J4&amp;"',"&amp;K4&amp;","&amp;L4&amp;","&amp;M4&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(3,1,'Sechserdreier',2,1,30);</v>
-      </c>
-      <c r="AL4" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P4&amp;","&amp;Q4&amp;",'"&amp;R4&amp;"',"&amp;S4&amp;","&amp;T4&amp;",'"&amp;U4&amp;"','"&amp;V4&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(3,1,'Kakadu',1,0,'30','60');</v>
-      </c>
-      <c r="AM4" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y4&amp;","&amp;Z4&amp;","&amp;AA4&amp;","&amp;AB4&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(3,1,3,2);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
         <v>4</v>
       </c>
@@ -5009,40 +5546,116 @@
       <c r="AB5" s="31">
         <v>1</v>
       </c>
-      <c r="AE5" s="31" t="str">
+      <c r="AF5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH5" s="30" t="str">
+        <f>VLOOKUP(D5,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
+        <v>NurGleichwertige</v>
+      </c>
+      <c r="AI5" s="30" t="str">
+        <f>VLOOKUP(E5,'database 2.0'!$AA$14:$AB$17,2,FALSE)</f>
+        <v>Subkontra</v>
+      </c>
+      <c r="AL5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP5" s="30" t="str">
+        <f>VLOOKUP(K5,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ5" s="30" t="str">
+        <f>VLOOKUP(L5,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR5" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY5" s="30" t="str">
+        <f>VLOOKUP(S5,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ5" s="30" t="str">
+        <f>VLOOKUP(T5,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA5" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE5" s="30">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="30">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="46" t="str">
+        <f>VLOOKUP(AA5,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Punktesieger</v>
+      </c>
+      <c r="BH5" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>int tariffsetTarockBlockId = getTariffsetDao().create(new Tariffset("Tiroler Tarockcup", Bei.4, KontraMax.8));</v>
+      </c>
+      <c r="BL5" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 4, "Piccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 10));</v>
+      </c>
+      <c r="BM5" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BN5" s="49" t="str">
         <f t="shared" si="0"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
+      </c>
+      <c r="BP5" s="31" t="str">
+        <f>"("&amp;B5&amp;",'"&amp;C5&amp;"',"&amp;D5&amp;","&amp;E5&amp;")"&amp;IF(B6="",");",", ")</f>
         <v xml:space="preserve">(4,'Tiroler Tarockcup',4,8), </v>
       </c>
-      <c r="AF5" s="31" t="str">
+      <c r="BQ5" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(4,1,'Piccolo',4,2,10), </v>
       </c>
-      <c r="AG5" s="31" t="str">
+      <c r="BR5" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(4,1,'König ultimo',2,0,'10','20'), </v>
       </c>
-      <c r="AH5" s="31" t="str">
+      <c r="BS5" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(4,2,1,1), </v>
       </c>
-      <c r="AJ5" s="31" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B5&amp;",'"&amp;C5&amp;"',"&amp;D5&amp;","&amp;E5&amp;");"</f>
-        <v>INSERT INTO tariffset VALUES(4,'Tiroler Tarockcup',4,8);</v>
-      </c>
-      <c r="AK5" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H5&amp;","&amp;I5&amp;",'"&amp;J5&amp;"',"&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(4,1,'Piccolo',4,2,10);</v>
-      </c>
-      <c r="AL5" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P5&amp;","&amp;Q5&amp;",'"&amp;R5&amp;"',"&amp;S5&amp;","&amp;T5&amp;",'"&amp;U5&amp;"','"&amp;V5&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(4,1,'König ultimo',2,0,'10','20');</v>
-      </c>
-      <c r="AM5" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y5&amp;","&amp;Z5&amp;","&amp;AA5&amp;","&amp;AB5&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(4,2,1,1);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B6" s="30">
         <v>5</v>
       </c>
@@ -5106,40 +5719,116 @@
       <c r="AB6" s="31">
         <v>2</v>
       </c>
-      <c r="AE6" s="31" t="str">
+      <c r="AF6" s="30">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH6" s="30" t="str">
+        <f>VLOOKUP(D6,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
+        <v>NurPiccolo</v>
+      </c>
+      <c r="AI6" s="30" t="str">
+        <f>VLOOKUP(E6,'database 2.0'!$AA$14:$AB$17,2,FALSE)</f>
+        <v>Rekontra</v>
+      </c>
+      <c r="AL6" s="30">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="30">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP6" s="30" t="str">
+        <f>VLOOKUP(K6,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ6" s="30" t="str">
+        <f>VLOOKUP(L6,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR6" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU6" s="30">
+        <v>5</v>
+      </c>
+      <c r="AV6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="30">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY6" s="30" t="str">
+        <f>VLOOKUP(S6,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ6" s="30" t="str">
+        <f>VLOOKUP(T6,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Mondfang</v>
+      </c>
+      <c r="BA6" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE6" s="30">
+        <v>5</v>
+      </c>
+      <c r="BF6" s="30">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="46" t="str">
+        <f>VLOOKUP(AA6,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Bürgermeister</v>
+      </c>
+      <c r="BH6" s="31">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>int tariffsetTarockBlockId = getTariffsetDao().create(new Tariffset("Steirischer Tarockcup", Bei.2, KontraMax.4));</v>
+      </c>
+      <c r="BL6" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 5, "Zwiccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 10));</v>
+      </c>
+      <c r="BM6" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "Mondfang", PremiumType1.Tarock, PremiumType2.Mondfang, "10", "20"));</v>
+      </c>
+      <c r="BN6" s="49" t="str">
         <f t="shared" si="0"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
+      </c>
+      <c r="BP6" s="31" t="str">
+        <f>"("&amp;B6&amp;",'"&amp;C6&amp;"',"&amp;D6&amp;","&amp;E6&amp;")"&amp;IF(B7="",");",", ")</f>
         <v>(5,'Steirischer Tarockcup',2,4));</v>
       </c>
-      <c r="AF6" s="31" t="str">
+      <c r="BQ6" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(5,1,'Zwiccolo',4,2,10), </v>
       </c>
-      <c r="AG6" s="31" t="str">
+      <c r="BR6" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(5,1,'Mondfang',1,1,'10','20'), </v>
       </c>
-      <c r="AH6" s="31" t="str">
+      <c r="BS6" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(5,2,2,2), </v>
       </c>
-      <c r="AJ6" s="31" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES("&amp;B6&amp;",'"&amp;C6&amp;"',"&amp;D6&amp;","&amp;E6&amp;");"</f>
-        <v>INSERT INTO tariffset VALUES(5,'Steirischer Tarockcup',2,4);</v>
-      </c>
-      <c r="AK6" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H6&amp;","&amp;I6&amp;",'"&amp;J6&amp;"',"&amp;K6&amp;","&amp;L6&amp;","&amp;M6&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(5,1,'Zwiccolo',4,2,10);</v>
-      </c>
-      <c r="AL6" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P6&amp;","&amp;Q6&amp;",'"&amp;R6&amp;"',"&amp;S6&amp;","&amp;T6&amp;",'"&amp;U6&amp;"','"&amp;V6&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(5,1,'Mondfang',1,1,'10','20');</v>
-      </c>
-      <c r="AM6" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y6&amp;","&amp;Z6&amp;","&amp;AA6&amp;","&amp;AB6&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(5,2,2,2);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="30">
         <v>6</v>
       </c>
@@ -5191,32 +5880,94 @@
       <c r="AB7" s="31">
         <v>2</v>
       </c>
-      <c r="AF7" s="31" t="str">
+      <c r="AL7" s="30">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="30">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP7" s="30" t="str">
+        <f>VLOOKUP(K7,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ7" s="30" t="str">
+        <f>VLOOKUP(L7,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR7" s="30">
+        <v>20</v>
+      </c>
+      <c r="AU7" s="30">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="30">
+        <v>6</v>
+      </c>
+      <c r="AX7" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY7" s="30" t="str">
+        <f>VLOOKUP(S7,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ7" s="30" t="str">
+        <f>VLOOKUP(T7,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA7" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE7" s="47">
+        <v>6</v>
+      </c>
+      <c r="BF7" s="47">
+        <v>2</v>
+      </c>
+      <c r="BG7" s="34" t="str">
+        <f>VLOOKUP(AA7,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="BH7" s="48">
+        <v>2</v>
+      </c>
+      <c r="BL7" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 6, "Solorufer", TariffType1.Rufer, TariffType2.Solo, 20));</v>
+      </c>
+      <c r="BM7" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 6, "Trull", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BN7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
+      </c>
+      <c r="BQ7" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(6,1,'Solorufer',1,4,20), </v>
       </c>
-      <c r="AG7" s="31" t="str">
+      <c r="BR7" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(6,1,'Trull',1,0,'10','20'), </v>
       </c>
-      <c r="AH7" s="31" t="str">
+      <c r="BS7" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(6,2,3,2), </v>
       </c>
-      <c r="AK7" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H7&amp;","&amp;I7&amp;",'"&amp;J7&amp;"',"&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(6,1,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="AL7" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P7&amp;","&amp;Q7&amp;",'"&amp;R7&amp;"',"&amp;S7&amp;","&amp;T7&amp;",'"&amp;U7&amp;"','"&amp;V7&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(6,1,'Trull',1,0,'10','20');</v>
-      </c>
-      <c r="AM7" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y7&amp;","&amp;Z7&amp;","&amp;AA7&amp;","&amp;AB7&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(6,2,3,2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="H8" s="30">
         <v>7</v>
       </c>
@@ -5268,32 +6019,94 @@
       <c r="AB8" s="31">
         <v>1</v>
       </c>
-      <c r="AF8" s="31" t="str">
+      <c r="AL8" s="30">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="30">
+        <v>7</v>
+      </c>
+      <c r="AO8" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP8" s="30" t="str">
+        <f>VLOOKUP(K8,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ8" s="30" t="str">
+        <f>VLOOKUP(L8,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR8" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU8" s="30">
+        <v>7</v>
+      </c>
+      <c r="AV8" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="30">
+        <v>7</v>
+      </c>
+      <c r="AX8" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY8" s="30" t="str">
+        <f>VLOOKUP(S8,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ8" s="30" t="str">
+        <f>VLOOKUP(T8,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA8" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB8" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE8" s="30">
+        <v>7</v>
+      </c>
+      <c r="BF8" s="30">
+        <v>3</v>
+      </c>
+      <c r="BG8" s="46" t="str">
+        <f>VLOOKUP(AA8,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Punktesieger</v>
+      </c>
+      <c r="BH8" s="31">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 7, "Besserrufer (+Vogel)", TariffType1.Rufer, TariffType2.Besserrufer, 10));</v>
+      </c>
+      <c r="BM8" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BN8" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
+      </c>
+      <c r="BQ8" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(7,1,'Besserrufer (+Vogel)',1,5,10), </v>
       </c>
-      <c r="AG8" s="31" t="str">
+      <c r="BR8" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(7,1,'4 Könige',2,0,'10','20'), </v>
       </c>
-      <c r="AH8" s="31" t="str">
+      <c r="BS8" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(7,3,1,1), </v>
       </c>
-      <c r="AK8" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H8&amp;","&amp;I8&amp;",'"&amp;J8&amp;"',"&amp;K8&amp;","&amp;L8&amp;","&amp;M8&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(7,1,'Besserrufer (+Vogel)',1,5,10);</v>
-      </c>
-      <c r="AL8" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P8&amp;","&amp;Q8&amp;",'"&amp;R8&amp;"',"&amp;S8&amp;","&amp;T8&amp;",'"&amp;U8&amp;"','"&amp;V8&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(7,1,'4 Könige',2,0,'10','20');</v>
-      </c>
-      <c r="AM8" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y8&amp;","&amp;Z8&amp;","&amp;AA8&amp;","&amp;AB8&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(7,3,1,1);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="H9" s="30">
         <v>8</v>
       </c>
@@ -5345,32 +6158,94 @@
       <c r="AB9" s="31">
         <v>2</v>
       </c>
-      <c r="AF9" s="31" t="str">
+      <c r="AL9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AO9" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP9" s="30" t="str">
+        <f>VLOOKUP(K9,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ9" s="30" t="str">
+        <f>VLOOKUP(L9,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR9" s="30">
+        <v>30</v>
+      </c>
+      <c r="AU9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AV9" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY9" s="30" t="str">
+        <f>VLOOKUP(S9,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ9" s="30" t="str">
+        <f>VLOOKUP(T9,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA9" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB9" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE9" s="30">
+        <v>8</v>
+      </c>
+      <c r="BF9" s="30">
+        <v>3</v>
+      </c>
+      <c r="BG9" s="46" t="str">
+        <f>VLOOKUP(AA9,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Bürgermeister</v>
+      </c>
+      <c r="BH9" s="31">
+        <v>2</v>
+      </c>
+      <c r="BL9" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 8, "Bettler", TariffType1.Negativ, TariffType2.Bettler, 30));</v>
+      </c>
+      <c r="BM9" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "1. Sack (≥45/2)", PremiumType1.PunkteStiche, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BN9" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
+      </c>
+      <c r="BQ9" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(8,1,'Bettler',4,3,30), </v>
       </c>
-      <c r="AG9" s="31" t="str">
+      <c r="BR9" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(8,1,'1. Sack (≥45/2)',3,0,'10','20'), </v>
       </c>
-      <c r="AH9" s="31" t="str">
+      <c r="BS9" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(8,3,2,2), </v>
       </c>
-      <c r="AK9" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H9&amp;","&amp;I9&amp;",'"&amp;J9&amp;"',"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(8,1,'Bettler',4,3,30);</v>
-      </c>
-      <c r="AL9" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P9&amp;","&amp;Q9&amp;",'"&amp;R9&amp;"',"&amp;S9&amp;","&amp;T9&amp;",'"&amp;U9&amp;"','"&amp;V9&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(8,1,'1. Sack (≥45/2)',3,0,'10','20');</v>
-      </c>
-      <c r="AM9" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y9&amp;","&amp;Z9&amp;","&amp;AA9&amp;","&amp;AB9&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(8,3,2,2);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="30">
         <v>9</v>
       </c>
@@ -5422,32 +6297,94 @@
       <c r="AB10" s="31">
         <v>2</v>
       </c>
-      <c r="AF10" s="31" t="str">
+      <c r="AL10" s="30">
+        <v>9</v>
+      </c>
+      <c r="AM10" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="30">
+        <v>9</v>
+      </c>
+      <c r="AO10" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP10" s="30" t="str">
+        <f>VLOOKUP(K10,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ10" s="30" t="str">
+        <f>VLOOKUP(L10,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR10" s="30">
+        <v>40</v>
+      </c>
+      <c r="AU10" s="30">
+        <v>9</v>
+      </c>
+      <c r="AV10" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="30">
+        <v>9</v>
+      </c>
+      <c r="AX10" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY10" s="30" t="str">
+        <f>VLOOKUP(S10,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ10" s="30" t="str">
+        <f>VLOOKUP(T10,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA10" s="30">
+        <v>20</v>
+      </c>
+      <c r="BB10" s="30">
+        <v>40</v>
+      </c>
+      <c r="BE10" s="47">
+        <v>9</v>
+      </c>
+      <c r="BF10" s="47">
+        <v>3</v>
+      </c>
+      <c r="BG10" s="34" t="str">
+        <f>VLOOKUP(AA10,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="BH10" s="48">
+        <v>2</v>
+      </c>
+      <c r="BL10" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 9, "Farbendreier", TariffType1.Farben, TariffType2.Nothing, 40));</v>
+      </c>
+      <c r="BM10" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 9, "2. Sack (≥55/2)", PremiumType1.PunkteStiche, PremiumType2.Nothing, "20", "40"));</v>
+      </c>
+      <c r="BN10" s="48" t="str">
+        <f>"getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid."&amp;BG10&amp;", "&amp;BH10&amp;"));"</f>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
+      </c>
+      <c r="BQ10" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(9,1,'Farbendreier',3,0,40), </v>
       </c>
-      <c r="AG10" s="31" t="str">
+      <c r="BR10" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(9,1,'2. Sack (≥55/2)',3,0,'20','40'), </v>
       </c>
-      <c r="AH10" s="31" t="str">
+      <c r="BS10" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(9,3,3,2), </v>
       </c>
-      <c r="AK10" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H10&amp;","&amp;I10&amp;",'"&amp;J10&amp;"',"&amp;K10&amp;","&amp;L10&amp;","&amp;M10&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(9,1,'Farbendreier',3,0,40);</v>
-      </c>
-      <c r="AL10" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P10&amp;","&amp;Q10&amp;",'"&amp;R10&amp;"',"&amp;S10&amp;","&amp;T10&amp;",'"&amp;U10&amp;"','"&amp;V10&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(9,1,'2. Sack (≥55/2)',3,0,'20','40');</v>
-      </c>
-      <c r="AM10" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y10&amp;","&amp;Z10&amp;","&amp;AA10&amp;","&amp;AB10&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(9,3,3,2);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="30">
         <v>10</v>
       </c>
@@ -5499,32 +6436,94 @@
       <c r="AB11" s="31">
         <v>1</v>
       </c>
-      <c r="AF11" s="31" t="str">
+      <c r="AL11" s="30">
+        <v>10</v>
+      </c>
+      <c r="AM11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="30">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP11" s="30" t="str">
+        <f>VLOOKUP(K11,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ11" s="30" t="str">
+        <f>VLOOKUP(L11,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR11" s="30">
+        <v>40</v>
+      </c>
+      <c r="AU11" s="47">
+        <v>10</v>
+      </c>
+      <c r="AV11" s="47">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="47">
+        <v>10</v>
+      </c>
+      <c r="AX11" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY11" s="47" t="str">
+        <f>VLOOKUP(S11,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ11" s="47" t="str">
+        <f>VLOOKUP(T11,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA11" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB11" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE11" s="30">
+        <v>10</v>
+      </c>
+      <c r="BF11" s="30">
+        <v>4</v>
+      </c>
+      <c r="BG11" s="46" t="str">
+        <f>VLOOKUP(AA11,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Punktesieger</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 10, "Dreier", TariffType1.Dreier, TariffType2.Nothing, 40));</v>
+      </c>
+      <c r="BM11" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 10, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
+      </c>
+      <c r="BN11" s="49" t="str">
+        <f t="shared" ref="BN11:BN16" si="7">"getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid."&amp;BG11&amp;", "&amp;BH11&amp;"));"</f>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
+      </c>
+      <c r="BQ11" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(10,1,'Dreier',2,0,40), </v>
       </c>
-      <c r="AG11" s="31" t="str">
+      <c r="BR11" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(10,1,'Valat',3,0,'x4','x8'), </v>
       </c>
-      <c r="AH11" s="31" t="str">
+      <c r="BS11" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(10,4,1,1), </v>
       </c>
-      <c r="AK11" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H11&amp;","&amp;I11&amp;",'"&amp;J11&amp;"',"&amp;K11&amp;","&amp;L11&amp;","&amp;M11&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(10,1,'Dreier',2,0,40);</v>
-      </c>
-      <c r="AL11" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P11&amp;","&amp;Q11&amp;",'"&amp;R11&amp;"',"&amp;S11&amp;","&amp;T11&amp;",'"&amp;U11&amp;"','"&amp;V11&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(10,1,'Valat',3,0,'x4','x8');</v>
-      </c>
-      <c r="AM11" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y11&amp;","&amp;Z11&amp;","&amp;AA11&amp;","&amp;AB11&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(10,4,1,1);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="H12" s="30">
         <v>11</v>
       </c>
@@ -5576,32 +6575,94 @@
       <c r="AB12" s="31">
         <v>2</v>
       </c>
-      <c r="AF12" s="31" t="str">
+      <c r="AL12" s="30">
+        <v>11</v>
+      </c>
+      <c r="AM12" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="30">
+        <v>11</v>
+      </c>
+      <c r="AO12" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP12" s="30" t="str">
+        <f>VLOOKUP(K12,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ12" s="30" t="str">
+        <f>VLOOKUP(L12,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR12" s="30">
+        <v>50</v>
+      </c>
+      <c r="AU12" s="30">
+        <v>11</v>
+      </c>
+      <c r="AV12" s="30">
+        <v>2</v>
+      </c>
+      <c r="AW12" s="30">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY12" s="30" t="str">
+        <f>VLOOKUP(S12,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ12" s="30" t="str">
+        <f>VLOOKUP(T12,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA12" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB12" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE12" s="30">
+        <v>11</v>
+      </c>
+      <c r="BF12" s="30">
+        <v>4</v>
+      </c>
+      <c r="BG12" s="46" t="str">
+        <f>VLOOKUP(AA12,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Bürgermeister</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>2</v>
+      </c>
+      <c r="BL12" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 11, "Piccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 50));</v>
+      </c>
+      <c r="BM12" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 1, "Pagat", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BN12" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
+      </c>
+      <c r="BQ12" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(11,1,'Piccolo ouvert',4,2,50), </v>
       </c>
-      <c r="AG12" s="31" t="str">
+      <c r="BR12" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(11,2,'Pagat',1,0,'10','20'), </v>
       </c>
-      <c r="AH12" s="31" t="str">
+      <c r="BS12" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(11,4,2,2), </v>
       </c>
-      <c r="AK12" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H12&amp;","&amp;I12&amp;",'"&amp;J12&amp;"',"&amp;K12&amp;","&amp;L12&amp;","&amp;M12&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(11,1,'Piccolo ouvert',4,2,50);</v>
-      </c>
-      <c r="AL12" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P12&amp;","&amp;Q12&amp;",'"&amp;R12&amp;"',"&amp;S12&amp;","&amp;T12&amp;",'"&amp;U12&amp;"','"&amp;V12&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(11,2,'Pagat',1,0,'10','20');</v>
-      </c>
-      <c r="AM12" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y12&amp;","&amp;Z12&amp;","&amp;AA12&amp;","&amp;AB12&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(11,4,2,2);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="30">
         <v>12</v>
       </c>
@@ -5653,32 +6714,94 @@
       <c r="AB13" s="31">
         <v>2</v>
       </c>
-      <c r="AF13" s="31" t="str">
+      <c r="AL13" s="30">
+        <v>12</v>
+      </c>
+      <c r="AM13" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="30">
+        <v>12</v>
+      </c>
+      <c r="AO13" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP13" s="30" t="str">
+        <f>VLOOKUP(K13,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ13" s="30" t="str">
+        <f>VLOOKUP(L13,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR13" s="30">
+        <v>50</v>
+      </c>
+      <c r="AU13" s="30">
+        <v>12</v>
+      </c>
+      <c r="AV13" s="30">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="30">
+        <v>2</v>
+      </c>
+      <c r="AX13" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY13" s="30" t="str">
+        <f>VLOOKUP(S13,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ13" s="30" t="str">
+        <f>VLOOKUP(T13,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA13" s="30">
+        <v>20</v>
+      </c>
+      <c r="BB13" s="30">
+        <v>40</v>
+      </c>
+      <c r="BE13" s="47">
+        <v>12</v>
+      </c>
+      <c r="BF13" s="47">
+        <v>4</v>
+      </c>
+      <c r="BG13" s="34" t="str">
+        <f>VLOOKUP(AA13,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="BH13" s="48">
+        <v>2</v>
+      </c>
+      <c r="BL13" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 12, "Zwiccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 50));</v>
+      </c>
+      <c r="BM13" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 2, "Uhu", PremiumType1.Tarock, PremiumType2.Nothing, "20", "40"));</v>
+      </c>
+      <c r="BN13" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
+      </c>
+      <c r="BQ13" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(12,1,'Zwiccolo ouvert',4,2,50), </v>
       </c>
-      <c r="AG13" s="31" t="str">
+      <c r="BR13" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(12,2,'Uhu',1,0,'20','40'), </v>
       </c>
-      <c r="AH13" s="31" t="str">
+      <c r="BS13" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(12,4,3,2), </v>
       </c>
-      <c r="AK13" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H13&amp;","&amp;I13&amp;",'"&amp;J13&amp;"',"&amp;K13&amp;","&amp;L13&amp;","&amp;M13&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(12,1,'Zwiccolo ouvert',4,2,50);</v>
-      </c>
-      <c r="AL13" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P13&amp;","&amp;Q13&amp;",'"&amp;R13&amp;"',"&amp;S13&amp;","&amp;T13&amp;",'"&amp;U13&amp;"','"&amp;V13&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(12,2,'Uhu',1,0,'20','40');</v>
-      </c>
-      <c r="AM13" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y13&amp;","&amp;Z13&amp;","&amp;AA13&amp;","&amp;AB13&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(12,4,3,2);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="H14" s="30">
         <v>13</v>
       </c>
@@ -5730,32 +6853,94 @@
       <c r="AB14" s="31">
         <v>1</v>
       </c>
-      <c r="AF14" s="31" t="str">
+      <c r="AL14" s="30">
+        <v>13</v>
+      </c>
+      <c r="AM14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="30">
+        <v>13</v>
+      </c>
+      <c r="AO14" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP14" s="30" t="str">
+        <f>VLOOKUP(K14,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ14" s="30" t="str">
+        <f>VLOOKUP(L14,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR14" s="30">
+        <v>70</v>
+      </c>
+      <c r="AU14" s="30">
+        <v>13</v>
+      </c>
+      <c r="AV14" s="30">
+        <v>2</v>
+      </c>
+      <c r="AW14" s="30">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY14" s="30" t="str">
+        <f>VLOOKUP(S14,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ14" s="30" t="str">
+        <f>VLOOKUP(T14,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA14" s="30">
+        <v>30</v>
+      </c>
+      <c r="BB14" s="30">
+        <v>60</v>
+      </c>
+      <c r="BE14" s="30">
+        <v>13</v>
+      </c>
+      <c r="BF14" s="30">
+        <v>5</v>
+      </c>
+      <c r="BG14" s="46" t="str">
+        <f>VLOOKUP(AA14,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Punktesieger</v>
+      </c>
+      <c r="BH14" s="31">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 13, "Bettler ouvert", TariffType1.Negativ, TariffType2.Bettler, 70));</v>
+      </c>
+      <c r="BM14" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 3, "Kakadu", PremiumType1.Tarock, PremiumType2.Nothing, "30", "60"));</v>
+      </c>
+      <c r="BN14" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
+      </c>
+      <c r="BQ14" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(13,1,'Bettler ouvert',4,3,70), </v>
       </c>
-      <c r="AG14" s="31" t="str">
+      <c r="BR14" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(13,2,'Kakadu',1,0,'30','60'), </v>
       </c>
-      <c r="AH14" s="31" t="str">
+      <c r="BS14" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(13,5,1,1), </v>
       </c>
-      <c r="AK14" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H14&amp;","&amp;I14&amp;",'"&amp;J14&amp;"',"&amp;K14&amp;","&amp;L14&amp;","&amp;M14&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(13,1,'Bettler ouvert',4,3,70);</v>
-      </c>
-      <c r="AL14" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P14&amp;","&amp;Q14&amp;",'"&amp;R14&amp;"',"&amp;S14&amp;","&amp;T14&amp;",'"&amp;U14&amp;"','"&amp;V14&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(13,2,'Kakadu',1,0,'30','60');</v>
-      </c>
-      <c r="AM14" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y14&amp;","&amp;Z14&amp;","&amp;AA14&amp;","&amp;AB14&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(13,5,1,1);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="H15" s="30">
         <v>14</v>
       </c>
@@ -5807,32 +6992,94 @@
       <c r="AB15" s="31">
         <v>2</v>
       </c>
-      <c r="AF15" s="31" t="str">
+      <c r="AL15" s="30">
+        <v>14</v>
+      </c>
+      <c r="AM15" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="30">
+        <v>14</v>
+      </c>
+      <c r="AO15" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP15" s="30" t="str">
+        <f>VLOOKUP(K15,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ15" s="30" t="str">
+        <f>VLOOKUP(L15,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR15" s="30">
+        <v>80</v>
+      </c>
+      <c r="AU15" s="30">
+        <v>14</v>
+      </c>
+      <c r="AV15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="30">
+        <v>4</v>
+      </c>
+      <c r="AX15" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY15" s="30" t="str">
+        <f>VLOOKUP(S15,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ15" s="30" t="str">
+        <f>VLOOKUP(T15,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA15" s="30">
+        <v>40</v>
+      </c>
+      <c r="BB15" s="30">
+        <v>80</v>
+      </c>
+      <c r="BE15" s="30">
+        <v>14</v>
+      </c>
+      <c r="BF15" s="30">
+        <v>5</v>
+      </c>
+      <c r="BG15" s="46" t="str">
+        <f>VLOOKUP(AA15,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Bürgermeister</v>
+      </c>
+      <c r="BH15" s="31">
+        <v>2</v>
+      </c>
+      <c r="BL15" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 14, "Farbensolo", TariffType1.Farben, TariffType2.Solo, 80));</v>
+      </c>
+      <c r="BM15" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "Quapil", PremiumType1.Tarock, PremiumType2.Nothing, "40", "80"));</v>
+      </c>
+      <c r="BN15" s="49" t="str">
+        <f t="shared" si="7"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
+      </c>
+      <c r="BQ15" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(14,1,'Farbensolo',3,4,80), </v>
       </c>
-      <c r="AG15" s="31" t="str">
+      <c r="BR15" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(14,2,'Quapil',1,0,'40','80'), </v>
       </c>
-      <c r="AH15" s="31" t="str">
+      <c r="BS15" s="31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">(14,5,2,2), </v>
       </c>
-      <c r="AK15" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H15&amp;","&amp;I15&amp;",'"&amp;J15&amp;"',"&amp;K15&amp;","&amp;L15&amp;","&amp;M15&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(14,1,'Farbensolo',3,4,80);</v>
-      </c>
-      <c r="AL15" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P15&amp;","&amp;Q15&amp;",'"&amp;R15&amp;"',"&amp;S15&amp;","&amp;T15&amp;",'"&amp;U15&amp;"','"&amp;V15&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(14,2,'Quapil',1,0,'40','80');</v>
-      </c>
-      <c r="AM15" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y15&amp;","&amp;Z15&amp;","&amp;AA15&amp;","&amp;AB15&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(14,5,2,2);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="30">
         <v>15</v>
       </c>
@@ -5884,32 +7131,94 @@
       <c r="AB16" s="31">
         <v>2</v>
       </c>
-      <c r="AF16" s="31" t="str">
+      <c r="AL16" s="47">
+        <v>15</v>
+      </c>
+      <c r="AM16" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="47">
+        <v>15</v>
+      </c>
+      <c r="AO16" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP16" s="47" t="str">
+        <f>VLOOKUP(K16,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ16" s="47" t="str">
+        <f>VLOOKUP(L16,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR16" s="47">
+        <v>80</v>
+      </c>
+      <c r="AU16" s="30">
+        <v>15</v>
+      </c>
+      <c r="AV16" s="30">
+        <v>2</v>
+      </c>
+      <c r="AW16" s="30">
+        <v>5</v>
+      </c>
+      <c r="AX16" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY16" s="30" t="str">
+        <f>VLOOKUP(S16,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ16" s="30" t="str">
+        <f>VLOOKUP(T16,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA16" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB16" s="30">
+        <v>20</v>
+      </c>
+      <c r="BE16" s="47">
+        <v>15</v>
+      </c>
+      <c r="BF16" s="47">
+        <v>5</v>
+      </c>
+      <c r="BG16" s="34" t="str">
+        <f>VLOOKUP(AA16,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="BH16" s="48">
+        <v>2</v>
+      </c>
+      <c r="BL16" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 15, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 80));</v>
+      </c>
+      <c r="BM16" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BN16" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
+      </c>
+      <c r="BQ16" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(15,1,'Solodreier',2,4,80), </v>
       </c>
-      <c r="AG16" s="31" t="str">
+      <c r="BR16" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(15,2,'König ultimo',2,0,'10','20'), </v>
       </c>
-      <c r="AH16" s="31" t="str">
+      <c r="BS16" s="31" t="str">
         <f t="shared" si="3"/>
         <v>(15,5,3,2));</v>
       </c>
-      <c r="AK16" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H16&amp;","&amp;I16&amp;",'"&amp;J16&amp;"',"&amp;K16&amp;","&amp;L16&amp;","&amp;M16&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(15,1,'Solodreier',2,4,80);</v>
-      </c>
-      <c r="AL16" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P16&amp;","&amp;Q16&amp;",'"&amp;R16&amp;"',"&amp;S16&amp;","&amp;T16&amp;",'"&amp;U16&amp;"','"&amp;V16&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(15,2,'König ultimo',2,0,'10','20');</v>
-      </c>
-      <c r="AM16" s="31" t="str">
-        <f>"INSERT INTO "&amp;$X$1&amp;" VALUES("&amp;Y16&amp;","&amp;Z16&amp;","&amp;AA16&amp;","&amp;AB16&amp;");"</f>
-        <v>INSERT INTO trischaken VALUES(15,5,3,2);</v>
-      </c>
-    </row>
-    <row r="17" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H17" s="30">
         <v>16</v>
       </c>
@@ -5950,24 +7259,73 @@
         <v>20</v>
       </c>
       <c r="AC17" s="31"/>
-      <c r="AF17" s="31" t="str">
+      <c r="AL17" s="30">
+        <v>16</v>
+      </c>
+      <c r="AM17" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP17" s="30" t="str">
+        <f>VLOOKUP(K17,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ17" s="30" t="str">
+        <f>VLOOKUP(L17,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR17" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU17" s="30">
+        <v>16</v>
+      </c>
+      <c r="AV17" s="30">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="30">
+        <v>6</v>
+      </c>
+      <c r="AX17" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY17" s="30" t="str">
+        <f>VLOOKUP(S17,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ17" s="30" t="str">
+        <f>VLOOKUP(T17,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA17" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB17" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL17" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 1, "Trischaken", TariffType1.Negativ, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BM17" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 6, "Trull", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ17" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(16,2,'Trischaken',4,1,10), </v>
       </c>
-      <c r="AG17" s="31" t="str">
+      <c r="BR17" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(16,2,'Trull',1,0,'10','20'), </v>
       </c>
-      <c r="AK17" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H17&amp;","&amp;I17&amp;",'"&amp;J17&amp;"',"&amp;K17&amp;","&amp;L17&amp;","&amp;M17&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(16,2,'Trischaken',4,1,10);</v>
-      </c>
-      <c r="AL17" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P17&amp;","&amp;Q17&amp;",'"&amp;R17&amp;"',"&amp;S17&amp;","&amp;T17&amp;",'"&amp;U17&amp;"','"&amp;V17&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(16,2,'Trull',1,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="18" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H18" s="30">
         <v>17</v>
       </c>
@@ -6008,24 +7366,73 @@
         <v>20</v>
       </c>
       <c r="AC18" s="31"/>
-      <c r="AF18" s="31" t="str">
+      <c r="AL18" s="30">
+        <v>17</v>
+      </c>
+      <c r="AM18" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="30">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP18" s="30" t="str">
+        <f>VLOOKUP(K18,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ18" s="30" t="str">
+        <f>VLOOKUP(L18,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR18" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU18" s="30">
+        <v>17</v>
+      </c>
+      <c r="AV18" s="30">
+        <v>2</v>
+      </c>
+      <c r="AW18" s="30">
+        <v>7</v>
+      </c>
+      <c r="AX18" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY18" s="30" t="str">
+        <f>VLOOKUP(S18,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ18" s="30" t="str">
+        <f>VLOOKUP(T18,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA18" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB18" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL18" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 2, "Rufer", TariffType1.Rufer, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BM18" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ18" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(17,2,'Rufer',1,1,10), </v>
       </c>
-      <c r="AG18" s="31" t="str">
+      <c r="BR18" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(17,2,'4 Könige',2,0,'10','20'), </v>
       </c>
-      <c r="AK18" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H18&amp;","&amp;I18&amp;",'"&amp;J18&amp;"',"&amp;K18&amp;","&amp;L18&amp;","&amp;M18&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(17,2,'Rufer',1,1,10);</v>
-      </c>
-      <c r="AL18" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P18&amp;","&amp;Q18&amp;",'"&amp;R18&amp;"',"&amp;S18&amp;","&amp;T18&amp;",'"&amp;U18&amp;"','"&amp;V18&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(17,2,'4 Könige',2,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="19" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="8:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="30">
         <v>18</v>
       </c>
@@ -6066,24 +7473,73 @@
         <v>206</v>
       </c>
       <c r="AC19" s="31"/>
-      <c r="AF19" s="31" t="str">
+      <c r="AL19" s="30">
+        <v>18</v>
+      </c>
+      <c r="AM19" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="30">
+        <v>3</v>
+      </c>
+      <c r="AO19" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP19" s="30" t="str">
+        <f>VLOOKUP(K19,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ19" s="30" t="str">
+        <f>VLOOKUP(L19,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR19" s="30">
+        <v>40</v>
+      </c>
+      <c r="AU19" s="47">
+        <v>18</v>
+      </c>
+      <c r="AV19" s="47">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="47">
+        <v>8</v>
+      </c>
+      <c r="AX19" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY19" s="47" t="str">
+        <f>VLOOKUP(S19,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ19" s="47" t="str">
+        <f>VLOOKUP(T19,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA19" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB19" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL19" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 3, "Sechserdreier", TariffType1.Dreier, TariffType2.Vorhand, 40));</v>
+      </c>
+      <c r="BM19" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
+      </c>
+      <c r="BQ19" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(18,2,'Sechserdreier',2,1,40), </v>
       </c>
-      <c r="AG19" s="31" t="str">
+      <c r="BR19" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(18,2,'Valat',3,0,'x4','x8'), </v>
       </c>
-      <c r="AK19" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H19&amp;","&amp;I19&amp;",'"&amp;J19&amp;"',"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(18,2,'Sechserdreier',2,1,40);</v>
-      </c>
-      <c r="AL19" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P19&amp;","&amp;Q19&amp;",'"&amp;R19&amp;"',"&amp;S19&amp;","&amp;T19&amp;",'"&amp;U19&amp;"','"&amp;V19&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(18,2,'Valat',3,0,'x4','x8');</v>
-      </c>
-    </row>
-    <row r="20" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H20" s="30">
         <v>19</v>
       </c>
@@ -6124,24 +7580,73 @@
         <v>20</v>
       </c>
       <c r="AC20" s="31"/>
-      <c r="AF20" s="31" t="str">
+      <c r="AL20" s="30">
+        <v>19</v>
+      </c>
+      <c r="AM20" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="30">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP20" s="30" t="str">
+        <f>VLOOKUP(K20,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ20" s="30" t="str">
+        <f>VLOOKUP(L20,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR20" s="30">
+        <v>20</v>
+      </c>
+      <c r="AU20" s="30">
+        <v>19</v>
+      </c>
+      <c r="AV20" s="30">
+        <v>3</v>
+      </c>
+      <c r="AW20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY20" s="30" t="str">
+        <f>VLOOKUP(S20,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ20" s="30" t="str">
+        <f>VLOOKUP(T20,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA20" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB20" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL20" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 4, "Piccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
+      </c>
+      <c r="BM20" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 1, "Pagat", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ20" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(19,2,'Piccolo',4,2,20), </v>
       </c>
-      <c r="AG20" s="31" t="str">
+      <c r="BR20" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(19,3,'Pagat',1,0,'10','20'), </v>
       </c>
-      <c r="AK20" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H20&amp;","&amp;I20&amp;",'"&amp;J20&amp;"',"&amp;K20&amp;","&amp;L20&amp;","&amp;M20&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(19,2,'Piccolo',4,2,20);</v>
-      </c>
-      <c r="AL20" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P20&amp;","&amp;Q20&amp;",'"&amp;R20&amp;"',"&amp;S20&amp;","&amp;T20&amp;",'"&amp;U20&amp;"','"&amp;V20&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(19,3,'Pagat',1,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="21" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H21" s="30">
         <v>20</v>
       </c>
@@ -6182,24 +7687,73 @@
         <v>40</v>
       </c>
       <c r="AC21" s="31"/>
-      <c r="AF21" s="31" t="str">
+      <c r="AL21" s="30">
+        <v>20</v>
+      </c>
+      <c r="AM21" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="30">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP21" s="30" t="str">
+        <f>VLOOKUP(K21,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ21" s="30" t="str">
+        <f>VLOOKUP(L21,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR21" s="30">
+        <v>20</v>
+      </c>
+      <c r="AU21" s="30">
+        <v>20</v>
+      </c>
+      <c r="AV21" s="30">
+        <v>3</v>
+      </c>
+      <c r="AW21" s="30">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY21" s="30" t="str">
+        <f>VLOOKUP(S21,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ21" s="30" t="str">
+        <f>VLOOKUP(T21,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA21" s="30">
+        <v>20</v>
+      </c>
+      <c r="BB21" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL21" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 5, "Zwiccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
+      </c>
+      <c r="BM21" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 2, "Uhu", PremiumType1.Tarock, PremiumType2.Nothing, "20", "40"));</v>
+      </c>
+      <c r="BQ21" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(20,2,'Zwiccolo',4,2,20), </v>
       </c>
-      <c r="AG21" s="31" t="str">
+      <c r="BR21" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(20,3,'Uhu',1,0,'20','40'), </v>
       </c>
-      <c r="AK21" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H21&amp;","&amp;I21&amp;",'"&amp;J21&amp;"',"&amp;K21&amp;","&amp;L21&amp;","&amp;M21&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(20,2,'Zwiccolo',4,2,20);</v>
-      </c>
-      <c r="AL21" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P21&amp;","&amp;Q21&amp;",'"&amp;R21&amp;"',"&amp;S21&amp;","&amp;T21&amp;",'"&amp;U21&amp;"','"&amp;V21&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(20,3,'Uhu',1,0,'20','40');</v>
-      </c>
-    </row>
-    <row r="22" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H22" s="30">
         <v>21</v>
       </c>
@@ -6240,24 +7794,73 @@
         <v>60</v>
       </c>
       <c r="AC22" s="31"/>
-      <c r="AF22" s="31" t="str">
+      <c r="AL22" s="30">
+        <v>21</v>
+      </c>
+      <c r="AM22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="30">
+        <v>6</v>
+      </c>
+      <c r="AO22" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP22" s="30" t="str">
+        <f>VLOOKUP(K22,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ22" s="30" t="str">
+        <f>VLOOKUP(L22,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR22" s="30">
+        <v>20</v>
+      </c>
+      <c r="AU22" s="30">
+        <v>21</v>
+      </c>
+      <c r="AV22" s="30">
+        <v>3</v>
+      </c>
+      <c r="AW22" s="30">
+        <v>3</v>
+      </c>
+      <c r="AX22" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY22" s="30" t="str">
+        <f>VLOOKUP(S22,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ22" s="30" t="str">
+        <f>VLOOKUP(T22,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA22" s="30">
+        <v>30</v>
+      </c>
+      <c r="BB22" s="30">
+        <v>60</v>
+      </c>
+      <c r="BL22" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 6, "Solorufer", TariffType1.Rufer, TariffType2.Solo, 20));</v>
+      </c>
+      <c r="BM22" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 3, "Kakadu", PremiumType1.Tarock, PremiumType2.Nothing, "30", "60"));</v>
+      </c>
+      <c r="BQ22" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(21,2,'Solorufer',1,4,20), </v>
       </c>
-      <c r="AG22" s="31" t="str">
+      <c r="BR22" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(21,3,'Kakadu',1,0,'30','60'), </v>
       </c>
-      <c r="AK22" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H22&amp;","&amp;I22&amp;",'"&amp;J22&amp;"',"&amp;K22&amp;","&amp;L22&amp;","&amp;M22&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(21,2,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="AL22" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P22&amp;","&amp;Q22&amp;",'"&amp;R22&amp;"',"&amp;S22&amp;","&amp;T22&amp;",'"&amp;U22&amp;"','"&amp;V22&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(21,3,'Kakadu',1,0,'30','60');</v>
-      </c>
-    </row>
-    <row r="23" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H23" s="30">
         <v>22</v>
       </c>
@@ -6298,24 +7901,73 @@
         <v>80</v>
       </c>
       <c r="AC23" s="31"/>
-      <c r="AF23" s="31" t="str">
+      <c r="AL23" s="30">
+        <v>22</v>
+      </c>
+      <c r="AM23" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="30">
+        <v>7</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP23" s="30" t="str">
+        <f>VLOOKUP(K23,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ23" s="30" t="str">
+        <f>VLOOKUP(L23,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR23" s="30">
+        <v>30</v>
+      </c>
+      <c r="AU23" s="30">
+        <v>22</v>
+      </c>
+      <c r="AV23" s="30">
+        <v>3</v>
+      </c>
+      <c r="AW23" s="30">
+        <v>4</v>
+      </c>
+      <c r="AX23" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY23" s="30" t="str">
+        <f>VLOOKUP(S23,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ23" s="30" t="str">
+        <f>VLOOKUP(T23,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA23" s="30">
+        <v>40</v>
+      </c>
+      <c r="BB23" s="30">
+        <v>80</v>
+      </c>
+      <c r="BL23" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 7, "Pagatrufer", TariffType1.Rufer, TariffType2.Besserrufer, 30));</v>
+      </c>
+      <c r="BM23" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "Quapil", PremiumType1.Tarock, PremiumType2.Nothing, "40", "80"));</v>
+      </c>
+      <c r="BQ23" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(22,2,'Pagatrufer',1,5,30), </v>
       </c>
-      <c r="AG23" s="31" t="str">
+      <c r="BR23" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(22,3,'Quapil',1,0,'40','80'), </v>
       </c>
-      <c r="AK23" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H23&amp;","&amp;I23&amp;",'"&amp;J23&amp;"',"&amp;K23&amp;","&amp;L23&amp;","&amp;M23&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(22,2,'Pagatrufer',1,5,30);</v>
-      </c>
-      <c r="AL23" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P23&amp;","&amp;Q23&amp;",'"&amp;R23&amp;"',"&amp;S23&amp;","&amp;T23&amp;",'"&amp;U23&amp;"','"&amp;V23&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(22,3,'Quapil',1,0,'40','80');</v>
-      </c>
-    </row>
-    <row r="24" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H24" s="30">
         <v>23</v>
       </c>
@@ -6356,24 +8008,73 @@
         <v>20</v>
       </c>
       <c r="AC24" s="31"/>
-      <c r="AF24" s="31" t="str">
+      <c r="AL24" s="30">
+        <v>23</v>
+      </c>
+      <c r="AM24" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="30">
+        <v>8</v>
+      </c>
+      <c r="AO24" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP24" s="30" t="str">
+        <f>VLOOKUP(K24,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ24" s="30" t="str">
+        <f>VLOOKUP(L24,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR24" s="30">
+        <v>40</v>
+      </c>
+      <c r="AU24" s="30">
+        <v>23</v>
+      </c>
+      <c r="AV24" s="30">
+        <v>3</v>
+      </c>
+      <c r="AW24" s="30">
+        <v>5</v>
+      </c>
+      <c r="AX24" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY24" s="30" t="str">
+        <f>VLOOKUP(S24,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ24" s="30" t="str">
+        <f>VLOOKUP(T24,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA24" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB24" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL24" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 8, "Bettel", TariffType1.Negativ, TariffType2.Bettler, 40));</v>
+      </c>
+      <c r="BM24" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ24" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(23,2,'Bettel',4,3,40), </v>
       </c>
-      <c r="AG24" s="31" t="str">
+      <c r="BR24" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(23,3,'König ultimo',2,0,'10','20'), </v>
       </c>
-      <c r="AK24" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H24&amp;","&amp;I24&amp;",'"&amp;J24&amp;"',"&amp;K24&amp;","&amp;L24&amp;","&amp;M24&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(23,2,'Bettel',4,3,40);</v>
-      </c>
-      <c r="AL24" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P24&amp;","&amp;Q24&amp;",'"&amp;R24&amp;"',"&amp;S24&amp;","&amp;T24&amp;",'"&amp;U24&amp;"','"&amp;V24&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(23,3,'König ultimo',2,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="25" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H25" s="30">
         <v>24</v>
       </c>
@@ -6414,24 +8115,73 @@
         <v>20</v>
       </c>
       <c r="AC25" s="31"/>
-      <c r="AF25" s="31" t="str">
+      <c r="AL25" s="30">
+        <v>24</v>
+      </c>
+      <c r="AM25" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="30">
+        <v>9</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP25" s="30" t="str">
+        <f>VLOOKUP(K25,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ25" s="30" t="str">
+        <f>VLOOKUP(L25,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR25" s="30">
+        <v>50</v>
+      </c>
+      <c r="AU25" s="30">
+        <v>24</v>
+      </c>
+      <c r="AV25" s="30">
+        <v>3</v>
+      </c>
+      <c r="AW25" s="30">
+        <v>6</v>
+      </c>
+      <c r="AX25" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY25" s="30" t="str">
+        <f>VLOOKUP(S25,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ25" s="30" t="str">
+        <f>VLOOKUP(T25,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA25" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB25" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL25" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 9, "Uhurufer", TariffType1.Rufer, TariffType2.Besserrufer, 50));</v>
+      </c>
+      <c r="BM25" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 6, "Trull", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ25" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(24,2,'Uhurufer',1,5,50), </v>
       </c>
-      <c r="AG25" s="31" t="str">
+      <c r="BR25" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(24,3,'Trull',1,0,'10','20'), </v>
       </c>
-      <c r="AK25" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H25&amp;","&amp;I25&amp;",'"&amp;J25&amp;"',"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(24,2,'Uhurufer',1,5,50);</v>
-      </c>
-      <c r="AL25" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P25&amp;","&amp;Q25&amp;",'"&amp;R25&amp;"',"&amp;S25&amp;","&amp;T25&amp;",'"&amp;U25&amp;"','"&amp;V25&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(24,3,'Trull',1,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="26" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H26" s="30">
         <v>25</v>
       </c>
@@ -6472,24 +8222,73 @@
         <v>20</v>
       </c>
       <c r="AC26" s="31"/>
-      <c r="AF26" s="31" t="str">
+      <c r="AL26" s="30">
+        <v>25</v>
+      </c>
+      <c r="AM26" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="30">
+        <v>10</v>
+      </c>
+      <c r="AO26" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP26" s="30" t="str">
+        <f>VLOOKUP(K26,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ26" s="30" t="str">
+        <f>VLOOKUP(L26,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR26" s="30">
+        <v>50</v>
+      </c>
+      <c r="AU26" s="30">
+        <v>25</v>
+      </c>
+      <c r="AV26" s="30">
+        <v>3</v>
+      </c>
+      <c r="AW26" s="30">
+        <v>7</v>
+      </c>
+      <c r="AX26" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY26" s="30" t="str">
+        <f>VLOOKUP(S26,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ26" s="30" t="str">
+        <f>VLOOKUP(T26,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA26" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB26" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL26" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 10, "Farbendreier", TariffType1.Farben, TariffType2.Nothing, 50));</v>
+      </c>
+      <c r="BM26" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ26" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(25,2,'Farbendreier',3,0,50), </v>
       </c>
-      <c r="AG26" s="31" t="str">
+      <c r="BR26" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(25,3,'4 Könige',2,0,'10','20'), </v>
       </c>
-      <c r="AK26" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H26&amp;","&amp;I26&amp;",'"&amp;J26&amp;"',"&amp;K26&amp;","&amp;L26&amp;","&amp;M26&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(25,2,'Farbendreier',3,0,50);</v>
-      </c>
-      <c r="AL26" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P26&amp;","&amp;Q26&amp;",'"&amp;R26&amp;"',"&amp;S26&amp;","&amp;T26&amp;",'"&amp;U26&amp;"','"&amp;V26&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(25,3,'4 Könige',2,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="27" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="8:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="30">
         <v>26</v>
       </c>
@@ -6530,24 +8329,73 @@
         <v>206</v>
       </c>
       <c r="AC27" s="31"/>
-      <c r="AF27" s="31" t="str">
+      <c r="AL27" s="30">
+        <v>26</v>
+      </c>
+      <c r="AM27" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="30">
+        <v>11</v>
+      </c>
+      <c r="AO27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP27" s="30" t="str">
+        <f>VLOOKUP(K27,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ27" s="30" t="str">
+        <f>VLOOKUP(L27,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR27" s="30">
+        <v>50</v>
+      </c>
+      <c r="AU27" s="47">
+        <v>26</v>
+      </c>
+      <c r="AV27" s="47">
+        <v>3</v>
+      </c>
+      <c r="AW27" s="47">
+        <v>8</v>
+      </c>
+      <c r="AX27" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY27" s="47" t="str">
+        <f>VLOOKUP(S27,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ27" s="47" t="str">
+        <f>VLOOKUP(T27,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA27" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB27" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL27" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 11, "Dreier", TariffType1.Dreier, TariffType2.Nothing, 50));</v>
+      </c>
+      <c r="BM27" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
+      </c>
+      <c r="BQ27" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(26,2,'Dreier',2,0,50), </v>
       </c>
-      <c r="AG27" s="31" t="str">
+      <c r="BR27" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(26,3,'Valat',3,0,'x4','x8'), </v>
       </c>
-      <c r="AK27" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H27&amp;","&amp;I27&amp;",'"&amp;J27&amp;"',"&amp;K27&amp;","&amp;L27&amp;","&amp;M27&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(26,2,'Dreier',2,0,50);</v>
-      </c>
-      <c r="AL27" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P27&amp;","&amp;Q27&amp;",'"&amp;R27&amp;"',"&amp;S27&amp;","&amp;T27&amp;",'"&amp;U27&amp;"','"&amp;V27&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(26,3,'Valat',3,0,'x4','x8');</v>
-      </c>
-    </row>
-    <row r="28" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H28" s="30">
         <v>27</v>
       </c>
@@ -6588,24 +8436,73 @@
         <v>20</v>
       </c>
       <c r="AC28" s="31"/>
-      <c r="AF28" s="31" t="str">
+      <c r="AL28" s="30">
+        <v>27</v>
+      </c>
+      <c r="AM28" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="30">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP28" s="30" t="str">
+        <f>VLOOKUP(K28,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ28" s="30" t="str">
+        <f>VLOOKUP(L28,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR28" s="30">
+        <v>60</v>
+      </c>
+      <c r="AU28" s="30">
+        <v>27</v>
+      </c>
+      <c r="AV28" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW28" s="30">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY28" s="30" t="str">
+        <f>VLOOKUP(S28,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ28" s="30" t="str">
+        <f>VLOOKUP(T28,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA28" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB28" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL28" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 12, "Piccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 60));</v>
+      </c>
+      <c r="BM28" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 1, "Pagat", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ28" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(27,2,'Piccolo ouvert',4,2,60), </v>
       </c>
-      <c r="AG28" s="31" t="str">
+      <c r="BR28" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(27,4,'Pagat',1,0,'10','20'), </v>
       </c>
-      <c r="AK28" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H28&amp;","&amp;I28&amp;",'"&amp;J28&amp;"',"&amp;K28&amp;","&amp;L28&amp;","&amp;M28&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(27,2,'Piccolo ouvert',4,2,60);</v>
-      </c>
-      <c r="AL28" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P28&amp;","&amp;Q28&amp;",'"&amp;R28&amp;"',"&amp;S28&amp;","&amp;T28&amp;",'"&amp;U28&amp;"','"&amp;V28&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(27,4,'Pagat',1,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="29" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H29" s="30">
         <v>28</v>
       </c>
@@ -6646,24 +8543,73 @@
         <v>40</v>
       </c>
       <c r="AC29" s="31"/>
-      <c r="AF29" s="31" t="str">
+      <c r="AL29" s="30">
+        <v>28</v>
+      </c>
+      <c r="AM29" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="30">
+        <v>13</v>
+      </c>
+      <c r="AO29" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP29" s="30" t="str">
+        <f>VLOOKUP(K29,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ29" s="30" t="str">
+        <f>VLOOKUP(L29,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR29" s="30">
+        <v>60</v>
+      </c>
+      <c r="AU29" s="30">
+        <v>28</v>
+      </c>
+      <c r="AV29" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW29" s="30">
+        <v>2</v>
+      </c>
+      <c r="AX29" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY29" s="30" t="str">
+        <f>VLOOKUP(S29,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ29" s="30" t="str">
+        <f>VLOOKUP(T29,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA29" s="30">
+        <v>20</v>
+      </c>
+      <c r="BB29" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL29" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 13, "Zwiccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 60));</v>
+      </c>
+      <c r="BM29" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 2, "Uhu", PremiumType1.Tarock, PremiumType2.Nothing, "20", "40"));</v>
+      </c>
+      <c r="BQ29" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(28,2,'Zwiccolo ouvert',4,2,60), </v>
       </c>
-      <c r="AG29" s="31" t="str">
+      <c r="BR29" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(28,4,'Uhu',1,0,'20','40'), </v>
       </c>
-      <c r="AK29" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H29&amp;","&amp;I29&amp;",'"&amp;J29&amp;"',"&amp;K29&amp;","&amp;L29&amp;","&amp;M29&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(28,2,'Zwiccolo ouvert',4,2,60);</v>
-      </c>
-      <c r="AL29" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P29&amp;","&amp;Q29&amp;",'"&amp;R29&amp;"',"&amp;S29&amp;","&amp;T29&amp;",'"&amp;U29&amp;"','"&amp;V29&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(28,4,'Uhu',1,0,'20','40');</v>
-      </c>
-    </row>
-    <row r="30" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H30" s="30">
         <v>29</v>
       </c>
@@ -6704,24 +8650,73 @@
         <v>60</v>
       </c>
       <c r="AC30" s="31"/>
-      <c r="AF30" s="31" t="str">
+      <c r="AL30" s="30">
+        <v>29</v>
+      </c>
+      <c r="AM30" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="30">
+        <v>14</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP30" s="30" t="str">
+        <f>VLOOKUP(K30,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ30" s="30" t="str">
+        <f>VLOOKUP(L30,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR30" s="30">
+        <v>70</v>
+      </c>
+      <c r="AU30" s="30">
+        <v>29</v>
+      </c>
+      <c r="AV30" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW30" s="30">
+        <v>3</v>
+      </c>
+      <c r="AX30" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY30" s="30" t="str">
+        <f>VLOOKUP(S30,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ30" s="30" t="str">
+        <f>VLOOKUP(T30,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA30" s="30">
+        <v>30</v>
+      </c>
+      <c r="BB30" s="30">
+        <v>60</v>
+      </c>
+      <c r="BL30" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 14, "Kakadurufer", TariffType1.Rufer, TariffType2.Besserrufer, 70));</v>
+      </c>
+      <c r="BM30" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 3, "Kakadu", PremiumType1.Tarock, PremiumType2.Nothing, "30", "60"));</v>
+      </c>
+      <c r="BQ30" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(29,2,'Kakadurufer',1,5,70), </v>
       </c>
-      <c r="AG30" s="31" t="str">
+      <c r="BR30" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(29,4,'Kakadu',1,0,'30','60'), </v>
       </c>
-      <c r="AK30" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H30&amp;","&amp;I30&amp;",'"&amp;J30&amp;"',"&amp;K30&amp;","&amp;L30&amp;","&amp;M30&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(29,2,'Kakadurufer',1,5,70);</v>
-      </c>
-      <c r="AL30" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P30&amp;","&amp;Q30&amp;",'"&amp;R30&amp;"',"&amp;S30&amp;","&amp;T30&amp;",'"&amp;U30&amp;"','"&amp;V30&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(29,4,'Kakadu',1,0,'30','60');</v>
-      </c>
-    </row>
-    <row r="31" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H31" s="30">
         <v>30</v>
       </c>
@@ -6762,24 +8757,73 @@
         <v>80</v>
       </c>
       <c r="AC31" s="31"/>
-      <c r="AF31" s="31" t="str">
+      <c r="AL31" s="30">
+        <v>30</v>
+      </c>
+      <c r="AM31" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN31" s="30">
+        <v>15</v>
+      </c>
+      <c r="AO31" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP31" s="30" t="str">
+        <f>VLOOKUP(K31,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ31" s="30" t="str">
+        <f>VLOOKUP(L31,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR31" s="30">
+        <v>80</v>
+      </c>
+      <c r="AU31" s="30">
+        <v>30</v>
+      </c>
+      <c r="AV31" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW31" s="30">
+        <v>4</v>
+      </c>
+      <c r="AX31" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY31" s="30" t="str">
+        <f>VLOOKUP(S31,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ31" s="30" t="str">
+        <f>VLOOKUP(T31,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA31" s="30">
+        <v>40</v>
+      </c>
+      <c r="BB31" s="30">
+        <v>80</v>
+      </c>
+      <c r="BL31" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 15, "Bettel ouvert", TariffType1.Negativ, TariffType2.Bettler, 80));</v>
+      </c>
+      <c r="BM31" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "Quapil", PremiumType1.Tarock, PremiumType2.Nothing, "40", "80"));</v>
+      </c>
+      <c r="BQ31" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(30,2,'Bettel ouvert',4,3,80), </v>
       </c>
-      <c r="AG31" s="31" t="str">
+      <c r="BR31" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(30,4,'Quapil',1,0,'40','80'), </v>
       </c>
-      <c r="AK31" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H31&amp;","&amp;I31&amp;",'"&amp;J31&amp;"',"&amp;K31&amp;","&amp;L31&amp;","&amp;M31&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(30,2,'Bettel ouvert',4,3,80);</v>
-      </c>
-      <c r="AL31" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P31&amp;","&amp;Q31&amp;",'"&amp;R31&amp;"',"&amp;S31&amp;","&amp;T31&amp;",'"&amp;U31&amp;"','"&amp;V31&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(30,4,'Quapil',1,0,'40','80');</v>
-      </c>
-    </row>
-    <row r="32" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H32" s="30">
         <v>31</v>
       </c>
@@ -6820,24 +8864,73 @@
         <v>20</v>
       </c>
       <c r="AC32" s="31"/>
-      <c r="AF32" s="31" t="str">
+      <c r="AL32" s="30">
+        <v>31</v>
+      </c>
+      <c r="AM32" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN32" s="30">
+        <v>16</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP32" s="30" t="str">
+        <f>VLOOKUP(K32,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ32" s="30" t="str">
+        <f>VLOOKUP(L32,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR32" s="30">
+        <v>90</v>
+      </c>
+      <c r="AU32" s="30">
+        <v>31</v>
+      </c>
+      <c r="AV32" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW32" s="30">
+        <v>5</v>
+      </c>
+      <c r="AX32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY32" s="30" t="str">
+        <f>VLOOKUP(S32,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ32" s="30" t="str">
+        <f>VLOOKUP(T32,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA32" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB32" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL32" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 16, "Quapilrufer", TariffType1.Rufer, TariffType2.Besserrufer, 90));</v>
+      </c>
+      <c r="BM32" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ32" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(31,2,'Quapilrufer',1,5,90), </v>
       </c>
-      <c r="AG32" s="31" t="str">
+      <c r="BR32" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(31,4,'König ultimo',2,0,'10','20'), </v>
       </c>
-      <c r="AK32" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H32&amp;","&amp;I32&amp;",'"&amp;J32&amp;"',"&amp;K32&amp;","&amp;L32&amp;","&amp;M32&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(31,2,'Quapilrufer',1,5,90);</v>
-      </c>
-      <c r="AL32" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P32&amp;","&amp;Q32&amp;",'"&amp;R32&amp;"',"&amp;S32&amp;","&amp;T32&amp;",'"&amp;U32&amp;"','"&amp;V32&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(31,4,'König ultimo',2,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="33" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H33" s="30">
         <v>32</v>
       </c>
@@ -6878,24 +8971,73 @@
         <v>20</v>
       </c>
       <c r="AC33" s="31"/>
-      <c r="AF33" s="31" t="str">
+      <c r="AL33" s="30">
+        <v>32</v>
+      </c>
+      <c r="AM33" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN33" s="30">
+        <v>17</v>
+      </c>
+      <c r="AO33" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP33" s="30" t="str">
+        <f>VLOOKUP(K33,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ33" s="30" t="str">
+        <f>VLOOKUP(L33,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR33" s="30">
+        <v>100</v>
+      </c>
+      <c r="AU33" s="30">
+        <v>32</v>
+      </c>
+      <c r="AV33" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW33" s="30">
+        <v>6</v>
+      </c>
+      <c r="AX33" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY33" s="30" t="str">
+        <f>VLOOKUP(S33,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ33" s="30" t="str">
+        <f>VLOOKUP(T33,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Mondfang</v>
+      </c>
+      <c r="BA33" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB33" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL33" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 17, "Farbensolo", TariffType1.Farben, TariffType2.Solo, 100));</v>
+      </c>
+      <c r="BM33" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 6, "Mondfang", PremiumType1.Tarock, PremiumType2.Mondfang, "10", "20"));</v>
+      </c>
+      <c r="BQ33" s="31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">(32,2,'Farbensolo',3,4,100), </v>
       </c>
-      <c r="AG33" s="31" t="str">
+      <c r="BR33" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(32,4,'Mondfang',1,1,'10','20'), </v>
       </c>
-      <c r="AK33" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H33&amp;","&amp;I33&amp;",'"&amp;J33&amp;"',"&amp;K33&amp;","&amp;L33&amp;","&amp;M33&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(32,2,'Farbensolo',3,4,100);</v>
-      </c>
-      <c r="AL33" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P33&amp;","&amp;Q33&amp;",'"&amp;R33&amp;"',"&amp;S33&amp;","&amp;T33&amp;",'"&amp;U33&amp;"','"&amp;V33&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(32,4,'Mondfang',1,1,'10','20');</v>
-      </c>
-    </row>
-    <row r="34" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="8:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H34" s="30">
         <v>33</v>
       </c>
@@ -6936,24 +9078,73 @@
         <v>20</v>
       </c>
       <c r="AC34" s="31"/>
-      <c r="AF34" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL34" s="47">
+        <v>33</v>
+      </c>
+      <c r="AM34" s="47">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="47">
+        <v>18</v>
+      </c>
+      <c r="AO34" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP34" s="47" t="str">
+        <f>VLOOKUP(K34,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ34" s="47" t="str">
+        <f>VLOOKUP(L34,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR34" s="47">
+        <v>100</v>
+      </c>
+      <c r="AU34" s="30">
+        <v>33</v>
+      </c>
+      <c r="AV34" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW34" s="30">
+        <v>7</v>
+      </c>
+      <c r="AX34" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY34" s="30" t="str">
+        <f>VLOOKUP(S34,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ34" s="30" t="str">
+        <f>VLOOKUP(T34,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA34" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB34" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL34" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 18, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 100));</v>
+      </c>
+      <c r="BM34" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "Trull", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ34" s="31" t="str">
+        <f t="shared" ref="BQ34:BQ65" si="8">"("&amp;H34&amp;","&amp;I34&amp;",'"&amp;J34&amp;"',"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;")"&amp;IF(H35="",");",", ")</f>
         <v xml:space="preserve">(33,2,'Solodreier',2,4,100), </v>
       </c>
-      <c r="AG34" s="31" t="str">
+      <c r="BR34" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(33,4,'Trull',1,0,'10','20'), </v>
       </c>
-      <c r="AK34" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H34&amp;","&amp;I34&amp;",'"&amp;J34&amp;"',"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(33,2,'Solodreier',2,4,100);</v>
-      </c>
-      <c r="AL34" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P34&amp;","&amp;Q34&amp;",'"&amp;R34&amp;"',"&amp;S34&amp;","&amp;T34&amp;",'"&amp;U34&amp;"','"&amp;V34&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(33,4,'Trull',1,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="35" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H35" s="30">
         <v>34</v>
       </c>
@@ -6994,24 +9185,73 @@
         <v>20</v>
       </c>
       <c r="AC35" s="31"/>
-      <c r="AF35" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL35" s="30">
+        <v>34</v>
+      </c>
+      <c r="AM35" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN35" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP35" s="30" t="str">
+        <f>VLOOKUP(K35,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ35" s="30" t="str">
+        <f>VLOOKUP(L35,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR35" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU35" s="30">
+        <v>34</v>
+      </c>
+      <c r="AV35" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW35" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX35" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY35" s="30" t="str">
+        <f>VLOOKUP(S35,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ35" s="30" t="str">
+        <f>VLOOKUP(T35,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA35" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB35" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL35" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 1, "Trischaken", TariffType1.Negativ, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BM35" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ35" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(34,3,'Trischaken',4,1,10), </v>
       </c>
-      <c r="AG35" s="31" t="str">
+      <c r="BR35" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(34,4,'4 Könige',2,0,'10','20'), </v>
       </c>
-      <c r="AK35" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H35&amp;","&amp;I35&amp;",'"&amp;J35&amp;"',"&amp;K35&amp;","&amp;L35&amp;","&amp;M35&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(34,3,'Trischaken',4,1,10);</v>
-      </c>
-      <c r="AL35" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P35&amp;","&amp;Q35&amp;",'"&amp;R35&amp;"',"&amp;S35&amp;","&amp;T35&amp;",'"&amp;U35&amp;"','"&amp;V35&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(34,4,'4 Könige',2,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="36" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H36" s="30">
         <v>35</v>
       </c>
@@ -7052,24 +9292,73 @@
         <v>20</v>
       </c>
       <c r="AC36" s="31"/>
-      <c r="AF36" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL36" s="30">
+        <v>35</v>
+      </c>
+      <c r="AM36" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN36" s="30">
+        <v>2</v>
+      </c>
+      <c r="AO36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP36" s="30" t="str">
+        <f>VLOOKUP(K36,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ36" s="30" t="str">
+        <f>VLOOKUP(L36,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR36" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU36" s="30">
+        <v>35</v>
+      </c>
+      <c r="AV36" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW36" s="30">
+        <v>9</v>
+      </c>
+      <c r="AX36" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY36" s="30" t="str">
+        <f>VLOOKUP(S36,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ36" s="30" t="str">
+        <f>VLOOKUP(T36,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA36" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL36" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 2, "Rufer", TariffType1.Rufer, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BM36" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 9, "1. Sack (≥45/2)", PremiumType1.PunkteStiche, PremiumType2.Nothing, "0", "20"));</v>
+      </c>
+      <c r="BQ36" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(35,3,'Rufer',1,1,10), </v>
       </c>
-      <c r="AG36" s="31" t="str">
+      <c r="BR36" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(35,4,'1. Sack (≥45/2)',3,0,'0','20'), </v>
       </c>
-      <c r="AK36" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H36&amp;","&amp;I36&amp;",'"&amp;J36&amp;"',"&amp;K36&amp;","&amp;L36&amp;","&amp;M36&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(35,3,'Rufer',1,1,10);</v>
-      </c>
-      <c r="AL36" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P36&amp;","&amp;Q36&amp;",'"&amp;R36&amp;"',"&amp;S36&amp;","&amp;T36&amp;",'"&amp;U36&amp;"','"&amp;V36&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(35,4,'1. Sack (≥45/2)',3,0,'0','20');</v>
-      </c>
-    </row>
-    <row r="37" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H37" s="30">
         <v>36</v>
       </c>
@@ -7110,24 +9399,73 @@
         <v>20</v>
       </c>
       <c r="AC37" s="31"/>
-      <c r="AF37" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL37" s="30">
+        <v>36</v>
+      </c>
+      <c r="AM37" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN37" s="30">
+        <v>3</v>
+      </c>
+      <c r="AO37" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP37" s="30" t="str">
+        <f>VLOOKUP(K37,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ37" s="30" t="str">
+        <f>VLOOKUP(L37,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR37" s="30">
+        <v>40</v>
+      </c>
+      <c r="AU37" s="30">
+        <v>36</v>
+      </c>
+      <c r="AV37" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW37" s="30">
+        <v>10</v>
+      </c>
+      <c r="AX37" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY37" s="30" t="str">
+        <f>VLOOKUP(S37,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ37" s="30" t="str">
+        <f>VLOOKUP(T37,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA37" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL37" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 3, "Sechserdreier", TariffType1.Dreier, TariffType2.Vorhand, 40));</v>
+      </c>
+      <c r="BM37" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 10, "2. Sack (≥55/2)", PremiumType1.PunkteStiche, PremiumType2.Nothing, "0", "20"));</v>
+      </c>
+      <c r="BQ37" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(36,3,'Sechserdreier',2,1,40), </v>
       </c>
-      <c r="AG37" s="31" t="str">
+      <c r="BR37" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(36,4,'2. Sack (≥55/2)',3,0,'0','20'), </v>
       </c>
-      <c r="AK37" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H37&amp;","&amp;I37&amp;",'"&amp;J37&amp;"',"&amp;K37&amp;","&amp;L37&amp;","&amp;M37&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(36,3,'Sechserdreier',2,1,40);</v>
-      </c>
-      <c r="AL37" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P37&amp;","&amp;Q37&amp;",'"&amp;R37&amp;"',"&amp;S37&amp;","&amp;T37&amp;",'"&amp;U37&amp;"','"&amp;V37&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(36,4,'2. Sack (≥55/2)',3,0,'0','20');</v>
-      </c>
-    </row>
-    <row r="38" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="8:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H38" s="30">
         <v>37</v>
       </c>
@@ -7168,24 +9506,73 @@
         <v>300</v>
       </c>
       <c r="AC38" s="31"/>
-      <c r="AF38" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL38" s="30">
+        <v>37</v>
+      </c>
+      <c r="AM38" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN38" s="30">
+        <v>4</v>
+      </c>
+      <c r="AO38" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP38" s="30" t="str">
+        <f>VLOOKUP(K38,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ38" s="30" t="str">
+        <f>VLOOKUP(L38,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR38" s="30">
+        <v>20</v>
+      </c>
+      <c r="AU38" s="47">
+        <v>37</v>
+      </c>
+      <c r="AV38" s="47">
+        <v>4</v>
+      </c>
+      <c r="AW38" s="47">
+        <v>11</v>
+      </c>
+      <c r="AX38" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY38" s="47" t="str">
+        <f>VLOOKUP(S38,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ38" s="47" t="str">
+        <f>VLOOKUP(T38,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA38" s="47">
+        <v>150</v>
+      </c>
+      <c r="BB38" s="47">
+        <v>300</v>
+      </c>
+      <c r="BL38" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 4, "Piccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
+      </c>
+      <c r="BM38" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 11, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "150", "300"));</v>
+      </c>
+      <c r="BQ38" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(37,3,'Piccolo',4,2,20), </v>
       </c>
-      <c r="AG38" s="31" t="str">
+      <c r="BR38" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(37,4,'Valat',3,0,'150','300'), </v>
       </c>
-      <c r="AK38" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H38&amp;","&amp;I38&amp;",'"&amp;J38&amp;"',"&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(37,3,'Piccolo',4,2,20);</v>
-      </c>
-      <c r="AL38" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P38&amp;","&amp;Q38&amp;",'"&amp;R38&amp;"',"&amp;S38&amp;","&amp;T38&amp;",'"&amp;U38&amp;"','"&amp;V38&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(37,4,'Valat',3,0,'150','300');</v>
-      </c>
-    </row>
-    <row r="39" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H39" s="30">
         <v>38</v>
       </c>
@@ -7226,24 +9613,73 @@
         <v>20</v>
       </c>
       <c r="AC39" s="31"/>
-      <c r="AF39" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL39" s="30">
+        <v>38</v>
+      </c>
+      <c r="AM39" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN39" s="30">
+        <v>5</v>
+      </c>
+      <c r="AO39" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP39" s="30" t="str">
+        <f>VLOOKUP(K39,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ39" s="30" t="str">
+        <f>VLOOKUP(L39,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR39" s="30">
+        <v>20</v>
+      </c>
+      <c r="AU39" s="30">
+        <v>38</v>
+      </c>
+      <c r="AV39" s="30">
+        <v>5</v>
+      </c>
+      <c r="AW39" s="30">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY39" s="30" t="str">
+        <f>VLOOKUP(S39,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ39" s="30" t="str">
+        <f>VLOOKUP(T39,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA39" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB39" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL39" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 5, "Bettel", TariffType1.Negativ, TariffType2.Bettler, 20));</v>
+      </c>
+      <c r="BM39" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 1, "Pagat", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ39" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(38,3,'Bettel',4,3,20), </v>
       </c>
-      <c r="AG39" s="31" t="str">
+      <c r="BR39" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(38,5,'Pagat',1,0,'10','20'), </v>
       </c>
-      <c r="AK39" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H39&amp;","&amp;I39&amp;",'"&amp;J39&amp;"',"&amp;K39&amp;","&amp;L39&amp;","&amp;M39&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(38,3,'Bettel',4,3,20);</v>
-      </c>
-      <c r="AL39" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P39&amp;","&amp;Q39&amp;",'"&amp;R39&amp;"',"&amp;S39&amp;","&amp;T39&amp;",'"&amp;U39&amp;"','"&amp;V39&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(38,5,'Pagat',1,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="40" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H40" s="30">
         <v>39</v>
       </c>
@@ -7284,24 +9720,73 @@
         <v>40</v>
       </c>
       <c r="AC40" s="31"/>
-      <c r="AF40" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL40" s="30">
+        <v>39</v>
+      </c>
+      <c r="AM40" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN40" s="30">
+        <v>6</v>
+      </c>
+      <c r="AO40" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP40" s="30" t="str">
+        <f>VLOOKUP(K40,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ40" s="30" t="str">
+        <f>VLOOKUP(L40,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR40" s="30">
+        <v>20</v>
+      </c>
+      <c r="AU40" s="30">
+        <v>39</v>
+      </c>
+      <c r="AV40" s="30">
+        <v>5</v>
+      </c>
+      <c r="AW40" s="30">
+        <v>2</v>
+      </c>
+      <c r="AX40" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY40" s="30" t="str">
+        <f>VLOOKUP(S40,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ40" s="30" t="str">
+        <f>VLOOKUP(T40,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA40" s="30">
+        <v>20</v>
+      </c>
+      <c r="BB40" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL40" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 6, "Solorufer", TariffType1.Rufer, TariffType2.Solo, 20));</v>
+      </c>
+      <c r="BM40" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 2, "Uhu", PremiumType1.Tarock, PremiumType2.Nothing, "20", "40"));</v>
+      </c>
+      <c r="BQ40" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(39,3,'Solorufer',1,4,20), </v>
       </c>
-      <c r="AG40" s="31" t="str">
+      <c r="BR40" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(39,5,'Uhu',1,0,'20','40'), </v>
       </c>
-      <c r="AK40" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H40&amp;","&amp;I40&amp;",'"&amp;J40&amp;"',"&amp;K40&amp;","&amp;L40&amp;","&amp;M40&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(39,3,'Solorufer',1,4,20);</v>
-      </c>
-      <c r="AL40" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P40&amp;","&amp;Q40&amp;",'"&amp;R40&amp;"',"&amp;S40&amp;","&amp;T40&amp;",'"&amp;U40&amp;"','"&amp;V40&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(39,5,'Uhu',1,0,'20','40');</v>
-      </c>
-    </row>
-    <row r="41" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H41" s="30">
         <v>40</v>
       </c>
@@ -7342,24 +9827,73 @@
         <v>60</v>
       </c>
       <c r="AC41" s="31"/>
-      <c r="AF41" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL41" s="30">
+        <v>40</v>
+      </c>
+      <c r="AM41" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN41" s="30">
+        <v>7</v>
+      </c>
+      <c r="AO41" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP41" s="30" t="str">
+        <f>VLOOKUP(K41,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ41" s="30" t="str">
+        <f>VLOOKUP(L41,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR41" s="30">
+        <v>10</v>
+      </c>
+      <c r="AU41" s="30">
+        <v>40</v>
+      </c>
+      <c r="AV41" s="30">
+        <v>5</v>
+      </c>
+      <c r="AW41" s="30">
+        <v>3</v>
+      </c>
+      <c r="AX41" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY41" s="30" t="str">
+        <f>VLOOKUP(S41,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ41" s="30" t="str">
+        <f>VLOOKUP(T41,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA41" s="30">
+        <v>30</v>
+      </c>
+      <c r="BB41" s="30">
+        <v>60</v>
+      </c>
+      <c r="BL41" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 7, "A-Rufer (+Vogel)", TariffType1.Rufer, TariffType2.Besserrufer, 10));</v>
+      </c>
+      <c r="BM41" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 3, "Kakadu", PremiumType1.Tarock, PremiumType2.Nothing, "30", "60"));</v>
+      </c>
+      <c r="BQ41" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(40,3,'A-Rufer (+Vogel)',1,5,10), </v>
       </c>
-      <c r="AG41" s="31" t="str">
+      <c r="BR41" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(40,5,'Kakadu',1,0,'30','60'), </v>
       </c>
-      <c r="AK41" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H41&amp;","&amp;I41&amp;",'"&amp;J41&amp;"',"&amp;K41&amp;","&amp;L41&amp;","&amp;M41&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(40,3,'A-Rufer (+Vogel)',1,5,10);</v>
-      </c>
-      <c r="AL41" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P41&amp;","&amp;Q41&amp;",'"&amp;R41&amp;"',"&amp;S41&amp;","&amp;T41&amp;",'"&amp;U41&amp;"','"&amp;V41&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(40,5,'Kakadu',1,0,'30','60');</v>
-      </c>
-    </row>
-    <row r="42" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H42" s="30">
         <v>41</v>
       </c>
@@ -7400,24 +9934,73 @@
         <v>80</v>
       </c>
       <c r="AC42" s="31"/>
-      <c r="AF42" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL42" s="30">
+        <v>41</v>
+      </c>
+      <c r="AM42" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN42" s="30">
+        <v>8</v>
+      </c>
+      <c r="AO42" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP42" s="30" t="str">
+        <f>VLOOKUP(K42,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ42" s="30" t="str">
+        <f>VLOOKUP(L42,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR42" s="30">
+        <v>40</v>
+      </c>
+      <c r="AU42" s="30">
+        <v>41</v>
+      </c>
+      <c r="AV42" s="30">
+        <v>5</v>
+      </c>
+      <c r="AW42" s="30">
+        <v>4</v>
+      </c>
+      <c r="AX42" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY42" s="30" t="str">
+        <f>VLOOKUP(S42,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ42" s="30" t="str">
+        <f>VLOOKUP(T42,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA42" s="30">
+        <v>40</v>
+      </c>
+      <c r="BB42" s="30">
+        <v>80</v>
+      </c>
+      <c r="BL42" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 8, "Dreier", TariffType1.Dreier, TariffType2.Nothing, 40));</v>
+      </c>
+      <c r="BM42" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "Quapil", PremiumType1.Tarock, PremiumType2.Nothing, "40", "80"));</v>
+      </c>
+      <c r="BQ42" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(41,3,'Dreier',2,0,40), </v>
       </c>
-      <c r="AG42" s="31" t="str">
+      <c r="BR42" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(41,5,'Quapil',1,0,'40','80'), </v>
       </c>
-      <c r="AK42" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H42&amp;","&amp;I42&amp;",'"&amp;J42&amp;"',"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(41,3,'Dreier',2,0,40);</v>
-      </c>
-      <c r="AL42" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P42&amp;","&amp;Q42&amp;",'"&amp;R42&amp;"',"&amp;S42&amp;","&amp;T42&amp;",'"&amp;U42&amp;"','"&amp;V42&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(41,5,'Quapil',1,0,'40','80');</v>
-      </c>
-    </row>
-    <row r="43" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H43" s="30">
         <v>42</v>
       </c>
@@ -7458,24 +10041,73 @@
         <v>20</v>
       </c>
       <c r="AC43" s="31"/>
-      <c r="AF43" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL43" s="30">
+        <v>42</v>
+      </c>
+      <c r="AM43" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN43" s="30">
+        <v>9</v>
+      </c>
+      <c r="AO43" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP43" s="30" t="str">
+        <f>VLOOKUP(K43,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ43" s="30" t="str">
+        <f>VLOOKUP(L43,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR43" s="30">
+        <v>50</v>
+      </c>
+      <c r="AU43" s="30">
+        <v>42</v>
+      </c>
+      <c r="AV43" s="30">
+        <v>5</v>
+      </c>
+      <c r="AW43" s="30">
+        <v>5</v>
+      </c>
+      <c r="AX43" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY43" s="30" t="str">
+        <f>VLOOKUP(S43,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ43" s="30" t="str">
+        <f>VLOOKUP(T43,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA43" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB43" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL43" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 9, "Farbensolo", TariffType1.Farben, TariffType2.Solo, 50));</v>
+      </c>
+      <c r="BM43" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ43" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(42,3,'Farbensolo',3,4,50), </v>
       </c>
-      <c r="AG43" s="31" t="str">
+      <c r="BR43" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(42,5,'König ultimo',2,0,'10','20'), </v>
       </c>
-      <c r="AK43" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H43&amp;","&amp;I43&amp;",'"&amp;J43&amp;"',"&amp;K43&amp;","&amp;L43&amp;","&amp;M43&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(42,3,'Farbensolo',3,4,50);</v>
-      </c>
-      <c r="AL43" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P43&amp;","&amp;Q43&amp;",'"&amp;R43&amp;"',"&amp;S43&amp;","&amp;T43&amp;",'"&amp;U43&amp;"','"&amp;V43&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(42,5,'König ultimo',2,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="44" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H44" s="30">
         <v>43</v>
       </c>
@@ -7516,24 +10148,73 @@
         <v>20</v>
       </c>
       <c r="AC44" s="31"/>
-      <c r="AF44" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL44" s="30">
+        <v>43</v>
+      </c>
+      <c r="AM44" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN44" s="30">
+        <v>10</v>
+      </c>
+      <c r="AO44" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP44" s="30" t="str">
+        <f>VLOOKUP(K44,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ44" s="30" t="str">
+        <f>VLOOKUP(L44,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR44" s="30">
+        <v>60</v>
+      </c>
+      <c r="AU44" s="30">
+        <v>43</v>
+      </c>
+      <c r="AV44" s="30">
+        <v>5</v>
+      </c>
+      <c r="AW44" s="30">
+        <v>6</v>
+      </c>
+      <c r="AX44" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY44" s="30" t="str">
+        <f>VLOOKUP(S44,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Tarock</v>
+      </c>
+      <c r="AZ44" s="30" t="str">
+        <f>VLOOKUP(T44,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA44" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB44" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL44" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 10, "Piccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 60));</v>
+      </c>
+      <c r="BM44" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 6, "Trull", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ44" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(43,3,'Piccolo ouvert',4,2,60), </v>
       </c>
-      <c r="AG44" s="31" t="str">
+      <c r="BR44" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(43,5,'Trull',1,0,'10','20'), </v>
       </c>
-      <c r="AK44" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H44&amp;","&amp;I44&amp;",'"&amp;J44&amp;"',"&amp;K44&amp;","&amp;L44&amp;","&amp;M44&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(43,3,'Piccolo ouvert',4,2,60);</v>
-      </c>
-      <c r="AL44" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P44&amp;","&amp;Q44&amp;",'"&amp;R44&amp;"',"&amp;S44&amp;","&amp;T44&amp;",'"&amp;U44&amp;"','"&amp;V44&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(43,5,'Trull',1,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="45" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H45" s="30">
         <v>44</v>
       </c>
@@ -7574,24 +10255,73 @@
         <v>20</v>
       </c>
       <c r="AC45" s="31"/>
-      <c r="AF45" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL45" s="30">
+        <v>44</v>
+      </c>
+      <c r="AM45" s="30">
+        <v>3</v>
+      </c>
+      <c r="AN45" s="30">
+        <v>11</v>
+      </c>
+      <c r="AO45" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP45" s="30" t="str">
+        <f>VLOOKUP(K45,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ45" s="30" t="str">
+        <f>VLOOKUP(L45,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR45" s="30">
+        <v>70</v>
+      </c>
+      <c r="AU45" s="30">
+        <v>44</v>
+      </c>
+      <c r="AV45" s="30">
+        <v>5</v>
+      </c>
+      <c r="AW45" s="30">
+        <v>7</v>
+      </c>
+      <c r="AX45" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY45" s="30" t="str">
+        <f>VLOOKUP(S45,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AZ45" s="30" t="str">
+        <f>VLOOKUP(T45,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA45" s="30">
+        <v>10</v>
+      </c>
+      <c r="BB45" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL45" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 11, "Bettel ouvert", TariffType1.Negativ, TariffType2.Bettler, 70));</v>
+      </c>
+      <c r="BM45" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+      </c>
+      <c r="BQ45" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(44,3,'Bettel ouvert',4,3,70), </v>
       </c>
-      <c r="AG45" s="31" t="str">
+      <c r="BR45" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">(44,5,'4 Könige',2,0,'10','20'), </v>
       </c>
-      <c r="AK45" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H45&amp;","&amp;I45&amp;",'"&amp;J45&amp;"',"&amp;K45&amp;","&amp;L45&amp;","&amp;M45&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(44,3,'Bettel ouvert',4,3,70);</v>
-      </c>
-      <c r="AL45" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P45&amp;","&amp;Q45&amp;",'"&amp;R45&amp;"',"&amp;S45&amp;","&amp;T45&amp;",'"&amp;U45&amp;"','"&amp;V45&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(44,5,'4 Könige',2,0,'10','20');</v>
-      </c>
-    </row>
-    <row r="46" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="8:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="30">
         <v>45</v>
       </c>
@@ -7632,24 +10362,73 @@
         <v>206</v>
       </c>
       <c r="AC46" s="31"/>
-      <c r="AF46" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL46" s="47">
+        <v>45</v>
+      </c>
+      <c r="AM46" s="47">
+        <v>3</v>
+      </c>
+      <c r="AN46" s="47">
+        <v>12</v>
+      </c>
+      <c r="AO46" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP46" s="47" t="str">
+        <f>VLOOKUP(K46,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ46" s="47" t="str">
+        <f>VLOOKUP(L46,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR46" s="47">
+        <v>80</v>
+      </c>
+      <c r="AU46" s="47">
+        <v>45</v>
+      </c>
+      <c r="AV46" s="47">
+        <v>5</v>
+      </c>
+      <c r="AW46" s="47">
+        <v>8</v>
+      </c>
+      <c r="AX46" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY46" s="47" t="str">
+        <f>VLOOKUP(S46,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
+        <v>PunkteStiche</v>
+      </c>
+      <c r="AZ46" s="47" t="str">
+        <f>VLOOKUP(T46,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="BA46" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB46" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL46" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 12, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 80));</v>
+      </c>
+      <c r="BM46" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
+      </c>
+      <c r="BQ46" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(45,3,'Solodreier',2,4,80), </v>
       </c>
-      <c r="AG46" s="31" t="str">
+      <c r="BR46" s="31" t="str">
         <f t="shared" si="2"/>
         <v>(45,5,'Valat',3,0,'x4','x8'));</v>
       </c>
-      <c r="AK46" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H46&amp;","&amp;I46&amp;",'"&amp;J46&amp;"',"&amp;K46&amp;","&amp;L46&amp;","&amp;M46&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(45,3,'Solodreier',2,4,80);</v>
-      </c>
-      <c r="AL46" s="31" t="str">
-        <f>"INSERT INTO "&amp;$O$1&amp;" VALUES("&amp;P46&amp;","&amp;Q46&amp;",'"&amp;R46&amp;"',"&amp;S46&amp;","&amp;T46&amp;",'"&amp;U46&amp;"','"&amp;V46&amp;"');"</f>
-        <v>INSERT INTO premium VALUES(45,5,'Valat',3,0,'x4','x8');</v>
-      </c>
-    </row>
-    <row r="47" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H47" s="30">
         <v>46</v>
       </c>
@@ -7670,16 +10449,39 @@
       </c>
       <c r="W47" s="31"/>
       <c r="AC47" s="31"/>
-      <c r="AF47" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL47" s="30">
+        <v>46</v>
+      </c>
+      <c r="AM47" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN47" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP47" s="30" t="str">
+        <f>VLOOKUP(K47,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ47" s="30" t="str">
+        <f>VLOOKUP(L47,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR47" s="30">
+        <v>10</v>
+      </c>
+      <c r="BL47" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 1, "Rufer", TariffType1.Rufer, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BQ47" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(46,4,'Rufer',1,1,10), </v>
       </c>
-      <c r="AK47" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H47&amp;","&amp;I47&amp;",'"&amp;J47&amp;"',"&amp;K47&amp;","&amp;L47&amp;","&amp;M47&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(46,4,'Rufer',1,1,10);</v>
-      </c>
-    </row>
-    <row r="48" spans="8:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="8:70" x14ac:dyDescent="0.25">
       <c r="H48" s="30">
         <v>47</v>
       </c>
@@ -7700,16 +10502,39 @@
       </c>
       <c r="W48" s="31"/>
       <c r="AC48" s="31"/>
-      <c r="AF48" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL48" s="30">
+        <v>47</v>
+      </c>
+      <c r="AM48" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN48" s="30">
+        <v>2</v>
+      </c>
+      <c r="AO48" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP48" s="30" t="str">
+        <f>VLOOKUP(K48,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ48" s="30" t="str">
+        <f>VLOOKUP(L48,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR48" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL48" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 2, "Trischaken", TariffType1.Negativ, TariffType2.Vorhand, 20));</v>
+      </c>
+      <c r="BQ48" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(47,4,'Trischaken',4,1,20), </v>
       </c>
-      <c r="AK48" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H48&amp;","&amp;I48&amp;",'"&amp;J48&amp;"',"&amp;K48&amp;","&amp;L48&amp;","&amp;M48&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(47,4,'Trischaken',4,1,20);</v>
-      </c>
-    </row>
-    <row r="49" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H49" s="30">
         <v>48</v>
       </c>
@@ -7730,16 +10555,39 @@
       </c>
       <c r="W49" s="31"/>
       <c r="AC49" s="31"/>
-      <c r="AF49" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL49" s="30">
+        <v>48</v>
+      </c>
+      <c r="AM49" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN49" s="30">
+        <v>3</v>
+      </c>
+      <c r="AO49" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP49" s="30" t="str">
+        <f>VLOOKUP(K49,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ49" s="30" t="str">
+        <f>VLOOKUP(L49,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR49" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL49" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 3, "Sechserdreier", TariffType1.Dreier, TariffType2.Vorhand, 40));</v>
+      </c>
+      <c r="BQ49" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(48,4,'Sechserdreier',2,1,40), </v>
       </c>
-      <c r="AK49" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H49&amp;","&amp;I49&amp;",'"&amp;J49&amp;"',"&amp;K49&amp;","&amp;L49&amp;","&amp;M49&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(48,4,'Sechserdreier',2,1,40);</v>
-      </c>
-    </row>
-    <row r="50" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H50" s="30">
         <v>49</v>
       </c>
@@ -7760,16 +10608,39 @@
       </c>
       <c r="W50" s="31"/>
       <c r="AC50" s="31"/>
-      <c r="AF50" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL50" s="30">
+        <v>49</v>
+      </c>
+      <c r="AM50" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN50" s="30">
+        <v>4</v>
+      </c>
+      <c r="AO50" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP50" s="30" t="str">
+        <f>VLOOKUP(K50,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ50" s="30" t="str">
+        <f>VLOOKUP(L50,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR50" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL50" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 4, "Piccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
+      </c>
+      <c r="BQ50" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(49,4,'Piccolo',4,2,20), </v>
       </c>
-      <c r="AK50" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H50&amp;","&amp;I50&amp;",'"&amp;J50&amp;"',"&amp;K50&amp;","&amp;L50&amp;","&amp;M50&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(49,4,'Piccolo',4,2,20);</v>
-      </c>
-    </row>
-    <row r="51" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H51" s="30">
         <v>50</v>
       </c>
@@ -7790,16 +10661,39 @@
       </c>
       <c r="W51" s="31"/>
       <c r="AC51" s="31"/>
-      <c r="AF51" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL51" s="30">
+        <v>50</v>
+      </c>
+      <c r="AM51" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN51" s="30">
+        <v>5</v>
+      </c>
+      <c r="AO51" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP51" s="30" t="str">
+        <f>VLOOKUP(K51,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ51" s="30" t="str">
+        <f>VLOOKUP(L51,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR51" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL51" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 5, "Solorufer", TariffType1.Rufer, TariffType2.Solo, 20));</v>
+      </c>
+      <c r="BQ51" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(50,4,'Solorufer',1,4,20), </v>
       </c>
-      <c r="AK51" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H51&amp;","&amp;I51&amp;",'"&amp;J51&amp;"',"&amp;K51&amp;","&amp;L51&amp;","&amp;M51&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(50,4,'Solorufer',1,4,20);</v>
-      </c>
-    </row>
-    <row r="52" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H52" s="30">
         <v>51</v>
       </c>
@@ -7820,16 +10714,39 @@
       </c>
       <c r="W52" s="31"/>
       <c r="AC52" s="31"/>
-      <c r="AF52" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL52" s="30">
+        <v>51</v>
+      </c>
+      <c r="AM52" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN52" s="30">
+        <v>6</v>
+      </c>
+      <c r="AO52" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP52" s="30" t="str">
+        <f>VLOOKUP(K52,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ52" s="30" t="str">
+        <f>VLOOKUP(L52,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR52" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL52" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 6, "Besserrufer (+Vogel)", TariffType1.Rufer, TariffType2.Besserrufer, 20));</v>
+      </c>
+      <c r="BQ52" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(51,4,'Besserrufer (+Vogel)',1,5,20), </v>
       </c>
-      <c r="AK52" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H52&amp;","&amp;I52&amp;",'"&amp;J52&amp;"',"&amp;K52&amp;","&amp;L52&amp;","&amp;M52&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(51,4,'Besserrufer (+Vogel)',1,5,20);</v>
-      </c>
-    </row>
-    <row r="53" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H53" s="30">
         <v>52</v>
       </c>
@@ -7850,16 +10767,39 @@
       </c>
       <c r="W53" s="31"/>
       <c r="AC53" s="31"/>
-      <c r="AF53" s="31" t="str">
-        <f>"("&amp;H53&amp;","&amp;I53&amp;",'"&amp;J53&amp;"',"&amp;K53&amp;","&amp;L53&amp;","&amp;M53&amp;")"&amp;IF(H54="",");",", ")</f>
+      <c r="AL53" s="30">
+        <v>52</v>
+      </c>
+      <c r="AM53" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN53" s="30">
+        <v>7</v>
+      </c>
+      <c r="AO53" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP53" s="30" t="str">
+        <f>VLOOKUP(K53,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ53" s="30" t="str">
+        <f>VLOOKUP(L53,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR53" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL53" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 7, "Bettel", TariffType1.Negativ, TariffType2.Bettler, 40));</v>
+      </c>
+      <c r="BQ53" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(52,4,'Bettel',4,3,40), </v>
       </c>
-      <c r="AK53" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H53&amp;","&amp;I53&amp;",'"&amp;J53&amp;"',"&amp;K53&amp;","&amp;L53&amp;","&amp;M53&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(52,4,'Bettel',4,3,40);</v>
-      </c>
-    </row>
-    <row r="54" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H54" s="30">
         <v>53</v>
       </c>
@@ -7880,16 +10820,39 @@
       </c>
       <c r="W54" s="31"/>
       <c r="AC54" s="31"/>
-      <c r="AF54" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL54" s="30">
+        <v>53</v>
+      </c>
+      <c r="AM54" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN54" s="30">
+        <v>8</v>
+      </c>
+      <c r="AO54" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP54" s="30" t="str">
+        <f>VLOOKUP(K54,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ54" s="30" t="str">
+        <f>VLOOKUP(L54,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR54" s="30">
+        <v>50</v>
+      </c>
+      <c r="BL54" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 8, "Farbendreier", TariffType1.Farben, TariffType2.Nothing, 50));</v>
+      </c>
+      <c r="BQ54" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(53,4,'Farbendreier',3,0,50), </v>
       </c>
-      <c r="AK54" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H54&amp;","&amp;I54&amp;",'"&amp;J54&amp;"',"&amp;K54&amp;","&amp;L54&amp;","&amp;M54&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(53,4,'Farbendreier',3,0,50);</v>
-      </c>
-    </row>
-    <row r="55" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H55" s="30">
         <v>54</v>
       </c>
@@ -7910,16 +10873,39 @@
       </c>
       <c r="W55" s="31"/>
       <c r="AC55" s="31"/>
-      <c r="AF55" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL55" s="30">
+        <v>54</v>
+      </c>
+      <c r="AM55" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN55" s="30">
+        <v>9</v>
+      </c>
+      <c r="AO55" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP55" s="30" t="str">
+        <f>VLOOKUP(K55,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ55" s="30" t="str">
+        <f>VLOOKUP(L55,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR55" s="30">
+        <v>50</v>
+      </c>
+      <c r="BL55" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 9, "Dreier", TariffType1.Dreier, TariffType2.Nothing, 50));</v>
+      </c>
+      <c r="BQ55" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(54,4,'Dreier',2,0,50), </v>
       </c>
-      <c r="AK55" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H55&amp;","&amp;I55&amp;",'"&amp;J55&amp;"',"&amp;K55&amp;","&amp;L55&amp;","&amp;M55&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(54,4,'Dreier',2,0,50);</v>
-      </c>
-    </row>
-    <row r="56" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H56" s="30">
         <v>55</v>
       </c>
@@ -7940,16 +10926,39 @@
       </c>
       <c r="W56" s="31"/>
       <c r="AC56" s="31"/>
-      <c r="AF56" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL56" s="30">
+        <v>55</v>
+      </c>
+      <c r="AM56" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN56" s="30">
+        <v>10</v>
+      </c>
+      <c r="AO56" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP56" s="30" t="str">
+        <f>VLOOKUP(K56,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ56" s="30" t="str">
+        <f>VLOOKUP(L56,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR56" s="30">
+        <v>70</v>
+      </c>
+      <c r="BL56" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 10, "Piccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 70));</v>
+      </c>
+      <c r="BQ56" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(55,4,'Piccolo ouvert',4,2,70), </v>
       </c>
-      <c r="AK56" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H56&amp;","&amp;I56&amp;",'"&amp;J56&amp;"',"&amp;K56&amp;","&amp;L56&amp;","&amp;M56&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(55,4,'Piccolo ouvert',4,2,70);</v>
-      </c>
-    </row>
-    <row r="57" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H57" s="30">
         <v>56</v>
       </c>
@@ -7970,16 +10979,39 @@
       </c>
       <c r="W57" s="31"/>
       <c r="AC57" s="31"/>
-      <c r="AF57" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL57" s="30">
+        <v>56</v>
+      </c>
+      <c r="AM57" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN57" s="30">
+        <v>11</v>
+      </c>
+      <c r="AO57" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP57" s="30" t="str">
+        <f>VLOOKUP(K57,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ57" s="30" t="str">
+        <f>VLOOKUP(L57,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR57" s="30">
+        <v>70</v>
+      </c>
+      <c r="BL57" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 11, "Zwiccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 70));</v>
+      </c>
+      <c r="BQ57" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(56,4,'Zwiccolo ouvert',4,2,70), </v>
       </c>
-      <c r="AK57" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H57&amp;","&amp;I57&amp;",'"&amp;J57&amp;"',"&amp;K57&amp;","&amp;L57&amp;","&amp;M57&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(56,4,'Zwiccolo ouvert',4,2,70);</v>
-      </c>
-    </row>
-    <row r="58" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H58" s="30">
         <v>57</v>
       </c>
@@ -8000,16 +11032,39 @@
       </c>
       <c r="W58" s="31"/>
       <c r="AC58" s="31"/>
-      <c r="AF58" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL58" s="30">
+        <v>57</v>
+      </c>
+      <c r="AM58" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN58" s="30">
+        <v>12</v>
+      </c>
+      <c r="AO58" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP58" s="30" t="str">
+        <f>VLOOKUP(K58,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ58" s="30" t="str">
+        <f>VLOOKUP(L58,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR58" s="30">
+        <v>80</v>
+      </c>
+      <c r="BL58" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 12, "Bettel ouvert", TariffType1.Negativ, TariffType2.Bettler, 80));</v>
+      </c>
+      <c r="BQ58" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(57,4,'Bettel ouvert',4,3,80), </v>
       </c>
-      <c r="AK58" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H58&amp;","&amp;I58&amp;",'"&amp;J58&amp;"',"&amp;K58&amp;","&amp;L58&amp;","&amp;M58&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(57,4,'Bettel ouvert',4,3,80);</v>
-      </c>
-    </row>
-    <row r="59" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H59" s="30">
         <v>58</v>
       </c>
@@ -8030,16 +11085,39 @@
       </c>
       <c r="W59" s="31"/>
       <c r="AC59" s="31"/>
-      <c r="AF59" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL59" s="30">
+        <v>58</v>
+      </c>
+      <c r="AM59" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN59" s="30">
+        <v>13</v>
+      </c>
+      <c r="AO59" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP59" s="30" t="str">
+        <f>VLOOKUP(K59,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ59" s="30" t="str">
+        <f>VLOOKUP(L59,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR59" s="30">
+        <v>100</v>
+      </c>
+      <c r="BL59" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 13, "Farbensolo", TariffType1.Farben, TariffType2.Solo, 100));</v>
+      </c>
+      <c r="BQ59" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(58,4,'Farbensolo',3,4,100), </v>
       </c>
-      <c r="AK59" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H59&amp;","&amp;I59&amp;",'"&amp;J59&amp;"',"&amp;K59&amp;","&amp;L59&amp;","&amp;M59&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(58,4,'Farbensolo',3,4,100);</v>
-      </c>
-    </row>
-    <row r="60" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="8:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H60" s="30">
         <v>59</v>
       </c>
@@ -8060,16 +11138,39 @@
       </c>
       <c r="W60" s="31"/>
       <c r="AC60" s="31"/>
-      <c r="AF60" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL60" s="47">
+        <v>59</v>
+      </c>
+      <c r="AM60" s="47">
+        <v>4</v>
+      </c>
+      <c r="AN60" s="47">
+        <v>14</v>
+      </c>
+      <c r="AO60" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP60" s="47" t="str">
+        <f>VLOOKUP(K60,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ60" s="47" t="str">
+        <f>VLOOKUP(L60,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR60" s="47">
+        <v>100</v>
+      </c>
+      <c r="BL60" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 14, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 100));</v>
+      </c>
+      <c r="BQ60" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(59,4,'Solodreier',2,4,100), </v>
       </c>
-      <c r="AK60" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H60&amp;","&amp;I60&amp;",'"&amp;J60&amp;"',"&amp;K60&amp;","&amp;L60&amp;","&amp;M60&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(59,4,'Solodreier',2,4,100);</v>
-      </c>
-    </row>
-    <row r="61" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H61" s="30">
         <v>60</v>
       </c>
@@ -8090,16 +11191,39 @@
       </c>
       <c r="W61" s="31"/>
       <c r="AC61" s="31"/>
-      <c r="AF61" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL61" s="30">
+        <v>60</v>
+      </c>
+      <c r="AM61" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN61" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP61" s="30" t="str">
+        <f>VLOOKUP(K61,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ61" s="30" t="str">
+        <f>VLOOKUP(L61,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR61" s="30">
+        <v>50</v>
+      </c>
+      <c r="BL61" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 1, "Trischaken", TariffType1.Negativ, TariffType2.Vorhand, 50));</v>
+      </c>
+      <c r="BQ61" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(60,5,'Trischaken',4,1,50), </v>
       </c>
-      <c r="AK61" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H61&amp;","&amp;I61&amp;",'"&amp;J61&amp;"',"&amp;K61&amp;","&amp;L61&amp;","&amp;M61&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(60,5,'Trischaken',4,1,50);</v>
-      </c>
-    </row>
-    <row r="62" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H62" s="30">
         <v>61</v>
       </c>
@@ -8120,16 +11244,39 @@
       </c>
       <c r="W62" s="31"/>
       <c r="AC62" s="31"/>
-      <c r="AF62" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL62" s="30">
+        <v>61</v>
+      </c>
+      <c r="AM62" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN62" s="30">
+        <v>2</v>
+      </c>
+      <c r="AO62" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP62" s="30" t="str">
+        <f>VLOOKUP(K62,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ62" s="30" t="str">
+        <f>VLOOKUP(L62,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR62" s="30">
+        <v>10</v>
+      </c>
+      <c r="BL62" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 2, "Rufer", TariffType1.Rufer, TariffType2.Vorhand, 10));</v>
+      </c>
+      <c r="BQ62" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(61,5,'Rufer',1,1,10), </v>
       </c>
-      <c r="AK62" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H62&amp;","&amp;I62&amp;",'"&amp;J62&amp;"',"&amp;K62&amp;","&amp;L62&amp;","&amp;M62&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(61,5,'Rufer',1,1,10);</v>
-      </c>
-    </row>
-    <row r="63" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H63" s="30">
         <v>62</v>
       </c>
@@ -8150,16 +11297,39 @@
       </c>
       <c r="W63" s="31"/>
       <c r="AC63" s="31"/>
-      <c r="AF63" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL63" s="30">
+        <v>62</v>
+      </c>
+      <c r="AM63" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN63" s="30">
+        <v>3</v>
+      </c>
+      <c r="AO63" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP63" s="30" t="str">
+        <f>VLOOKUP(K63,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ63" s="30" t="str">
+        <f>VLOOKUP(L63,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Vorhand</v>
+      </c>
+      <c r="AR63" s="30">
+        <v>50</v>
+      </c>
+      <c r="BL63" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 3, "Sechserdreier", TariffType1.Dreier, TariffType2.Vorhand, 50));</v>
+      </c>
+      <c r="BQ63" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(62,5,'Sechserdreier',2,1,50), </v>
       </c>
-      <c r="AK63" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H63&amp;","&amp;I63&amp;",'"&amp;J63&amp;"',"&amp;K63&amp;","&amp;L63&amp;","&amp;M63&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(62,5,'Sechserdreier',2,1,50);</v>
-      </c>
-    </row>
-    <row r="64" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H64" s="30">
         <v>63</v>
       </c>
@@ -8180,16 +11350,39 @@
       </c>
       <c r="W64" s="31"/>
       <c r="AC64" s="31"/>
-      <c r="AF64" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL64" s="30">
+        <v>63</v>
+      </c>
+      <c r="AM64" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN64" s="30">
+        <v>4</v>
+      </c>
+      <c r="AO64" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP64" s="30" t="str">
+        <f>VLOOKUP(K64,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ64" s="30" t="str">
+        <f>VLOOKUP(L64,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR64" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL64" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 4, "Piccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
+      </c>
+      <c r="BQ64" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(63,5,'Piccolo',4,2,20), </v>
       </c>
-      <c r="AK64" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H64&amp;","&amp;I64&amp;",'"&amp;J64&amp;"',"&amp;K64&amp;","&amp;L64&amp;","&amp;M64&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(63,5,'Piccolo',4,2,20);</v>
-      </c>
-    </row>
-    <row r="65" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H65" s="30">
         <v>64</v>
       </c>
@@ -8210,16 +11403,39 @@
       </c>
       <c r="W65" s="31"/>
       <c r="AC65" s="31"/>
-      <c r="AF65" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL65" s="30">
+        <v>64</v>
+      </c>
+      <c r="AM65" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN65" s="30">
+        <v>5</v>
+      </c>
+      <c r="AO65" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP65" s="30" t="str">
+        <f>VLOOKUP(K65,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ65" s="30" t="str">
+        <f>VLOOKUP(L65,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR65" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL65" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 5, "Zwiccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
+      </c>
+      <c r="BQ65" s="31" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">(64,5,'Zwiccolo',4,2,20), </v>
       </c>
-      <c r="AK65" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H65&amp;","&amp;I65&amp;",'"&amp;J65&amp;"',"&amp;K65&amp;","&amp;L65&amp;","&amp;M65&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(64,5,'Zwiccolo',4,2,20);</v>
-      </c>
-    </row>
-    <row r="66" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H66" s="30">
         <v>65</v>
       </c>
@@ -8240,16 +11456,39 @@
       </c>
       <c r="W66" s="31"/>
       <c r="AC66" s="31"/>
-      <c r="AF66" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL66" s="30">
+        <v>65</v>
+      </c>
+      <c r="AM66" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN66" s="30">
+        <v>6</v>
+      </c>
+      <c r="AO66" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP66" s="30" t="str">
+        <f>VLOOKUP(K66,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ66" s="30" t="str">
+        <f>VLOOKUP(L66,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR66" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL66" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 6, "Triccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
+      </c>
+      <c r="BQ66" s="31" t="str">
+        <f t="shared" ref="BQ66:BQ78" si="9">"("&amp;H66&amp;","&amp;I66&amp;",'"&amp;J66&amp;"',"&amp;K66&amp;","&amp;L66&amp;","&amp;M66&amp;")"&amp;IF(H67="",");",", ")</f>
         <v xml:space="preserve">(65,5,'Triccolo',4,2,20), </v>
       </c>
-      <c r="AK66" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H66&amp;","&amp;I66&amp;",'"&amp;J66&amp;"',"&amp;K66&amp;","&amp;L66&amp;","&amp;M66&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(65,5,'Triccolo',4,2,20);</v>
-      </c>
-    </row>
-    <row r="67" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H67" s="30">
         <v>66</v>
       </c>
@@ -8270,16 +11509,39 @@
       </c>
       <c r="W67" s="31"/>
       <c r="AC67" s="31"/>
-      <c r="AF67" s="31" t="str">
-        <f t="shared" ref="AF67:AF70" si="4">"("&amp;H67&amp;","&amp;I67&amp;",'"&amp;J67&amp;"',"&amp;K67&amp;","&amp;L67&amp;","&amp;M67&amp;")"&amp;IF(H68="",");",", ")</f>
+      <c r="AL67" s="30">
+        <v>66</v>
+      </c>
+      <c r="AM67" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN67" s="30">
+        <v>7</v>
+      </c>
+      <c r="AO67" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP67" s="30" t="str">
+        <f>VLOOKUP(K67,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ67" s="30" t="str">
+        <f>VLOOKUP(L67,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR67" s="30">
+        <v>20</v>
+      </c>
+      <c r="BL67" s="31" t="str">
+        <f t="shared" ref="BL67:BL78" si="10">"getTariffDao().create(new Tariff(tariffsetTarockBlockId, "&amp;AN67&amp;", """&amp;AO67&amp;""", TariffType1."&amp;AP67&amp;", TariffType2."&amp;AQ67&amp;", "&amp;AR67&amp;"));"</f>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 7, "Solorufer", TariffType1.Rufer, TariffType2.Solo, 20));</v>
+      </c>
+      <c r="BQ67" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(66,5,'Solorufer',1,4,20), </v>
       </c>
-      <c r="AK67" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H67&amp;","&amp;I67&amp;",'"&amp;J67&amp;"',"&amp;K67&amp;","&amp;L67&amp;","&amp;M67&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(66,5,'Solorufer',1,4,20);</v>
-      </c>
-    </row>
-    <row r="68" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H68" s="30">
         <v>67</v>
       </c>
@@ -8300,16 +11562,39 @@
       </c>
       <c r="W68" s="31"/>
       <c r="AC68" s="31"/>
-      <c r="AF68" s="31" t="str">
-        <f t="shared" si="4"/>
+      <c r="AL68" s="30">
+        <v>67</v>
+      </c>
+      <c r="AM68" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN68" s="30">
+        <v>8</v>
+      </c>
+      <c r="AO68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP68" s="30" t="str">
+        <f>VLOOKUP(K68,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ68" s="30" t="str">
+        <f>VLOOKUP(L68,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR68" s="30">
+        <v>30</v>
+      </c>
+      <c r="BL68" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 8, "Pagatrufer", TariffType1.Rufer, TariffType2.Besserrufer, 30));</v>
+      </c>
+      <c r="BQ68" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(67,5,'Pagatrufer',1,5,30), </v>
       </c>
-      <c r="AK68" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H68&amp;","&amp;I68&amp;",'"&amp;J68&amp;"',"&amp;K68&amp;","&amp;L68&amp;","&amp;M68&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(67,5,'Pagatrufer',1,5,30);</v>
-      </c>
-    </row>
-    <row r="69" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H69" s="30">
         <v>68</v>
       </c>
@@ -8330,16 +11615,39 @@
       </c>
       <c r="W69" s="31"/>
       <c r="AC69" s="31"/>
-      <c r="AF69" s="31" t="str">
-        <f t="shared" si="4"/>
+      <c r="AL69" s="30">
+        <v>68</v>
+      </c>
+      <c r="AM69" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN69" s="30">
+        <v>9</v>
+      </c>
+      <c r="AO69" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP69" s="30" t="str">
+        <f>VLOOKUP(K69,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ69" s="30" t="str">
+        <f>VLOOKUP(L69,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR69" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL69" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 9, "Bettel", TariffType1.Negativ, TariffType2.Bettler, 40));</v>
+      </c>
+      <c r="BQ69" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(68,5,'Bettel',4,3,40), </v>
       </c>
-      <c r="AK69" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H69&amp;","&amp;I69&amp;",'"&amp;J69&amp;"',"&amp;K69&amp;","&amp;L69&amp;","&amp;M69&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(68,5,'Bettel',4,3,40);</v>
-      </c>
-    </row>
-    <row r="70" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H70" s="30">
         <v>69</v>
       </c>
@@ -8360,16 +11668,39 @@
       </c>
       <c r="W70" s="31"/>
       <c r="AC70" s="31"/>
-      <c r="AF70" s="31" t="str">
-        <f t="shared" si="4"/>
+      <c r="AL70" s="30">
+        <v>69</v>
+      </c>
+      <c r="AM70" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN70" s="30">
+        <v>10</v>
+      </c>
+      <c r="AO70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP70" s="30" t="str">
+        <f>VLOOKUP(K70,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ70" s="30" t="str">
+        <f>VLOOKUP(L70,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR70" s="30">
+        <v>50</v>
+      </c>
+      <c r="BL70" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 10, "Uhurufer", TariffType1.Rufer, TariffType2.Besserrufer, 50));</v>
+      </c>
+      <c r="BQ70" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(69,5,'Uhurufer',1,5,50), </v>
       </c>
-      <c r="AK70" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H70&amp;","&amp;I70&amp;",'"&amp;J70&amp;"',"&amp;K70&amp;","&amp;L70&amp;","&amp;M70&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(69,5,'Uhurufer',1,5,50);</v>
-      </c>
-    </row>
-    <row r="71" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H71" s="30">
         <v>70</v>
       </c>
@@ -8390,16 +11721,39 @@
       </c>
       <c r="W71" s="31"/>
       <c r="AC71" s="31"/>
-      <c r="AF71" s="31" t="str">
-        <f>"("&amp;H71&amp;","&amp;I71&amp;",'"&amp;J71&amp;"',"&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;")"&amp;IF(H72="",");",", ")</f>
+      <c r="AL71" s="30">
+        <v>70</v>
+      </c>
+      <c r="AM71" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN71" s="30">
+        <v>11</v>
+      </c>
+      <c r="AO71" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP71" s="30" t="str">
+        <f>VLOOKUP(K71,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ71" s="30" t="str">
+        <f>VLOOKUP(L71,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR71" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL71" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 11, "Farbendreier", TariffType1.Farben, TariffType2.Nothing, 40));</v>
+      </c>
+      <c r="BQ71" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(70,5,'Farbendreier',3,0,40), </v>
       </c>
-      <c r="AK71" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H71&amp;","&amp;I71&amp;",'"&amp;J71&amp;"',"&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(70,5,'Farbendreier',3,0,40);</v>
-      </c>
-    </row>
-    <row r="72" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H72" s="30">
         <v>71</v>
       </c>
@@ -8420,16 +11774,39 @@
       </c>
       <c r="W72" s="31"/>
       <c r="AC72" s="31"/>
-      <c r="AF72" s="31" t="str">
-        <f t="shared" ref="AF72:AF109" si="5">"("&amp;H72&amp;","&amp;I72&amp;",'"&amp;J72&amp;"',"&amp;K72&amp;","&amp;L72&amp;","&amp;M72&amp;")"&amp;IF(H73="",");",", ")</f>
+      <c r="AL72" s="30">
+        <v>71</v>
+      </c>
+      <c r="AM72" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN72" s="30">
+        <v>12</v>
+      </c>
+      <c r="AO72" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP72" s="30" t="str">
+        <f>VLOOKUP(K72,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ72" s="30" t="str">
+        <f>VLOOKUP(L72,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Nothing</v>
+      </c>
+      <c r="AR72" s="30">
+        <v>50</v>
+      </c>
+      <c r="BL72" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 12, "Dreier", TariffType1.Dreier, TariffType2.Nothing, 50));</v>
+      </c>
+      <c r="BQ72" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(71,5,'Dreier',2,0,50), </v>
       </c>
-      <c r="AK72" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H72&amp;","&amp;I72&amp;",'"&amp;J72&amp;"',"&amp;K72&amp;","&amp;L72&amp;","&amp;M72&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(71,5,'Dreier',2,0,50);</v>
-      </c>
-    </row>
-    <row r="73" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H73" s="30">
         <v>72</v>
       </c>
@@ -8450,16 +11827,39 @@
       </c>
       <c r="W73" s="31"/>
       <c r="AC73" s="31"/>
-      <c r="AF73" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="AL73" s="30">
+        <v>72</v>
+      </c>
+      <c r="AM73" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN73" s="30">
+        <v>13</v>
+      </c>
+      <c r="AO73" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP73" s="30" t="str">
+        <f>VLOOKUP(K73,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ73" s="30" t="str">
+        <f>VLOOKUP(L73,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>PiccoloZwiccolo</v>
+      </c>
+      <c r="AR73" s="30">
+        <v>40</v>
+      </c>
+      <c r="BL73" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 13, "Piccolo ouvert", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 40));</v>
+      </c>
+      <c r="BQ73" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(72,5,'Piccolo ouvert',4,2,40), </v>
       </c>
-      <c r="AK73" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H73&amp;","&amp;I73&amp;",'"&amp;J73&amp;"',"&amp;K73&amp;","&amp;L73&amp;","&amp;M73&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(72,5,'Piccolo ouvert',4,2,40);</v>
-      </c>
-    </row>
-    <row r="74" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H74" s="30">
         <v>73</v>
       </c>
@@ -8480,16 +11880,39 @@
       </c>
       <c r="W74" s="31"/>
       <c r="AC74" s="31"/>
-      <c r="AF74" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="AL74" s="30">
+        <v>73</v>
+      </c>
+      <c r="AM74" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN74" s="30">
+        <v>14</v>
+      </c>
+      <c r="AO74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP74" s="30" t="str">
+        <f>VLOOKUP(K74,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ74" s="30" t="str">
+        <f>VLOOKUP(L74,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR74" s="30">
+        <v>70</v>
+      </c>
+      <c r="BL74" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 14, "Kakadurufer", TariffType1.Rufer, TariffType2.Besserrufer, 70));</v>
+      </c>
+      <c r="BQ74" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(73,5,'Kakadurufer',1,5,70), </v>
       </c>
-      <c r="AK74" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H74&amp;","&amp;I74&amp;",'"&amp;J74&amp;"',"&amp;K74&amp;","&amp;L74&amp;","&amp;M74&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(73,5,'Kakadurufer',1,5,70);</v>
-      </c>
-    </row>
-    <row r="75" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H75" s="30">
         <v>74</v>
       </c>
@@ -8510,16 +11933,39 @@
       </c>
       <c r="W75" s="31"/>
       <c r="AC75" s="31"/>
-      <c r="AF75" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="AL75" s="30">
+        <v>74</v>
+      </c>
+      <c r="AM75" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN75" s="30">
+        <v>15</v>
+      </c>
+      <c r="AO75" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP75" s="30" t="str">
+        <f>VLOOKUP(K75,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Negativ</v>
+      </c>
+      <c r="AQ75" s="30" t="str">
+        <f>VLOOKUP(L75,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Bettler</v>
+      </c>
+      <c r="AR75" s="30">
+        <v>80</v>
+      </c>
+      <c r="BL75" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 15, "Bettel ouvert", TariffType1.Negativ, TariffType2.Bettler, 80));</v>
+      </c>
+      <c r="BQ75" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(74,5,'Bettel ouvert',4,3,80), </v>
       </c>
-      <c r="AK75" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H75&amp;","&amp;I75&amp;",'"&amp;J75&amp;"',"&amp;K75&amp;","&amp;L75&amp;","&amp;M75&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(74,5,'Bettel ouvert',4,3,80);</v>
-      </c>
-    </row>
-    <row r="76" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H76" s="30">
         <v>75</v>
       </c>
@@ -8540,16 +11986,39 @@
       </c>
       <c r="W76" s="31"/>
       <c r="AC76" s="31"/>
-      <c r="AF76" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="AL76" s="30">
+        <v>75</v>
+      </c>
+      <c r="AM76" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN76" s="30">
+        <v>16</v>
+      </c>
+      <c r="AO76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP76" s="30" t="str">
+        <f>VLOOKUP(K76,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Rufer</v>
+      </c>
+      <c r="AQ76" s="30" t="str">
+        <f>VLOOKUP(L76,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Besserrufer</v>
+      </c>
+      <c r="AR76" s="30">
+        <v>90</v>
+      </c>
+      <c r="BL76" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 16, "Quapilrufer", TariffType1.Rufer, TariffType2.Besserrufer, 90));</v>
+      </c>
+      <c r="BQ76" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(75,5,'Quapilrufer',1,5,90), </v>
       </c>
-      <c r="AK76" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H76&amp;","&amp;I76&amp;",'"&amp;J76&amp;"',"&amp;K76&amp;","&amp;L76&amp;","&amp;M76&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(75,5,'Quapilrufer',1,5,90);</v>
-      </c>
-    </row>
-    <row r="77" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H77" s="30">
         <v>76</v>
       </c>
@@ -8570,16 +12039,39 @@
       </c>
       <c r="W77" s="31"/>
       <c r="AC77" s="31"/>
-      <c r="AF77" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="AL77" s="30">
+        <v>76</v>
+      </c>
+      <c r="AM77" s="30">
+        <v>5</v>
+      </c>
+      <c r="AN77" s="30">
+        <v>17</v>
+      </c>
+      <c r="AO77" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP77" s="30" t="str">
+        <f>VLOOKUP(K77,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Farben</v>
+      </c>
+      <c r="AQ77" s="30" t="str">
+        <f>VLOOKUP(L77,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR77" s="30">
+        <v>80</v>
+      </c>
+      <c r="BL77" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 17, "Farbensolo", TariffType1.Farben, TariffType2.Solo, 80));</v>
+      </c>
+      <c r="BQ77" s="31" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">(76,5,'Farbensolo',3,4,80), </v>
       </c>
-      <c r="AK77" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H77&amp;","&amp;I77&amp;",'"&amp;J77&amp;"',"&amp;K77&amp;","&amp;L77&amp;","&amp;M77&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(76,5,'Farbensolo',3,4,80);</v>
-      </c>
-    </row>
-    <row r="78" spans="8:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="8:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H78" s="30">
         <v>77</v>
       </c>
@@ -8600,13 +12092,36 @@
       </c>
       <c r="W78" s="31"/>
       <c r="AC78" s="31"/>
-      <c r="AF78" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="AL78" s="47">
+        <v>77</v>
+      </c>
+      <c r="AM78" s="47">
+        <v>5</v>
+      </c>
+      <c r="AN78" s="47">
+        <v>18</v>
+      </c>
+      <c r="AO78" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP78" s="47" t="str">
+        <f>VLOOKUP(K78,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
+        <v>Dreier</v>
+      </c>
+      <c r="AQ78" s="47" t="str">
+        <f>VLOOKUP(L78,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
+        <v>Solo</v>
+      </c>
+      <c r="AR78" s="47">
+        <v>100</v>
+      </c>
+      <c r="BL78" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 18, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 100));</v>
+      </c>
+      <c r="BQ78" s="31" t="str">
+        <f t="shared" si="9"/>
         <v>(77,5,'Solodreier',2,4,100));</v>
-      </c>
-      <c r="AK78" s="31" t="str">
-        <f>"INSERT INTO "&amp;$G$1&amp;" VALUES("&amp;H78&amp;","&amp;I78&amp;",'"&amp;J78&amp;"',"&amp;K78&amp;","&amp;L78&amp;","&amp;M78&amp;");"</f>
-        <v>INSERT INTO tariff VALUES(77,5,'Solodreier',2,4,100);</v>
       </c>
     </row>
   </sheetData>
@@ -8651,12 +12166,12 @@
       <c r="F1" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8709,7 +12224,7 @@
       <c r="F3" s="36">
         <v>2</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="42">
@@ -8724,7 +12239,7 @@
       <c r="M3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="50" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8747,7 +12262,7 @@
       <c r="F4" s="36">
         <v>2</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="42">
         <v>1</v>
       </c>
@@ -8760,7 +12275,7 @@
       <c r="M4" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="46"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>

--- a/docs/TarockBlock_database.xlsx
+++ b/docs/TarockBlock_database.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="11" r:id="rId1"/>
     <sheet name="database 2.0" sheetId="12" r:id="rId2"/>
-    <sheet name="dpi" sheetId="10" r:id="rId3"/>
-    <sheet name="Default_Tables" sheetId="13" r:id="rId4"/>
-    <sheet name="Trischaken" sheetId="14" r:id="rId5"/>
+    <sheet name="Default_Tables" sheetId="13" r:id="rId3"/>
+    <sheet name="Trischaken" sheetId="14" r:id="rId4"/>
+    <sheet name="dpi" sheetId="10" r:id="rId5"/>
+    <sheet name="Spieleübersicht" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="326">
   <si>
     <t>POINTS</t>
   </si>
@@ -954,6 +955,48 @@
   </si>
   <si>
     <t>Kontra</t>
+  </si>
+  <si>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>Ruferspiel</t>
+  </si>
+  <si>
+    <t>Dreierspiel</t>
+  </si>
+  <si>
+    <t>Farbenspiel</t>
+  </si>
+  <si>
+    <t>Negativspiel</t>
+  </si>
+  <si>
+    <t>Vorhandspiel</t>
+  </si>
+  <si>
+    <t>Positivspiele</t>
+  </si>
+  <si>
+    <t>Negativspiele</t>
+  </si>
+  <si>
+    <t>Ruferspiele</t>
+  </si>
+  <si>
+    <t>Dreierspiele</t>
+  </si>
+  <si>
+    <t>Farbenspiele</t>
+  </si>
+  <si>
+    <t>Vorhandspiele</t>
+  </si>
+  <si>
+    <t>Solospiele</t>
+  </si>
+  <si>
+    <t>Piccolo/Zwiccolo ouvert</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1007,7 @@
     <numFmt numFmtId="164" formatCode="General&quot;dpi&quot;"/>
     <numFmt numFmtId="165" formatCode="General&quot;dp&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,8 +1087,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,8 +1158,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1193,6 +1275,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1221,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1363,6 +1491,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2364,9 +2549,7 @@
   </sheetPr>
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3323,7 +3506,7 @@
         <v>7</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>7</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -3357,7 +3540,7 @@
         <v>9</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -3391,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3417,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="AC23" s="14" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="AD23" s="14"/>
     </row>
@@ -3523,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="AC27" s="14" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="AD27" s="14"/>
     </row>
@@ -3590,7 +3773,7 @@
         <v>8</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>8</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3768,10 +3951,10 @@
         <v>2</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -3884,14 +4067,14 @@
       <c r="Q47"/>
       <c r="R47"/>
       <c r="U47"/>
-      <c r="AA47" s="4">
-        <v>1</v>
+      <c r="AA47" s="50">
+        <v>0</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
@@ -3903,13 +4086,13 @@
       <c r="R48"/>
       <c r="U48"/>
       <c r="AA48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -3921,13 +4104,13 @@
       <c r="R49"/>
       <c r="U49"/>
       <c r="AA49" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
@@ -3939,13 +4122,13 @@
       <c r="R50"/>
       <c r="U50"/>
       <c r="AA50" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
@@ -3956,6 +4139,15 @@
       <c r="Q51"/>
       <c r="R51"/>
       <c r="U51"/>
+      <c r="AA51" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52"/>
@@ -3963,19 +4155,6 @@
       <c r="Q52"/>
       <c r="R52"/>
       <c r="U52"/>
-      <c r="Z52" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA52" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB52" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC52" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD52" s="9"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53"/>
@@ -3983,15 +4162,19 @@
       <c r="Q53"/>
       <c r="R53"/>
       <c r="U53"/>
-      <c r="AA53" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="Z53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA53" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB53" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC53" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD53" s="9"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54"/>
@@ -4000,13 +4183,13 @@
       <c r="R54"/>
       <c r="U54"/>
       <c r="AA54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -4015,6 +4198,15 @@
       <c r="Q55"/>
       <c r="R55"/>
       <c r="U55"/>
+      <c r="AA55" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -4388,336 +4580,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
-        <v>120</v>
-      </c>
-      <c r="C2" s="7">
-        <v>160</v>
-      </c>
-      <c r="D2" s="7">
-        <v>240</v>
-      </c>
-      <c r="E2" s="7">
-        <v>320</v>
-      </c>
-      <c r="F2" s="7">
-        <v>480</v>
-      </c>
-      <c r="G2" s="7">
-        <v>640</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6">
-        <f>$C3/$C$2*B$2</f>
-        <v>384</v>
-      </c>
-      <c r="C3" s="6">
-        <v>512</v>
-      </c>
-      <c r="D3" s="6">
-        <f>$C3/$C$2*D$2</f>
-        <v>768</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:G3" si="0">$C3/$C$2*E$2</f>
-        <v>1024</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="0"/>
-        <v>1536</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" ref="B4:B10" si="1">$C4/$C$2*B$2</f>
-        <v>36</v>
-      </c>
-      <c r="C4" s="6">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:G10" si="2">$C4/$C$2*D$2</f>
-        <v>72</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C5" s="6">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C6" s="6">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C9" s="6">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:BS78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4726,7 +4593,7 @@
     <col min="2" max="2" width="5.85546875" style="30" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" style="30" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="30" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="30" hidden="1" customWidth="1"/>
@@ -4749,7 +4616,7 @@
     <col min="27" max="27" width="6.85546875" style="30" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="4.28515625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="8.140625" style="31" customWidth="1"/>
     <col min="32" max="32" width="5.85546875" style="30" customWidth="1"/>
     <col min="33" max="33" width="25.42578125" style="31" customWidth="1"/>
@@ -5597,7 +5464,7 @@
       </c>
       <c r="AY5" s="30" t="str">
         <f>VLOOKUP(S5,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ5" s="30" t="str">
         <f>VLOOKUP(T5,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -5632,7 +5499,7 @@
       </c>
       <c r="BM5" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "König ultimo", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BN5" s="49" t="str">
         <f t="shared" si="0"/>
@@ -6056,7 +5923,7 @@
       </c>
       <c r="AY8" s="30" t="str">
         <f>VLOOKUP(S8,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ8" s="30" t="str">
         <f>VLOOKUP(T8,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -6087,7 +5954,7 @@
       </c>
       <c r="BM8" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BN8" s="49" t="str">
         <f t="shared" si="0"/>
@@ -7168,7 +7035,7 @@
       </c>
       <c r="AY16" s="30" t="str">
         <f>VLOOKUP(S16,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ16" s="30" t="str">
         <f>VLOOKUP(T16,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -7199,7 +7066,7 @@
       </c>
       <c r="BM16" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BN16" s="48" t="str">
         <f t="shared" si="7"/>
@@ -7403,7 +7270,7 @@
       </c>
       <c r="AY18" s="30" t="str">
         <f>VLOOKUP(S18,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ18" s="30" t="str">
         <f>VLOOKUP(T18,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -7421,7 +7288,7 @@
       </c>
       <c r="BM18" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BQ18" s="31" t="str">
         <f t="shared" si="1"/>
@@ -8045,7 +7912,7 @@
       </c>
       <c r="AY24" s="30" t="str">
         <f>VLOOKUP(S24,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ24" s="30" t="str">
         <f>VLOOKUP(T24,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -8063,7 +7930,7 @@
       </c>
       <c r="BM24" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BQ24" s="31" t="str">
         <f t="shared" si="1"/>
@@ -8259,7 +8126,7 @@
       </c>
       <c r="AY26" s="30" t="str">
         <f>VLOOKUP(S26,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ26" s="30" t="str">
         <f>VLOOKUP(T26,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -8277,7 +8144,7 @@
       </c>
       <c r="BM26" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BQ26" s="31" t="str">
         <f t="shared" si="1"/>
@@ -8901,7 +8768,7 @@
       </c>
       <c r="AY32" s="30" t="str">
         <f>VLOOKUP(S32,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ32" s="30" t="str">
         <f>VLOOKUP(T32,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -8919,7 +8786,7 @@
       </c>
       <c r="BM32" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BQ32" s="31" t="str">
         <f t="shared" si="1"/>
@@ -9222,7 +9089,7 @@
       </c>
       <c r="AY35" s="30" t="str">
         <f>VLOOKUP(S35,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ35" s="30" t="str">
         <f>VLOOKUP(T35,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -9240,7 +9107,7 @@
       </c>
       <c r="BM35" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "4 Könige", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BQ35" s="31" t="str">
         <f t="shared" si="8"/>
@@ -10078,7 +9945,7 @@
       </c>
       <c r="AY43" s="30" t="str">
         <f>VLOOKUP(S43,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ43" s="30" t="str">
         <f>VLOOKUP(T43,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -10096,7 +9963,7 @@
       </c>
       <c r="BM43" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BQ43" s="31" t="str">
         <f t="shared" si="8"/>
@@ -10292,7 +10159,7 @@
       </c>
       <c r="AY45" s="30" t="str">
         <f>VLOOKUP(S45,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
-        <v>Farben</v>
+        <v>Farbe</v>
       </c>
       <c r="AZ45" s="30" t="str">
         <f>VLOOKUP(T45,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
@@ -10310,7 +10177,7 @@
       </c>
       <c r="BM45" s="31" t="str">
         <f t="shared" si="6"/>
-        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farben, PremiumType2.Nothing, "10", "20"));</v>
+        <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
       <c r="BQ45" s="31" t="str">
         <f t="shared" si="8"/>
@@ -12130,7 +11997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -12166,12 +12033,12 @@
       <c r="F1" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12224,7 +12091,7 @@
       <c r="F3" s="36">
         <v>2</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="42">
@@ -12239,7 +12106,7 @@
       <c r="M3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="51" t="s">
         <v>241</v>
       </c>
     </row>
@@ -12262,7 +12129,7 @@
       <c r="F4" s="36">
         <v>2</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="42">
         <v>1</v>
       </c>
@@ -12275,7 +12142,7 @@
       <c r="M4" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
@@ -12922,4 +12789,463 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="7">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7">
+        <v>160</v>
+      </c>
+      <c r="D2" s="7">
+        <v>240</v>
+      </c>
+      <c r="E2" s="7">
+        <v>320</v>
+      </c>
+      <c r="F2" s="7">
+        <v>480</v>
+      </c>
+      <c r="G2" s="7">
+        <v>640</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6">
+        <f>$C3/$C$2*B$2</f>
+        <v>384</v>
+      </c>
+      <c r="C3" s="6">
+        <v>512</v>
+      </c>
+      <c r="D3" s="6">
+        <f>$C3/$C$2*D$2</f>
+        <v>768</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:G3" si="0">$C3/$C$2*E$2</f>
+        <v>1024</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:B10" si="1">$C4/$C$2*B$2</f>
+        <v>36</v>
+      </c>
+      <c r="C4" s="6">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:G10" si="2">$C4/$C$2*D$2</f>
+        <v>72</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56"/>
+      <c r="B1" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/TarockBlock_database.xlsx
+++ b/docs/TarockBlock_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="325">
   <si>
     <t>POINTS</t>
   </si>
@@ -498,9 +498,6 @@
     <t>ts_kontra</t>
   </si>
   <si>
-    <t>trischaken_options</t>
-  </si>
-  <si>
     <t>TR_VALUE</t>
   </si>
   <si>
@@ -693,12 +690,6 @@
     <t>zwei Jungfrauen,</t>
   </si>
   <si>
-    <t>kein Bürgermeister (35/1:34/2)</t>
-  </si>
-  <si>
-    <t>kein Bürgermeister (35:35)</t>
-  </si>
-  <si>
     <t>eine Jungfrau,</t>
   </si>
   <si>
@@ -738,9 +729,6 @@
     <t>1/2</t>
   </si>
   <si>
-    <t>Nein/Ja (1/2)</t>
-  </si>
-  <si>
     <t>TR QID</t>
   </si>
   <si>
@@ -997,6 +985,15 @@
   </si>
   <si>
     <t>Piccolo/Zwiccolo ouvert</t>
+  </si>
+  <si>
+    <t>kein Bürgermeister</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (35/1:34/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (35:35)</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1112,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1170,8 +1167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1321,6 +1324,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1349,7 +1370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1464,15 +1485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,9 +1505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,16 +1517,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,6 +1544,15 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,16 +1562,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2549,14 +2576,14 @@
   </sheetPr>
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
@@ -2578,11 +2605,11 @@
     <col min="23" max="23" width="20" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="8.5703125" customWidth="1"/>
-    <col min="26" max="26" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.5703125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" style="2" customWidth="1"/>
     <col min="32" max="32" width="175.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="11.42578125" style="2"/>
@@ -2656,80 +2683,80 @@
         <v>CREATE TABLE tariff (</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC1" s="9" t="s">
         <v>151</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;" "&amp;C2&amp;IF(A3="",");",", ")</f>
         <v xml:space="preserve">plse_id INTEGER PRIMARY KEY, </v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H3" si="0">E2&amp;" "&amp;G2&amp;IF(E3="",");",", ")</f>
         <v xml:space="preserve">pl_id INTEGER PRIMARY KEY, </v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L4" si="1">I2&amp;" "&amp;K2&amp;IF(I3="",");",", ")</f>
         <v xml:space="preserve">se_id INTEGER PRIMARY KEY, </v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" ref="P2:P6" si="2">M2&amp;" "&amp;O2&amp;IF(M3="",");",", ")</f>
         <v xml:space="preserve">ga_id INTEGER PRIMARY KEY, </v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2:T5" si="3">Q2&amp;" "&amp;S2&amp;IF(Q3="",");",", ")</f>
         <v xml:space="preserve">ts_id INTEGER PRIMARY KEY, </v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X2" t="str">
         <f>U2&amp;" "&amp;W2&amp;IF(U3="",");",", ")</f>
@@ -2743,28 +2770,28 @@
         <v>21</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD2" s="41" t="s">
-        <v>238</v>
+        <v>208</v>
+      </c>
+      <c r="AD2" s="67" t="s">
+        <v>235</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D5" si="4">A3&amp;" "&amp;C3&amp;IF(A4="",");",", ")</f>
         <v xml:space="preserve">plse_pl_id NUMERIC, </v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>154</v>
@@ -2774,7 +2801,7 @@
         <v>pl_name TEXT);</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>154</v>
@@ -2784,17 +2811,17 @@
         <v xml:space="preserve">se_name TEXT, </v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">ga_pl_id_player NUMERIC, </v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S3" t="s">
         <v>154</v>
@@ -2804,10 +2831,10 @@
         <v xml:space="preserve">ts_name TEXT, </v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X3" s="31" t="str">
         <f t="shared" ref="X3:X7" si="5">U3&amp;" "&amp;W3&amp;IF(U4="",");",", ")</f>
@@ -2820,10 +2847,10 @@
         <v>16</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD3" s="40" t="s">
-        <v>239</v>
+        <v>206</v>
+      </c>
+      <c r="AD3" s="67" t="s">
+        <v>235</v>
       </c>
       <c r="AF3" s="2" t="str">
         <f>$C$1</f>
@@ -2832,30 +2859,30 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">plse_se_id NUMERIC, </v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
         <v>se_ts_id NUMERIC);</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="2"/>
@@ -2866,14 +2893,14 @@
       </c>
       <c r="R4" s="16"/>
       <c r="S4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">ts_bei NUMERIC, </v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>154</v>
@@ -2889,10 +2916,10 @@
         <v>11</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD4" s="40" t="s">
-        <v>239</v>
+        <v>207</v>
+      </c>
+      <c r="AD4" s="67" t="s">
+        <v>235</v>
       </c>
       <c r="AF4" s="2" t="str">
         <f>$C$7</f>
@@ -2901,21 +2928,21 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="4"/>
         <v>plse_points NUMERIC);</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="2"/>
@@ -2926,7 +2953,7 @@
       </c>
       <c r="R5" s="16"/>
       <c r="S5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="3"/>
@@ -2936,7 +2963,7 @@
         <v>139</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X5" s="31" t="str">
         <f t="shared" si="5"/>
@@ -2950,7 +2977,7 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" t="s">
@@ -2964,7 +2991,7 @@
         <v>140</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X6" s="31" t="str">
         <f t="shared" si="5"/>
@@ -2977,7 +3004,7 @@
         <v>148</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC6" s="9" t="s">
         <v>155</v>
@@ -3001,10 +3028,10 @@
         <v>CREATE TABLE assoc_game_session (</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X7" s="31" t="str">
         <f t="shared" si="5"/>
@@ -3015,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>85</v>
@@ -3027,10 +3054,10 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8:D9" si="6">A8&amp;" "&amp;C8&amp;IF(A9="",");",", ")</f>
@@ -3041,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AC8" s="2" t="s">
         <v>88</v>
@@ -3053,10 +3080,10 @@
     </row>
     <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="6"/>
@@ -3067,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AC9" s="2" t="s">
         <v>89</v>
@@ -3079,17 +3106,17 @@
     </row>
     <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" t="str">
         <f>A10&amp;" "&amp;C10&amp;IF(A11="",");",", ")</f>
         <v>gase_se_id NUMERIC);</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O10" s="28" t="str">
         <f>CONCATENATE(P10,P11,P12,P13,P14,P15)</f>
@@ -3115,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AC10" s="2" t="s">
         <v>87</v>
@@ -3127,20 +3154,20 @@
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M11" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" ref="P11:P15" si="7">M11&amp;" "&amp;O11&amp;IF(M12="",");",", ")</f>
         <v xml:space="preserve">gr_id INTEGER PRIMARY KEY, </v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X11" t="str">
         <f>U11&amp;" "&amp;W11&amp;IF(U12="",");",", ")</f>
@@ -3151,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>86</v>
@@ -3163,7 +3190,7 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="28" t="str">
         <f>CONCATENATE(D12,D13,D14,D15,D16,D17,D18)</f>
@@ -3174,20 +3201,20 @@
         <v>CREATE TABLE assoc_game_regular_premium (</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">gr_ga_id NUMERIC, </v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X12" s="31" t="str">
         <f t="shared" ref="X12:X17" si="8">U12&amp;" "&amp;W12&amp;IF(U13="",");",", ")</f>
@@ -3202,27 +3229,27 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ref="D13:D18" si="9">A13&amp;" "&amp;C13&amp;IF(A14="",");",", ")</f>
         <v xml:space="preserve">grpr_id INTEGER PRIMARY KEY, </v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">gr_partner_pl_id NUMERIC, </v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>154</v>
@@ -3238,10 +3265,10 @@
         <v>157</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD13" s="9"/>
       <c r="AF13" s="2" t="str">
@@ -3251,20 +3278,20 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">grpr_gr_id NUMERIC, </v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="7"/>
@@ -3274,7 +3301,7 @@
         <v>144</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X14" s="31" t="str">
         <f t="shared" si="8"/>
@@ -3284,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>118</v>
@@ -3296,20 +3323,20 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">grpr_pr_id NUMERIC, </v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="7"/>
@@ -3319,7 +3346,7 @@
         <v>145</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X15" s="31" t="str">
         <f t="shared" si="8"/>
@@ -3329,7 +3356,7 @@
         <v>4</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>119</v>
@@ -3341,10 +3368,10 @@
     </row>
     <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="9"/>
@@ -3353,7 +3380,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="U16" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>154</v>
@@ -3366,7 +3393,7 @@
         <v>8</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>120</v>
@@ -3378,10 +3405,10 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="9"/>
@@ -3401,7 +3428,7 @@
         <v>CREATE TABLE game_negative (</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>154</v>
@@ -3414,21 +3441,21 @@
         <v>16</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="9"/>
@@ -3437,10 +3464,10 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="M18" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" ref="P18:P20" si="10">M18&amp;" "&amp;O18&amp;IF(M19="",");",", ")</f>
@@ -3451,10 +3478,10 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="M19" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="str">
         <f>M19&amp;" "&amp;O19&amp;IF(M20="",");",", ")</f>
@@ -3467,10 +3494,10 @@
         <v>136</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD19" s="9"/>
     </row>
@@ -3478,10 +3505,10 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="M20" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="10"/>
@@ -3506,28 +3533,28 @@
         <v>7</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E21"/>
       <c r="F21"/>
       <c r="M21" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" t="str">
         <f>M21&amp;" "&amp;O21&amp;IF(M22="",");",", ")</f>
         <v xml:space="preserve">gn_ta_id NUMERIC, </v>
       </c>
       <c r="U21" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="V21"/>
       <c r="W21" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X21" t="str">
         <f>U21&amp;" "&amp;W21&amp;IF(U22="",");",", ")</f>
@@ -3540,28 +3567,28 @@
         <v>9</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E22"/>
       <c r="F22"/>
       <c r="M22" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="str">
         <f>M22&amp;" "&amp;O22&amp;IF(M23="",");",", ")</f>
         <v>gn_won NUMERIC);</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="V22"/>
       <c r="W22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X22" s="31" t="str">
         <f t="shared" ref="X22:X24" si="11">U22&amp;" "&amp;W22&amp;IF(U23="",");",", ")</f>
@@ -3574,7 +3601,7 @@
         <v>10</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3583,11 +3610,11 @@
       <c r="F23"/>
       <c r="I23"/>
       <c r="U23" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="V23" s="31"/>
       <c r="W23" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X23" s="31" t="str">
         <f t="shared" si="11"/>
@@ -3600,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="AC23" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AD23" s="14"/>
     </row>
@@ -3621,11 +3648,11 @@
         <v>CREATE TABLE game_negative_kontra (</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V24"/>
       <c r="W24" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X24" s="31" t="str">
         <f t="shared" si="11"/>
@@ -3638,10 +3665,10 @@
       <c r="F25"/>
       <c r="I25"/>
       <c r="M25" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P25" t="str">
         <f>M25&amp;" "&amp;O25&amp;IF(M26="",");",", ")</f>
@@ -3654,10 +3681,10 @@
         <v>137</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD25" s="9"/>
     </row>
@@ -3666,10 +3693,10 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="M26" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" ref="P26:P28" si="12">M26&amp;" "&amp;O26&amp;IF(M27="",");",", ")</f>
@@ -3679,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AC26" s="2" t="s">
         <v>41</v>
@@ -3690,10 +3717,10 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="M27" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="12"/>
@@ -3706,7 +3733,7 @@
         <v>11</v>
       </c>
       <c r="AC27" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AD27" s="14"/>
     </row>
@@ -3715,10 +3742,10 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="M28" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="12"/>
@@ -3728,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="AB28" s="14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AC28" s="14" t="s">
         <v>92</v>
@@ -3773,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="M31" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" ref="P31:P32" si="13">M31&amp;" "&amp;O31&amp;IF(M32="",");",", ")</f>
@@ -3806,7 +3833,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="M32" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N32" s="16"/>
       <c r="O32" t="s">
@@ -3815,6 +3842,9 @@
       <c r="P32" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">gt_ga_id TEXT, </v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="AA32" s="4">
         <v>6</v>
@@ -3831,7 +3861,7 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="M33" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N33" s="16"/>
       <c r="O33" t="s">
@@ -3842,6 +3872,9 @@
         <v xml:space="preserve">gt_player_pl_id TEXT, </v>
       </c>
       <c r="R33"/>
+      <c r="U33" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="AA33" s="4">
         <v>7</v>
       </c>
@@ -3852,12 +3885,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="M34" s="27" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N34" s="16"/>
       <c r="O34" t="s">
@@ -3868,6 +3901,9 @@
         <v>gt_result TEXT);</v>
       </c>
       <c r="R34"/>
+      <c r="U34" s="26" t="s">
+        <v>154</v>
+      </c>
       <c r="AA34" s="4">
         <v>8</v>
       </c>
@@ -3893,7 +3929,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -3904,9 +3940,6 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="M37"/>
-      <c r="U37" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Z37" s="18" t="s">
         <v>144</v>
       </c>
@@ -3914,10 +3947,10 @@
         <v>142</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD37" s="9"/>
     </row>
@@ -3926,9 +3959,6 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="M38"/>
-      <c r="U38" s="25" t="s">
-        <v>97</v>
-      </c>
       <c r="AA38" s="4">
         <v>1</v>
       </c>
@@ -3939,22 +3969,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="M39"/>
-      <c r="U39" s="26" t="s">
-        <v>154</v>
-      </c>
       <c r="AA39" s="4">
         <v>2</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -3966,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AC40" s="2" t="s">
         <v>106</v>
@@ -3990,10 +4017,10 @@
         <v>143</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD42" s="9"/>
     </row>
@@ -4006,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AC43" s="2" t="s">
         <v>41</v>
@@ -4049,13 +4076,13 @@
         <v>153</v>
       </c>
       <c r="AA46" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD46" s="9"/>
     </row>
@@ -4067,11 +4094,11 @@
       <c r="Q47"/>
       <c r="R47"/>
       <c r="U47"/>
-      <c r="AA47" s="50">
+      <c r="AA47" s="47">
         <v>0</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AC47" s="2" t="s">
         <v>41</v>
@@ -4169,7 +4196,7 @@
         <v>77</v>
       </c>
       <c r="AB53" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AC53" s="9" t="s">
         <v>152</v>
@@ -4186,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -4574,7 +4601,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="36" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4727,10 +4754,10 @@
         <v>131</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE1" s="29" t="s">
         <v>125</v>
@@ -4757,7 +4784,7 @@
         <v>131</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AO1" s="5" t="s">
         <v>135</v>
@@ -4781,7 +4808,7 @@
         <v>131</v>
       </c>
       <c r="AW1" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>141</v>
@@ -4808,10 +4835,10 @@
         <v>131</v>
       </c>
       <c r="BG1" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BP1" s="31" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES"</f>
@@ -4835,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="30">
         <v>2</v>
@@ -4850,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K2" s="30">
         <v>4</v>
@@ -4868,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S2" s="30">
         <v>1</v>
@@ -4898,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH2" s="30" t="str">
         <f>VLOOKUP(D2,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
@@ -4918,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP2" s="30" t="str">
         <f>VLOOKUP(K2,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -4941,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="AX2" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AY2" s="30" t="str">
         <f>VLOOKUP(S2,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -4963,7 +4990,7 @@
       <c r="BF2" s="30">
         <v>1</v>
       </c>
-      <c r="BG2" s="46" t="str">
+      <c r="BG2" s="43" t="str">
         <f>VLOOKUP(AA2,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Punktesieger</v>
       </c>
@@ -4982,7 +5009,7 @@
         <f>"getPremiumDao().create(new Premium(tariffsetTarockBlockId, "&amp;AW2&amp;", """&amp;AX2&amp;""", PremiumType1."&amp;AY2&amp;", PremiumType2."&amp;AZ2&amp;", """&amp;BA2&amp;""", """&amp;BB2&amp;"""));"</f>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 1, "Pagat", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
       </c>
-      <c r="BN2" s="49" t="str">
+      <c r="BN2" s="46" t="str">
         <f t="shared" ref="BN2:BN9" si="0">"getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid."&amp;BG2&amp;", "&amp;BH2&amp;"));"</f>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
       </c>
@@ -5008,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D3" s="30">
         <v>1</v>
@@ -5023,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K3" s="30">
         <v>1</v>
@@ -5041,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S3" s="30">
         <v>1</v>
@@ -5071,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="AG3" s="31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AH3" s="30" t="str">
         <f>VLOOKUP(D3,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
@@ -5091,7 +5118,7 @@
         <v>2</v>
       </c>
       <c r="AO3" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP3" s="30" t="str">
         <f>VLOOKUP(K3,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -5114,7 +5141,7 @@
         <v>2</v>
       </c>
       <c r="AX3" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AY3" s="30" t="str">
         <f>VLOOKUP(S3,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -5136,7 +5163,7 @@
       <c r="BF3" s="30">
         <v>1</v>
       </c>
-      <c r="BG3" s="46" t="str">
+      <c r="BG3" s="43" t="str">
         <f>VLOOKUP(AA3,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Bürgermeister</v>
       </c>
@@ -5155,7 +5182,7 @@
         <f t="shared" ref="BM3:BM46" si="6">"getPremiumDao().create(new Premium(tariffsetTarockBlockId, "&amp;AW3&amp;", """&amp;AX3&amp;""", PremiumType1."&amp;AY3&amp;", PremiumType2."&amp;AZ3&amp;", """&amp;BA3&amp;""", """&amp;BB3&amp;"""));"</f>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 2, "Uhu", PremiumType1.Tarock, PremiumType2.Nothing, "20", "40"));</v>
       </c>
-      <c r="BN3" s="49" t="str">
+      <c r="BN3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
       </c>
@@ -5181,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
@@ -5196,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="30">
         <v>2</v>
@@ -5214,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S4" s="30">
         <v>1</v>
@@ -5244,7 +5271,7 @@
         <v>3</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH4" s="30" t="str">
         <f>VLOOKUP(D4,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
@@ -5264,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="AO4" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP4" s="30" t="str">
         <f>VLOOKUP(K4,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -5287,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="AX4" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AY4" s="30" t="str">
         <f>VLOOKUP(S4,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -5303,17 +5330,17 @@
       <c r="BB4" s="30">
         <v>60</v>
       </c>
-      <c r="BE4" s="47">
-        <v>3</v>
-      </c>
-      <c r="BF4" s="47">
+      <c r="BE4" s="44">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="44">
         <v>1</v>
       </c>
       <c r="BG4" s="34" t="str">
         <f>VLOOKUP(AA4,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Vorhand</v>
       </c>
-      <c r="BH4" s="48">
+      <c r="BH4" s="45">
         <v>2</v>
       </c>
       <c r="BK4" s="31" t="str">
@@ -5328,7 +5355,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 3, "Kakadu", PremiumType1.Tarock, PremiumType2.Nothing, "30", "60"));</v>
       </c>
-      <c r="BN4" s="48" t="str">
+      <c r="BN4" s="45" t="str">
         <f t="shared" si="0"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
       </c>
@@ -5354,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="30">
         <v>4</v>
@@ -5369,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K5" s="30">
         <v>4</v>
@@ -5387,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S5" s="30">
         <v>2</v>
@@ -5417,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH5" s="30" t="str">
         <f>VLOOKUP(D5,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
@@ -5437,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="AO5" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP5" s="30" t="str">
         <f>VLOOKUP(K5,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -5460,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="AX5" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY5" s="30" t="str">
         <f>VLOOKUP(S5,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -5482,7 +5509,7 @@
       <c r="BF5" s="30">
         <v>2</v>
       </c>
-      <c r="BG5" s="46" t="str">
+      <c r="BG5" s="43" t="str">
         <f>VLOOKUP(AA5,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Punktesieger</v>
       </c>
@@ -5501,7 +5528,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "König ultimo", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
-      <c r="BN5" s="49" t="str">
+      <c r="BN5" s="46" t="str">
         <f t="shared" si="0"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
       </c>
@@ -5527,7 +5554,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D6" s="30">
         <v>2</v>
@@ -5542,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K6" s="30">
         <v>4</v>
@@ -5590,7 +5617,7 @@
         <v>5</v>
       </c>
       <c r="AG6" s="31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AH6" s="30" t="str">
         <f>VLOOKUP(D6,'database 2.0'!$AA$7:$AC$11,2,FALSE)</f>
@@ -5610,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="AO6" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP6" s="30" t="str">
         <f>VLOOKUP(K6,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -5655,7 +5682,7 @@
       <c r="BF6" s="30">
         <v>2</v>
       </c>
-      <c r="BG6" s="46" t="str">
+      <c r="BG6" s="43" t="str">
         <f>VLOOKUP(AA6,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Bürgermeister</v>
       </c>
@@ -5674,7 +5701,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "Mondfang", PremiumType1.Tarock, PremiumType2.Mondfang, "10", "20"));</v>
       </c>
-      <c r="BN6" s="49" t="str">
+      <c r="BN6" s="46" t="str">
         <f t="shared" si="0"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
       </c>
@@ -5703,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -5721,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S7" s="30">
         <v>1</v>
@@ -5757,7 +5784,7 @@
         <v>6</v>
       </c>
       <c r="AO7" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP7" s="30" t="str">
         <f>VLOOKUP(K7,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -5780,7 +5807,7 @@
         <v>6</v>
       </c>
       <c r="AX7" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY7" s="30" t="str">
         <f>VLOOKUP(S7,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -5796,17 +5823,17 @@
       <c r="BB7" s="30">
         <v>20</v>
       </c>
-      <c r="BE7" s="47">
+      <c r="BE7" s="44">
         <v>6</v>
       </c>
-      <c r="BF7" s="47">
+      <c r="BF7" s="44">
         <v>2</v>
       </c>
       <c r="BG7" s="34" t="str">
         <f>VLOOKUP(AA7,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Vorhand</v>
       </c>
-      <c r="BH7" s="48">
+      <c r="BH7" s="45">
         <v>2</v>
       </c>
       <c r="BL7" s="31" t="str">
@@ -5817,7 +5844,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 6, "Trull", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
       </c>
-      <c r="BN7" s="48" t="str">
+      <c r="BN7" s="45" t="str">
         <f t="shared" si="0"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
       </c>
@@ -5842,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K8" s="30">
         <v>1</v>
@@ -5860,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S8" s="30">
         <v>2</v>
@@ -5896,7 +5923,7 @@
         <v>7</v>
       </c>
       <c r="AO8" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AP8" s="30" t="str">
         <f>VLOOKUP(K8,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -5919,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AX8" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AY8" s="30" t="str">
         <f>VLOOKUP(S8,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -5941,7 +5968,7 @@
       <c r="BF8" s="30">
         <v>3</v>
       </c>
-      <c r="BG8" s="46" t="str">
+      <c r="BG8" s="43" t="str">
         <f>VLOOKUP(AA8,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Punktesieger</v>
       </c>
@@ -5956,7 +5983,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 7, "4 Könige", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
-      <c r="BN8" s="49" t="str">
+      <c r="BN8" s="46" t="str">
         <f t="shared" si="0"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
       </c>
@@ -5999,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S9" s="30">
         <v>3</v>
@@ -6058,7 +6085,7 @@
         <v>8</v>
       </c>
       <c r="AX9" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY9" s="30" t="str">
         <f>VLOOKUP(S9,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -6080,7 +6107,7 @@
       <c r="BF9" s="30">
         <v>3</v>
       </c>
-      <c r="BG9" s="46" t="str">
+      <c r="BG9" s="43" t="str">
         <f>VLOOKUP(AA9,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Bürgermeister</v>
       </c>
@@ -6095,7 +6122,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "1. Sack (≥45/2)", PremiumType1.PunkteStiche, PremiumType2.Nothing, "10", "20"));</v>
       </c>
-      <c r="BN9" s="49" t="str">
+      <c r="BN9" s="46" t="str">
         <f t="shared" si="0"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
       </c>
@@ -6120,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K10" s="30">
         <v>3</v>
@@ -6138,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S10" s="30">
         <v>3</v>
@@ -6174,7 +6201,7 @@
         <v>9</v>
       </c>
       <c r="AO10" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AP10" s="30" t="str">
         <f>VLOOKUP(K10,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -6197,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="AX10" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AY10" s="30" t="str">
         <f>VLOOKUP(S10,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -6213,17 +6240,17 @@
       <c r="BB10" s="30">
         <v>40</v>
       </c>
-      <c r="BE10" s="47">
+      <c r="BE10" s="44">
         <v>9</v>
       </c>
-      <c r="BF10" s="47">
+      <c r="BF10" s="44">
         <v>3</v>
       </c>
       <c r="BG10" s="34" t="str">
         <f>VLOOKUP(AA10,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Vorhand</v>
       </c>
-      <c r="BH10" s="48">
+      <c r="BH10" s="45">
         <v>2</v>
       </c>
       <c r="BL10" s="31" t="str">
@@ -6234,7 +6261,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 9, "2. Sack (≥55/2)", PremiumType1.PunkteStiche, PremiumType2.Nothing, "20", "40"));</v>
       </c>
-      <c r="BN10" s="48" t="str">
+      <c r="BN10" s="45" t="str">
         <f>"getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid."&amp;BG10&amp;", "&amp;BH10&amp;"));"</f>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
       </c>
@@ -6286,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="V11" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>206</v>
       </c>
       <c r="Y11" s="30">
         <v>10</v>
@@ -6326,31 +6353,31 @@
       <c r="AR11" s="30">
         <v>40</v>
       </c>
-      <c r="AU11" s="47">
+      <c r="AU11" s="44">
         <v>10</v>
       </c>
-      <c r="AV11" s="47">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="47">
+      <c r="AV11" s="44">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="44">
         <v>10</v>
       </c>
-      <c r="AX11" s="48" t="s">
+      <c r="AX11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AY11" s="47" t="str">
+      <c r="AY11" s="44" t="str">
         <f>VLOOKUP(S11,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
         <v>PunkteStiche</v>
       </c>
-      <c r="AZ11" s="47" t="str">
+      <c r="AZ11" s="44" t="str">
         <f>VLOOKUP(T11,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
         <v>Nothing</v>
       </c>
-      <c r="BA11" s="47" t="s">
+      <c r="BA11" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB11" s="44" t="s">
         <v>205</v>
-      </c>
-      <c r="BB11" s="47" t="s">
-        <v>206</v>
       </c>
       <c r="BE11" s="30">
         <v>10</v>
@@ -6358,7 +6385,7 @@
       <c r="BF11" s="30">
         <v>4</v>
       </c>
-      <c r="BG11" s="46" t="str">
+      <c r="BG11" s="43" t="str">
         <f>VLOOKUP(AA11,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Punktesieger</v>
       </c>
@@ -6369,11 +6396,11 @@
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 10, "Dreier", TariffType1.Dreier, TariffType2.Nothing, 40));</v>
       </c>
-      <c r="BM11" s="48" t="str">
+      <c r="BM11" s="45" t="str">
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 10, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
       </c>
-      <c r="BN11" s="49" t="str">
+      <c r="BN11" s="46" t="str">
         <f t="shared" ref="BN11:BN16" si="7">"getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid."&amp;BG11&amp;", "&amp;BH11&amp;"));"</f>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
       </c>
@@ -6398,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K12" s="30">
         <v>4</v>
@@ -6416,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S12" s="30">
         <v>1</v>
@@ -6452,7 +6479,7 @@
         <v>11</v>
       </c>
       <c r="AO12" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP12" s="30" t="str">
         <f>VLOOKUP(K12,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -6475,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AX12" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AY12" s="30" t="str">
         <f>VLOOKUP(S12,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -6497,7 +6524,7 @@
       <c r="BF12" s="30">
         <v>4</v>
       </c>
-      <c r="BG12" s="46" t="str">
+      <c r="BG12" s="43" t="str">
         <f>VLOOKUP(AA12,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Bürgermeister</v>
       </c>
@@ -6512,7 +6539,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 1, "Pagat", PremiumType1.Tarock, PremiumType2.Nothing, "10", "20"));</v>
       </c>
-      <c r="BN12" s="49" t="str">
+      <c r="BN12" s="46" t="str">
         <f t="shared" si="7"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
       </c>
@@ -6537,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="30">
         <v>4</v>
@@ -6555,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S13" s="30">
         <v>1</v>
@@ -6591,7 +6618,7 @@
         <v>12</v>
       </c>
       <c r="AO13" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP13" s="30" t="str">
         <f>VLOOKUP(K13,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -6614,7 +6641,7 @@
         <v>2</v>
       </c>
       <c r="AX13" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AY13" s="30" t="str">
         <f>VLOOKUP(S13,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -6630,17 +6657,17 @@
       <c r="BB13" s="30">
         <v>40</v>
       </c>
-      <c r="BE13" s="47">
+      <c r="BE13" s="44">
         <v>12</v>
       </c>
-      <c r="BF13" s="47">
+      <c r="BF13" s="44">
         <v>4</v>
       </c>
       <c r="BG13" s="34" t="str">
         <f>VLOOKUP(AA13,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Vorhand</v>
       </c>
-      <c r="BH13" s="48">
+      <c r="BH13" s="45">
         <v>2</v>
       </c>
       <c r="BL13" s="31" t="str">
@@ -6651,7 +6678,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 2, "Uhu", PremiumType1.Tarock, PremiumType2.Nothing, "20", "40"));</v>
       </c>
-      <c r="BN13" s="48" t="str">
+      <c r="BN13" s="45" t="str">
         <f t="shared" si="7"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
       </c>
@@ -6676,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K14" s="30">
         <v>4</v>
@@ -6694,7 +6721,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S14" s="30">
         <v>1</v>
@@ -6730,7 +6757,7 @@
         <v>13</v>
       </c>
       <c r="AO14" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP14" s="30" t="str">
         <f>VLOOKUP(K14,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -6753,7 +6780,7 @@
         <v>3</v>
       </c>
       <c r="AX14" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AY14" s="30" t="str">
         <f>VLOOKUP(S14,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -6775,7 +6802,7 @@
       <c r="BF14" s="30">
         <v>5</v>
       </c>
-      <c r="BG14" s="46" t="str">
+      <c r="BG14" s="43" t="str">
         <f>VLOOKUP(AA14,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Punktesieger</v>
       </c>
@@ -6790,7 +6817,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 3, "Kakadu", PremiumType1.Tarock, PremiumType2.Nothing, "30", "60"));</v>
       </c>
-      <c r="BN14" s="49" t="str">
+      <c r="BN14" s="46" t="str">
         <f t="shared" si="7"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Punktesieger, 1));</v>
       </c>
@@ -6815,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" s="30">
         <v>3</v>
@@ -6833,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S15" s="30">
         <v>1</v>
@@ -6869,7 +6896,7 @@
         <v>14</v>
       </c>
       <c r="AO15" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AP15" s="30" t="str">
         <f>VLOOKUP(K15,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -6892,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="AX15" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AY15" s="30" t="str">
         <f>VLOOKUP(S15,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -6914,7 +6941,7 @@
       <c r="BF15" s="30">
         <v>5</v>
       </c>
-      <c r="BG15" s="46" t="str">
+      <c r="BG15" s="43" t="str">
         <f>VLOOKUP(AA15,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Bürgermeister</v>
       </c>
@@ -6929,7 +6956,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 4, "Quapil", PremiumType1.Tarock, PremiumType2.Nothing, "40", "80"));</v>
       </c>
-      <c r="BN15" s="49" t="str">
+      <c r="BN15" s="46" t="str">
         <f t="shared" si="7"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Bürgermeister, 2));</v>
       </c>
@@ -6954,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K16" s="30">
         <v>2</v>
@@ -6972,7 +6999,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S16" s="30">
         <v>2</v>
@@ -6998,27 +7025,27 @@
       <c r="AB16" s="31">
         <v>2</v>
       </c>
-      <c r="AL16" s="47">
+      <c r="AL16" s="44">
         <v>15</v>
       </c>
-      <c r="AM16" s="47">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="47">
+      <c r="AM16" s="44">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="44">
         <v>15</v>
       </c>
-      <c r="AO16" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP16" s="47" t="str">
+      <c r="AO16" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP16" s="44" t="str">
         <f>VLOOKUP(K16,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
         <v>Dreier</v>
       </c>
-      <c r="AQ16" s="47" t="str">
+      <c r="AQ16" s="44" t="str">
         <f>VLOOKUP(L16,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
         <v>Solo</v>
       </c>
-      <c r="AR16" s="47">
+      <c r="AR16" s="44">
         <v>80</v>
       </c>
       <c r="AU16" s="30">
@@ -7031,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="AX16" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY16" s="30" t="str">
         <f>VLOOKUP(S16,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7047,20 +7074,20 @@
       <c r="BB16" s="30">
         <v>20</v>
       </c>
-      <c r="BE16" s="47">
+      <c r="BE16" s="44">
         <v>15</v>
       </c>
-      <c r="BF16" s="47">
+      <c r="BF16" s="44">
         <v>5</v>
       </c>
       <c r="BG16" s="34" t="str">
         <f>VLOOKUP(AA16,'database 2.0'!$AA$2:$AB$4,2,FALSE)</f>
         <v>Vorhand</v>
       </c>
-      <c r="BH16" s="48">
-        <v>2</v>
-      </c>
-      <c r="BL16" s="48" t="str">
+      <c r="BH16" s="45">
+        <v>2</v>
+      </c>
+      <c r="BL16" s="45" t="str">
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 15, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 80));</v>
       </c>
@@ -7068,7 +7095,7 @@
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 5, "König ultimo", PremiumType1.Farbe, PremiumType2.Nothing, "10", "20"));</v>
       </c>
-      <c r="BN16" s="48" t="str">
+      <c r="BN16" s="45" t="str">
         <f t="shared" si="7"/>
         <v>getTrischakenDao().create(new Trischaken(tariffsetTarockBlockId, TrischakenQid.Vorhand, 2));</v>
       </c>
@@ -7093,7 +7120,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K17" s="30">
         <v>4</v>
@@ -7111,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S17" s="30">
         <v>1</v>
@@ -7136,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="AO17" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP17" s="30" t="str">
         <f>VLOOKUP(K17,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -7159,7 +7186,7 @@
         <v>6</v>
       </c>
       <c r="AX17" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY17" s="30" t="str">
         <f>VLOOKUP(S17,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7218,7 +7245,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S18" s="30">
         <v>2</v>
@@ -7266,7 +7293,7 @@
         <v>7</v>
       </c>
       <c r="AX18" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AY18" s="30" t="str">
         <f>VLOOKUP(S18,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7307,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K19" s="30">
         <v>2</v>
@@ -7334,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="V19" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="V19" s="30" t="s">
-        <v>206</v>
       </c>
       <c r="AC19" s="31"/>
       <c r="AL19" s="30">
@@ -7350,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="AO19" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP19" s="30" t="str">
         <f>VLOOKUP(K19,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -7363,37 +7390,37 @@
       <c r="AR19" s="30">
         <v>40</v>
       </c>
-      <c r="AU19" s="47">
+      <c r="AU19" s="44">
         <v>18</v>
       </c>
-      <c r="AV19" s="47">
-        <v>2</v>
-      </c>
-      <c r="AW19" s="47">
+      <c r="AV19" s="44">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="44">
         <v>8</v>
       </c>
-      <c r="AX19" s="48" t="s">
+      <c r="AX19" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AY19" s="47" t="str">
+      <c r="AY19" s="44" t="str">
         <f>VLOOKUP(S19,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
         <v>PunkteStiche</v>
       </c>
-      <c r="AZ19" s="47" t="str">
+      <c r="AZ19" s="44" t="str">
         <f>VLOOKUP(T19,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
         <v>Nothing</v>
       </c>
-      <c r="BA19" s="47" t="s">
+      <c r="BA19" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB19" s="44" t="s">
         <v>205</v>
-      </c>
-      <c r="BB19" s="47" t="s">
-        <v>206</v>
       </c>
       <c r="BL19" s="31" t="str">
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 3, "Sechserdreier", TariffType1.Dreier, TariffType2.Vorhand, 40));</v>
       </c>
-      <c r="BM19" s="48" t="str">
+      <c r="BM19" s="45" t="str">
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
       </c>
@@ -7414,7 +7441,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K20" s="30">
         <v>4</v>
@@ -7432,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S20" s="30">
         <v>1</v>
@@ -7457,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="AO20" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP20" s="30" t="str">
         <f>VLOOKUP(K20,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -7480,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="AX20" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AY20" s="30" t="str">
         <f>VLOOKUP(S20,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7521,7 +7548,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K21" s="30">
         <v>4</v>
@@ -7539,7 +7566,7 @@
         <v>3</v>
       </c>
       <c r="R21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S21" s="30">
         <v>1</v>
@@ -7564,7 +7591,7 @@
         <v>5</v>
       </c>
       <c r="AO21" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP21" s="30" t="str">
         <f>VLOOKUP(K21,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -7587,7 +7614,7 @@
         <v>2</v>
       </c>
       <c r="AX21" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AY21" s="30" t="str">
         <f>VLOOKUP(S21,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7628,7 +7655,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K22" s="30">
         <v>1</v>
@@ -7646,7 +7673,7 @@
         <v>3</v>
       </c>
       <c r="R22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S22" s="30">
         <v>1</v>
@@ -7671,7 +7698,7 @@
         <v>6</v>
       </c>
       <c r="AO22" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP22" s="30" t="str">
         <f>VLOOKUP(K22,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -7694,7 +7721,7 @@
         <v>3</v>
       </c>
       <c r="AX22" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AY22" s="30" t="str">
         <f>VLOOKUP(S22,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7753,7 +7780,7 @@
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S23" s="30">
         <v>1</v>
@@ -7801,7 +7828,7 @@
         <v>4</v>
       </c>
       <c r="AX23" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AY23" s="30" t="str">
         <f>VLOOKUP(S23,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7842,7 +7869,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K24" s="30">
         <v>4</v>
@@ -7860,7 +7887,7 @@
         <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S24" s="30">
         <v>2</v>
@@ -7885,7 +7912,7 @@
         <v>8</v>
       </c>
       <c r="AO24" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP24" s="30" t="str">
         <f>VLOOKUP(K24,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -7908,7 +7935,7 @@
         <v>5</v>
       </c>
       <c r="AX24" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY24" s="30" t="str">
         <f>VLOOKUP(S24,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -7967,7 +7994,7 @@
         <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S25" s="30">
         <v>1</v>
@@ -8015,7 +8042,7 @@
         <v>6</v>
       </c>
       <c r="AX25" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY25" s="30" t="str">
         <f>VLOOKUP(S25,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8056,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K26" s="30">
         <v>3</v>
@@ -8074,7 +8101,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S26" s="30">
         <v>2</v>
@@ -8099,7 +8126,7 @@
         <v>10</v>
       </c>
       <c r="AO26" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AP26" s="30" t="str">
         <f>VLOOKUP(K26,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -8122,7 +8149,7 @@
         <v>7</v>
       </c>
       <c r="AX26" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AY26" s="30" t="str">
         <f>VLOOKUP(S26,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8190,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="U27" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="V27" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="V27" s="30" t="s">
-        <v>206</v>
       </c>
       <c r="AC27" s="31"/>
       <c r="AL27" s="30">
@@ -8219,37 +8246,37 @@
       <c r="AR27" s="30">
         <v>50</v>
       </c>
-      <c r="AU27" s="47">
+      <c r="AU27" s="44">
         <v>26</v>
       </c>
-      <c r="AV27" s="47">
-        <v>3</v>
-      </c>
-      <c r="AW27" s="47">
+      <c r="AV27" s="44">
+        <v>3</v>
+      </c>
+      <c r="AW27" s="44">
         <v>8</v>
       </c>
-      <c r="AX27" s="48" t="s">
+      <c r="AX27" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AY27" s="47" t="str">
+      <c r="AY27" s="44" t="str">
         <f>VLOOKUP(S27,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
         <v>PunkteStiche</v>
       </c>
-      <c r="AZ27" s="47" t="str">
+      <c r="AZ27" s="44" t="str">
         <f>VLOOKUP(T27,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
         <v>Nothing</v>
       </c>
-      <c r="BA27" s="47" t="s">
+      <c r="BA27" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB27" s="44" t="s">
         <v>205</v>
-      </c>
-      <c r="BB27" s="47" t="s">
-        <v>206</v>
       </c>
       <c r="BL27" s="31" t="str">
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 11, "Dreier", TariffType1.Dreier, TariffType2.Nothing, 50));</v>
       </c>
-      <c r="BM27" s="48" t="str">
+      <c r="BM27" s="45" t="str">
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
       </c>
@@ -8270,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K28" s="30">
         <v>4</v>
@@ -8288,7 +8315,7 @@
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S28" s="30">
         <v>1</v>
@@ -8313,7 +8340,7 @@
         <v>12</v>
       </c>
       <c r="AO28" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP28" s="30" t="str">
         <f>VLOOKUP(K28,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -8336,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="AX28" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AY28" s="30" t="str">
         <f>VLOOKUP(S28,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8377,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K29" s="30">
         <v>4</v>
@@ -8395,7 +8422,7 @@
         <v>4</v>
       </c>
       <c r="R29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S29" s="30">
         <v>1</v>
@@ -8420,7 +8447,7 @@
         <v>13</v>
       </c>
       <c r="AO29" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP29" s="30" t="str">
         <f>VLOOKUP(K29,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -8443,7 +8470,7 @@
         <v>2</v>
       </c>
       <c r="AX29" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AY29" s="30" t="str">
         <f>VLOOKUP(S29,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8502,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="R30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S30" s="30">
         <v>1</v>
@@ -8550,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="AX30" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AY30" s="30" t="str">
         <f>VLOOKUP(S30,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8591,7 +8618,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K31" s="30">
         <v>4</v>
@@ -8609,7 +8636,7 @@
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S31" s="30">
         <v>1</v>
@@ -8634,7 +8661,7 @@
         <v>15</v>
       </c>
       <c r="AO31" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP31" s="30" t="str">
         <f>VLOOKUP(K31,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -8657,7 +8684,7 @@
         <v>4</v>
       </c>
       <c r="AX31" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AY31" s="30" t="str">
         <f>VLOOKUP(S31,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8716,7 +8743,7 @@
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S32" s="30">
         <v>2</v>
@@ -8764,7 +8791,7 @@
         <v>5</v>
       </c>
       <c r="AX32" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY32" s="30" t="str">
         <f>VLOOKUP(S32,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8805,7 +8832,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K33" s="30">
         <v>3</v>
@@ -8848,7 +8875,7 @@
         <v>17</v>
       </c>
       <c r="AO33" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AP33" s="30" t="str">
         <f>VLOOKUP(K33,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -8912,7 +8939,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K34" s="30">
         <v>2</v>
@@ -8930,7 +8957,7 @@
         <v>4</v>
       </c>
       <c r="R34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S34" s="30">
         <v>1</v>
@@ -8945,27 +8972,27 @@
         <v>20</v>
       </c>
       <c r="AC34" s="31"/>
-      <c r="AL34" s="47">
+      <c r="AL34" s="44">
         <v>33</v>
       </c>
-      <c r="AM34" s="47">
-        <v>2</v>
-      </c>
-      <c r="AN34" s="47">
+      <c r="AM34" s="44">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="44">
         <v>18</v>
       </c>
-      <c r="AO34" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP34" s="47" t="str">
+      <c r="AO34" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP34" s="44" t="str">
         <f>VLOOKUP(K34,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
         <v>Dreier</v>
       </c>
-      <c r="AQ34" s="47" t="str">
+      <c r="AQ34" s="44" t="str">
         <f>VLOOKUP(L34,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
         <v>Solo</v>
       </c>
-      <c r="AR34" s="47">
+      <c r="AR34" s="44">
         <v>100</v>
       </c>
       <c r="AU34" s="30">
@@ -8978,7 +9005,7 @@
         <v>7</v>
       </c>
       <c r="AX34" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY34" s="30" t="str">
         <f>VLOOKUP(S34,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -8994,7 +9021,7 @@
       <c r="BB34" s="30">
         <v>20</v>
       </c>
-      <c r="BL34" s="48" t="str">
+      <c r="BL34" s="45" t="str">
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 18, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 100));</v>
       </c>
@@ -9019,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K35" s="30">
         <v>4</v>
@@ -9037,7 +9064,7 @@
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S35" s="30">
         <v>2</v>
@@ -9062,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="AO35" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP35" s="30" t="str">
         <f>VLOOKUP(K35,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -9085,7 +9112,7 @@
         <v>8</v>
       </c>
       <c r="AX35" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AY35" s="30" t="str">
         <f>VLOOKUP(S35,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9144,7 +9171,7 @@
         <v>4</v>
       </c>
       <c r="R36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S36" s="30">
         <v>3</v>
@@ -9192,7 +9219,7 @@
         <v>9</v>
       </c>
       <c r="AX36" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY36" s="30" t="str">
         <f>VLOOKUP(S36,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9233,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K37" s="30">
         <v>2</v>
@@ -9251,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="R37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S37" s="30">
         <v>3</v>
@@ -9276,7 +9303,7 @@
         <v>3</v>
       </c>
       <c r="AO37" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP37" s="30" t="str">
         <f>VLOOKUP(K37,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -9299,7 +9326,7 @@
         <v>10</v>
       </c>
       <c r="AX37" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AY37" s="30" t="str">
         <f>VLOOKUP(S37,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9340,7 +9367,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K38" s="30">
         <v>4</v>
@@ -9383,7 +9410,7 @@
         <v>4</v>
       </c>
       <c r="AO38" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP38" s="30" t="str">
         <f>VLOOKUP(K38,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -9396,37 +9423,37 @@
       <c r="AR38" s="30">
         <v>20</v>
       </c>
-      <c r="AU38" s="47">
+      <c r="AU38" s="44">
         <v>37</v>
       </c>
-      <c r="AV38" s="47">
-        <v>4</v>
-      </c>
-      <c r="AW38" s="47">
+      <c r="AV38" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW38" s="44">
         <v>11</v>
       </c>
-      <c r="AX38" s="48" t="s">
+      <c r="AX38" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AY38" s="47" t="str">
+      <c r="AY38" s="44" t="str">
         <f>VLOOKUP(S38,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
         <v>PunkteStiche</v>
       </c>
-      <c r="AZ38" s="47" t="str">
+      <c r="AZ38" s="44" t="str">
         <f>VLOOKUP(T38,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
         <v>Nothing</v>
       </c>
-      <c r="BA38" s="47">
+      <c r="BA38" s="44">
         <v>150</v>
       </c>
-      <c r="BB38" s="47">
+      <c r="BB38" s="44">
         <v>300</v>
       </c>
       <c r="BL38" s="31" t="str">
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 4, "Piccolo", TariffType1.Negativ, TariffType2.PiccoloZwiccolo, 20));</v>
       </c>
-      <c r="BM38" s="48" t="str">
+      <c r="BM38" s="45" t="str">
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 11, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "150", "300"));</v>
       </c>
@@ -9447,7 +9474,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K39" s="30">
         <v>4</v>
@@ -9465,7 +9492,7 @@
         <v>5</v>
       </c>
       <c r="R39" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S39" s="30">
         <v>1</v>
@@ -9490,7 +9517,7 @@
         <v>5</v>
       </c>
       <c r="AO39" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP39" s="30" t="str">
         <f>VLOOKUP(K39,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -9513,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="AX39" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AY39" s="30" t="str">
         <f>VLOOKUP(S39,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9554,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K40" s="30">
         <v>1</v>
@@ -9572,7 +9599,7 @@
         <v>5</v>
       </c>
       <c r="R40" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S40" s="30">
         <v>1</v>
@@ -9597,7 +9624,7 @@
         <v>6</v>
       </c>
       <c r="AO40" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP40" s="30" t="str">
         <f>VLOOKUP(K40,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -9620,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="AX40" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AY40" s="30" t="str">
         <f>VLOOKUP(S40,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9661,7 +9688,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K41" s="30">
         <v>1</v>
@@ -9679,7 +9706,7 @@
         <v>5</v>
       </c>
       <c r="R41" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S41" s="30">
         <v>1</v>
@@ -9704,7 +9731,7 @@
         <v>7</v>
       </c>
       <c r="AO41" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AP41" s="30" t="str">
         <f>VLOOKUP(K41,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -9727,7 +9754,7 @@
         <v>3</v>
       </c>
       <c r="AX41" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AY41" s="30" t="str">
         <f>VLOOKUP(S41,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9786,7 +9813,7 @@
         <v>5</v>
       </c>
       <c r="R42" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S42" s="30">
         <v>1</v>
@@ -9834,7 +9861,7 @@
         <v>4</v>
       </c>
       <c r="AX42" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AY42" s="30" t="str">
         <f>VLOOKUP(S42,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9875,7 +9902,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K43" s="30">
         <v>3</v>
@@ -9893,7 +9920,7 @@
         <v>5</v>
       </c>
       <c r="R43" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S43" s="30">
         <v>2</v>
@@ -9918,7 +9945,7 @@
         <v>9</v>
       </c>
       <c r="AO43" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AP43" s="30" t="str">
         <f>VLOOKUP(K43,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -9941,7 +9968,7 @@
         <v>5</v>
       </c>
       <c r="AX43" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY43" s="30" t="str">
         <f>VLOOKUP(S43,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -9982,7 +10009,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" s="30">
         <v>4</v>
@@ -10000,7 +10027,7 @@
         <v>5</v>
       </c>
       <c r="R44" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S44" s="30">
         <v>1</v>
@@ -10025,7 +10052,7 @@
         <v>10</v>
       </c>
       <c r="AO44" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP44" s="30" t="str">
         <f>VLOOKUP(K44,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10048,7 +10075,7 @@
         <v>6</v>
       </c>
       <c r="AX44" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY44" s="30" t="str">
         <f>VLOOKUP(S44,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -10089,7 +10116,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K45" s="30">
         <v>4</v>
@@ -10107,7 +10134,7 @@
         <v>5</v>
       </c>
       <c r="R45" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S45" s="30">
         <v>2</v>
@@ -10132,7 +10159,7 @@
         <v>11</v>
       </c>
       <c r="AO45" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP45" s="30" t="str">
         <f>VLOOKUP(K45,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10155,7 +10182,7 @@
         <v>7</v>
       </c>
       <c r="AX45" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AY45" s="30" t="str">
         <f>VLOOKUP(S45,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
@@ -10196,7 +10223,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K46" s="30">
         <v>2</v>
@@ -10223,66 +10250,66 @@
         <v>0</v>
       </c>
       <c r="U46" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="V46" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="V46" s="30" t="s">
-        <v>206</v>
-      </c>
       <c r="AC46" s="31"/>
-      <c r="AL46" s="47">
+      <c r="AL46" s="44">
         <v>45</v>
       </c>
-      <c r="AM46" s="47">
-        <v>3</v>
-      </c>
-      <c r="AN46" s="47">
+      <c r="AM46" s="44">
+        <v>3</v>
+      </c>
+      <c r="AN46" s="44">
         <v>12</v>
       </c>
-      <c r="AO46" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP46" s="47" t="str">
+      <c r="AO46" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP46" s="44" t="str">
         <f>VLOOKUP(K46,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
         <v>Dreier</v>
       </c>
-      <c r="AQ46" s="47" t="str">
+      <c r="AQ46" s="44" t="str">
         <f>VLOOKUP(L46,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
         <v>Solo</v>
       </c>
-      <c r="AR46" s="47">
+      <c r="AR46" s="44">
         <v>80</v>
       </c>
-      <c r="AU46" s="47">
+      <c r="AU46" s="44">
         <v>45</v>
       </c>
-      <c r="AV46" s="47">
+      <c r="AV46" s="44">
         <v>5</v>
       </c>
-      <c r="AW46" s="47">
+      <c r="AW46" s="44">
         <v>8</v>
       </c>
-      <c r="AX46" s="48" t="s">
+      <c r="AX46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AY46" s="47" t="str">
+      <c r="AY46" s="44" t="str">
         <f>VLOOKUP(S46,'database 2.0'!$AA$38:$AB$40,2,FALSE)</f>
         <v>PunkteStiche</v>
       </c>
-      <c r="AZ46" s="47" t="str">
+      <c r="AZ46" s="44" t="str">
         <f>VLOOKUP(T46,'database 2.0'!$AA$43:$AB$44,2,FALSE)</f>
         <v>Nothing</v>
       </c>
-      <c r="BA46" s="47" t="s">
+      <c r="BA46" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB46" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="BB46" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL46" s="48" t="str">
+      <c r="BL46" s="45" t="str">
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 12, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 80));</v>
       </c>
-      <c r="BM46" s="48" t="str">
+      <c r="BM46" s="45" t="str">
         <f t="shared" si="6"/>
         <v>getPremiumDao().create(new Premium(tariffsetTarockBlockId, 8, "Valat", PremiumType1.PunkteStiche, PremiumType2.Nothing, "x4", "x8"));</v>
       </c>
@@ -10356,7 +10383,7 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K48" s="30">
         <v>4</v>
@@ -10379,7 +10406,7 @@
         <v>2</v>
       </c>
       <c r="AO48" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP48" s="30" t="str">
         <f>VLOOKUP(K48,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10409,7 +10436,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K49" s="30">
         <v>2</v>
@@ -10432,7 +10459,7 @@
         <v>3</v>
       </c>
       <c r="AO49" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP49" s="30" t="str">
         <f>VLOOKUP(K49,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10462,7 +10489,7 @@
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K50" s="30">
         <v>4</v>
@@ -10485,7 +10512,7 @@
         <v>4</v>
       </c>
       <c r="AO50" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP50" s="30" t="str">
         <f>VLOOKUP(K50,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10515,7 +10542,7 @@
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K51" s="30">
         <v>1</v>
@@ -10538,7 +10565,7 @@
         <v>5</v>
       </c>
       <c r="AO51" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP51" s="30" t="str">
         <f>VLOOKUP(K51,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10568,7 +10595,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K52" s="30">
         <v>1</v>
@@ -10591,7 +10618,7 @@
         <v>6</v>
       </c>
       <c r="AO52" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AP52" s="30" t="str">
         <f>VLOOKUP(K52,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10621,7 +10648,7 @@
         <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K53" s="30">
         <v>4</v>
@@ -10644,7 +10671,7 @@
         <v>7</v>
       </c>
       <c r="AO53" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP53" s="30" t="str">
         <f>VLOOKUP(K53,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10674,7 +10701,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K54" s="30">
         <v>3</v>
@@ -10697,7 +10724,7 @@
         <v>8</v>
       </c>
       <c r="AO54" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AP54" s="30" t="str">
         <f>VLOOKUP(K54,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10780,7 +10807,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K56" s="30">
         <v>4</v>
@@ -10803,7 +10830,7 @@
         <v>10</v>
       </c>
       <c r="AO56" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP56" s="30" t="str">
         <f>VLOOKUP(K56,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10833,7 +10860,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K57" s="30">
         <v>4</v>
@@ -10856,7 +10883,7 @@
         <v>11</v>
       </c>
       <c r="AO57" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP57" s="30" t="str">
         <f>VLOOKUP(K57,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10886,7 +10913,7 @@
         <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K58" s="30">
         <v>4</v>
@@ -10909,7 +10936,7 @@
         <v>12</v>
       </c>
       <c r="AO58" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP58" s="30" t="str">
         <f>VLOOKUP(K58,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10939,7 +10966,7 @@
         <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K59" s="30">
         <v>3</v>
@@ -10962,7 +10989,7 @@
         <v>13</v>
       </c>
       <c r="AO59" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AP59" s="30" t="str">
         <f>VLOOKUP(K59,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -10992,7 +11019,7 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K60" s="30">
         <v>2</v>
@@ -11005,30 +11032,30 @@
       </c>
       <c r="W60" s="31"/>
       <c r="AC60" s="31"/>
-      <c r="AL60" s="47">
+      <c r="AL60" s="44">
         <v>59</v>
       </c>
-      <c r="AM60" s="47">
-        <v>4</v>
-      </c>
-      <c r="AN60" s="47">
+      <c r="AM60" s="44">
+        <v>4</v>
+      </c>
+      <c r="AN60" s="44">
         <v>14</v>
       </c>
-      <c r="AO60" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP60" s="47" t="str">
+      <c r="AO60" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP60" s="44" t="str">
         <f>VLOOKUP(K60,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
         <v>Dreier</v>
       </c>
-      <c r="AQ60" s="47" t="str">
+      <c r="AQ60" s="44" t="str">
         <f>VLOOKUP(L60,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
         <v>Solo</v>
       </c>
-      <c r="AR60" s="47">
+      <c r="AR60" s="44">
         <v>100</v>
       </c>
-      <c r="BL60" s="48" t="str">
+      <c r="BL60" s="45" t="str">
         <f t="shared" si="5"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 14, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 100));</v>
       </c>
@@ -11045,7 +11072,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K61" s="30">
         <v>4</v>
@@ -11068,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="AO61" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP61" s="30" t="str">
         <f>VLOOKUP(K61,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11151,7 +11178,7 @@
         <v>5</v>
       </c>
       <c r="J63" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K63" s="30">
         <v>2</v>
@@ -11174,7 +11201,7 @@
         <v>3</v>
       </c>
       <c r="AO63" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP63" s="30" t="str">
         <f>VLOOKUP(K63,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11204,7 +11231,7 @@
         <v>5</v>
       </c>
       <c r="J64" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K64" s="30">
         <v>4</v>
@@ -11227,7 +11254,7 @@
         <v>4</v>
       </c>
       <c r="AO64" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP64" s="30" t="str">
         <f>VLOOKUP(K64,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11257,7 +11284,7 @@
         <v>5</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K65" s="30">
         <v>4</v>
@@ -11280,7 +11307,7 @@
         <v>5</v>
       </c>
       <c r="AO65" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP65" s="30" t="str">
         <f>VLOOKUP(K65,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11310,7 +11337,7 @@
         <v>5</v>
       </c>
       <c r="J66" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K66" s="30">
         <v>4</v>
@@ -11333,7 +11360,7 @@
         <v>6</v>
       </c>
       <c r="AO66" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AP66" s="30" t="str">
         <f>VLOOKUP(K66,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11363,7 +11390,7 @@
         <v>5</v>
       </c>
       <c r="J67" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K67" s="30">
         <v>1</v>
@@ -11386,7 +11413,7 @@
         <v>7</v>
       </c>
       <c r="AO67" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP67" s="30" t="str">
         <f>VLOOKUP(K67,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11469,7 +11496,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K69" s="30">
         <v>4</v>
@@ -11492,7 +11519,7 @@
         <v>9</v>
       </c>
       <c r="AO69" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP69" s="30" t="str">
         <f>VLOOKUP(K69,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11575,7 +11602,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K71" s="30">
         <v>3</v>
@@ -11598,7 +11625,7 @@
         <v>11</v>
       </c>
       <c r="AO71" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AP71" s="30" t="str">
         <f>VLOOKUP(K71,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11681,7 +11708,7 @@
         <v>5</v>
       </c>
       <c r="J73" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K73" s="30">
         <v>4</v>
@@ -11704,7 +11731,7 @@
         <v>13</v>
       </c>
       <c r="AO73" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP73" s="30" t="str">
         <f>VLOOKUP(K73,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11787,7 +11814,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K75" s="30">
         <v>4</v>
@@ -11810,7 +11837,7 @@
         <v>15</v>
       </c>
       <c r="AO75" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP75" s="30" t="str">
         <f>VLOOKUP(K75,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11893,7 +11920,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K77" s="30">
         <v>3</v>
@@ -11916,7 +11943,7 @@
         <v>17</v>
       </c>
       <c r="AO77" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AP77" s="30" t="str">
         <f>VLOOKUP(K77,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
@@ -11946,7 +11973,7 @@
         <v>5</v>
       </c>
       <c r="J78" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K78" s="30">
         <v>2</v>
@@ -11959,30 +11986,30 @@
       </c>
       <c r="W78" s="31"/>
       <c r="AC78" s="31"/>
-      <c r="AL78" s="47">
+      <c r="AL78" s="44">
         <v>77</v>
       </c>
-      <c r="AM78" s="47">
+      <c r="AM78" s="44">
         <v>5</v>
       </c>
-      <c r="AN78" s="47">
+      <c r="AN78" s="44">
         <v>18</v>
       </c>
-      <c r="AO78" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP78" s="47" t="str">
+      <c r="AO78" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP78" s="44" t="str">
         <f>VLOOKUP(K78,'database 2.0'!$AA$20:$AB$23,2,FALSE)</f>
         <v>Dreier</v>
       </c>
-      <c r="AQ78" s="47" t="str">
+      <c r="AQ78" s="44" t="str">
         <f>VLOOKUP(L78,'database 2.0'!$AA$26:$AB$35,2,FALSE)</f>
         <v>Solo</v>
       </c>
-      <c r="AR78" s="47">
+      <c r="AR78" s="44">
         <v>100</v>
       </c>
-      <c r="BL78" s="48" t="str">
+      <c r="BL78" s="45" t="str">
         <f t="shared" si="10"/>
         <v>getTariffDao().create(new Tariff(tariffsetTarockBlockId, 18, "Solodreier", TariffType1.Dreier, TariffType2.Solo, 100));</v>
       </c>
@@ -11999,53 +12026,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <sheetPr codeName="Tabelle5"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="7.140625" style="32" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="4.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.28515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="D1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="36">
         <v>1</v>
@@ -12059,25 +12087,25 @@
       <c r="F2" s="36">
         <v>2</v>
       </c>
-      <c r="K2" s="33">
+      <c r="J2" s="68">
         <v>0</v>
       </c>
-      <c r="L2" s="33">
-        <v>1</v>
-      </c>
-      <c r="M2" s="33">
-        <v>2</v>
-      </c>
-      <c r="N2" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="68">
+        <v>1</v>
+      </c>
+      <c r="L2" s="68">
+        <v>2</v>
+      </c>
+      <c r="M2" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="36">
         <v>1</v>
@@ -12091,31 +12119,31 @@
       <c r="F3" s="36">
         <v>2</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="42">
+      <c r="I3" s="69">
         <v>0</v>
       </c>
+      <c r="J3" s="33" t="s">
+        <v>237</v>
+      </c>
       <c r="K3" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="36">
         <v>1</v>
@@ -12129,25 +12157,25 @@
       <c r="F4" s="36">
         <v>2</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="42">
-        <v>1</v>
+      <c r="H4" s="70"/>
+      <c r="I4" s="69">
+        <v>1</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>237</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+        <v>237</v>
+      </c>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
       <c r="B5" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="37">
         <v>-3</v>
@@ -12162,12 +12190,12 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="36">
         <v>3</v>
@@ -12182,9 +12210,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="36">
         <v>0</v>
@@ -12199,9 +12227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="36">
         <v>0</v>
@@ -12216,10 +12244,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
       <c r="B9" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="37">
         <v>-3</v>
@@ -12234,12 +12262,12 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="36">
         <v>2</v>
@@ -12254,9 +12282,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="36">
         <v>2</v>
@@ -12271,9 +12299,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -12288,10 +12316,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
       <c r="B13" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="37">
         <v>-6</v>
@@ -12306,12 +12334,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="36">
         <v>6</v>
@@ -12326,12 +12354,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" s="36">
         <v>0</v>
@@ -12346,9 +12374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="36">
         <v>0</v>
@@ -12364,9 +12392,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="37">
         <v>-6</v>
@@ -12383,10 +12411,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="36">
         <v>3</v>
@@ -12403,10 +12431,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="36">
         <v>3</v>
@@ -12422,8 +12450,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="B20" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="36">
         <v>-3</v>
@@ -12439,9 +12470,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="37">
         <v>-3</v>
@@ -12458,10 +12489,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="36">
         <v>3</v>
@@ -12478,10 +12509,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="36">
         <v>3</v>
@@ -12497,8 +12528,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="B24" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="36">
         <v>-3</v>
@@ -12514,9 +12548,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="37">
         <v>-3</v>
@@ -12533,10 +12567,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="36">
         <v>3</v>
@@ -12553,10 +12587,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="36">
         <v>3</v>
@@ -12573,7 +12607,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="36">
         <v>0</v>
@@ -12589,9 +12623,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="37">
         <v>-6</v>
@@ -12611,7 +12645,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36">
@@ -12626,7 +12660,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36">
@@ -12641,7 +12675,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36">
@@ -12655,9 +12689,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37">
@@ -12672,10 +12706,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="36">
         <v>2</v>
@@ -12688,7 +12722,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35" s="36">
         <v>2</v>
@@ -12701,7 +12735,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="36">
         <v>2</v>
@@ -12713,9 +12747,9 @@
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="37">
         <v>-6</v>
@@ -12727,66 +12761,67 @@
       <c r="F37" s="37"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
-        <v>214</v>
+      <c r="A38" s="42" t="s">
+        <v>213</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
-        <v>213</v>
+      <c r="A39" s="42" t="s">
+        <v>212</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
         <v>211</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
-        <v>212</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="39" t="s">
-        <v>211</v>
-      </c>
       <c r="E40" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -13118,10 +13153,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13134,105 +13170,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61" t="s">
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="52" t="s">
+      <c r="B3" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="B4" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="62"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="63" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="50" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="55" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="54" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -13245,7 +13281,8 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/TarockBlock_database.xlsx
+++ b/docs/TarockBlock_database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="11" r:id="rId1"/>
@@ -1397,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1550,6 +1550,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3490,7 +3493,7 @@
         <v>&lt;item&gt;Rekontra (x4)&lt;/item&gt;</v>
       </c>
       <c r="AG15" s="2" t="str">
-        <f t="shared" ref="AG15:AG18" si="14">"&lt;item&gt;"&amp;AA15&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="AG15:AG17" si="14">"&lt;item&gt;"&amp;AA15&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;4&lt;/item&gt;</v>
       </c>
       <c r="AI15" s="2" t="str">
@@ -3721,7 +3724,7 @@
         <v>&lt;item&gt;Dreierspiel&lt;/item&gt;</v>
       </c>
       <c r="AG21" s="2" t="str">
-        <f t="shared" ref="AG21:AG24" si="17">"&lt;item&gt;"&amp;AA21&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="AG21:AG23" si="17">"&lt;item&gt;"&amp;AA21&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;2&lt;/item&gt;</v>
       </c>
     </row>
@@ -4248,7 +4251,7 @@
         <v>&lt;item&gt;Farbe&lt;/item&gt;</v>
       </c>
       <c r="AG39" s="2" t="str">
-        <f t="shared" ref="AG39:AG42" si="24">"&lt;item&gt;"&amp;AA39&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="AG39:AG40" si="24">"&lt;item&gt;"&amp;AA39&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;2&lt;/item&gt;</v>
       </c>
     </row>
@@ -4352,11 +4355,11 @@
         <v>14</v>
       </c>
       <c r="AF44" s="2" t="str">
-        <f t="shared" ref="AF44:AF45" si="25">"&lt;item&gt;"&amp;AC44&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="AF44" si="25">"&lt;item&gt;"&amp;AC44&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Mondfang&lt;/item&gt;</v>
       </c>
       <c r="AG44" s="2" t="str">
-        <f t="shared" ref="AG44:AG47" si="26">"&lt;item&gt;"&amp;AA44&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="AG44" si="26">"&lt;item&gt;"&amp;AA44&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;1&lt;/item&gt;</v>
       </c>
     </row>
@@ -4994,7 +4997,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:BL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11961,12 +11964,12 @@
       <c r="F1" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12019,7 +12022,7 @@
       <c r="F3" s="35">
         <v>2</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="55" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="52">
@@ -12034,7 +12037,7 @@
       <c r="L3" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="56" t="s">
         <v>233</v>
       </c>
     </row>
@@ -12057,7 +12060,7 @@
       <c r="F4" s="35">
         <v>2</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="52">
         <v>1</v>
       </c>
@@ -12070,7 +12073,7 @@
       <c r="L4" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
@@ -12729,9 +12732,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13044,6 +13047,52 @@
       <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="54">
+        <f t="shared" ref="B11:D11" si="3">$F$11/$F$2*B2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="54">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="54">
+        <f>$F$11/$F$2*E2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F11" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <f t="shared" ref="B12:C12" si="4">$E$12/$E$2*B2</f>
+        <v>93.75</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="D12" s="6">
+        <f>$E$12/$E$2*D2</f>
+        <v>187.5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>250</v>
+      </c>
+      <c r="F12" s="6">
+        <f>$E$12/$E$2*F2</f>
+        <v>375</v>
+      </c>
+      <c r="G12" s="6">
+        <f>$E$12/$E$2*G2</f>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -13070,18 +13119,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57"/>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="45" t="s">
         <v>308</v>
       </c>
@@ -13091,7 +13140,7 @@
       <c r="D2" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
@@ -13128,16 +13177,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="68" t="s">
         <v>175</v>
       </c>
       <c r="E5" s="48" t="s">
@@ -13145,28 +13194,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="48" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="47" t="s">
         <v>176</v>
       </c>
